--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +423,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G2" t="str">
-        <v>7分钟前</v>
+        <v>20分钟前</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G3" t="str">
-        <v>7分钟前</v>
+        <v>20分钟前</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>7分钟前</v>
+        <v>20分钟前</v>
       </c>
     </row>
     <row r="5">
@@ -492,18 +492,18 @@
         <v>统招本科</v>
       </c>
       <c r="G5" t="str">
-        <v>14分钟前</v>
+        <v>28分钟前</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>资深安卓开发</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>15-20k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D6" t="str">
         <v>郑州</v>
@@ -512,44 +512,44 @@
         <v>3-5年</v>
       </c>
       <c r="F6" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>14分钟前</v>
+        <v>10分钟前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>安卓端工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B7" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C7" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G7" t="str">
-        <v>54分钟前</v>
+        <v>28分钟前</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>7-10k·13薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D8" t="str">
         <v>郑州-金水区</v>
@@ -558,145 +558,145 @@
         <v>3-5年</v>
       </c>
       <c r="F8" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G8" t="str">
-        <v>17分钟前</v>
+        <v>16小时前</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>7-10k·13薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E9" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F9" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G9" t="str">
-        <v>17分钟前</v>
+        <v>17小时前</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>9-12k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C10" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E10" t="str">
         <v>1-3年</v>
       </c>
       <c r="F10" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G10" t="str">
-        <v>前天</v>
+        <v>20小时前</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android开发工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>5-7k·12薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C11" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>知名软件公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E11" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F11" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G11" t="str">
-        <v>2020-10-16</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>6-8k·12薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>某龙科教网络公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E12" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G12" t="str">
-        <v>前天</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>7-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C13" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>迈特望</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E13" t="str">
         <v>3-5年</v>
       </c>
       <c r="F13" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G13" t="str">
-        <v>前天</v>
+        <v>19小时前</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>安卓逆向工程师</v>
+        <v>Android应用开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>8-20k·12薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C14" t="str">
-        <v>安徽省刀锋网络科技有限公司</v>
+        <v>某大型互联网上市公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E14" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F14" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G14" t="str">
         <v>前天</v>
@@ -704,278 +704,278 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android开发工程师(J11235)</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B15" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C15" t="str">
-        <v>高新兴科技集团</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F15" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G15" t="str">
-        <v>2020-10-15</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B16" t="str">
-        <v>6-9k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D16" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E16" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G16" t="str">
-        <v>2020-10-14</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C17" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F17" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G17" t="str">
-        <v>2020-10-14</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android开发</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B18" t="str">
-        <v>5-8k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D18" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E18" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F18" t="str">
         <v>统招本科</v>
       </c>
       <c r="G18" t="str">
-        <v>2020-10-13</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>高级android开发工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B19" t="str">
-        <v>9-13k·13薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C19" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E19" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F19" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G19" t="str">
-        <v>2020-10-12</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android开发</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>8-12k·14薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C20" t="str">
-        <v>正商地产</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E20" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F20" t="str">
         <v>统招本科</v>
       </c>
       <c r="G20" t="str">
-        <v>2020-10-11</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android应用开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>7-11k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>绿建生态环境集团有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E21" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F21" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G21" t="str">
-        <v>2020-10-06</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>安卓工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>8-13k·13薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>绿建生态环境集团有限公司</v>
       </c>
       <c r="D22" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E22" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F22" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G22" t="str">
-        <v>2020-09-28</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>8-12k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C23" t="str">
-        <v>正商地产</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E23" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F23" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G23" t="str">
-        <v>2020-09-27</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android开发</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>5-9k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C24" t="str">
-        <v>新乡市中誉鼎力软件科技股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E24" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F24" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G24" t="str">
-        <v>2020-09-25</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C25" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D25" t="str">
         <v>郑州</v>
       </c>
       <c r="E25" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F25" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G25" t="str">
-        <v>2020-09-25</v>
+        <v>2020-11-18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>10-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C26" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E26" t="str">
         <v>1-3年</v>
       </c>
       <c r="F26" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G26" t="str">
-        <v>2020-09-23</v>
+        <v>2020-11-17</v>
       </c>
     </row>
     <row r="27">
@@ -983,128 +983,128 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>6-10k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C27" t="str">
-        <v>鑫安利科技</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E27" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F27" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>2020-09-22</v>
+        <v>2020-11-17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>安卓开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C28" t="str">
-        <v>思维自动化</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D28" t="str">
         <v>郑州</v>
       </c>
       <c r="E28" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F28" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G28" t="str">
-        <v>2020-09-22</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C29" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>河南紫马网络科技有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E29" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F29" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>一个月前</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Android开发工程师岗</v>
+        <v>APP开发工程师（ios、安卓方向）</v>
       </c>
       <c r="B30" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C30" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>某地质矿产局下属单位</v>
       </c>
       <c r="D30" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E30" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F30" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G30" t="str">
-        <v>一个月前</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D31" t="str">
         <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F31" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>一个月前</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>11-20k·13薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E32" t="str">
         <v>3-5年</v>
@@ -1113,165 +1113,165 @@
         <v>本科及以上</v>
       </c>
       <c r="G32" t="str">
-        <v>一个月前</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android开发</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>6-10k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C33" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D33" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E33" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G33" t="str">
-        <v>一个月前</v>
+        <v>2020-11-12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>7.Android developer 安卓开发者</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>26-40k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C34" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E34" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F34" t="str">
         <v>学历不限</v>
       </c>
       <c r="G34" t="str">
-        <v>一个月前</v>
+        <v>2020-11-12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android Developer</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>26-40k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C35" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>牧原食品股份有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E35" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F35" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G35" t="str">
-        <v>一个月前</v>
+        <v>2020-11-11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>android系统开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C36" t="str">
-        <v>超图软件</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F36" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G36" t="str">
-        <v>一个月前</v>
+        <v>2020-11-10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>安卓/Android</v>
+        <v>android</v>
       </c>
       <c r="B37" t="str">
-        <v>12-20k·13薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C37" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E37" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F37" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G37" t="str">
-        <v>一个月前</v>
+        <v>2020-11-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android</v>
+        <v>安卓开发软件工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C38" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>正星科技</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F38" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G38" t="str">
-        <v>一个月前</v>
+        <v>2020-11-03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B39" t="str">
-        <v>7-14k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C39" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F39" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G39" t="str">
         <v>一个月前</v>
@@ -1279,16 +1279,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C40" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E40" t="str">
         <v>3-5年</v>
@@ -1302,22 +1302,22 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B41" t="str">
-        <v>10-15k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C41" t="str">
-        <v>杭州玛亚科技有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F41" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G41" t="str">
         <v>一个月前</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B42" t="str">
-        <v>10-20k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C42" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E42" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F42" t="str">
         <v>统招本科</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B43" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C43" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E43" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F43" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G43" t="str">
         <v>一个月前</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B44" t="str">
-        <v>6k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C44" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E44" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F44" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G44" t="str">
         <v>一个月前</v>
@@ -1394,19 +1394,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B45" t="str">
-        <v>8-16k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C45" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>新乡市中誉鼎力软件科技股份有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F45" t="str">
         <v>大专及以上</v>
@@ -1420,19 +1420,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F46" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G46" t="str">
         <v>一个月前</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B47" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C47" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E47" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F47" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G47" t="str">
         <v>一个月前</v>
@@ -1466,16 +1466,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>5-10k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E48" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F48" t="str">
         <v>本科及以上</v>
@@ -1486,16 +1486,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B49" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E49" t="str">
         <v>3-5年</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>Android开发</v>
       </c>
       <c r="B50" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C50" t="str">
-        <v>汉克时代</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E50" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F50" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G50" t="str">
         <v>一个月前</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>7.Android developer 安卓开发者</v>
       </c>
       <c r="B51" t="str">
-        <v>14-18k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>三门峡崤云信息服务股份有限公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F51" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G51" t="str">
         <v>一个月前</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android Developer</v>
       </c>
       <c r="B52" t="str">
-        <v>10-15k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D52" t="str">
         <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F52" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G52" t="str">
         <v>一个月前</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B53" t="str">
-        <v>20-40k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>京东</v>
+        <v>超图软件</v>
       </c>
       <c r="D53" t="str">
         <v>郑州</v>
       </c>
       <c r="E53" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F53" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>安卓/Android</v>
       </c>
       <c r="B54" t="str">
-        <v>4-8k·12薪</v>
+        <v>12-20k·13薪</v>
       </c>
       <c r="C54" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>浩鲸新智能科技股份有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E54" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F54" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G54" t="str">
         <v>一个月前</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B55" t="str">
-        <v>4-8k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C55" t="str">
-        <v>深圳比特耐特信息技术股份有限公司</v>
+        <v>浩鲸新智能科技股份有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E55" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G55" t="str">
         <v>一个月前</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>6-9k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E56" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F56" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G56" t="str">
         <v>一个月前</v>
@@ -1673,13 +1673,13 @@
         <v>Android</v>
       </c>
       <c r="B57" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C57" t="str">
-        <v>河南相府房地产经纪有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E57" t="str">
         <v>3-5年</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>杭州玛亚科技有限公司</v>
       </c>
       <c r="D58" t="str">
         <v>郑州</v>
       </c>
       <c r="E58" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F58" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G58" t="str">
         <v>一个月前</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android逆向工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C59" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>牧原食品股份有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F59" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G59" t="str">
         <v>一个月前</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>14-18k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E60" t="str">
         <v>3-5年</v>
       </c>
       <c r="F60" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G60" t="str">
         <v>一个月前</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android工程师</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B61" t="str">
-        <v>8-12k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C61" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E61" t="str">
         <v>1-3年</v>
       </c>
       <c r="F61" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G61" t="str">
         <v>一个月前</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>8-12k·13薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E62" t="str">
         <v>1-3年</v>
       </c>
       <c r="F62" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G62" t="str">
         <v>一个月前</v>
@@ -1808,22 +1808,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C63" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D63" t="str">
         <v>郑州</v>
       </c>
       <c r="E63" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F63" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G63" t="str">
         <v>一个月前</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>8-11k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D64" t="str">
         <v>郑州</v>
       </c>
       <c r="E64" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G64" t="str">
         <v>一个月前</v>
@@ -1854,22 +1854,22 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>5-10k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C65" t="str">
-        <v>华英农业</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E65" t="str">
         <v>1-3年</v>
       </c>
       <c r="F65" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G65" t="str">
         <v>一个月前</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C66" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E66" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F66" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G66" t="str">
         <v>一个月前</v>
@@ -1900,19 +1900,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B67" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>汉克时代</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E67" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F67" t="str">
         <v>本科及以上</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B68" t="str">
-        <v>10-15k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>三门峡崤云信息服务股份有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E68" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F68" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G68" t="str">
         <v>一个月前</v>
@@ -1946,13 +1946,13 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B69" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D69" t="str">
         <v>郑州</v>
@@ -1961,7 +1961,7 @@
         <v>3-5年</v>
       </c>
       <c r="F69" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G69" t="str">
         <v>一个月前</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>8-10k·12薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>京东</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E70" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F70" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G70" t="str">
         <v>一个月前</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B71" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D71" t="str">
         <v>郑州</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>6-8k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C72" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E72" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F72" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G72" t="str">
         <v>一个月前</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android开发</v>
+        <v>Android</v>
       </c>
       <c r="B73" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E73" t="str">
         <v>1-3年</v>
       </c>
       <c r="F73" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G73" t="str">
         <v>一个月前</v>
@@ -2061,19 +2061,19 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android开发</v>
+        <v>Android</v>
       </c>
       <c r="B74" t="str">
-        <v>7-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C74" t="str">
-        <v>网道咨询</v>
+        <v>河南相府房地产经纪有限公司</v>
       </c>
       <c r="D74" t="str">
         <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F74" t="str">
         <v>大专及以上</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B75" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C75" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D75" t="str">
         <v>郑州</v>
       </c>
       <c r="E75" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G75" t="str">
         <v>一个月前</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>6-13k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D76" t="str">
         <v>郑州-二七区</v>
       </c>
       <c r="E76" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F76" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G76" t="str">
         <v>一个月前</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>8-12k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E77" t="str">
         <v>3-5年</v>
       </c>
       <c r="F77" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G77" t="str">
         <v>一个月前</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android开发工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>华英农业</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E78" t="str">
         <v>1-3年</v>
       </c>
       <c r="F78" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G78" t="str">
         <v>一个月前</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C79" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E79" t="str">
         <v>1-3年</v>
       </c>
       <c r="F79" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G79" t="str">
         <v>一个月前</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B80" t="str">
-        <v>7-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F80" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G80" t="str">
         <v>一个月前</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B81" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E81" t="str">
         <v>1-3年</v>
       </c>
       <c r="F81" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G81" t="str">
         <v>一个月前</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B82" t="str">
-        <v>4-9k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E82" t="str">
         <v>1-3年</v>
       </c>
       <c r="F82" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G82" t="str">
         <v>一个月前</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android讲师</v>
+        <v>Android</v>
       </c>
       <c r="B83" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
@@ -2283,7 +2283,7 @@
         <v>1-3年</v>
       </c>
       <c r="F83" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G83" t="str">
         <v>一个月前</v>
@@ -2291,19 +2291,19 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B84" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C84" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F84" t="str">
         <v>本科及以上</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E85" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F85" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G85" t="str">
         <v>一个月前</v>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>修齐治平</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D86" t="str">
         <v>郑州</v>
@@ -2352,7 +2352,7 @@
         <v>3-5年</v>
       </c>
       <c r="F86" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G86" t="str">
         <v>一个月前</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C87" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-国基路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E87" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F87" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G87" t="str">
         <v>一个月前</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>安卓开发</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C88" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E88" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F88" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G88" t="str">
         <v>一个月前</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>安卓开发</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>12-20k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E89" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F89" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G89" t="str">
         <v>一个月前</v>
@@ -2429,16 +2429,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>安卓开发</v>
+        <v>android开发</v>
       </c>
       <c r="B90" t="str">
-        <v>5-8k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E90" t="str">
         <v>1-3年</v>
@@ -2452,19 +2452,19 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>安卓讲师</v>
+        <v>android开发</v>
       </c>
       <c r="B91" t="str">
-        <v>6-12k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
       </c>
       <c r="E91" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F91" t="str">
         <v>大专及以上</v>
@@ -2475,13 +2475,13 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>6-7k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D92" t="str">
         <v>郑州</v>
@@ -2490,7 +2490,7 @@
         <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G92" t="str">
         <v>一个月前</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>安卓工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E93" t="str">
         <v>3-5年</v>
       </c>
       <c r="F93" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G93" t="str">
         <v>一个月前</v>
@@ -2521,16 +2521,16 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E94" t="str">
         <v>3-5年</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>7-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E95" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F95" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G95" t="str">
         <v>一个月前</v>
@@ -2567,19 +2567,19 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>8-12k·14薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>蓝信科技</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
       </c>
       <c r="E96" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F96" t="str">
         <v>本科及以上</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E97" t="str">
         <v>3-5年</v>
@@ -2613,16 +2613,16 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>7-9k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>蓓安科仪(北京)技术有限公司</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E98" t="str">
         <v>1-3年</v>
@@ -2636,19 +2636,19 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>8-13k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>东方通信</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E99" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F99" t="str">
         <v>本科及以上</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>安卓开发工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B100" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C100" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F100" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G100" t="str">
         <v>一个月前</v>
@@ -2682,19 +2682,19 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>3-8k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F101" t="str">
         <v>本科及以上</v>
@@ -2705,19 +2705,19 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>5-7k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
       </c>
       <c r="E102" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F102" t="str">
         <v>本科及以上</v>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>安卓开发（双休）</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>6-9k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D103" t="str">
         <v>郑州</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>8-15k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-国基路</v>
       </c>
       <c r="E104" t="str">
         <v>3-5年</v>
       </c>
       <c r="F104" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G104" t="str">
         <v>一个月前</v>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C105" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D105" t="str">
         <v>郑州-金水区</v>
@@ -2789,7 +2789,7 @@
         <v>3-5年</v>
       </c>
       <c r="F105" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G105" t="str">
         <v>一个月前</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>安卓app开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B106" t="str">
-        <v>3-8k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>浩鲸新智能科技股份有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F106" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G106" t="str">
         <v>一个月前</v>
@@ -2820,16 +2820,16 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>安卓开发偏客户端方向</v>
+        <v>安卓开发</v>
       </c>
       <c r="B107" t="str">
         <v>5-8k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>河南省教育网有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E107" t="str">
         <v>1-3年</v>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C108" t="str">
         <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E108" t="str">
         <v>1-3年</v>
@@ -2866,19 +2866,19 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>安卓开发软件工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>6-8k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>浩鲸新智能科技股份有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E109" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F109" t="str">
         <v>本科及以上</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州</v>
       </c>
       <c r="E110" t="str">
         <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G110" t="str">
         <v>一个月前</v>
@@ -2912,384 +2912,384 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>测试工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B111" t="str">
         <v>6-12k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E111" t="str">
         <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G111" t="str">
-        <v>54分钟前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>APP运营主管/经理</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>10-18k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>鑫安利科技</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F112" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G112" t="str">
-        <v>前天</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>移动前端开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>9-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>思维自动化</v>
       </c>
       <c r="D113" t="str">
         <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F113" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G113" t="str">
-        <v>2020-10-15</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>图像算法</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>15-30k·13薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>安徽省刀锋网络科技有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E114" t="str">
         <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G114" t="str">
-        <v>前天</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B115" t="str">
-        <v>10-20k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>速游</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E115" t="str">
-        <v>一年以下</v>
+        <v>3-5年</v>
       </c>
       <c r="F115" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G115" t="str">
-        <v>前天</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>25-50k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C116" t="str">
-        <v>国内知名车企+新能源汽车</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州,武汉,上海</v>
+        <v>郑州</v>
       </c>
       <c r="E116" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F116" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G116" t="str">
-        <v>2020-10-16</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>移动端产品副总监/产品专家</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>25-35k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>某知名网络科技有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E117" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F117" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G117" t="str">
-        <v>2020-10-16</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>产品经理</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>8-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>郑州小魔兽电子商务有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E118" t="str">
         <v>3-5年</v>
       </c>
       <c r="F118" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G118" t="str">
-        <v>2020-10-15</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>架构师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E119" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F119" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G119" t="str">
-        <v>2020-10-15</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>智能技术开发主管</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>面议</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>蓓安科仪(北京)技术有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>10年以上</v>
+        <v>1-3年</v>
       </c>
       <c r="F120" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G120" t="str">
-        <v>2020-10-15</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>移动端资深产品经理 校招</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>安徽省刀锋网络科技有限公司</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F121" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G121" t="str">
-        <v>2020-10-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>ios开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>6-8k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>北京车易网科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E122" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F122" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G122" t="str">
-        <v>2020-10-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>系统架构师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>15-25k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C123" t="str">
-        <v>河南油田工程咨询股份有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F123" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G123" t="str">
-        <v>2020-10-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>系统测试工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>5-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>河南油田工程咨询股份有限公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D124" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E124" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F124" t="str">
-        <v>硕士及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G124" t="str">
-        <v>2020-10-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>7-10k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C125" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E125" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F125" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G125" t="str">
-        <v>2020-10-12</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>web前端开发工程师</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B126" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C126" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F126" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G126" t="str">
-        <v>2020-10-10</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>前端开发工程师</v>
+        <v>安卓开发偏客户端方向</v>
       </c>
       <c r="B127" t="str">
-        <v>6-10k·13薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南省教育网有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E127" t="str">
         <v>1-3年</v>
@@ -3298,159 +3298,159 @@
         <v>大专及以上</v>
       </c>
       <c r="G127" t="str">
-        <v>2020-10-10</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B128" t="str">
-        <v>8-12k·13薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C128" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F128" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G128" t="str">
-        <v>2020-10-10</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>C++开发工程师中级</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C129" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F129" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G129" t="str">
-        <v>2020-10-10</v>
+        <v>45分钟前</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>ui</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>6-11k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C130" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E130" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F130" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G130" t="str">
-        <v>2020-10-09</v>
+        <v>20分钟前</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Java开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C131" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E131" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F131" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G131" t="str">
-        <v>2020-10-08</v>
+        <v>20分钟前</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>前端工程师</v>
+        <v>软件工程师 (智能座舱架构方向)</v>
       </c>
       <c r="B132" t="str">
-        <v>8-13k·13薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>精益达</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F132" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G132" t="str">
-        <v>2020-09-28</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>移动端开发工程师</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>8-17k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C133" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E133" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G133" t="str">
-        <v>2020-09-23</v>
+        <v>20分钟前</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C134" t="str">
-        <v>中原期货</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E134" t="str">
         <v>3-5年</v>
@@ -3459,366 +3459,366 @@
         <v>本科及以上</v>
       </c>
       <c r="G134" t="str">
-        <v>2020-09-29</v>
+        <v>45分钟前</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>中级JAVA开发</v>
+        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
       </c>
       <c r="B135" t="str">
-        <v>10-15k·12薪</v>
+        <v>25-50k·12薪</v>
       </c>
       <c r="C135" t="str">
-        <v>正商地产</v>
+        <v>国内知名车企+新能源汽车</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州,武汉,上海</v>
       </c>
       <c r="E135" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F135" t="str">
         <v>统招本科</v>
       </c>
       <c r="G135" t="str">
-        <v>2020-09-28</v>
+        <v>21分钟前</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>技术总监</v>
       </c>
       <c r="B136" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C136" t="str">
-        <v>上海埃林哲软件系统股份有限公司</v>
+        <v>欣宜嘉</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E136" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F136" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G136" t="str">
-        <v>2020-09-27</v>
+        <v>18小时前</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>移动前端开发工程师</v>
+        <v>技术总监</v>
       </c>
       <c r="B137" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C137" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>欣宜嘉</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E137" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F137" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G137" t="str">
-        <v>一个月前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B138" t="str">
-        <v>6-12k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C138" t="str">
-        <v>新开普电子</v>
+        <v>安徽省刀锋网络科技有限公司</v>
       </c>
       <c r="D138" t="str">
         <v>郑州</v>
       </c>
       <c r="E138" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F138" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G138" t="str">
-        <v>一个月前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>手机软件开发工程师</v>
+        <v>流媒体系统架构师</v>
       </c>
       <c r="B139" t="str">
-        <v>6-7k·12薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>某龙科教网络公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E139" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F139" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G139" t="str">
-        <v>一个月前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>app开发工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>8-12k·12薪</v>
+        <v>12-16k·12薪</v>
       </c>
       <c r="C140" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>绿建生态环境集团有限公司</v>
       </c>
       <c r="D140" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E140" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F140" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G140" t="str">
-        <v>一个月前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>集团总部-开发工程师（移动端）</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>15-25k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C141" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E141" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F141" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G141" t="str">
-        <v>一个月前</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C142" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E142" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F142" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G142" t="str">
-        <v>一个月前</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>ASO优化师</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B143" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C143" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E143" t="str">
         <v>3-5年</v>
       </c>
       <c r="F143" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G143" t="str">
-        <v>一个月前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>app运营主管</v>
+        <v>系统架构师</v>
       </c>
       <c r="B144" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C144" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E144" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F144" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G144" t="str">
-        <v>一个月前</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>移动开发工程师</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>10-17k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C145" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E145" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F145" t="str">
-        <v>统招本科</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G145" t="str">
-        <v>一个月前</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>软件工程师</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B146" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C146" t="str">
-        <v>郑州卓安</v>
+        <v>速游</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E146" t="str">
-        <v>1-3年</v>
+        <v>一年以下</v>
       </c>
       <c r="F146" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G146" t="str">
-        <v>一个月前</v>
+        <v>2020-11-21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>java开发</v>
+        <v>流媒体系统架构师</v>
       </c>
       <c r="B147" t="str">
-        <v>5-8k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C147" t="str">
-        <v>郑州卓安</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D147" t="str">
         <v>郑州</v>
       </c>
       <c r="E147" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F147" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G147" t="str">
-        <v>一个月前</v>
+        <v>2020-11-20</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>移动开发工程师</v>
+        <v>ui视觉设计师</v>
       </c>
       <c r="B148" t="str">
-        <v>8-13k·12薪</v>
+        <v>20-40k·13薪</v>
       </c>
       <c r="C148" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>国内知名客车公司</v>
       </c>
       <c r="D148" t="str">
         <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F148" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G148" t="str">
-        <v>一个月前</v>
+        <v>2020-11-18</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>软件测试工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B149" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C149" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>郑州小魔兽电子商务有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E149" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F149" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G149" t="str">
-        <v>一个月前</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>APP工程师</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B150" t="str">
-        <v>10-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C150" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>安徽省刀锋网络科技有限公司</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E150" t="str">
         <v>经验不限</v>
@@ -3827,116 +3827,116 @@
         <v>本科及以上</v>
       </c>
       <c r="G150" t="str">
-        <v>一个月前</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Java开发工程师</v>
+        <v>JAVA（全栈）后台工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C151" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>某地质矿产局下属单位</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E151" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F151" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G151" t="str">
-        <v>2020-09-23</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>APP推广</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B152" t="str">
-        <v>5-10k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C152" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E152" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F152" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G152" t="str">
-        <v>一个月前</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>cocos2dx开发</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B153" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C153" t="str">
-        <v>北京捷迅佳音科技有限公司郑州分公司</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
       </c>
       <c r="F153" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G153" t="str">
-        <v>一个月前</v>
+        <v>2020-11-11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>应用层开发工程师</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B154" t="str">
-        <v>10-20k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C154" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>中原期货</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E154" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F154" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>一个月前</v>
+        <v>2020-11-10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>高级前端讲师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>15-30k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C155" t="str">
-        <v>北京千锋互联科技</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D155" t="str">
         <v>郑州</v>
       </c>
       <c r="E155" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F155" t="str">
         <v>大专及以上</v>
@@ -3947,42 +3947,42 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>移动平台测试工程师</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C156" t="str">
-        <v>环球卓越网</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E156" t="str">
         <v>3-5年</v>
       </c>
       <c r="F156" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G156" t="str">
-        <v>一个月前</v>
+        <v>2020-11-05</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>app推广经理</v>
+        <v>前端工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C157" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E157" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F157" t="str">
         <v>大专及以上</v>
@@ -3993,42 +3993,42 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B158" t="str">
-        <v>6-10k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C158" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E158" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F158" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G158" t="str">
-        <v>一个月前</v>
+        <v>2020-11-04</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>ui设计师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>4-8k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E159" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F159" t="str">
         <v>大专及以上</v>
@@ -4039,13 +4039,13 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C160" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D160" t="str">
         <v>郑州</v>
@@ -4054,50 +4054,50 @@
         <v>3-5年</v>
       </c>
       <c r="F160" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G160" t="str">
-        <v>2020-09-22</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>移动端资深产品经理（大牛带队+五险一金+年终奖+丰富福利+双休）</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>安徽省刀锋网络科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E161" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F161" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G161" t="str">
-        <v>2020-09-21</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>FAE现场工程师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C162" t="str">
-        <v>广东九联科技股份有限公司</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E162" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F162" t="str">
         <v>大专及以上</v>
@@ -4108,13 +4108,13 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B163" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>信大捷安</v>
+        <v>正星科技</v>
       </c>
       <c r="D163" t="str">
         <v>郑州</v>
@@ -4126,24 +4126,24 @@
         <v>本科及以上</v>
       </c>
       <c r="G163" t="str">
-        <v>一个月前</v>
+        <v>2020-11-03</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>移动端资深产品经理</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>安徽省刀锋网络科技有限公司</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E164" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F164" t="str">
         <v>本科及以上</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>java开发工程师</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B165" t="str">
-        <v>8-13k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C165" t="str">
-        <v>河南飙风信息科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E165" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F165" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G165" t="str">
         <v>一个月前</v>
@@ -4177,16 +4177,16 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B166" t="str">
-        <v>13-25k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C166" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E166" t="str">
         <v>3-5年</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>8-15k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E167" t="str">
         <v>5-10年</v>
       </c>
       <c r="F167" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G167" t="str">
         <v>一个月前</v>
@@ -4223,13 +4223,13 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>UI设计师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>盛世生态环境股份有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D168" t="str">
         <v>郑州</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Mobile Application Developer</v>
+        <v>java开发</v>
       </c>
       <c r="B169" t="str">
-        <v>26-40k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D169" t="str">
         <v>郑州</v>
       </c>
       <c r="E169" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F169" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G169" t="str">
         <v>一个月前</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Senior System Developer 资深系统工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B170" t="str">
-        <v>26-40k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D170" t="str">
         <v>郑州</v>
       </c>
       <c r="E170" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F170" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G170" t="str">
         <v>一个月前</v>
@@ -4292,19 +4292,19 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>java开发工程师助理</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B171" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>河南海融软件有限公司</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E171" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F171" t="str">
         <v>大专及以上</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Java</v>
+        <v>APP工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>20-30k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>河南海融软件有限公司</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E172" t="str">
         <v>经验不限</v>
       </c>
       <c r="F172" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G172" t="str">
         <v>一个月前</v>
@@ -4338,22 +4338,22 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>高级产品经理</v>
+        <v>APP推广</v>
       </c>
       <c r="B173" t="str">
-        <v>15-25k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C173" t="str">
-        <v>安徽省刀锋网络科技有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E173" t="str">
         <v>经验不限</v>
       </c>
       <c r="F173" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G173" t="str">
         <v>一个月前</v>
@@ -4361,16 +4361,16 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>商务助理</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>河南准澳网络科技有限公司</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E174" t="str">
         <v>1-3年</v>
@@ -4384,22 +4384,22 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B175" t="str">
-        <v>13-18k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C175" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E175" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F175" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G175" t="str">
         <v>一个月前</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>产品经理</v>
+        <v>app推广经理</v>
       </c>
       <c r="B176" t="str">
-        <v>7-12k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>完美数联(杭州)科技有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E176" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F176" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G176" t="str">
         <v>一个月前</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>UI高级设计师</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B177" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D177" t="str">
         <v>郑州</v>
       </c>
       <c r="E177" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F177" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G177" t="str">
         <v>一个月前</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>嵌入式软件工程师（新三板上市公司）</v>
+        <v>ui设计师</v>
       </c>
       <c r="B178" t="str">
-        <v>10-20k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>郑州恩普特科技股份有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E178" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F178" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G178" t="str">
         <v>一个月前</v>
@@ -4476,85 +4476,85 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>产品经理</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E179" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F179" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G179" t="str">
-        <v>一个月前</v>
+        <v>2020-10-30</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>维护工程师</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B180" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E180" t="str">
         <v>3-5年</v>
       </c>
       <c r="F180" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G180" t="str">
-        <v>一个月前</v>
+        <v>2020-10-30</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>维护助理工程师</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B181" t="str">
-        <v>3-5k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E181" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F181" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G181" t="str">
-        <v>一个月前</v>
+        <v>2020-10-28</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>iOS开发工程师</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B182" t="str">
-        <v>14-20k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E182" t="str">
         <v>3-5年</v>
@@ -4568,22 +4568,22 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>软件开发</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B183" t="str">
-        <v>15-21k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D183" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F183" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G183" t="str">
         <v>一个月前</v>
@@ -4591,22 +4591,22 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>移动开发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B184" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C184" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>郑州XX公司</v>
       </c>
       <c r="D184" t="str">
         <v>郑州</v>
       </c>
       <c r="E184" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F184" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G184" t="str">
         <v>一个月前</v>
@@ -4614,19 +4614,19 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>移动端开发工程师</v>
+        <v>架构师</v>
       </c>
       <c r="B185" t="str">
-        <v>15-25k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>中原银行</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E185" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F185" t="str">
         <v>本科及以上</v>
@@ -4637,13 +4637,13 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>软件外包业务经理</v>
+        <v>ui</v>
       </c>
       <c r="B186" t="str">
-        <v>8-16k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C186" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D186" t="str">
         <v>郑州</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>产品经理</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B187" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>新开普电子</v>
+        <v>正商地产</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E187" t="str">
         <v>3-5年</v>
       </c>
       <c r="F187" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G187" t="str">
         <v>一个月前</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>产品经理</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B188" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C188" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>埃林哲</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E188" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F188" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G188" t="str">
         <v>一个月前</v>
@@ -4706,19 +4706,19 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>驻场安服工程师-郑州(J12532)</v>
+        <v>FAE现场工程师</v>
       </c>
       <c r="B189" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C189" t="str">
-        <v>绿盟科技集团股份有限公司</v>
+        <v>广东九联科技股份有限公司</v>
       </c>
       <c r="D189" t="str">
         <v>郑州</v>
       </c>
       <c r="E189" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F189" t="str">
         <v>大专及以上</v>
@@ -4729,19 +4729,19 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>软件研发总监</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B190" t="str">
-        <v>20-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>河南博联慧绿科技集团有限公司</v>
+        <v>信大捷安</v>
       </c>
       <c r="D190" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E190" t="str">
-        <v>10年以上</v>
+        <v>5-10年</v>
       </c>
       <c r="F190" t="str">
         <v>本科及以上</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B191" t="str">
-        <v>10-15k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C191" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E191" t="str">
         <v>3-5年</v>
       </c>
       <c r="F191" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G191" t="str">
         <v>一个月前</v>
@@ -4775,13 +4775,13 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>测试工程师</v>
+        <v>Mobile Application Developer</v>
       </c>
       <c r="B192" t="str">
-        <v>6-12k·14薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D192" t="str">
         <v>郑州</v>
@@ -4790,7 +4790,7 @@
         <v>5-10年</v>
       </c>
       <c r="F192" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G192" t="str">
         <v>一个月前</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>游戏特效设计师</v>
+        <v>Senior System Developer 资深系统工程师</v>
       </c>
       <c r="B193" t="str">
-        <v>5-7k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>北京捷迅佳音科技有限公司郑州分公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D193" t="str">
         <v>郑州</v>
       </c>
       <c r="E193" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F193" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G193" t="str">
         <v>一个月前</v>
@@ -4821,22 +4821,22 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>高级软件工程师</v>
+        <v>商务助理</v>
       </c>
       <c r="B194" t="str">
-        <v>8-12k·13薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>河南准澳网络科技有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E194" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F194" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G194" t="str">
         <v>一个月前</v>
@@ -4844,22 +4844,22 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B195" t="str">
-        <v>面议</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C195" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E195" t="str">
         <v>3-5年</v>
       </c>
       <c r="F195" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G195" t="str">
         <v>一个月前</v>
@@ -4867,22 +4867,22 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>高级测试工程师（base地：无锡，提供住宿）</v>
+        <v>产品经理</v>
       </c>
       <c r="B196" t="str">
-        <v>11-20k·13薪</v>
+        <v>7-12k·13薪</v>
       </c>
       <c r="C196" t="str">
-        <v>朗新科技</v>
+        <v>完美数联(杭州)科技有限公司</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E196" t="str">
         <v>3-5年</v>
       </c>
       <c r="F196" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G196" t="str">
         <v>一个月前</v>
@@ -4890,22 +4890,22 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B197" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>北京千锋互联科技</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D197" t="str">
         <v>郑州</v>
       </c>
       <c r="E197" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F197" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G197" t="str">
         <v>一个月前</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>前端工程师</v>
+        <v>嵌入式软件工程师（新三板上市公司）</v>
       </c>
       <c r="B198" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>河南元丰科技网络股份有限公司</v>
+        <v>恩普特</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E198" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F198" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G198" t="str">
         <v>一个月前</v>
@@ -4936,19 +4936,19 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>产品经理</v>
       </c>
       <c r="B199" t="str">
-        <v>15-25k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C199" t="str">
-        <v>朗新科技</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E199" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F199" t="str">
         <v>大专及以上</v>
@@ -4959,22 +4959,22 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>维护工程师</v>
       </c>
       <c r="B200" t="str">
-        <v>11-20k·13薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>朗新科技</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E200" t="str">
         <v>3-5年</v>
       </c>
       <c r="F200" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G200" t="str">
         <v>一个月前</v>
@@ -4982,22 +4982,22 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>售前技术支持</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B201" t="str">
-        <v>8-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>环信</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E201" t="str">
         <v>1-3年</v>
       </c>
       <c r="F201" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G201" t="str">
         <v>一个月前</v>
@@ -5005,13 +5005,13 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>java软件开发工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B202" t="str">
-        <v>6-10k·12薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>河南相府房地产经纪有限公司</v>
+        <v>浩鲸新智能科技股份有限公司</v>
       </c>
       <c r="D202" t="str">
         <v>郑州</v>
@@ -5028,22 +5028,22 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>高级前端开发工程师（base地：无锡，提供住宿）</v>
+        <v>软件开发</v>
       </c>
       <c r="B203" t="str">
-        <v>11-20k·13薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>朗新科技</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E203" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F203" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G203" t="str">
         <v>一个月前</v>
@@ -5051,22 +5051,22 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>APP运营经理/主管</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B204" t="str">
         <v>5-10k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>环球卓越网</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D204" t="str">
         <v>郑州</v>
       </c>
       <c r="E204" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F204" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G204" t="str">
         <v>一个月前</v>
@@ -5074,13 +5074,13 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>app运营经理</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B205" t="str">
-        <v>8-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>环球卓越网</v>
+        <v>中原银行</v>
       </c>
       <c r="D205" t="str">
         <v>郑州</v>
@@ -5089,7 +5089,7 @@
         <v>3-5年</v>
       </c>
       <c r="F205" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G205" t="str">
         <v>一个月前</v>
@@ -5097,22 +5097,22 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>java开发工程师助理</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B206" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E206" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F206" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G206" t="str">
         <v>一个月前</v>
@@ -5120,22 +5120,22 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>UI设计师</v>
+        <v>产品经理</v>
       </c>
       <c r="B207" t="str">
-        <v>4-6k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E207" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F207" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G207" t="str">
         <v>一个月前</v>
@@ -5143,22 +5143,22 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>PC客户端产品经理</v>
+        <v>产品经理</v>
       </c>
       <c r="B208" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E208" t="str">
         <v>3-5年</v>
       </c>
       <c r="F208" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G208" t="str">
         <v>一个月前</v>
@@ -5166,13 +5166,13 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>IOS</v>
+        <v>驻场安服工程师-郑州(J12532)</v>
       </c>
       <c r="B209" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C209" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>绿盟科技集团股份有限公司</v>
       </c>
       <c r="D209" t="str">
         <v>郑州</v>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>软件研发总监</v>
       </c>
       <c r="B210" t="str">
-        <v>18-25k·12薪</v>
+        <v>20-25k·12薪</v>
       </c>
       <c r="C210" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>河南博联慧绿科技集团有限公司</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E210" t="str">
-        <v>经验不限</v>
+        <v>10年以上</v>
       </c>
       <c r="F210" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G210" t="str">
         <v>一个月前</v>
@@ -5212,16 +5212,16 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>高级软件测试工程师</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B211" t="str">
-        <v>7-9k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>国际交友</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E211" t="str">
         <v>3-5年</v>
@@ -5235,22 +5235,22 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>高级软件测试工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B212" t="str">
-        <v>7-9k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C212" t="str">
-        <v>国际交友</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D212" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E212" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F212" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G212" t="str">
         <v>一个月前</v>
@@ -5258,22 +5258,22 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>JAVA开发工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B213" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C213" t="str">
-        <v>地理信息系统</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E213" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F213" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G213" t="str">
         <v>一个月前</v>
@@ -5281,22 +5281,22 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>摄像头调试工程师</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B214" t="str">
-        <v>4-9k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C214" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D214" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E214" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F214" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G214" t="str">
         <v>一个月前</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B215" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D215" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E215" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F215" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,19 +5327,19 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B216" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>元丰科技</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E216" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F216" t="str">
         <v>大专及以上</v>
@@ -5350,22 +5350,22 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>cocos开发工程师</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B217" t="str">
-        <v>9-16k·12薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C217" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D217" t="str">
         <v>郑州</v>
       </c>
       <c r="E217" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F217" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G217" t="str">
         <v>一个月前</v>
@@ -5373,22 +5373,22 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>学术经理</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B218" t="str">
-        <v>8-15k·12薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C218" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D218" t="str">
         <v>郑州</v>
       </c>
       <c r="E218" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F218" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G218" t="str">
         <v>一个月前</v>
@@ -5396,22 +5396,22 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>IT项目经理</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B219" t="str">
         <v>8-10k·12薪</v>
       </c>
       <c r="C219" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>环信</v>
       </c>
       <c r="D219" t="str">
         <v>郑州</v>
       </c>
       <c r="E219" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F219" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G219" t="str">
         <v>一个月前</v>
@@ -5419,19 +5419,19 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>JAVA开发</v>
+        <v>java软件开发工程师</v>
       </c>
       <c r="B220" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C220" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>河南相府房地产经纪有限公司</v>
       </c>
       <c r="D220" t="str">
         <v>郑州</v>
       </c>
       <c r="E220" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F220" t="str">
         <v>本科及以上</v>
@@ -5442,22 +5442,22 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>前端高级讲师</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B221" t="str">
-        <v>10-18k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D221" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E221" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F221" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G221" t="str">
         <v>一个月前</v>
@@ -5465,22 +5465,22 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>.NET开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B222" t="str">
-        <v>4-6k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C222" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D222" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E222" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F222" t="str">
-        <v>中专/中技及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G222" t="str">
         <v>一个月前</v>
@@ -5488,22 +5488,22 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>网页UI设计师</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B223" t="str">
-        <v>4-8k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C223" t="str">
-        <v>羲和网络</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D223" t="str">
         <v>郑州</v>
       </c>
       <c r="E223" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F223" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G223" t="str">
         <v>一个月前</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Web前端工程师</v>
+        <v>IOS</v>
       </c>
       <c r="B224" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D224" t="str">
         <v>郑州</v>
       </c>
       <c r="E224" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F224" t="str">
         <v>大专及以上</v>
@@ -5534,22 +5534,22 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>检查员</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B225" t="str">
-        <v>3-5k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C225" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D225" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E225" t="str">
         <v>经验不限</v>
       </c>
       <c r="F225" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G225" t="str">
         <v>一个月前</v>
@@ -5557,22 +5557,22 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>督导</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B226" t="str">
-        <v>3-5k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E226" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F226" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G226" t="str">
         <v>一个月前</v>
@@ -5580,19 +5580,19 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>游戏项目主程</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B227" t="str">
-        <v>10-12k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D227" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E227" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F227" t="str">
         <v>大专及以上</v>
@@ -5603,22 +5603,22 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B228" t="str">
-        <v>面议</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D228" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E228" t="str">
         <v>3-5年</v>
       </c>
       <c r="F228" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G228" t="str">
         <v>一个月前</v>
@@ -5626,22 +5626,22 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B229" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D229" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E229" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F229" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G229" t="str">
         <v>一个月前</v>
@@ -5649,16 +5649,16 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B230" t="str">
-        <v>6-8k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D230" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E230" t="str">
         <v>3-5年</v>
@@ -5672,22 +5672,22 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>高级APP工程师</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B231" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D231" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E231" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F231" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G231" t="str">
         <v>一个月前</v>
@@ -5695,13 +5695,13 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>UI设计师</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B232" t="str">
-        <v>4-6k·12薪</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D232" t="str">
         <v>郑州</v>
@@ -5710,7 +5710,7 @@
         <v>1-3年</v>
       </c>
       <c r="F232" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G232" t="str">
         <v>一个月前</v>
@@ -5718,22 +5718,22 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>UI设计师</v>
+        <v>学术经理</v>
       </c>
       <c r="B233" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D233" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E233" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F233" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G233" t="str">
         <v>一个月前</v>
@@ -5741,16 +5741,16 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>中级软件测试工程师</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B234" t="str">
-        <v>10-14k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C234" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E234" t="str">
         <v>3-5年</v>
@@ -5764,22 +5764,22 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>UI设计工程师</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B235" t="str">
-        <v>9-10k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D235" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E235" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F235" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G235" t="str">
         <v>一个月前</v>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>产品经理</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B236" t="str">
-        <v>8-10k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E236" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F236" t="str">
-        <v>本科及以上</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G236" t="str">
         <v>一个月前</v>
@@ -5810,22 +5810,22 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Mobile App</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B237" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D237" t="str">
         <v>郑州</v>
       </c>
       <c r="E237" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F237" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G237" t="str">
         <v>一个月前</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>UI/UX developer</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B238" t="str">
         <v>10-15k·12薪</v>
@@ -5848,7 +5848,7 @@
         <v>3-5年</v>
       </c>
       <c r="F238" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G238" t="str">
         <v>一个月前</v>
@@ -5856,22 +5856,22 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>java软件工程师</v>
+        <v>检查员</v>
       </c>
       <c r="B239" t="str">
-        <v>7-13k·13薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C239" t="str">
-        <v>思维自动化</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D239" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E239" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F239" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G239" t="str">
         <v>一个月前</v>
@@ -5879,30 +5879,352 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
+        <v>督导</v>
+      </c>
+      <c r="B240" t="str">
+        <v>3-5k·12薪</v>
+      </c>
+      <c r="C240" t="str">
+        <v>北京民生智库科技信息咨询有限公司</v>
+      </c>
+      <c r="D240" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E240" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F240" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G240" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>游戏项目主程</v>
+      </c>
+      <c r="B241" t="str">
+        <v>10-12k·12薪</v>
+      </c>
+      <c r="C241" t="str">
+        <v>郑州秒秒信息科技有限公司</v>
+      </c>
+      <c r="D241" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E241" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F241" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G241" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>即时通讯研发工程师</v>
+      </c>
+      <c r="B242" t="str">
+        <v>面议</v>
+      </c>
+      <c r="C242" t="str">
+        <v>中移在线服务有限公司</v>
+      </c>
+      <c r="D242" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E242" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F242" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G242" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>产品经理（英语项目）</v>
+      </c>
+      <c r="B243" t="str">
+        <v>6-10k·12薪</v>
+      </c>
+      <c r="C243" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D243" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E243" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F243" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G243" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>产品经理（咿啦看书项目）</v>
+      </c>
+      <c r="B244" t="str">
+        <v>6-8k·12薪</v>
+      </c>
+      <c r="C244" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D244" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E244" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F244" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G244" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>高级APP工程师</v>
+      </c>
+      <c r="B245" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C245" t="str">
+        <v>河南鲜易供应链有限公司</v>
+      </c>
+      <c r="D245" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E245" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F245" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G245" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B246" t="str">
+        <v>4-6k·12薪</v>
+      </c>
+      <c r="C246" t="str">
+        <v>河南汉达网络科技有限公司</v>
+      </c>
+      <c r="D246" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E246" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F246" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G246" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B247" t="str">
+        <v>4-6k·12薪</v>
+      </c>
+      <c r="C247" t="str">
+        <v>河南汉达网络科技有限公司</v>
+      </c>
+      <c r="D247" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E247" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F247" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G247" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>中级软件测试工程师</v>
+      </c>
+      <c r="B248" t="str">
+        <v>10-14k·12薪</v>
+      </c>
+      <c r="C248" t="str">
+        <v>上海陆鹰实业有限公司河南分公司</v>
+      </c>
+      <c r="D248" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E248" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F248" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G248" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>UI设计工程师</v>
+      </c>
+      <c r="B249" t="str">
+        <v>9-10k·12薪</v>
+      </c>
+      <c r="C249" t="str">
+        <v>郑州思博科信息技术有限公司</v>
+      </c>
+      <c r="D249" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E249" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F249" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G249" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>产品经理</v>
+      </c>
+      <c r="B250" t="str">
+        <v>8-10k·12薪</v>
+      </c>
+      <c r="C250" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D250" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E250" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F250" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G250" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Mobile App</v>
+      </c>
+      <c r="B251" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C251" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D251" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E251" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F251" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G251" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>UI/UX developer</v>
+      </c>
+      <c r="B252" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C252" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D252" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E252" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F252" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G252" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B253" t="str">
+        <v>7-13k·13薪</v>
+      </c>
+      <c r="C253" t="str">
+        <v>思维自动化</v>
+      </c>
+      <c r="D253" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E253" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F253" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G253" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
         <v>研发工程师</v>
       </c>
-      <c r="B240" t="str">
+      <c r="B254" t="str">
         <v>5-10k·12薪</v>
       </c>
-      <c r="C240" t="str">
+      <c r="C254" t="str">
         <v>河南森源集团有限公司</v>
       </c>
-      <c r="D240" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E240" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F240" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G240" t="str">
+      <c r="D254" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E254" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F254" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G254" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G240"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G254"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,131 +405,131 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B2" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E2" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F2" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G2" t="str">
-        <v>20分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B3" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E3" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F3" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G3" t="str">
-        <v>20分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E4" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F4" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G4" t="str">
-        <v>20分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>资深android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E5" t="str">
         <v>3-5年</v>
       </c>
       <c r="F5" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G5" t="str">
-        <v>28分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>7-12k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C6" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
       </c>
       <c r="F6" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>10分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>资深安卓开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
@@ -538,122 +538,122 @@
         <v>大专及以上</v>
       </c>
       <c r="G7" t="str">
-        <v>28分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>高级android开发工程师</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B8" t="str">
-        <v>15-30k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E8" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F8" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G8" t="str">
-        <v>16小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>5-7k·12薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C9" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>某龙科教网络公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E9" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F9" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G9" t="str">
-        <v>17小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6-9k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E10" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F10" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G10" t="str">
-        <v>20小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>高级android工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B11" t="str">
-        <v>12-18k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C11" t="str">
-        <v>知名软件公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D11" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E11" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G11" t="str">
-        <v>昨天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>高级android开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>12-18k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C12" t="str">
-        <v>某龙科教网络公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E12" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F12" t="str">
         <v>统招本科</v>
       </c>
       <c r="G12" t="str">
-        <v>昨天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="13">
@@ -661,56 +661,56 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C13" t="str">
-        <v>迈特望</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E13" t="str">
         <v>3-5年</v>
       </c>
       <c r="F13" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G13" t="str">
-        <v>19小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android应用开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>10-15k·15薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C14" t="str">
-        <v>某大型互联网上市公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E14" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F14" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G14" t="str">
-        <v>前天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>15-20k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C15" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>欣宜嘉</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
@@ -719,7 +719,7 @@
         <v>5-10年</v>
       </c>
       <c r="F15" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G15" t="str">
         <v>昨天</v>
@@ -727,22 +727,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>安卓开发</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B16" t="str">
         <v>8-13k·12薪</v>
       </c>
       <c r="C16" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F16" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G16" t="str">
         <v>昨天</v>
@@ -753,252 +753,252 @@
         <v>安卓端工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C17" t="str">
         <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E17" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G17" t="str">
-        <v>前天</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>Android应用开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>15-20k·13薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C18" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>某大型互联网上市公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F18" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G18" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B19" t="str">
-        <v>15-20k·13薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C19" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E19" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F19" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G19" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>资深android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>15-20k·13薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C20" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E20" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G20" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>12-20k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>绿建生态环境集团有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F21" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G21" t="str">
-        <v>前天</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android应用开发工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B22" t="str">
-        <v>12-20k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>绿建生态环境集团有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F22" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G22" t="str">
-        <v>前天</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Andriod开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>12-16k·13薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C23" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E23" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F23" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G23" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C24" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E24" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F24" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G24" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android应用开发工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>10-15k·14薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C25" t="str">
-        <v>天迈科技</v>
+        <v>知名软件公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E25" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F25" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G25" t="str">
-        <v>2020-11-18</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>迈特望</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E26" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F26" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G26" t="str">
-        <v>2020-11-17</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>3-8k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C27" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>绿建生态环境集团有限公司</v>
       </c>
       <c r="D27" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E27" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F27" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>2020-11-17</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="28">
@@ -1006,33 +1006,33 @@
         <v>android应用开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>7-11k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C28" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>绿建生态环境集团有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E28" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F28" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G28" t="str">
-        <v>2020-11-16</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>安卓开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C29" t="str">
-        <v>河南紫马网络科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
@@ -1044,21 +1044,21 @@
         <v>大专及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>2020-11-16</v>
+        <v>2020-11-18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>APP开发工程师（ios、安卓方向）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C30" t="str">
-        <v>某地质矿产局下属单位</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E30" t="str">
         <v>1-3年</v>
@@ -1067,53 +1067,53 @@
         <v>大专及以上</v>
       </c>
       <c r="G30" t="str">
-        <v>2020-11-16</v>
+        <v>2020-11-17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>6-11k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>新开普电子</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E31" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F31" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>2020-11-13</v>
+        <v>2020-11-17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>高级android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>9-13k·13薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C32" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F32" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G32" t="str">
-        <v>2020-11-13</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="33">
@@ -1121,45 +1121,45 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>7-10k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南紫马网络科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E33" t="str">
         <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G33" t="str">
-        <v>2020-11-12</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>安卓开发工程师</v>
+        <v>APP开发工程师（ios、安卓方向）</v>
       </c>
       <c r="B34" t="str">
-        <v>7-10k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>某地质矿产局下属单位</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E34" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F34" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G34" t="str">
-        <v>2020-11-12</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="35">
@@ -1167,13 +1167,13 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>12-20k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C35" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E35" t="str">
         <v>3-5年</v>
@@ -1182,142 +1182,142 @@
         <v>本科及以上</v>
       </c>
       <c r="G35" t="str">
-        <v>2020-11-11</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>android系统开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>10-15k·12薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C36" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E36" t="str">
         <v>3-5年</v>
       </c>
       <c r="F36" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G36" t="str">
-        <v>2020-11-10</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>8-11k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C37" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>牧原食品股份有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E37" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G37" t="str">
-        <v>2020-11-06</v>
+        <v>2020-11-11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>安卓开发软件工程师</v>
+        <v>android系统开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C38" t="str">
-        <v>正星科技</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G38" t="str">
-        <v>2020-11-03</v>
+        <v>2020-11-10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android</v>
+        <v>android</v>
       </c>
       <c r="B39" t="str">
-        <v>5-9k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C39" t="str">
-        <v>中裕广恒</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F39" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G39" t="str">
-        <v>一个月前</v>
+        <v>2020-11-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android app开发工程师</v>
+        <v>安卓开发软件工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>正星科技</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F40" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G40" t="str">
-        <v>一个月前</v>
+        <v>2020-11-03</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android</v>
+        <v>Android</v>
       </c>
       <c r="B41" t="str">
-        <v>9-12k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C41" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F41" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G41" t="str">
         <v>一个月前</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android开发</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C42" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E42" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F42" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G42" t="str">
         <v>一个月前</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发</v>
+        <v>android</v>
       </c>
       <c r="B43" t="str">
-        <v>8-12k·14薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C43" t="str">
-        <v>正商地产</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E43" t="str">
         <v>1-3年</v>
       </c>
       <c r="F43" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G43" t="str">
         <v>一个月前</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>android开发</v>
       </c>
       <c r="B44" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C44" t="str">
-        <v>正商地产</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E44" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F44" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G44" t="str">
         <v>一个月前</v>
@@ -1397,19 +1397,19 @@
         <v>Android开发</v>
       </c>
       <c r="B45" t="str">
-        <v>5-9k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C45" t="str">
-        <v>新乡市中誉鼎力软件科技股份有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E45" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F45" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G45" t="str">
         <v>一个月前</v>
@@ -1417,19 +1417,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B46" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C46" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E46" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F46" t="str">
         <v>本科及以上</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C47" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F47" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G47" t="str">
         <v>一个月前</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B48" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E48" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F48" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G48" t="str">
         <v>一个月前</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android开发工程师岗</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C49" t="str">
         <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E49" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F49" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G49" t="str">
         <v>一个月前</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android开发</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B50" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C50" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E50" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F50" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G50" t="str">
         <v>一个月前</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>7.Android developer 安卓开发者</v>
+        <v>Android开发</v>
       </c>
       <c r="B51" t="str">
-        <v>26-40k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E51" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F51" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G51" t="str">
         <v>一个月前</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android Developer</v>
+        <v>7.Android developer 安卓开发者</v>
       </c>
       <c r="B52" t="str">
         <v>26-40k·12薪</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>Android Developer</v>
       </c>
       <c r="B53" t="str">
-        <v>7-10k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>超图软件</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D53" t="str">
         <v>郑州</v>
       </c>
       <c r="E53" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F53" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>安卓/Android</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B54" t="str">
-        <v>12-20k·13薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E54" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F54" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G54" t="str">
         <v>一个月前</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android</v>
+        <v>安卓/Android</v>
       </c>
       <c r="B55" t="str">
-        <v>15-20k·12薪</v>
+        <v>12-20k·13薪</v>
       </c>
       <c r="C55" t="str">
         <v>浩鲸新智能科技股份有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E55" t="str">
         <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G55" t="str">
         <v>一个月前</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B56" t="str">
-        <v>7-14k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>浩鲸新智能科技股份有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E56" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F56" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G56" t="str">
         <v>一个月前</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C57" t="str">
         <v>北京云海航创网络科技有限公司郑州分公司</v>
@@ -1682,7 +1682,7 @@
         <v>郑州-二七区</v>
       </c>
       <c r="E57" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F57" t="str">
         <v>大专及以上</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B58" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C58" t="str">
-        <v>杭州玛亚科技有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E58" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F58" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G58" t="str">
         <v>一个月前</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>10-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C59" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>杭州玛亚科技有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F59" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G59" t="str">
         <v>一个月前</v>
@@ -1742,19 +1742,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>牧原食品股份有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E60" t="str">
         <v>3-5年</v>
       </c>
       <c r="F60" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G60" t="str">
         <v>一个月前</v>
@@ -1762,19 +1762,19 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>6k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C61" t="str">
         <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E61" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F61" t="str">
         <v>大专及以上</v>
@@ -1785,16 +1785,16 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发工程师</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B62" t="str">
-        <v>8-16k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E62" t="str">
         <v>1-3年</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C63" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E63" t="str">
         <v>1-3年</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C64" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D64" t="str">
         <v>郑州</v>
       </c>
       <c r="E64" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F64" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G64" t="str">
         <v>一个月前</v>
@@ -1857,16 +1857,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>5-10k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E65" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F65" t="str">
         <v>本科及以上</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E66" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F66" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G66" t="str">
         <v>一个月前</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B67" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>汉克时代</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E67" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F67" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G67" t="str">
         <v>一个月前</v>
@@ -1923,19 +1923,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B68" t="str">
-        <v>14-18k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>三门峡崤云信息服务股份有限公司</v>
+        <v>汉克时代</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E68" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F68" t="str">
         <v>本科及以上</v>
@@ -1946,13 +1946,13 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android高级开发工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B69" t="str">
-        <v>10-15k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>三门峡崤云信息服务股份有限公司</v>
       </c>
       <c r="D69" t="str">
         <v>郑州</v>
@@ -1961,7 +1961,7 @@
         <v>3-5年</v>
       </c>
       <c r="F69" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G69" t="str">
         <v>一个月前</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>20-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>京东</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D70" t="str">
         <v>郑州</v>
       </c>
       <c r="E70" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F70" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G70" t="str">
         <v>一个月前</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>4-8k·12薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>比特耐特</v>
+        <v>京东</v>
       </c>
       <c r="D71" t="str">
         <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F71" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G71" t="str">
         <v>一个月前</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B72" t="str">
         <v>4-8k·12薪</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>6-9k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E73" t="str">
         <v>1-3年</v>
       </c>
       <c r="F73" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G73" t="str">
         <v>一个月前</v>
@@ -2064,19 +2064,19 @@
         <v>Android</v>
       </c>
       <c r="B74" t="str">
-        <v>4-8k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C74" t="str">
-        <v>河南相府房地产经纪有限公司</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E74" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F74" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G74" t="str">
         <v>一个月前</v>
@@ -2084,13 +2084,13 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发</v>
+        <v>Android</v>
       </c>
       <c r="B75" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>河南相府房地产经纪有限公司</v>
       </c>
       <c r="D75" t="str">
         <v>郑州</v>
@@ -2107,19 +2107,19 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android逆向工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B76" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E76" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F76" t="str">
         <v>大专及以上</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>高级android开发工程师</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>14-18k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E77" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F77" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G77" t="str">
         <v>一个月前</v>
@@ -2153,19 +2153,19 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>8-12k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E78" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F78" t="str">
         <v>本科及以上</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>8-12k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C79" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E79" t="str">
         <v>1-3年</v>
       </c>
       <c r="F79" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G79" t="str">
         <v>一个月前</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Android</v>
+        <v>android工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C80" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E80" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F80" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G80" t="str">
         <v>一个月前</v>
@@ -2225,19 +2225,19 @@
         <v>Android</v>
       </c>
       <c r="B81" t="str">
-        <v>8-11k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D81" t="str">
         <v>郑州</v>
       </c>
       <c r="E81" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F81" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G81" t="str">
         <v>一个月前</v>
@@ -2245,16 +2245,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android开发</v>
+        <v>Android</v>
       </c>
       <c r="B82" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>华英农业</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E82" t="str">
         <v>1-3年</v>
@@ -2268,16 +2268,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B83" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E83" t="str">
         <v>1-3年</v>
@@ -2294,19 +2294,19 @@
         <v>Android</v>
       </c>
       <c r="B84" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C84" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F84" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G84" t="str">
         <v>一个月前</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B85" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E85" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F85" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G85" t="str">
         <v>一个月前</v>
@@ -2337,22 +2337,22 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E86" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F86" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G86" t="str">
         <v>一个月前</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C87" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E87" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F87" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G87" t="str">
         <v>一个月前</v>
@@ -2386,13 +2386,13 @@
         <v>Android高级开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C88" t="str">
         <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E88" t="str">
         <v>1-3年</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F89" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G89" t="str">
         <v>一个月前</v>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android开发</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E90" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F90" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G90" t="str">
         <v>一个月前</v>
@@ -2455,13 +2455,13 @@
         <v>android开发</v>
       </c>
       <c r="B91" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>网道咨询</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E91" t="str">
         <v>1-3年</v>
@@ -2475,13 +2475,13 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B92" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D92" t="str">
         <v>郑州</v>
@@ -2490,7 +2490,7 @@
         <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G92" t="str">
         <v>一个月前</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>6-13k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E93" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F93" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G93" t="str">
         <v>一个月前</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E94" t="str">
         <v>3-5年</v>
       </c>
       <c r="F94" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G94" t="str">
         <v>一个月前</v>
@@ -2544,19 +2544,19 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>华英农业</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E95" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F95" t="str">
         <v>大专及以上</v>
@@ -2570,10 +2570,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
@@ -2582,7 +2582,7 @@
         <v>1-3年</v>
       </c>
       <c r="F96" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G96" t="str">
         <v>一个月前</v>
@@ -2593,19 +2593,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>7-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E97" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F97" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G97" t="str">
         <v>一个月前</v>
@@ -2616,19 +2616,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D98" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E98" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F98" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G98" t="str">
         <v>一个月前</v>
@@ -2636,16 +2636,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>4-9k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E99" t="str">
         <v>1-3年</v>
@@ -2659,16 +2659,16 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android讲师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>8-12k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C100" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E100" t="str">
         <v>1-3年</v>
@@ -2682,13 +2682,13 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android开发工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B101" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D101" t="str">
         <v>郑州</v>
@@ -2705,19 +2705,19 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
       </c>
       <c r="E102" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F102" t="str">
         <v>本科及以上</v>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B103" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>修齐治平</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D103" t="str">
         <v>郑州</v>
@@ -2743,7 +2743,7 @@
         <v>3-5年</v>
       </c>
       <c r="F103" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G103" t="str">
         <v>一个月前</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>android开发工程师</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州-国基路</v>
+        <v>郑州</v>
       </c>
       <c r="E104" t="str">
         <v>3-5年</v>
       </c>
       <c r="F104" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G104" t="str">
         <v>一个月前</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>8-13k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C105" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-国基路</v>
       </c>
       <c r="E105" t="str">
         <v>3-5年</v>
       </c>
       <c r="F105" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G105" t="str">
         <v>一个月前</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>安卓开发</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C106" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E106" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F106" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G106" t="str">
         <v>一个月前</v>
@@ -2823,19 +2823,19 @@
         <v>安卓开发</v>
       </c>
       <c r="B107" t="str">
-        <v>5-8k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>浩鲸新智能科技股份有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F107" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G107" t="str">
         <v>一个月前</v>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B108" t="str">
-        <v>6-7k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C108" t="str">
         <v>河南易众拍卖行有限公司</v>
@@ -2869,19 +2869,19 @@
         <v>安卓工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E109" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F109" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G109" t="str">
         <v>一个月前</v>
@@ -2892,19 +2892,19 @@
         <v>安卓工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>10-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>浩鲸新智能科技股份有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E110" t="str">
         <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G110" t="str">
         <v>一个月前</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>安卓讲师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D111" t="str">
         <v>郑州</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B112" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>鑫安利科技</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F112" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G112" t="str">
         <v>一个月前</v>
@@ -2961,19 +2961,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>6-8k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>思维自动化</v>
+        <v>鑫安利科技</v>
       </c>
       <c r="D113" t="str">
         <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F113" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G113" t="str">
         <v>一个月前</v>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>8-20k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>安徽省刀锋网络科技有限公司</v>
+        <v>思维自动化</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F114" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G114" t="str">
         <v>一个月前</v>
@@ -3004,16 +3004,16 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>安徽省刀锋网络科技有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E115" t="str">
         <v>3-5年</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B116" t="str">
-        <v>8-12k·14薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C116" t="str">
-        <v>蓝信科技</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E116" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F116" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G116" t="str">
         <v>一个月前</v>
@@ -3053,19 +3053,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>6-11k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C117" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E117" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F117" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G117" t="str">
         <v>一个月前</v>
@@ -3076,19 +3076,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E118" t="str">
         <v>3-5年</v>
       </c>
       <c r="F118" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G118" t="str">
         <v>一个月前</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E119" t="str">
         <v>3-5年</v>
       </c>
       <c r="F119" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G119" t="str">
         <v>一个月前</v>
@@ -3119,19 +3119,19 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓开发工程师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>7-9k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>蓓安科仪(北京)技术有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E120" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F120" t="str">
         <v>本科及以上</v>
@@ -3145,19 +3145,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>蓓安科仪(北京)技术有限公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F121" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G121" t="str">
         <v>一个月前</v>
@@ -3168,19 +3168,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>3-8k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E122" t="str">
         <v>经验不限</v>
       </c>
       <c r="F122" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G122" t="str">
         <v>一个月前</v>
@@ -3191,16 +3191,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>5-7k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C123" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E123" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F123" t="str">
         <v>本科及以上</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>8-15k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E124" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F124" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G124" t="str">
         <v>一个月前</v>
@@ -3234,22 +3234,22 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>安卓app开发工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>3-8k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C125" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D125" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E125" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G125" t="str">
         <v>一个月前</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓开发（双休）</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>6-9k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C126" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E126" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F126" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G126" t="str">
         <v>一个月前</v>
@@ -3280,19 +3280,19 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>安卓开发偏客户端方向</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B127" t="str">
-        <v>5-8k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>河南省教育网有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E127" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F127" t="str">
         <v>大专及以上</v>
@@ -3303,16 +3303,16 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓开发偏客户端方向</v>
       </c>
       <c r="B128" t="str">
-        <v>6-10k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C128" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南省教育网有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E128" t="str">
         <v>1-3年</v>
@@ -3326,91 +3326,91 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>移动端开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B129" t="str">
-        <v>8-17k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C129" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E129" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F129" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G129" t="str">
-        <v>45分钟前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>web前端开发工程师</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>8-10k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C130" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E130" t="str">
         <v>5-10年</v>
       </c>
       <c r="F130" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G130" t="str">
-        <v>20分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>前端开发工程师</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>6-10k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C131" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E131" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F131" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G131" t="str">
-        <v>20分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>软件工程师 (智能座舱架构方向)</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>25-35k·12薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C132" t="str">
-        <v>精益达</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E132" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F132" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G132" t="str">
         <v>1小时前</v>
@@ -3418,137 +3418,137 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>8-12k·13薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C133" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F133" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G133" t="str">
-        <v>20分钟前</v>
+        <v>48分钟前</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Java开发工程师</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C134" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E134" t="str">
         <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G134" t="str">
-        <v>45分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
+        <v>流媒体系统架构师</v>
       </c>
       <c r="B135" t="str">
-        <v>25-50k·12薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C135" t="str">
-        <v>国内知名车企+新能源汽车</v>
+        <v>某龙科教网络公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州,武汉,上海</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E135" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F135" t="str">
         <v>统招本科</v>
       </c>
       <c r="G135" t="str">
-        <v>21分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>技术总监</v>
+        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
       </c>
       <c r="B136" t="str">
-        <v>15-25k·12薪</v>
+        <v>25-50k·12薪</v>
       </c>
       <c r="C136" t="str">
-        <v>欣宜嘉</v>
+        <v>国内知名车企+新能源汽车</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州</v>
+        <v>郑州,武汉,上海</v>
       </c>
       <c r="E136" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F136" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G136" t="str">
-        <v>18小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>技术总监</v>
+        <v>软件工程师 (智能座舱架构方向)</v>
       </c>
       <c r="B137" t="str">
-        <v>10-15k·12薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C137" t="str">
-        <v>欣宜嘉</v>
+        <v>精益达</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E137" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F137" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G137" t="str">
-        <v>昨天</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>移动端资深产品经理</v>
+        <v>测试工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C138" t="str">
-        <v>安徽省刀锋网络科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E138" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F138" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G138" t="str">
         <v>昨天</v>
@@ -3556,263 +3556,263 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>流媒体系统架构师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>12-18k·12薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>某龙科教网络公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E139" t="str">
         <v>5-10年</v>
       </c>
       <c r="F139" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G139" t="str">
-        <v>昨天</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>移动端开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>12-16k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C140" t="str">
-        <v>绿建生态环境集团有限公司</v>
+        <v>北大软件</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E140" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F140" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G140" t="str">
-        <v>前天</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>15-20k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C141" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E141" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G141" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>测试工程师</v>
+        <v>系统架构师</v>
       </c>
       <c r="B142" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C142" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E142" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F142" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G142" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>10-20k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C143" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E143" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F143" t="str">
-        <v>本科及以上</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G143" t="str">
-        <v>前天</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>系统架构师</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C144" t="str">
-        <v>油田咨询</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E144" t="str">
         <v>5-10年</v>
       </c>
       <c r="F144" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G144" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>系统测试工程师</v>
+        <v>java高级软件工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>5-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C145" t="str">
-        <v>油田咨询</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E145" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F145" t="str">
-        <v>硕士及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G145" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>FAE现场工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C146" t="str">
-        <v>速游</v>
+        <v>广东九联科技股份有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>一年以下</v>
+        <v>1-3年</v>
       </c>
       <c r="F146" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G146" t="str">
-        <v>2020-11-21</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>流媒体系统架构师</v>
+        <v>产品经理</v>
       </c>
       <c r="B147" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C147" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>郑州小魔兽电子商务有限公司</v>
       </c>
       <c r="D147" t="str">
         <v>郑州</v>
       </c>
       <c r="E147" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F147" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G147" t="str">
-        <v>2020-11-20</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>ui视觉设计师</v>
+        <v>技术总监</v>
       </c>
       <c r="B148" t="str">
-        <v>20-40k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C148" t="str">
-        <v>国内知名客车公司</v>
+        <v>欣宜嘉</v>
       </c>
       <c r="D148" t="str">
         <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F148" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G148" t="str">
-        <v>2020-11-18</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>产品经理</v>
+        <v>技术总监</v>
       </c>
       <c r="B149" t="str">
-        <v>8-15k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C149" t="str">
-        <v>郑州小魔兽电子商务有限公司</v>
+        <v>欣宜嘉</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E149" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F149" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G149" t="str">
-        <v>2020-11-16</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>高级产品经理</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B150" t="str">
-        <v>15-25k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C150" t="str">
         <v>安徽省刀锋网络科技有限公司</v>
@@ -3821,240 +3821,240 @@
         <v>郑州</v>
       </c>
       <c r="E150" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F150" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G150" t="str">
-        <v>2020-11-16</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>JAVA（全栈）后台工程师</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B151" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C151" t="str">
-        <v>某地质矿产局下属单位</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E151" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F151" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G151" t="str">
-        <v>2020-11-13</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B152" t="str">
-        <v>7-11k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C152" t="str">
-        <v>新开普电子</v>
+        <v>速游</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E152" t="str">
-        <v>5-10年</v>
+        <v>一年以下</v>
       </c>
       <c r="F152" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G152" t="str">
-        <v>2020-11-13</v>
+        <v>2020-11-21</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>C++开发工程师中级</v>
+        <v>流媒体系统架构师</v>
       </c>
       <c r="B153" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C153" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E153" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F153" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G153" t="str">
-        <v>2020-11-11</v>
+        <v>2020-11-20</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B154" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C154" t="str">
-        <v>中原期货</v>
+        <v>安徽省刀锋网络科技有限公司</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E154" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F154" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>2020-11-10</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>移动前端开发工程师</v>
+        <v>JAVA（全栈）后台工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>9-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C155" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>某地质矿产局下属单位</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E155" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F155" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G155" t="str">
-        <v>一个月前</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B156" t="str">
-        <v>10-20k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C156" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E156" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F156" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G156" t="str">
-        <v>2020-11-05</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>前端工程师</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B157" t="str">
-        <v>8-13k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C157" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E157" t="str">
         <v>3-5年</v>
       </c>
       <c r="F157" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>一个月前</v>
+        <v>2020-11-11</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>智能技术开发主管</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>面议</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C158" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E158" t="str">
-        <v>10年以上</v>
+        <v>经验不限</v>
       </c>
       <c r="F158" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G158" t="str">
-        <v>2020-11-04</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>移动前端开发工程师</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B159" t="str">
-        <v>3-5k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>中原期货</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E159" t="str">
         <v>3-5年</v>
       </c>
       <c r="F159" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G159" t="str">
-        <v>一个月前</v>
+        <v>2020-11-10</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>6-12k·13薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C160" t="str">
-        <v>新开普电子</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E160" t="str">
         <v>3-5年</v>
       </c>
       <c r="F160" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G160" t="str">
         <v>一个月前</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>手机软件开发工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>6-7k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E161" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F161" t="str">
         <v>大专及以上</v>
@@ -4085,22 +4085,22 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>app开发工程师</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C162" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E162" t="str">
         <v>3-5年</v>
       </c>
       <c r="F162" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G162" t="str">
         <v>一个月前</v>
@@ -4108,45 +4108,45 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>正星科技</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D163" t="str">
         <v>郑州</v>
       </c>
       <c r="E163" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F163" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G163" t="str">
-        <v>2020-11-03</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E164" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F164" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G164" t="str">
         <v>一个月前</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>ASO优化师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C165" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E165" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F165" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G165" t="str">
         <v>一个月前</v>
@@ -4177,10 +4177,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>app运营主管</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B166" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C166" t="str">
         <v>郑州爱梦教育科技有限公司</v>
@@ -4192,7 +4192,7 @@
         <v>3-5年</v>
       </c>
       <c r="F166" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G166" t="str">
         <v>一个月前</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>移动开发工程师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B167" t="str">
-        <v>10-17k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E167" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F167" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G167" t="str">
         <v>一个月前</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>软件工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>郑州卓安</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E168" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F168" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G168" t="str">
         <v>一个月前</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>java开发</v>
+        <v>软件工程师</v>
       </c>
       <c r="B169" t="str">
         <v>5-8k·12薪</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>移动开发工程师</v>
+        <v>java开发</v>
       </c>
       <c r="B170" t="str">
-        <v>8-13k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D170" t="str">
         <v>郑州</v>
       </c>
       <c r="E170" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F170" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G170" t="str">
         <v>一个月前</v>
@@ -4292,22 +4292,22 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>软件测试工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B171" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E171" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F171" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G171" t="str">
         <v>一个月前</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>APP工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>10-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E172" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F172" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G172" t="str">
         <v>一个月前</v>
@@ -4338,22 +4338,22 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>APP推广</v>
+        <v>APP工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C173" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E173" t="str">
         <v>经验不限</v>
       </c>
       <c r="F173" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G173" t="str">
         <v>一个月前</v>
@@ -4361,53 +4361,53 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>应用层开发工程师</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B174" t="str">
         <v>10-20k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E174" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F174" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G174" t="str">
-        <v>一个月前</v>
+        <v>2020-11-05</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>高级前端讲师</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B175" t="str">
-        <v>15-30k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C175" t="str">
-        <v>北京千锋互联科技</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E175" t="str">
-        <v>5-10年</v>
+        <v>10年以上</v>
       </c>
       <c r="F175" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G175" t="str">
-        <v>一个月前</v>
+        <v>2020-11-04</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>app推广经理</v>
+        <v>APP推广</v>
       </c>
       <c r="B176" t="str">
         <v>5-10k·12薪</v>
@@ -4416,10 +4416,10 @@
         <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E176" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F176" t="str">
         <v>大专及以上</v>
@@ -4430,19 +4430,19 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B177" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D177" t="str">
         <v>郑州</v>
       </c>
       <c r="E177" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F177" t="str">
         <v>大专及以上</v>
@@ -4453,19 +4453,19 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>ui设计师</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B178" t="str">
-        <v>4-8k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E178" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F178" t="str">
         <v>大专及以上</v>
@@ -4476,36 +4476,36 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Java开发工程师</v>
+        <v>app推广经理</v>
       </c>
       <c r="B179" t="str">
-        <v>6-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E179" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F179" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G179" t="str">
-        <v>2020-10-30</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>APP运营主管/经理</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B180" t="str">
-        <v>10-18k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D180" t="str">
         <v>郑州</v>
@@ -4517,73 +4517,73 @@
         <v>大专及以上</v>
       </c>
       <c r="G180" t="str">
-        <v>2020-10-30</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>JAVA开发</v>
+        <v>ui设计师</v>
       </c>
       <c r="B181" t="str">
-        <v>8-13k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E181" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F181" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G181" t="str">
-        <v>2020-10-28</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>java开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B182" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>正星科技</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E182" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F182" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G182" t="str">
-        <v>一个月前</v>
+        <v>2020-11-03</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B183" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D183" t="str">
         <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F183" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G183" t="str">
         <v>一个月前</v>
@@ -4591,13 +4591,13 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>产品经理</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B184" t="str">
-        <v>8-13k·13薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>郑州XX公司</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D184" t="str">
         <v>郑州</v>
@@ -4606,7 +4606,7 @@
         <v>3-5年</v>
       </c>
       <c r="F184" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G184" t="str">
         <v>一个月前</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>架构师</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B185" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E185" t="str">
         <v>5-10年</v>
@@ -4637,16 +4637,16 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>ui</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B186" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C186" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E186" t="str">
         <v>3-5年</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>中级JAVA开发</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B187" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>正商地产</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E187" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F187" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G187" t="str">
         <v>一个月前</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>产品经理</v>
       </c>
       <c r="B188" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C188" t="str">
-        <v>埃林哲</v>
+        <v>郑州XX公司</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E188" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F188" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G188" t="str">
         <v>一个月前</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>FAE现场工程师</v>
+        <v>架构师</v>
       </c>
       <c r="B189" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C189" t="str">
-        <v>广东九联科技股份有限公司</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E189" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F189" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G189" t="str">
         <v>一个月前</v>
@@ -4729,19 +4729,19 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>ui</v>
       </c>
       <c r="B190" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>信大捷安</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D190" t="str">
         <v>郑州</v>
       </c>
       <c r="E190" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F190" t="str">
         <v>本科及以上</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B191" t="str">
-        <v>13-25k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C191" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E191" t="str">
         <v>3-5年</v>
       </c>
       <c r="F191" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G191" t="str">
         <v>一个月前</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Mobile Application Developer</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B192" t="str">
-        <v>26-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>埃林哲</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E192" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F192" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G192" t="str">
         <v>一个月前</v>
@@ -4798,13 +4798,13 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Senior System Developer 资深系统工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B193" t="str">
-        <v>26-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>信大捷安</v>
       </c>
       <c r="D193" t="str">
         <v>郑州</v>
@@ -4813,7 +4813,7 @@
         <v>5-10年</v>
       </c>
       <c r="F193" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G193" t="str">
         <v>一个月前</v>
@@ -4821,22 +4821,22 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>商务助理</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B194" t="str">
-        <v>5-8k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C194" t="str">
-        <v>河南准澳网络科技有限公司</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E194" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F194" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G194" t="str">
         <v>一个月前</v>
@@ -4844,22 +4844,22 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>Mobile Application Developer</v>
       </c>
       <c r="B195" t="str">
-        <v>13-18k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C195" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E195" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F195" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G195" t="str">
         <v>一个月前</v>
@@ -4867,22 +4867,22 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>产品经理</v>
+        <v>Senior System Developer 资深系统工程师</v>
       </c>
       <c r="B196" t="str">
-        <v>7-12k·13薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>完美数联(杭州)科技有限公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E196" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F196" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G196" t="str">
         <v>一个月前</v>
@@ -4890,22 +4890,22 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>UI高级设计师</v>
+        <v>商务助理</v>
       </c>
       <c r="B197" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南准澳网络科技有限公司</v>
       </c>
       <c r="D197" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E197" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F197" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G197" t="str">
         <v>一个月前</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>嵌入式软件工程师（新三板上市公司）</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B198" t="str">
-        <v>10-20k·12薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>恩普特</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E198" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F198" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G198" t="str">
         <v>一个月前</v>
@@ -4939,19 +4939,19 @@
         <v>产品经理</v>
       </c>
       <c r="B199" t="str">
-        <v>8-13k·12薪</v>
+        <v>7-12k·13薪</v>
       </c>
       <c r="C199" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>完美数联(杭州)科技有限公司</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E199" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F199" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G199" t="str">
         <v>一个月前</v>
@@ -4959,19 +4959,19 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>维护工程师</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B200" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E200" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F200" t="str">
         <v>本科及以上</v>
@@ -4982,22 +4982,22 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>维护助理工程师</v>
+        <v>嵌入式软件工程师（新三板上市公司）</v>
       </c>
       <c r="B201" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>恩普特</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E201" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F201" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G201" t="str">
         <v>一个月前</v>
@@ -5005,22 +5005,22 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>iOS开发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B202" t="str">
-        <v>14-20k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D202" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E202" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F202" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G202" t="str">
         <v>一个月前</v>
@@ -5028,19 +5028,19 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>软件开发</v>
+        <v>维护工程师</v>
       </c>
       <c r="B203" t="str">
-        <v>15-21k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E203" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F203" t="str">
         <v>本科及以上</v>
@@ -5051,22 +5051,22 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>移动开发工程师</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B204" t="str">
-        <v>5-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E204" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F204" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G204" t="str">
         <v>一个月前</v>
@@ -5074,13 +5074,13 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>移动端开发工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B205" t="str">
-        <v>15-25k·12薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>中原银行</v>
+        <v>浩鲸新智能科技股份有限公司</v>
       </c>
       <c r="D205" t="str">
         <v>郑州</v>
@@ -5097,19 +5097,19 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>软件外包业务经理</v>
+        <v>软件开发</v>
       </c>
       <c r="B206" t="str">
-        <v>8-16k·12薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E206" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F206" t="str">
         <v>本科及以上</v>
@@ -5120,22 +5120,22 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>产品经理</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>8-13k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>新开普电子</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D207" t="str">
         <v>郑州</v>
       </c>
       <c r="E207" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F207" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G207" t="str">
         <v>一个月前</v>
@@ -5143,22 +5143,22 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>产品经理</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B208" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>中原银行</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E208" t="str">
         <v>3-5年</v>
       </c>
       <c r="F208" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G208" t="str">
         <v>一个月前</v>
@@ -5166,22 +5166,22 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>驻场安服工程师-郑州(J12532)</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B209" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C209" t="str">
-        <v>绿盟科技集团股份有限公司</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D209" t="str">
         <v>郑州</v>
       </c>
       <c r="E209" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F209" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G209" t="str">
         <v>一个月前</v>
@@ -5189,19 +5189,19 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>软件研发总监</v>
+        <v>产品经理</v>
       </c>
       <c r="B210" t="str">
-        <v>20-25k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C210" t="str">
-        <v>河南博联慧绿科技集团有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E210" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F210" t="str">
         <v>本科及以上</v>
@@ -5212,16 +5212,16 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B211" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E211" t="str">
         <v>3-5年</v>
@@ -5235,22 +5235,22 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>测试工程师</v>
+        <v>驻场安服工程师-郑州(J12532)</v>
       </c>
       <c r="B212" t="str">
-        <v>6-12k·14薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>绿盟科技集团股份有限公司</v>
       </c>
       <c r="D212" t="str">
         <v>郑州</v>
       </c>
       <c r="E212" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F212" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G212" t="str">
         <v>一个月前</v>
@@ -5258,19 +5258,19 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>高级软件工程师</v>
+        <v>软件研发总监</v>
       </c>
       <c r="B213" t="str">
-        <v>8-12k·13薪</v>
+        <v>20-25k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>河南博联慧绿科技集团有限公司</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E213" t="str">
-        <v>5-10年</v>
+        <v>10年以上</v>
       </c>
       <c r="F213" t="str">
         <v>本科及以上</v>
@@ -5281,22 +5281,22 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B214" t="str">
-        <v>面议</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C214" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D214" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E214" t="str">
         <v>3-5年</v>
       </c>
       <c r="F214" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G214" t="str">
         <v>一个月前</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>测试工程师</v>
       </c>
       <c r="B215" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C215" t="str">
-        <v>北京千锋互联科技</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D215" t="str">
         <v>郑州</v>
       </c>
       <c r="E215" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F215" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,22 +5327,22 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>前端工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B216" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C216" t="str">
-        <v>元丰科技</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E216" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F216" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G216" t="str">
         <v>一个月前</v>
@@ -5350,22 +5350,22 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B217" t="str">
-        <v>15-25k·13薪</v>
+        <v>面议</v>
       </c>
       <c r="C217" t="str">
-        <v>朗新科技</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E217" t="str">
         <v>3-5年</v>
       </c>
       <c r="F217" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G217" t="str">
         <v>一个月前</v>
@@ -5373,19 +5373,19 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B218" t="str">
-        <v>11-20k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C218" t="str">
-        <v>朗新科技</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D218" t="str">
         <v>郑州</v>
       </c>
       <c r="E218" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F218" t="str">
         <v>大专及以上</v>
@@ -5396,22 +5396,22 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>售前技术支持</v>
+        <v>前端工程师</v>
       </c>
       <c r="B219" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C219" t="str">
-        <v>环信</v>
+        <v>元丰科技</v>
       </c>
       <c r="D219" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E219" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F219" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G219" t="str">
         <v>一个月前</v>
@@ -5419,13 +5419,13 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>java软件开发工程师</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B220" t="str">
-        <v>6-10k·12薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C220" t="str">
-        <v>河南相府房地产经纪有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D220" t="str">
         <v>郑州</v>
@@ -5434,7 +5434,7 @@
         <v>3-5年</v>
       </c>
       <c r="F220" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G220" t="str">
         <v>一个月前</v>
@@ -5442,19 +5442,19 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>java开发工程师助理</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B221" t="str">
-        <v>4-6k·12薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C221" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D221" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E221" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F221" t="str">
         <v>大专及以上</v>
@@ -5465,22 +5465,22 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>UI设计师</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B222" t="str">
-        <v>4-6k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C222" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>环信</v>
       </c>
       <c r="D222" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E222" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F222" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G222" t="str">
         <v>一个月前</v>
@@ -5488,13 +5488,13 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>PC客户端产品经理</v>
+        <v>java软件开发工程师</v>
       </c>
       <c r="B223" t="str">
         <v>6-10k·12薪</v>
       </c>
       <c r="C223" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南相府房地产经纪有限公司</v>
       </c>
       <c r="D223" t="str">
         <v>郑州</v>
@@ -5511,16 +5511,16 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>IOS</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B224" t="str">
-        <v>15-25k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D224" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E224" t="str">
         <v>经验不限</v>
@@ -5534,22 +5534,22 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B225" t="str">
-        <v>18-25k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C225" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D225" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E225" t="str">
         <v>经验不限</v>
       </c>
       <c r="F225" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G225" t="str">
         <v>一个月前</v>
@@ -5557,13 +5557,13 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>高级软件测试工程师</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B226" t="str">
-        <v>7-9k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>国际交友</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D226" t="str">
         <v>郑州</v>
@@ -5572,7 +5572,7 @@
         <v>3-5年</v>
       </c>
       <c r="F226" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G226" t="str">
         <v>一个月前</v>
@@ -5580,19 +5580,19 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>高级软件测试工程师</v>
+        <v>IOS</v>
       </c>
       <c r="B227" t="str">
-        <v>7-9k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>国际交友</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D227" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E227" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F227" t="str">
         <v>大专及以上</v>
@@ -5603,19 +5603,19 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>JAVA开发工程师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B228" t="str">
-        <v>6-8k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>地理信息系统</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D228" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E228" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F228" t="str">
         <v>大专及以上</v>
@@ -5626,22 +5626,22 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>摄像头调试工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B229" t="str">
-        <v>4-9k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D229" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E229" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F229" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G229" t="str">
         <v>一个月前</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B230" t="str">
-        <v>6-12k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D230" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E230" t="str">
         <v>3-5年</v>
       </c>
       <c r="F230" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G230" t="str">
         <v>一个月前</v>
@@ -5672,19 +5672,19 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B231" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D231" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E231" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F231" t="str">
         <v>大专及以上</v>
@@ -5695,19 +5695,19 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>cocos开发工程师</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B232" t="str">
-        <v>9-16k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D232" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E232" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F232" t="str">
         <v>学历不限</v>
@@ -5718,19 +5718,19 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>学术经理</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B233" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D233" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E233" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F233" t="str">
         <v>本科及以上</v>
@@ -5741,19 +5741,19 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>IT项目经理</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B234" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C234" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E234" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F234" t="str">
         <v>大专及以上</v>
@@ -5764,13 +5764,13 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>前端高级讲师</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B235" t="str">
-        <v>10-18k·12薪</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D235" t="str">
         <v>郑州</v>
@@ -5779,7 +5779,7 @@
         <v>1-3年</v>
       </c>
       <c r="F235" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G235" t="str">
         <v>一个月前</v>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>.NET开发工程师</v>
+        <v>学术经理</v>
       </c>
       <c r="B236" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E236" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F236" t="str">
-        <v>中专/中技及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G236" t="str">
         <v>一个月前</v>
@@ -5810,19 +5810,19 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>网页UI设计师</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B237" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>羲和网络</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D237" t="str">
         <v>郑州</v>
       </c>
       <c r="E237" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F237" t="str">
         <v>大专及以上</v>
@@ -5833,22 +5833,22 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Web前端工程师</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B238" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C238" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D238" t="str">
         <v>郑州</v>
       </c>
       <c r="E238" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F238" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G238" t="str">
         <v>一个月前</v>
@@ -5856,22 +5856,22 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>检查员</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B239" t="str">
-        <v>3-5k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C239" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D239" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E239" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F239" t="str">
-        <v>学历不限</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G239" t="str">
         <v>一个月前</v>
@@ -5879,22 +5879,22 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>督导</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B240" t="str">
-        <v>3-5k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C240" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D240" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E240" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F240" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G240" t="str">
         <v>一个月前</v>
@@ -5902,19 +5902,19 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>游戏项目主程</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B241" t="str">
-        <v>10-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C241" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D241" t="str">
         <v>郑州</v>
       </c>
       <c r="E241" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F241" t="str">
         <v>大专及以上</v>
@@ -5925,22 +5925,22 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>检查员</v>
       </c>
       <c r="B242" t="str">
-        <v>面议</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C242" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D242" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E242" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F242" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G242" t="str">
         <v>一个月前</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>督导</v>
       </c>
       <c r="B243" t="str">
-        <v>6-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D243" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E243" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F243" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G243" t="str">
         <v>一个月前</v>
@@ -5971,22 +5971,22 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B244" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C244" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D244" t="str">
         <v>郑州</v>
       </c>
       <c r="E244" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F244" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G244" t="str">
         <v>一个月前</v>
@@ -5994,22 +5994,22 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>高级APP工程师</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B245" t="str">
-        <v>10-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C245" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D245" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E245" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F245" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G245" t="str">
         <v>一个月前</v>
@@ -6017,22 +6017,22 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>UI设计师</v>
+        <v>产品经理（英语项目）</v>
       </c>
       <c r="B246" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C246" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D246" t="str">
         <v>郑州</v>
       </c>
       <c r="E246" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F246" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G246" t="str">
         <v>一个月前</v>
@@ -6040,22 +6040,22 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>UI设计师</v>
+        <v>产品经理（咿啦看书项目）</v>
       </c>
       <c r="B247" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C247" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D247" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E247" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F247" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G247" t="str">
         <v>一个月前</v>
@@ -6063,22 +6063,22 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>中级软件测试工程师</v>
+        <v>高级APP工程师</v>
       </c>
       <c r="B248" t="str">
-        <v>10-14k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C248" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D248" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E248" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F248" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G248" t="str">
         <v>一个月前</v>
@@ -6086,19 +6086,19 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>UI设计工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B249" t="str">
-        <v>9-10k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C249" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D249" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E249" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F249" t="str">
         <v>大专及以上</v>
@@ -6109,22 +6109,22 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>产品经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B250" t="str">
-        <v>8-10k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C250" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D250" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E250" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F250" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G250" t="str">
         <v>一个月前</v>
@@ -6132,22 +6132,22 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>Mobile App</v>
+        <v>中级软件测试工程师</v>
       </c>
       <c r="B251" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-14k·12薪</v>
       </c>
       <c r="C251" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>上海陆鹰实业有限公司河南分公司</v>
       </c>
       <c r="D251" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E251" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F251" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G251" t="str">
         <v>一个月前</v>
@@ -6155,22 +6155,22 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>UI/UX developer</v>
+        <v>UI设计工程师</v>
       </c>
       <c r="B252" t="str">
-        <v>10-15k·12薪</v>
+        <v>9-10k·12薪</v>
       </c>
       <c r="C252" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D252" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E252" t="str">
         <v>3-5年</v>
       </c>
       <c r="F252" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G252" t="str">
         <v>一个月前</v>
@@ -6178,13 +6178,13 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>java软件工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B253" t="str">
-        <v>7-13k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C253" t="str">
-        <v>思维自动化</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D253" t="str">
         <v>郑州</v>
@@ -6193,7 +6193,7 @@
         <v>3-5年</v>
       </c>
       <c r="F253" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G253" t="str">
         <v>一个月前</v>
@@ -6201,30 +6201,99 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
+        <v>Mobile App</v>
+      </c>
+      <c r="B254" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C254" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D254" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E254" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F254" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G254" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>UI/UX developer</v>
+      </c>
+      <c r="B255" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C255" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D255" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E255" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F255" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G255" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B256" t="str">
+        <v>7-13k·13薪</v>
+      </c>
+      <c r="C256" t="str">
+        <v>思维自动化</v>
+      </c>
+      <c r="D256" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E256" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F256" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G256" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
         <v>研发工程师</v>
       </c>
-      <c r="B254" t="str">
+      <c r="B257" t="str">
         <v>5-10k·12薪</v>
       </c>
-      <c r="C254" t="str">
+      <c r="C257" t="str">
         <v>河南森源集团有限公司</v>
       </c>
-      <c r="D254" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E254" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F254" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G254" t="str">
+      <c r="D257" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E257" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F257" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G257" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G254"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G257"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,22 +405,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>Android</v>
       </c>
       <c r="B2" t="str">
-        <v>15-20k·13薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C2" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E2" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F2" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G2" t="str">
         <v>1小时前</v>
@@ -428,85 +428,85 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>15-20k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C3" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E3" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F3" t="str">
         <v>统招本科</v>
       </c>
       <c r="G3" t="str">
-        <v>1小时前</v>
+        <v>7小时前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>资深android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C4" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E4" t="str">
         <v>5-10年</v>
       </c>
       <c r="F4" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>1小时前</v>
+        <v>8小时前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E5" t="str">
         <v>3-5年</v>
       </c>
       <c r="F5" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G5" t="str">
-        <v>1小时前</v>
+        <v>8小时前</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B6" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
@@ -515,211 +515,211 @@
         <v>大专及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>1小时前</v>
+        <v>7小时前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B7" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E7" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F7" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G7" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B8" t="str">
-        <v>15-20k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C8" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E8" t="str">
         <v>5-10年</v>
       </c>
       <c r="F8" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G8" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>高级android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>12-18k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C9" t="str">
-        <v>某龙科教网络公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E9" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F9" t="str">
         <v>统招本科</v>
       </c>
       <c r="G9" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>7-12k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C10" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E10" t="str">
         <v>3-5年</v>
       </c>
       <c r="F10" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G10" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C11" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E11" t="str">
         <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G11" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Andriod开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>12-16k·13薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C12" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E12" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G12" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>7-10k·13薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E13" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F13" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G13" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>安卓开发工程师</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B14" t="str">
-        <v>7-10k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E14" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F14" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G14" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B15" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C15" t="str">
-        <v>欣宜嘉</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E15" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G15" t="str">
         <v>昨天</v>
@@ -727,22 +727,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>安卓端工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>8-13k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C16" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E16" t="str">
         <v>5-10年</v>
       </c>
       <c r="F16" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G16" t="str">
         <v>昨天</v>
@@ -750,105 +750,105 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C17" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F17" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G17" t="str">
-        <v>昨天</v>
+        <v>2020-12-09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Android应用开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>10-15k·15薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C18" t="str">
-        <v>某大型互联网上市公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E18" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F18" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G18" t="str">
-        <v>2020-11-27</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>10-13k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E19" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F19" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G19" t="str">
-        <v>2020-11-26</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>高级android开发工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>15-30k·13薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>知名软件公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E20" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F20" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G20" t="str">
-        <v>2020-11-26</v>
+        <v>2020-12-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>资深android开发工程师</v>
+        <v>android系统开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D21" t="str">
         <v>郑州</v>
@@ -860,53 +860,53 @@
         <v>统招本科</v>
       </c>
       <c r="G21" t="str">
-        <v>2020-11-26</v>
+        <v>2020-12-04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>资深安卓开发</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>15-20k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E22" t="str">
         <v>3-5年</v>
       </c>
       <c r="F22" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G22" t="str">
-        <v>2020-11-26</v>
+        <v>2020-11-30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>5-7k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C23" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E23" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F23" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G23" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-30</v>
       </c>
     </row>
     <row r="24">
@@ -914,59 +914,59 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>6-9k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>欣宜嘉</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E24" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F24" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G24" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>高级android工程师</v>
+        <v>Android应用开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>12-18k·12薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C25" t="str">
-        <v>知名软件公司</v>
+        <v>某大型互联网上市公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E25" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F25" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G25" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B26" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C26" t="str">
-        <v>迈特望</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E26" t="str">
         <v>3-5年</v>
@@ -975,30 +975,30 @@
         <v>大专及以上</v>
       </c>
       <c r="G26" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>12-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C27" t="str">
-        <v>绿建生态环境集团有限公司</v>
+        <v>迈特望</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E27" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F27" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="28">
@@ -1006,59 +1006,59 @@
         <v>android应用开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>12-20k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C28" t="str">
-        <v>绿建生态环境集团有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E28" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F28" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G28" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>10-15k·14薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C29" t="str">
-        <v>天迈科技</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
       </c>
       <c r="E29" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F29" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>2020-11-18</v>
+        <v>2020-11-17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>6-8k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E30" t="str">
         <v>1-3年</v>
@@ -1072,42 +1072,42 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>安卓开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>3-8k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F31" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>2020-11-17</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>7-11k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C32" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>河南紫马网络科技有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F32" t="str">
         <v>大专及以上</v>
@@ -1118,13 +1118,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C33" t="str">
-        <v>河南紫马网络科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D33" t="str">
         <v>郑州</v>
@@ -1133,33 +1133,33 @@
         <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G33" t="str">
-        <v>2020-11-16</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>APP开发工程师（ios、安卓方向）</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>8-12k·12薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C34" t="str">
-        <v>某地质矿产局下属单位</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E34" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F34" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G34" t="str">
-        <v>2020-11-16</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="35">
@@ -1167,13 +1167,13 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>6-11k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C35" t="str">
-        <v>新开普电子</v>
+        <v>牧原食品股份有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E35" t="str">
         <v>3-5年</v>
@@ -1182,44 +1182,44 @@
         <v>本科及以上</v>
       </c>
       <c r="G35" t="str">
-        <v>2020-11-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>高级android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B36" t="str">
-        <v>9-13k·13薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C36" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F36" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G36" t="str">
-        <v>2020-11-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B37" t="str">
-        <v>12-20k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C37" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
@@ -1228,18 +1228,18 @@
         <v>本科及以上</v>
       </c>
       <c r="G37" t="str">
-        <v>2020-11-11</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android系统开发工程师</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C38" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
@@ -1248,10 +1248,10 @@
         <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G38" t="str">
-        <v>2020-11-10</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="39">
@@ -1259,10 +1259,10 @@
         <v>android</v>
       </c>
       <c r="B39" t="str">
-        <v>8-11k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C39" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
@@ -1274,50 +1274,50 @@
         <v>大专及以上</v>
       </c>
       <c r="G39" t="str">
-        <v>2020-11-06</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>安卓开发软件工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B40" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C40" t="str">
-        <v>正星科技</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E40" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F40" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G40" t="str">
-        <v>2020-11-03</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B41" t="str">
-        <v>5-9k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C41" t="str">
-        <v>中裕广恒</v>
+        <v>正商地产</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E41" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F41" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G41" t="str">
         <v>一个月前</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android app开发工程师</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B42" t="str">
-        <v>8-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C42" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E42" t="str">
         <v>3-5年</v>
       </c>
       <c r="F42" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G42" t="str">
         <v>一个月前</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>9-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C43" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D43" t="str">
         <v>郑州</v>
       </c>
       <c r="E43" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F43" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G43" t="str">
         <v>一个月前</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android开发</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B44" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C44" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E44" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F44" t="str">
         <v>统招本科</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>8-12k·14薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C45" t="str">
-        <v>正商地产</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E45" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F45" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G45" t="str">
         <v>一个月前</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B46" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C46" t="str">
-        <v>正商地产</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E46" t="str">
         <v>3-5年</v>
       </c>
       <c r="F46" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G46" t="str">
         <v>一个月前</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B47" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C47" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E47" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F47" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G47" t="str">
         <v>一个月前</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>7.Android developer 安卓开发者</v>
       </c>
       <c r="B48" t="str">
-        <v>10-12k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E48" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F48" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G48" t="str">
         <v>一个月前</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>android开发工程师</v>
+        <v>Android Developer</v>
       </c>
       <c r="B49" t="str">
-        <v>6-8k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C49" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E49" t="str">
         <v>5-10年</v>
       </c>
       <c r="F49" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G49" t="str">
         <v>一个月前</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android开发工程师岗</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B50" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C50" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E50" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F50" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G50" t="str">
         <v>一个月前</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android开发</v>
+        <v>Android</v>
       </c>
       <c r="B51" t="str">
-        <v>6-10k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D51" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E51" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G51" t="str">
         <v>一个月前</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>7.Android developer 安卓开发者</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>26-40k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C52" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E52" t="str">
         <v>5-10年</v>
       </c>
       <c r="F52" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G52" t="str">
         <v>一个月前</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Android Developer</v>
+        <v>Android</v>
       </c>
       <c r="B53" t="str">
-        <v>26-40k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E53" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>超图软件</v>
+        <v>杭州玛亚科技有限公司</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
       </c>
       <c r="E54" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F54" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G54" t="str">
         <v>一个月前</v>
@@ -1624,16 +1624,16 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>安卓/Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>12-20k·13薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C55" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>牧原食品股份有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E55" t="str">
         <v>3-5年</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E56" t="str">
         <v>3-5年</v>
       </c>
       <c r="F56" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G56" t="str">
         <v>一个月前</v>
@@ -1670,19 +1670,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B57" t="str">
-        <v>7-14k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C57" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F57" t="str">
         <v>大专及以上</v>
@@ -1693,19 +1693,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C58" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E58" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F58" t="str">
         <v>大专及以上</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C59" t="str">
-        <v>杭州玛亚科技有限公司</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F59" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G59" t="str">
         <v>一个月前</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D60" t="str">
         <v>郑州</v>
@@ -1754,7 +1754,7 @@
         <v>3-5年</v>
       </c>
       <c r="F60" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G60" t="str">
         <v>一个月前</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C61" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E61" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F61" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G61" t="str">
         <v>一个月前</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>6k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E62" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F62" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G62" t="str">
         <v>一个月前</v>
@@ -1808,22 +1808,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>android开发工程师</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B63" t="str">
-        <v>8-16k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C63" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>汉克时代</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E63" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F63" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G63" t="str">
         <v>一个月前</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android开发工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B64" t="str">
-        <v>6-12k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>三门峡崤云信息服务股份有限公司</v>
       </c>
       <c r="D64" t="str">
         <v>郑州</v>
       </c>
       <c r="E64" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G64" t="str">
         <v>一个月前</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D65" t="str">
         <v>郑州</v>
@@ -1869,7 +1869,7 @@
         <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G65" t="str">
         <v>一个月前</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>5-10k·13薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C66" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>京东</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F66" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G66" t="str">
         <v>一个月前</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B67" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州</v>
       </c>
       <c r="E67" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F67" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G67" t="str">
         <v>一个月前</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>汉克时代</v>
+        <v>比特耐特</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E68" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F68" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G68" t="str">
         <v>一个月前</v>
@@ -1946,19 +1946,19 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>Android</v>
       </c>
       <c r="B69" t="str">
-        <v>14-18k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>三门峡崤云信息服务股份有限公司</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E69" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F69" t="str">
         <v>本科及以上</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B70" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D70" t="str">
         <v>郑州</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android开发工程师</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>20-40k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>京东</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E71" t="str">
         <v>经验不限</v>
       </c>
       <c r="F71" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G71" t="str">
         <v>一个月前</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>4-8k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C72" t="str">
-        <v>比特耐特</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D72" t="str">
         <v>郑州</v>
       </c>
       <c r="E72" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F72" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G72" t="str">
         <v>一个月前</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android开发工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>比特耐特</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E73" t="str">
         <v>1-3年</v>
       </c>
       <c r="F73" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G73" t="str">
         <v>一个月前</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android</v>
+        <v>android工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>6-9k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C74" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E74" t="str">
         <v>1-3年</v>
       </c>
       <c r="F74" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G74" t="str">
         <v>一个月前</v>
@@ -2087,19 +2087,19 @@
         <v>Android</v>
       </c>
       <c r="B75" t="str">
-        <v>4-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C75" t="str">
-        <v>河南相府房地产经纪有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D75" t="str">
         <v>郑州</v>
       </c>
       <c r="E75" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F75" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G75" t="str">
         <v>一个月前</v>
@@ -2107,19 +2107,19 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android开发</v>
+        <v>Android</v>
       </c>
       <c r="B76" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D76" t="str">
         <v>郑州</v>
       </c>
       <c r="E76" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F76" t="str">
         <v>大专及以上</v>
@@ -2130,19 +2130,19 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>android逆向工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B77" t="str">
-        <v>7-10k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E77" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F77" t="str">
         <v>大专及以上</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B78" t="str">
-        <v>14-18k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D78" t="str">
         <v>郑州</v>
       </c>
       <c r="E78" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F78" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G78" t="str">
         <v>一个月前</v>
@@ -2176,19 +2176,19 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android工程师</v>
+        <v>Android</v>
       </c>
       <c r="B79" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C79" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E79" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F79" t="str">
         <v>本科及以上</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>8-12k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E80" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F80" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G80" t="str">
         <v>一个月前</v>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D81" t="str">
         <v>郑州</v>
       </c>
       <c r="E81" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F81" t="str">
         <v>本科及以上</v>
@@ -2245,16 +2245,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>8-11k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E82" t="str">
         <v>1-3年</v>
@@ -2268,16 +2268,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android开发</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>华英农业</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E83" t="str">
         <v>1-3年</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Android</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B84" t="str">
         <v>6-8k·12薪</v>
       </c>
       <c r="C84" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E84" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F84" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G84" t="str">
         <v>一个月前</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android</v>
+        <v>android开发</v>
       </c>
       <c r="B85" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E85" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F85" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G85" t="str">
         <v>一个月前</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B86" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E86" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F86" t="str">
         <v>大专及以上</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C87" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D87" t="str">
         <v>郑州</v>
       </c>
       <c r="E87" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F87" t="str">
         <v>本科及以上</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C88" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E88" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F88" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G88" t="str">
         <v>一个月前</v>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E89" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F89" t="str">
         <v>大专及以上</v>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>6-8k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E90" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F90" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G90" t="str">
         <v>一个月前</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州</v>
       </c>
       <c r="E91" t="str">
         <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G91" t="str">
         <v>一个月前</v>
@@ -2475,19 +2475,19 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>7-10k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>网道咨询</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E92" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F92" t="str">
         <v>大专及以上</v>
@@ -2501,13 +2501,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E93" t="str">
         <v>1-3年</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>6-13k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E94" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F94" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G94" t="str">
         <v>一个月前</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android开发工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B95" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E95" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F95" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G95" t="str">
         <v>一个月前</v>
@@ -2570,10 +2570,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>4-8k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>华英农业</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
@@ -2582,7 +2582,7 @@
         <v>1-3年</v>
       </c>
       <c r="F96" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G96" t="str">
         <v>一个月前</v>
@@ -2590,19 +2590,19 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州</v>
       </c>
       <c r="E97" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F97" t="str">
         <v>本科及以上</v>
@@ -2613,16 +2613,16 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android开发工程师</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>7-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E98" t="str">
         <v>3-5年</v>
@@ -2639,19 +2639,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-国基路</v>
       </c>
       <c r="E99" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F99" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G99" t="str">
         <v>一个月前</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>4-9k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C100" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E100" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F100" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G100" t="str">
         <v>一个月前</v>
@@ -2682,19 +2682,19 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android讲师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B101" t="str">
-        <v>8-12k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D101" t="str">
         <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F101" t="str">
         <v>本科及以上</v>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B102" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
@@ -2720,7 +2720,7 @@
         <v>1-3年</v>
       </c>
       <c r="F102" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G102" t="str">
         <v>一个月前</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D103" t="str">
         <v>郑州</v>
       </c>
       <c r="E103" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F103" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G103" t="str">
         <v>一个月前</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>8-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>修齐治平</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E104" t="str">
         <v>3-5年</v>
       </c>
       <c r="F104" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G104" t="str">
         <v>一个月前</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C105" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州-国基路</v>
+        <v>郑州</v>
       </c>
       <c r="E105" t="str">
         <v>3-5年</v>
       </c>
       <c r="F105" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G105" t="str">
         <v>一个月前</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>安卓工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B106" t="str">
-        <v>8-13k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E106" t="str">
         <v>3-5年</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>安卓开发</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>12-20k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>思维自动化</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F107" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G107" t="str">
         <v>一个月前</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>安卓开发</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C108" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E108" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F108" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G108" t="str">
         <v>一个月前</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>安卓工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B109" t="str">
-        <v>6-7k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E109" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F109" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G109" t="str">
         <v>一个月前</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E110" t="str">
         <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G110" t="str">
         <v>一个月前</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>10-12k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E111" t="str">
         <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G111" t="str">
         <v>一个月前</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>安卓讲师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E112" t="str">
         <v>3-5年</v>
       </c>
       <c r="F112" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G112" t="str">
         <v>一个月前</v>
@@ -2961,16 +2961,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>6-10k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>鑫安利科技</v>
+        <v>蓓安科仪(北京)技术有限公司</v>
       </c>
       <c r="D113" t="str">
         <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F113" t="str">
         <v>本科及以上</v>
@@ -2987,16 +2987,16 @@
         <v>6-8k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>思维自动化</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D114" t="str">
         <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F114" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G114" t="str">
         <v>一个月前</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>8-20k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>安徽省刀锋网络科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F115" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G115" t="str">
         <v>一个月前</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>7-10k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C116" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E116" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F116" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G116" t="str">
         <v>一个月前</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>安卓开发工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>8-12k·14薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>蓝信科技</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E117" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F117" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G117" t="str">
         <v>一个月前</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>6-11k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E118" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F118" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G118" t="str">
         <v>一个月前</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B119" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E119" t="str">
         <v>3-5年</v>
       </c>
       <c r="F119" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G119" t="str">
         <v>一个月前</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B120" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E120" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F120" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G120" t="str">
         <v>一个月前</v>
@@ -3142,177 +3142,177 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>安卓开发工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>7-9k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>蓓安科仪(北京)技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E121" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F121" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G121" t="str">
-        <v>一个月前</v>
+        <v>8小时前</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓开发工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州</v>
       </c>
       <c r="E122" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F122" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G122" t="str">
-        <v>一个月前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>3-8k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C123" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E123" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F123" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G123" t="str">
-        <v>一个月前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>安卓开发工程师</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>5-7k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E124" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F124" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G124" t="str">
-        <v>一个月前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C125" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E125" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F125" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G125" t="str">
-        <v>一个月前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓app开发工程师</v>
+        <v>软件工程师 (智能座舱架构方向)</v>
       </c>
       <c r="B126" t="str">
-        <v>3-8k·12薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C126" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>精益达</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F126" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G126" t="str">
-        <v>一个月前</v>
+        <v>19小时前</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>安卓开发（双休）</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6-9k·12薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C127" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G127" t="str">
-        <v>一个月前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>安卓开发偏客户端方向</v>
+        <v>软件工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>5-8k·12薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C128" t="str">
-        <v>河南省教育网有限公司</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E128" t="str">
         <v>1-3年</v>
@@ -3321,153 +3321,153 @@
         <v>大专及以上</v>
       </c>
       <c r="G128" t="str">
-        <v>一个月前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C129" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E129" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F129" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G129" t="str">
-        <v>一个月前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>15-20k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C130" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E130" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F130" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G130" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>web前端开发工程师</v>
+        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
       </c>
       <c r="B131" t="str">
-        <v>8-10k·12薪</v>
+        <v>25-50k·12薪</v>
       </c>
       <c r="C131" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>国内知名车企+新能源汽车</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州,武汉,上海</v>
       </c>
       <c r="E131" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F131" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G131" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>前端开发工程师</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B132" t="str">
-        <v>6-10k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F132" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G132" t="str">
-        <v>1小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>软件工程师</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B133" t="str">
-        <v>5-11k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C133" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F133" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G133" t="str">
-        <v>48分钟前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B134" t="str">
-        <v>8-12k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C134" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E134" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F134" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G134" t="str">
-        <v>1小时前</v>
+        <v>2020-12-09</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>流媒体系统架构师</v>
+        <v>流媒体开发</v>
       </c>
       <c r="B135" t="str">
-        <v>12-18k·12薪</v>
+        <v>11-13k·12薪</v>
       </c>
       <c r="C135" t="str">
         <v>某龙科教网络公司</v>
@@ -3476,165 +3476,165 @@
         <v>郑州-高新区</v>
       </c>
       <c r="E135" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F135" t="str">
         <v>统招本科</v>
       </c>
       <c r="G135" t="str">
-        <v>1小时前</v>
+        <v>2020-12-09</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
+        <v>系统架构师</v>
       </c>
       <c r="B136" t="str">
-        <v>25-50k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C136" t="str">
-        <v>国内知名车企+新能源汽车</v>
+        <v>油田咨询</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州,武汉,上海</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E136" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F136" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G136" t="str">
-        <v>1小时前</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>软件工程师 (智能座舱架构方向)</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B137" t="str">
-        <v>25-35k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C137" t="str">
-        <v>精益达</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D137" t="str">
         <v>郑州</v>
       </c>
       <c r="E137" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F137" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G137" t="str">
-        <v>23小时前</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>测试工程师</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>6-12k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C138" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E138" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F138" t="str">
-        <v>统招本科</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G138" t="str">
-        <v>昨天</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>移动端开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>8-17k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E139" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F139" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G139" t="str">
-        <v>2020-11-27</v>
+        <v>2020-12-04</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>前端开发工程师</v>
+        <v>流媒体系统架构师</v>
       </c>
       <c r="B140" t="str">
-        <v>8-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C140" t="str">
-        <v>北大软件</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E140" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F140" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G140" t="str">
-        <v>2020-11-27</v>
+        <v>2020-12-04</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Java开发工程师</v>
+        <v>信息化专员</v>
       </c>
       <c r="B141" t="str">
-        <v>6-12k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C141" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>建业新生活</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E141" t="str">
         <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G141" t="str">
-        <v>2020-11-27</v>
+        <v>2020-12-02</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>系统架构师</v>
+        <v>嵌入式软件工程师（新三板上市公司）</v>
       </c>
       <c r="B142" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C142" t="str">
-        <v>油田咨询</v>
+        <v>恩普特</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E142" t="str">
         <v>5-10年</v>
@@ -3643,61 +3643,61 @@
         <v>本科及以上</v>
       </c>
       <c r="G142" t="str">
-        <v>2020-11-27</v>
+        <v>2020-12-02</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>系统测试工程师</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B143" t="str">
-        <v>5-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C143" t="str">
-        <v>油田咨询</v>
+        <v>中原期货</v>
       </c>
       <c r="D143" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E143" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F143" t="str">
-        <v>硕士及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G143" t="str">
-        <v>2020-11-27</v>
+        <v>2020-11-30</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>java高级工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>10-11k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C144" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>北大软件</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E144" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F144" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G144" t="str">
-        <v>2020-11-26</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>java高级软件工程师</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C145" t="str">
         <v>郑州速衍科技有限公司</v>
@@ -3706,7 +3706,7 @@
         <v>郑州</v>
       </c>
       <c r="E145" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F145" t="str">
         <v>大专及以上</v>
@@ -3717,19 +3717,19 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>FAE现场工程师</v>
+        <v>java高级软件工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C146" t="str">
-        <v>广东九联科技股份有限公司</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D146" t="str">
         <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F146" t="str">
         <v>大专及以上</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>产品经理</v>
+        <v>FAE现场工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C147" t="str">
-        <v>郑州小魔兽电子商务有限公司</v>
+        <v>广东九联科技股份有限公司</v>
       </c>
       <c r="D147" t="str">
         <v>郑州</v>
       </c>
       <c r="E147" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F147" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G147" t="str">
         <v>2020-11-26</v>
@@ -3763,25 +3763,25 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>技术总监</v>
+        <v>产品经理</v>
       </c>
       <c r="B148" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C148" t="str">
-        <v>欣宜嘉</v>
+        <v>郑州小魔兽电子商务有限公司</v>
       </c>
       <c r="D148" t="str">
         <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F148" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G148" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="149">
@@ -3789,16 +3789,16 @@
         <v>技术总监</v>
       </c>
       <c r="B149" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C149" t="str">
         <v>欣宜嘉</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E149" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F149" t="str">
         <v>本科及以上</v>
@@ -3809,48 +3809,48 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>移动端资深产品经理</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B150" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C150" t="str">
-        <v>安徽省刀锋网络科技有限公司</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D150" t="str">
         <v>郑州</v>
       </c>
       <c r="E150" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F150" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G150" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>10-20k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C151" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D151" t="str">
         <v>郑州</v>
       </c>
       <c r="E151" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F151" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G151" t="str">
-        <v>2020-11-23</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="152">
@@ -3878,137 +3878,137 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>流媒体系统架构师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C153" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E153" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F153" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G153" t="str">
-        <v>2020-11-20</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>高级产品经理</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>15-25k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C154" t="str">
-        <v>安徽省刀锋网络科技有限公司</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E154" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F154" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>2020-11-16</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>JAVA（全栈）后台工程师</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C155" t="str">
-        <v>某地质矿产局下属单位</v>
+        <v>新开普电子</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E155" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F155" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G155" t="str">
-        <v>2020-11-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>7-11k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C156" t="str">
-        <v>新开普电子</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D156" t="str">
         <v>郑州</v>
       </c>
       <c r="E156" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F156" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G156" t="str">
-        <v>2020-11-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>C++开发工程师中级</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C157" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E157" t="str">
         <v>3-5年</v>
       </c>
       <c r="F157" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>2020-11-11</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>移动前端开发工程师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>9-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C158" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E158" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F158" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G158" t="str">
         <v>一个月前</v>
@@ -4016,36 +4016,36 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B159" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>中原期货</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E159" t="str">
         <v>3-5年</v>
       </c>
       <c r="F159" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G159" t="str">
-        <v>2020-11-10</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>前端工程师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B160" t="str">
-        <v>8-13k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C160" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D160" t="str">
         <v>郑州-金水区</v>
@@ -4054,7 +4054,7 @@
         <v>3-5年</v>
       </c>
       <c r="F160" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G160" t="str">
         <v>一个月前</v>
@@ -4062,22 +4062,22 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>移动前端开发工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E161" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F161" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G161" t="str">
         <v>一个月前</v>
@@ -4085,22 +4085,22 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>6-12k·13薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C162" t="str">
-        <v>新开普电子</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D162" t="str">
         <v>郑州</v>
       </c>
       <c r="E162" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F162" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G162" t="str">
         <v>一个月前</v>
@@ -4108,13 +4108,13 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>手机软件开发工程师</v>
+        <v>java开发</v>
       </c>
       <c r="B163" t="str">
-        <v>6-7k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D163" t="str">
         <v>郑州</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>app开发工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E164" t="str">
         <v>3-5年</v>
       </c>
       <c r="F164" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G164" t="str">
         <v>一个月前</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C165" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E165" t="str">
         <v>1-3年</v>
       </c>
       <c r="F165" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G165" t="str">
         <v>一个月前</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>ASO优化师</v>
+        <v>APP工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C166" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E166" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F166" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G166" t="str">
         <v>一个月前</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>app运营主管</v>
+        <v>APP推广</v>
       </c>
       <c r="B167" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E167" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F167" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G167" t="str">
         <v>一个月前</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>移动开发工程师</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>10-17k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E168" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F168" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G168" t="str">
         <v>一个月前</v>
@@ -4246,19 +4246,19 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>软件工程师</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B169" t="str">
-        <v>5-8k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>郑州卓安</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D169" t="str">
         <v>郑州</v>
       </c>
       <c r="E169" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F169" t="str">
         <v>大专及以上</v>
@@ -4269,16 +4269,16 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>java开发</v>
+        <v>app推广经理</v>
       </c>
       <c r="B170" t="str">
-        <v>5-8k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>郑州卓安</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E170" t="str">
         <v>1-3年</v>
@@ -4292,13 +4292,13 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>移动开发工程师</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B171" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D171" t="str">
         <v>郑州</v>
@@ -4307,7 +4307,7 @@
         <v>3-5年</v>
       </c>
       <c r="F171" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G171" t="str">
         <v>一个月前</v>
@@ -4315,16 +4315,16 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>软件测试工程师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B172" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E172" t="str">
         <v>1-3年</v>
@@ -4338,36 +4338,36 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>APP工程师</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B173" t="str">
-        <v>10-12k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C173" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E173" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F173" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G173" t="str">
-        <v>一个月前</v>
+        <v>2020-11-13</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B174" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D174" t="str">
         <v>郑州-高新区</v>
@@ -4376,53 +4376,53 @@
         <v>3-5年</v>
       </c>
       <c r="F174" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G174" t="str">
-        <v>2020-11-05</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>智能技术开发主管</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B175" t="str">
-        <v>面议</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C175" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E175" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F175" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G175" t="str">
-        <v>2020-11-04</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>APP推广</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B176" t="str">
-        <v>5-10k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C176" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E176" t="str">
-        <v>经验不限</v>
+        <v>10年以上</v>
       </c>
       <c r="F176" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G176" t="str">
         <v>一个月前</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>应用层开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B177" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>正星科技</v>
       </c>
       <c r="D177" t="str">
         <v>郑州</v>
       </c>
       <c r="E177" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F177" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G177" t="str">
         <v>一个月前</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>高级前端讲师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B178" t="str">
-        <v>15-30k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>北京千锋互联科技</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D178" t="str">
         <v>郑州</v>
       </c>
       <c r="E178" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F178" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G178" t="str">
         <v>一个月前</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>app推广经理</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B179" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E179" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F179" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G179" t="str">
         <v>一个月前</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B180" t="str">
-        <v>6-10k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E180" t="str">
         <v>3-5年</v>
       </c>
       <c r="F180" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G180" t="str">
         <v>一个月前</v>
@@ -4522,19 +4522,19 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>ui设计师</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B181" t="str">
-        <v>4-8k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E181" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F181" t="str">
         <v>大专及以上</v>
@@ -4545,42 +4545,42 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>产品经理</v>
       </c>
       <c r="B182" t="str">
-        <v>8-15k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C182" t="str">
-        <v>正星科技</v>
+        <v>郑州XX公司</v>
       </c>
       <c r="D182" t="str">
         <v>郑州</v>
       </c>
       <c r="E182" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F182" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G182" t="str">
-        <v>2020-11-03</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Java开发工程师</v>
+        <v>架构师</v>
       </c>
       <c r="B183" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D183" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E183" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F183" t="str">
         <v>本科及以上</v>
@@ -4591,13 +4591,13 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>APP运营主管/经理</v>
+        <v>ui</v>
       </c>
       <c r="B184" t="str">
-        <v>10-18k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D184" t="str">
         <v>郑州</v>
@@ -4606,7 +4606,7 @@
         <v>3-5年</v>
       </c>
       <c r="F184" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G184" t="str">
         <v>一个月前</v>
@@ -4614,22 +4614,22 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>JAVA开发</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B185" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E185" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F185" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G185" t="str">
         <v>一个月前</v>
@@ -4637,19 +4637,19 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>java开发工程师</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B186" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C186" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>埃林哲</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E186" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F186" t="str">
         <v>本科及以上</v>
@@ -4660,13 +4660,13 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B187" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>信大捷安</v>
       </c>
       <c r="D187" t="str">
         <v>郑州</v>
@@ -4675,7 +4675,7 @@
         <v>5-10年</v>
       </c>
       <c r="F187" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G187" t="str">
         <v>一个月前</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>产品经理</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B188" t="str">
-        <v>8-13k·13薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C188" t="str">
-        <v>郑州XX公司</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E188" t="str">
         <v>3-5年</v>
       </c>
       <c r="F188" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G188" t="str">
         <v>一个月前</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>架构师</v>
+        <v>Mobile Application Developer</v>
       </c>
       <c r="B189" t="str">
-        <v>15-20k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C189" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E189" t="str">
         <v>5-10年</v>
       </c>
       <c r="F189" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G189" t="str">
         <v>一个月前</v>
@@ -4729,22 +4729,22 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>ui</v>
+        <v>Senior System Developer 资深系统工程师</v>
       </c>
       <c r="B190" t="str">
-        <v>6-11k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D190" t="str">
         <v>郑州</v>
       </c>
       <c r="E190" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F190" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G190" t="str">
         <v>一个月前</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>中级JAVA开发</v>
+        <v>商务助理</v>
       </c>
       <c r="B191" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C191" t="str">
-        <v>正商地产</v>
+        <v>河南准澳网络科技有限公司</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E191" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F191" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G191" t="str">
         <v>一个月前</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B192" t="str">
-        <v>10-15k·12薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>埃林哲</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E192" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F192" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G192" t="str">
         <v>一个月前</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>产品经理</v>
       </c>
       <c r="B193" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-12k·13薪</v>
       </c>
       <c r="C193" t="str">
-        <v>信大捷安</v>
+        <v>完美数联(杭州)科技有限公司</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E193" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F193" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G193" t="str">
         <v>一个月前</v>
@@ -4821,19 +4821,19 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B194" t="str">
-        <v>13-25k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E194" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F194" t="str">
         <v>本科及以上</v>
@@ -4844,22 +4844,22 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Mobile Application Developer</v>
+        <v>产品经理</v>
       </c>
       <c r="B195" t="str">
-        <v>26-40k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C195" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E195" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F195" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G195" t="str">
         <v>一个月前</v>
@@ -4867,22 +4867,22 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Senior System Developer 资深系统工程师</v>
+        <v>维护工程师</v>
       </c>
       <c r="B196" t="str">
-        <v>26-40k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E196" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F196" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G196" t="str">
         <v>一个月前</v>
@@ -4890,13 +4890,13 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>商务助理</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B197" t="str">
-        <v>5-8k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>河南准澳网络科技有限公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D197" t="str">
         <v>郑州-郑东新区</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B198" t="str">
-        <v>13-18k·12薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E198" t="str">
         <v>3-5年</v>
       </c>
       <c r="F198" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G198" t="str">
         <v>一个月前</v>
@@ -4936,22 +4936,22 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>产品经理</v>
+        <v>软件开发</v>
       </c>
       <c r="B199" t="str">
-        <v>7-12k·13薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C199" t="str">
-        <v>完美数联(杭州)科技有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E199" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F199" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G199" t="str">
         <v>一个月前</v>
@@ -4959,22 +4959,22 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>UI高级设计师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B200" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D200" t="str">
         <v>郑州</v>
       </c>
       <c r="E200" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F200" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G200" t="str">
         <v>一个月前</v>
@@ -4982,19 +4982,19 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>嵌入式软件工程师（新三板上市公司）</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B201" t="str">
-        <v>10-20k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>恩普特</v>
+        <v>中原银行</v>
       </c>
       <c r="D201" t="str">
         <v>郑州</v>
       </c>
       <c r="E201" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F201" t="str">
         <v>本科及以上</v>
@@ -5005,22 +5005,22 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>产品经理</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B202" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D202" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E202" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F202" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G202" t="str">
         <v>一个月前</v>
@@ -5028,16 +5028,16 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>维护工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B203" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E203" t="str">
         <v>3-5年</v>
@@ -5051,19 +5051,19 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>维护助理工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B204" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D204" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E204" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F204" t="str">
         <v>大专及以上</v>
@@ -5074,22 +5074,22 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>iOS开发工程师</v>
+        <v>驻场安服工程师-郑州(J12532)</v>
       </c>
       <c r="B205" t="str">
-        <v>14-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>浩鲸新智能科技股份有限公司</v>
+        <v>绿盟科技集团股份有限公司</v>
       </c>
       <c r="D205" t="str">
         <v>郑州</v>
       </c>
       <c r="E205" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F205" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G205" t="str">
         <v>一个月前</v>
@@ -5097,19 +5097,19 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>软件开发</v>
+        <v>软件研发总监</v>
       </c>
       <c r="B206" t="str">
-        <v>15-21k·12薪</v>
+        <v>20-25k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>河南博联慧绿科技集团有限公司</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E206" t="str">
-        <v>经验不限</v>
+        <v>10年以上</v>
       </c>
       <c r="F206" t="str">
         <v>本科及以上</v>
@@ -5120,22 +5120,22 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>移动开发工程师</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E207" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F207" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G207" t="str">
         <v>一个月前</v>
@@ -5143,19 +5143,19 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>移动端开发工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B208" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C208" t="str">
-        <v>中原银行</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D208" t="str">
         <v>郑州</v>
       </c>
       <c r="E208" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F208" t="str">
         <v>本科及以上</v>
@@ -5166,19 +5166,19 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>软件外包业务经理</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B209" t="str">
-        <v>8-16k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C209" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D209" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E209" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F209" t="str">
         <v>本科及以上</v>
@@ -5189,16 +5189,16 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>产品经理</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B210" t="str">
-        <v>8-13k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C210" t="str">
-        <v>新开普电子</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E210" t="str">
         <v>3-5年</v>
@@ -5212,19 +5212,19 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>产品经理</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B211" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E211" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F211" t="str">
         <v>大专及以上</v>
@@ -5235,19 +5235,19 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>驻场安服工程师-郑州(J12532)</v>
+        <v>前端工程师</v>
       </c>
       <c r="B212" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>绿盟科技集团股份有限公司</v>
+        <v>元丰科技</v>
       </c>
       <c r="D212" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E212" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F212" t="str">
         <v>大专及以上</v>
@@ -5258,22 +5258,22 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>软件研发总监</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B213" t="str">
-        <v>20-25k·12薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C213" t="str">
-        <v>河南博联慧绿科技集团有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E213" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F213" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G213" t="str">
         <v>一个月前</v>
@@ -5281,16 +5281,16 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B214" t="str">
-        <v>10-15k·12薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C214" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D214" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E214" t="str">
         <v>3-5年</v>
@@ -5304,19 +5304,19 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>测试工程师</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B215" t="str">
-        <v>6-12k·14薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>环信</v>
       </c>
       <c r="D215" t="str">
         <v>郑州</v>
       </c>
       <c r="E215" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F215" t="str">
         <v>本科及以上</v>
@@ -5327,22 +5327,22 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>高级软件工程师</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B216" t="str">
-        <v>8-12k·13薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E216" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F216" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G216" t="str">
         <v>一个月前</v>
@@ -5350,22 +5350,22 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B217" t="str">
-        <v>面议</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C217" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E217" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F217" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G217" t="str">
         <v>一个月前</v>
@@ -5373,22 +5373,22 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B218" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C218" t="str">
-        <v>北京千锋互联科技</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D218" t="str">
         <v>郑州</v>
       </c>
       <c r="E218" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F218" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G218" t="str">
         <v>一个月前</v>
@@ -5396,19 +5396,19 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>前端工程师</v>
+        <v>IOS</v>
       </c>
       <c r="B219" t="str">
-        <v>6-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C219" t="str">
-        <v>元丰科技</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D219" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E219" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F219" t="str">
         <v>大专及以上</v>
@@ -5419,19 +5419,19 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B220" t="str">
-        <v>15-25k·13薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C220" t="str">
-        <v>朗新科技</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D220" t="str">
         <v>郑州</v>
       </c>
       <c r="E220" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F220" t="str">
         <v>大专及以上</v>
@@ -5442,13 +5442,13 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B221" t="str">
-        <v>11-20k·13薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>朗新科技</v>
+        <v>国际交友</v>
       </c>
       <c r="D221" t="str">
         <v>郑州</v>
@@ -5465,22 +5465,22 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>售前技术支持</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B222" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C222" t="str">
-        <v>环信</v>
+        <v>国际交友</v>
       </c>
       <c r="D222" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E222" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F222" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G222" t="str">
         <v>一个月前</v>
@@ -5488,22 +5488,22 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>java软件开发工程师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B223" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C223" t="str">
-        <v>河南相府房地产经纪有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D223" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E223" t="str">
         <v>3-5年</v>
       </c>
       <c r="F223" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G223" t="str">
         <v>一个月前</v>
@@ -5511,22 +5511,22 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>java开发工程师助理</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B224" t="str">
-        <v>4-6k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D224" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E224" t="str">
         <v>经验不限</v>
       </c>
       <c r="F224" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G224" t="str">
         <v>一个月前</v>
@@ -5534,22 +5534,22 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>UI设计师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B225" t="str">
-        <v>4-6k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C225" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D225" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E225" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F225" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G225" t="str">
         <v>一个月前</v>
@@ -5557,22 +5557,22 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>PC客户端产品经理</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B226" t="str">
         <v>6-10k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E226" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F226" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G226" t="str">
         <v>一个月前</v>
@@ -5580,22 +5580,22 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>IOS</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B227" t="str">
-        <v>15-25k·12薪</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D227" t="str">
         <v>郑州</v>
       </c>
       <c r="E227" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F227" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G227" t="str">
         <v>一个月前</v>
@@ -5603,22 +5603,22 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>学术经理</v>
       </c>
       <c r="B228" t="str">
-        <v>18-25k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D228" t="str">
         <v>郑州</v>
       </c>
       <c r="E228" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F228" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G228" t="str">
         <v>一个月前</v>
@@ -5626,13 +5626,13 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>高级软件测试工程师</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B229" t="str">
-        <v>7-9k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>国际交友</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D229" t="str">
         <v>郑州</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>高级软件测试工程师</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B230" t="str">
-        <v>7-9k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>国际交友</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D230" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E230" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F230" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G230" t="str">
         <v>一个月前</v>
@@ -5672,22 +5672,22 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>JAVA开发工程师</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B231" t="str">
-        <v>6-8k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>地理信息系统</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D231" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E231" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F231" t="str">
-        <v>大专及以上</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G231" t="str">
         <v>一个月前</v>
@@ -5695,22 +5695,22 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>摄像头调试工程师</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B232" t="str">
-        <v>4-9k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D232" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E232" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F232" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G232" t="str">
         <v>一个月前</v>
@@ -5718,22 +5718,22 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B233" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D233" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E233" t="str">
         <v>3-5年</v>
       </c>
       <c r="F233" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G233" t="str">
         <v>一个月前</v>
@@ -5741,22 +5741,22 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>检查员</v>
       </c>
       <c r="B234" t="str">
-        <v>6-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C234" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E234" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F234" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G234" t="str">
         <v>一个月前</v>
@@ -5764,19 +5764,19 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>cocos开发工程师</v>
+        <v>督导</v>
       </c>
       <c r="B235" t="str">
-        <v>9-16k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D235" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E235" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F235" t="str">
         <v>学历不限</v>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>学术经理</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B236" t="str">
-        <v>8-15k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D236" t="str">
         <v>郑州</v>
       </c>
       <c r="E236" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F236" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G236" t="str">
         <v>一个月前</v>
@@ -5810,22 +5810,22 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>IT项目经理</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B237" t="str">
-        <v>8-10k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C237" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D237" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E237" t="str">
         <v>3-5年</v>
       </c>
       <c r="F237" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G237" t="str">
         <v>一个月前</v>
@@ -5833,19 +5833,19 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>前端高级讲师</v>
+        <v>产品经理（英语项目）</v>
       </c>
       <c r="B238" t="str">
-        <v>10-18k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C238" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D238" t="str">
         <v>郑州</v>
       </c>
       <c r="E238" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F238" t="str">
         <v>本科及以上</v>
@@ -5856,22 +5856,22 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>.NET开发工程师</v>
+        <v>产品经理（咿啦看书项目）</v>
       </c>
       <c r="B239" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C239" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D239" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E239" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F239" t="str">
-        <v>中专/中技及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G239" t="str">
         <v>一个月前</v>
@@ -5879,22 +5879,22 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>网页UI设计师</v>
+        <v>高级APP工程师</v>
       </c>
       <c r="B240" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C240" t="str">
-        <v>羲和网络</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D240" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E240" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F240" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G240" t="str">
         <v>一个月前</v>
@@ -5902,19 +5902,19 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Web前端工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B241" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C241" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D241" t="str">
         <v>郑州</v>
       </c>
       <c r="E241" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F241" t="str">
         <v>大专及以上</v>
@@ -5925,22 +5925,22 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>检查员</v>
+        <v>UI设计师</v>
       </c>
       <c r="B242" t="str">
-        <v>3-5k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C242" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D242" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E242" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F242" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G242" t="str">
         <v>一个月前</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>督导</v>
+        <v>中级软件测试工程师</v>
       </c>
       <c r="B243" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-14k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>上海陆鹰实业有限公司河南分公司</v>
       </c>
       <c r="D243" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E243" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F243" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G243" t="str">
         <v>一个月前</v>
@@ -5971,19 +5971,19 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>游戏项目主程</v>
+        <v>UI设计工程师</v>
       </c>
       <c r="B244" t="str">
-        <v>10-12k·12薪</v>
+        <v>9-10k·12薪</v>
       </c>
       <c r="C244" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D244" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E244" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F244" t="str">
         <v>大专及以上</v>
@@ -5994,22 +5994,22 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B245" t="str">
-        <v>面议</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C245" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D245" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E245" t="str">
         <v>3-5年</v>
       </c>
       <c r="F245" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G245" t="str">
         <v>一个月前</v>
@@ -6017,22 +6017,22 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>Mobile App</v>
       </c>
       <c r="B246" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C246" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D246" t="str">
         <v>郑州</v>
       </c>
       <c r="E246" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F246" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G246" t="str">
         <v>一个月前</v>
@@ -6040,13 +6040,13 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>UI/UX developer</v>
       </c>
       <c r="B247" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C247" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D247" t="str">
         <v>郑州</v>
@@ -6063,22 +6063,22 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>高级APP工程师</v>
+        <v>java软件工程师</v>
       </c>
       <c r="B248" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-13k·13薪</v>
       </c>
       <c r="C248" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>思维自动化</v>
       </c>
       <c r="D248" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E248" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F248" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G248" t="str">
         <v>一个月前</v>
@@ -6086,13 +6086,13 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>UI设计师</v>
+        <v>研发工程师</v>
       </c>
       <c r="B249" t="str">
-        <v>4-6k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C249" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>河南森源集团有限公司</v>
       </c>
       <c r="D249" t="str">
         <v>郑州</v>
@@ -6101,199 +6101,15 @@
         <v>1-3年</v>
       </c>
       <c r="F249" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G249" t="str">
-        <v>一个月前</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="str">
-        <v>UI设计师</v>
-      </c>
-      <c r="B250" t="str">
-        <v>4-6k·12薪</v>
-      </c>
-      <c r="C250" t="str">
-        <v>河南汉达网络科技有限公司</v>
-      </c>
-      <c r="D250" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E250" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F250" t="str">
-        <v>大专及以上</v>
-      </c>
-      <c r="G250" t="str">
-        <v>一个月前</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="str">
-        <v>中级软件测试工程师</v>
-      </c>
-      <c r="B251" t="str">
-        <v>10-14k·12薪</v>
-      </c>
-      <c r="C251" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
-      </c>
-      <c r="D251" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E251" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F251" t="str">
-        <v>大专及以上</v>
-      </c>
-      <c r="G251" t="str">
-        <v>一个月前</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="str">
-        <v>UI设计工程师</v>
-      </c>
-      <c r="B252" t="str">
-        <v>9-10k·12薪</v>
-      </c>
-      <c r="C252" t="str">
-        <v>郑州思博科信息技术有限公司</v>
-      </c>
-      <c r="D252" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E252" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F252" t="str">
-        <v>大专及以上</v>
-      </c>
-      <c r="G252" t="str">
-        <v>一个月前</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="str">
-        <v>产品经理</v>
-      </c>
-      <c r="B253" t="str">
-        <v>8-10k·12薪</v>
-      </c>
-      <c r="C253" t="str">
-        <v>郑州点读电子科技有限公司</v>
-      </c>
-      <c r="D253" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E253" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F253" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G253" t="str">
-        <v>一个月前</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="str">
-        <v>Mobile App</v>
-      </c>
-      <c r="B254" t="str">
-        <v>10-15k·12薪</v>
-      </c>
-      <c r="C254" t="str">
-        <v>上海云邻通信技术有限公司</v>
-      </c>
-      <c r="D254" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E254" t="str">
-        <v>经验不限</v>
-      </c>
-      <c r="F254" t="str">
-        <v>学历不限</v>
-      </c>
-      <c r="G254" t="str">
-        <v>一个月前</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="str">
-        <v>UI/UX developer</v>
-      </c>
-      <c r="B255" t="str">
-        <v>10-15k·12薪</v>
-      </c>
-      <c r="C255" t="str">
-        <v>上海云邻通信技术有限公司</v>
-      </c>
-      <c r="D255" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E255" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F255" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G255" t="str">
-        <v>一个月前</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="str">
-        <v>java软件工程师</v>
-      </c>
-      <c r="B256" t="str">
-        <v>7-13k·13薪</v>
-      </c>
-      <c r="C256" t="str">
-        <v>思维自动化</v>
-      </c>
-      <c r="D256" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E256" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F256" t="str">
-        <v>统招本科</v>
-      </c>
-      <c r="G256" t="str">
-        <v>一个月前</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="str">
-        <v>研发工程师</v>
-      </c>
-      <c r="B257" t="str">
-        <v>5-10k·12薪</v>
-      </c>
-      <c r="C257" t="str">
-        <v>河南森源集团有限公司</v>
-      </c>
-      <c r="D257" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E257" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F257" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G257" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G257"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G249"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,85 +405,85 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E2" t="str">
         <v>3-5年</v>
       </c>
       <c r="F2" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G2" t="str">
-        <v>1小时前</v>
+        <v>27分钟前</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>资深android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E3" t="str">
         <v>3-5年</v>
       </c>
       <c r="F3" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G3" t="str">
-        <v>7小时前</v>
+        <v>27分钟前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C4" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E4" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F4" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>8小时前</v>
+        <v>27分钟前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>安卓端工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C5" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E5" t="str">
         <v>3-5年</v>
@@ -492,73 +492,73 @@
         <v>统招本科</v>
       </c>
       <c r="G5" t="str">
-        <v>8小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>资深安卓开发</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D6" t="str">
         <v>郑州</v>
       </c>
       <c r="E6" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F6" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G6" t="str">
-        <v>7小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B7" t="str">
-        <v>15-20k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C7" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E7" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G7" t="str">
-        <v>昨天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>15-20k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C8" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D8" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E8" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F8" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G8" t="str">
         <v>昨天</v>
@@ -566,42 +566,42 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>资深android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>15-20k·13薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C9" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E9" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F9" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G9" t="str">
-        <v>昨天</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>8-10k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E10" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F10" t="str">
         <v>大专及以上</v>
@@ -612,22 +612,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E11" t="str">
         <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G11" t="str">
         <v>昨天</v>
@@ -635,22 +635,22 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B12" t="str">
-        <v>8-10k·13薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E12" t="str">
         <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G12" t="str">
         <v>昨天</v>
@@ -658,105 +658,105 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B13" t="str">
-        <v>5-7k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C13" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E13" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F13" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G13" t="str">
-        <v>昨天</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B14" t="str">
-        <v>15-20k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C14" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E14" t="str">
         <v>5-10年</v>
       </c>
       <c r="F14" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G14" t="str">
-        <v>昨天</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>安卓开发</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C15" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E15" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F15" t="str">
         <v>统招本科</v>
       </c>
       <c r="G15" t="str">
-        <v>昨天</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Andriod开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>12-16k·13薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C16" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E16" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F16" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G16" t="str">
-        <v>昨天</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>安卓开发工程师</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B17" t="str">
-        <v>8-12k·14薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C17" t="str">
-        <v>蓝信科技</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
@@ -768,248 +768,248 @@
         <v>本科及以上</v>
       </c>
       <c r="G17" t="str">
-        <v>2020-12-09</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B18" t="str">
-        <v>15-30k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E18" t="str">
         <v>3-5年</v>
       </c>
       <c r="F18" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G18" t="str">
-        <v>2020-12-08</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>6-9k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E19" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F19" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G19" t="str">
-        <v>2020-12-08</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>高级android工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>12-18k·12薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C20" t="str">
-        <v>知名软件公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E20" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G20" t="str">
-        <v>2020-12-07</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android系统开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E21" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F21" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G21" t="str">
-        <v>2020-12-04</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>7-10k·13薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>知名软件公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E22" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F22" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G22" t="str">
-        <v>2020-11-30</v>
+        <v>2020-12-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>安卓开发工程师</v>
+        <v>android系统开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>7-10k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E23" t="str">
         <v>3-5年</v>
       </c>
       <c r="F23" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G23" t="str">
-        <v>2020-11-30</v>
+        <v>2020-12-04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>5-8k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C24" t="str">
-        <v>欣宜嘉</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E24" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F24" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G24" t="str">
-        <v>2020-11-29</v>
+        <v>2020-11-30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android应用开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>10-15k·15薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C25" t="str">
-        <v>某大型互联网上市公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E25" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F25" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G25" t="str">
-        <v>2020-11-27</v>
+        <v>2020-11-30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>10-13k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>欣宜嘉</v>
       </c>
       <c r="D26" t="str">
         <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F26" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G26" t="str">
-        <v>2020-11-26</v>
+        <v>2020-11-29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android应用开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C27" t="str">
-        <v>迈特望</v>
+        <v>某大型互联网上市公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E27" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F27" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B28" t="str">
-        <v>10-15k·14薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C28" t="str">
-        <v>天迈科技</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D28" t="str">
         <v>郑州</v>
@@ -1021,76 +1021,76 @@
         <v>大专及以上</v>
       </c>
       <c r="G28" t="str">
-        <v>2020-11-18</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>迈特望</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E29" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F29" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>2020-11-17</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>安卓开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>3-8k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C30" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F30" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G30" t="str">
-        <v>2020-11-17</v>
+        <v>2020-11-18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>7-11k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D31" t="str">
         <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F31" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>2020-11-16</v>
+        <v>2020-11-17</v>
       </c>
     </row>
     <row r="32">
@@ -1098,22 +1098,22 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>8-10k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C32" t="str">
-        <v>河南紫马网络科技有限公司</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E32" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F32" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G32" t="str">
-        <v>2020-11-16</v>
+        <v>2020-11-17</v>
       </c>
     </row>
     <row r="33">
@@ -1136,7 +1136,7 @@
         <v>本科及以上</v>
       </c>
       <c r="G33" t="str">
-        <v>2020-11-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="34">
@@ -1159,7 +1159,7 @@
         <v>本科及以上</v>
       </c>
       <c r="G34" t="str">
-        <v>2020-11-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="35">
@@ -2823,42 +2823,42 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>思维自动化</v>
+        <v>河南紫马网络科技有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F107" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G107" t="str">
-        <v>一个月前</v>
+        <v>2020-11-16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>8-20k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C108" t="str">
-        <v>刀锋互娱</v>
+        <v>思维自动化</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F108" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G108" t="str">
         <v>一个月前</v>
@@ -2866,16 +2866,16 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E109" t="str">
         <v>3-5年</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B110" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E110" t="str">
         <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G110" t="str">
         <v>一个月前</v>
@@ -2915,19 +2915,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E111" t="str">
         <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G111" t="str">
         <v>一个月前</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E112" t="str">
         <v>3-5年</v>
       </c>
       <c r="F112" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G112" t="str">
         <v>一个月前</v>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>安卓开发工程师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>7-9k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>蓓安科仪(北京)技术有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E113" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F113" t="str">
         <v>本科及以上</v>
@@ -2984,19 +2984,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>蓓安科仪(北京)技术有限公司</v>
       </c>
       <c r="D114" t="str">
         <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F114" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G114" t="str">
         <v>一个月前</v>
@@ -3007,19 +3007,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>3-8k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E115" t="str">
         <v>经验不限</v>
       </c>
       <c r="F115" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G115" t="str">
         <v>一个月前</v>
@@ -3030,16 +3030,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>5-7k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C116" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E116" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F116" t="str">
         <v>本科及以上</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>8-15k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E117" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F117" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G117" t="str">
         <v>一个月前</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>安卓app开发工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>3-8k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E118" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F118" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G118" t="str">
         <v>一个月前</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓开发（双休）</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>6-9k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E119" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F119" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G119" t="str">
         <v>一个月前</v>
@@ -3119,19 +3119,19 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B120" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C120" t="str">
         <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F120" t="str">
         <v>大专及以上</v>
@@ -3142,117 +3142,117 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>测试工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B121" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E121" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F121" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G121" t="str">
-        <v>8小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>移动端开发工程师</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>8-17k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E122" t="str">
         <v>5-10年</v>
       </c>
       <c r="F122" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G122" t="str">
-        <v>昨天</v>
+        <v>27分钟前</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>15-20k·13薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C123" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E123" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F123" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G123" t="str">
-        <v>昨天</v>
+        <v>27分钟前</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>web前端开发工程师</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C124" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E124" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F124" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G124" t="str">
-        <v>昨天</v>
+        <v>27分钟前</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>前端开发工程师</v>
+        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
       </c>
       <c r="B125" t="str">
-        <v>6-10k·13薪</v>
+        <v>25-50k·12薪</v>
       </c>
       <c r="C125" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>国内知名车企+新能源汽车</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州,武汉,上海</v>
       </c>
       <c r="E125" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F125" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G125" t="str">
-        <v>昨天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="126">
@@ -3275,27 +3275,27 @@
         <v>本科及以上</v>
       </c>
       <c r="G126" t="str">
-        <v>19小时前</v>
+        <v>20小时前</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>高级软件工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6-11k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G127" t="str">
         <v>昨天</v>
@@ -3303,62 +3303,62 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>软件工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>5-11k·13薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C128" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F128" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G128" t="str">
-        <v>昨天</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>8-12k·13薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C129" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E129" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F129" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G129" t="str">
-        <v>昨天</v>
+        <v>刚刚</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Java开发工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C130" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E130" t="str">
         <v>3-5年</v>
@@ -3367,61 +3367,61 @@
         <v>本科及以上</v>
       </c>
       <c r="G130" t="str">
-        <v>昨天</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
+        <v>软件工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>25-50k·12薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C131" t="str">
-        <v>国内知名车企+新能源汽车</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州,武汉,上海</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E131" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F131" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G131" t="str">
-        <v>昨天</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>高级产品经理</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>刀锋互娱</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E132" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F132" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G132" t="str">
-        <v>前天</v>
+        <v>2020-12-11</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>移动端资深产品经理</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B133" t="str">
-        <v>15-20k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C133" t="str">
         <v>刀锋互娱</v>
@@ -3430,53 +3430,53 @@
         <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F133" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G133" t="str">
-        <v>前天</v>
+        <v>2020-12-10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B134" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C134" t="str">
-        <v>天瑞集团</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F134" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G134" t="str">
-        <v>2020-12-09</v>
+        <v>2020-12-10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>流媒体开发</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B135" t="str">
-        <v>11-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C135" t="str">
-        <v>某龙科教网络公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E135" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F135" t="str">
         <v>统招本科</v>
@@ -3487,45 +3487,45 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>系统架构师</v>
+        <v>流媒体开发</v>
       </c>
       <c r="B136" t="str">
-        <v>15-25k·12薪</v>
+        <v>11-13k·12薪</v>
       </c>
       <c r="C136" t="str">
-        <v>油田咨询</v>
+        <v>某龙科教网络公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E136" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F136" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G136" t="str">
-        <v>2020-12-08</v>
+        <v>2020-12-09</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>APP运营主管/经理</v>
+        <v>系统架构师</v>
       </c>
       <c r="B137" t="str">
-        <v>10-18k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C137" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E137" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F137" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G137" t="str">
         <v>2020-12-08</v>
@@ -3533,22 +3533,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>系统测试工程师</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B138" t="str">
-        <v>5-12k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C138" t="str">
-        <v>油田咨询</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E138" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F138" t="str">
-        <v>硕士及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G138" t="str">
         <v>2020-12-08</v>
@@ -3556,45 +3556,45 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>渗透测试工程师</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>爱加密</v>
+        <v>油田咨询</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E139" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F139" t="str">
-        <v>大专及以上</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G139" t="str">
-        <v>2020-12-04</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>流媒体系统架构师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C140" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E140" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F140" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G140" t="str">
         <v>2020-12-04</v>
@@ -3602,45 +3602,45 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>信息化专员</v>
+        <v>流媒体系统架构师</v>
       </c>
       <c r="B141" t="str">
-        <v>面议</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C141" t="str">
-        <v>建业新生活</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E141" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F141" t="str">
         <v>统招本科</v>
       </c>
       <c r="G141" t="str">
-        <v>2020-12-02</v>
+        <v>2020-12-04</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>嵌入式软件工程师（新三板上市公司）</v>
+        <v>信息化专员</v>
       </c>
       <c r="B142" t="str">
-        <v>10-20k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C142" t="str">
-        <v>恩普特</v>
+        <v>建业新生活</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E142" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F142" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G142" t="str">
         <v>2020-12-02</v>
@@ -3648,79 +3648,79 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>嵌入式软件工程师（新三板上市公司）</v>
       </c>
       <c r="B143" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C143" t="str">
-        <v>中原期货</v>
+        <v>恩普特</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E143" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F143" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G143" t="str">
-        <v>2020-11-30</v>
+        <v>2020-12-02</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>前端开发工程师</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B144" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C144" t="str">
-        <v>北大软件</v>
+        <v>中原期货</v>
       </c>
       <c r="D144" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E144" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F144" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G144" t="str">
-        <v>2020-11-27</v>
+        <v>2020-11-30</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>java高级工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>10-11k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C145" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>北大软件</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E145" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F145" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G145" t="str">
-        <v>2020-11-26</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>java高级软件工程师</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C146" t="str">
         <v>郑州速衍科技有限公司</v>
@@ -3729,7 +3729,7 @@
         <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F146" t="str">
         <v>大专及以上</v>
@@ -3740,19 +3740,19 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>FAE现场工程师</v>
+        <v>java高级软件工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C147" t="str">
-        <v>广东九联科技股份有限公司</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D147" t="str">
         <v>郑州</v>
       </c>
       <c r="E147" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F147" t="str">
         <v>大专及以上</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>产品经理</v>
+        <v>FAE现场工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C148" t="str">
-        <v>郑州小魔兽电子商务有限公司</v>
+        <v>广东九联科技股份有限公司</v>
       </c>
       <c r="D148" t="str">
         <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F148" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G148" t="str">
         <v>2020-11-26</v>
@@ -3786,48 +3786,48 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>技术总监</v>
+        <v>产品经理</v>
       </c>
       <c r="B149" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C149" t="str">
-        <v>欣宜嘉</v>
+        <v>郑州小魔兽电子商务有限公司</v>
       </c>
       <c r="D149" t="str">
         <v>郑州</v>
       </c>
       <c r="E149" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F149" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G149" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>技术总监</v>
       </c>
       <c r="B150" t="str">
-        <v>10-20k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C150" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>欣宜嘉</v>
       </c>
       <c r="D150" t="str">
         <v>郑州</v>
       </c>
       <c r="E150" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F150" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G150" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="151">
@@ -3855,25 +3855,25 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B152" t="str">
         <v>10-20k·12薪</v>
       </c>
       <c r="C152" t="str">
-        <v>速游</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E152" t="str">
-        <v>一年以下</v>
+        <v>3-5年</v>
       </c>
       <c r="F152" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G152" t="str">
-        <v>2020-11-21</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="153">
@@ -3993,45 +3993,45 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B158" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C158" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>速游</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E158" t="str">
-        <v>1-3年</v>
+        <v>一年以下</v>
       </c>
       <c r="F158" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G158" t="str">
-        <v>一个月前</v>
+        <v>2020-11-21</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>ASO优化师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E159" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F159" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G159" t="str">
         <v>一个月前</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>app运营主管</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B160" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C160" t="str">
         <v>郑州爱梦教育科技有限公司</v>
@@ -4054,7 +4054,7 @@
         <v>3-5年</v>
       </c>
       <c r="F160" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G160" t="str">
         <v>一个月前</v>
@@ -4062,22 +4062,22 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>移动开发工程师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B161" t="str">
-        <v>10-17k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E161" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F161" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G161" t="str">
         <v>一个月前</v>
@@ -4085,22 +4085,22 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>软件工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C162" t="str">
-        <v>郑州卓安</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E162" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F162" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G162" t="str">
         <v>一个月前</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>java开发</v>
+        <v>软件工程师</v>
       </c>
       <c r="B163" t="str">
         <v>5-8k·12薪</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>移动开发工程师</v>
+        <v>java开发</v>
       </c>
       <c r="B164" t="str">
-        <v>8-13k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D164" t="str">
         <v>郑州</v>
       </c>
       <c r="E164" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F164" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G164" t="str">
         <v>一个月前</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>软件测试工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C165" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E165" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F165" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G165" t="str">
         <v>一个月前</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>APP工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>10-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C166" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E166" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F166" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G166" t="str">
         <v>一个月前</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>APP推广</v>
+        <v>APP工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E167" t="str">
         <v>经验不限</v>
       </c>
       <c r="F167" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G167" t="str">
         <v>一个月前</v>
@@ -4223,19 +4223,19 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>应用层开发工程师</v>
+        <v>APP推广</v>
       </c>
       <c r="B168" t="str">
-        <v>10-20k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E168" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F168" t="str">
         <v>大专及以上</v>
@@ -4246,19 +4246,19 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>高级前端讲师</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>15-30k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>北京千锋互联科技</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D169" t="str">
         <v>郑州</v>
       </c>
       <c r="E169" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F169" t="str">
         <v>大专及以上</v>
@@ -4269,19 +4269,19 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>app推广经理</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B170" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E170" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F170" t="str">
         <v>大专及以上</v>
@@ -4292,19 +4292,19 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>app推广经理</v>
       </c>
       <c r="B171" t="str">
-        <v>6-10k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E171" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F171" t="str">
         <v>大专及以上</v>
@@ -4315,19 +4315,19 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>ui设计师</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B172" t="str">
-        <v>4-8k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E172" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F172" t="str">
         <v>大专及以上</v>
@@ -4338,42 +4338,42 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>ui设计师</v>
       </c>
       <c r="B173" t="str">
-        <v>7-11k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C173" t="str">
-        <v>新开普电子</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E173" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F173" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G173" t="str">
-        <v>2020-11-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>C++开发工程师中级</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B174" t="str">
-        <v>6-12k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E174" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F174" t="str">
         <v>本科及以上</v>
@@ -4384,13 +4384,13 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B175" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C175" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D175" t="str">
         <v>郑州-高新区</v>
@@ -4399,7 +4399,7 @@
         <v>3-5年</v>
       </c>
       <c r="F175" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G175" t="str">
         <v>一个月前</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>智能技术开发主管</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B176" t="str">
-        <v>面议</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E176" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F176" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G176" t="str">
         <v>一个月前</v>
@@ -4430,19 +4430,19 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B177" t="str">
-        <v>8-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C177" t="str">
-        <v>正星科技</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D177" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E177" t="str">
-        <v>5-10年</v>
+        <v>10年以上</v>
       </c>
       <c r="F177" t="str">
         <v>本科及以上</v>
@@ -4453,19 +4453,19 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Java开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B178" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>正星科技</v>
       </c>
       <c r="D178" t="str">
         <v>郑州</v>
       </c>
       <c r="E178" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F178" t="str">
         <v>本科及以上</v>
@@ -4476,19 +4476,19 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>JAVA开发</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D179" t="str">
         <v>郑州</v>
       </c>
       <c r="E179" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F179" t="str">
         <v>本科及以上</v>
@@ -4499,19 +4499,19 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>java开发工程师</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B180" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E180" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F180" t="str">
         <v>本科及以上</v>
@@ -4522,22 +4522,22 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B181" t="str">
         <v>7-10k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E181" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F181" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G181" t="str">
         <v>一个月前</v>
@@ -4545,22 +4545,22 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>产品经理</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B182" t="str">
-        <v>8-13k·13薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>郑州XX公司</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D182" t="str">
         <v>郑州</v>
       </c>
       <c r="E182" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F182" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G182" t="str">
         <v>一个月前</v>
@@ -4568,22 +4568,22 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>架构师</v>
+        <v>产品经理</v>
       </c>
       <c r="B183" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C183" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>郑州XX公司</v>
       </c>
       <c r="D183" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F183" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G183" t="str">
         <v>一个月前</v>
@@ -4591,19 +4591,19 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>ui</v>
+        <v>架构师</v>
       </c>
       <c r="B184" t="str">
-        <v>6-11k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E184" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F184" t="str">
         <v>本科及以上</v>
@@ -4614,22 +4614,22 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>中级JAVA开发</v>
+        <v>ui</v>
       </c>
       <c r="B185" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>正商地产</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E185" t="str">
         <v>3-5年</v>
       </c>
       <c r="F185" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G185" t="str">
         <v>一个月前</v>
@@ -4637,22 +4637,22 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B186" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C186" t="str">
-        <v>埃林哲</v>
+        <v>正商地产</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E186" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F186" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G186" t="str">
         <v>一个月前</v>
@@ -4660,19 +4660,19 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B187" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>信大捷安</v>
+        <v>埃林哲</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E187" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F187" t="str">
         <v>本科及以上</v>
@@ -4683,19 +4683,19 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B188" t="str">
-        <v>13-25k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C188" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>信大捷安</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E188" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F188" t="str">
         <v>本科及以上</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Mobile Application Developer</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B189" t="str">
-        <v>26-40k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C189" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E189" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F189" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G189" t="str">
         <v>一个月前</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Senior System Developer 资深系统工程师</v>
+        <v>Mobile Application Developer</v>
       </c>
       <c r="B190" t="str">
         <v>26-40k·12薪</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>商务助理</v>
+        <v>Senior System Developer 资深系统工程师</v>
       </c>
       <c r="B191" t="str">
-        <v>5-8k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C191" t="str">
-        <v>河南准澳网络科技有限公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E191" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F191" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G191" t="str">
         <v>一个月前</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>商务助理</v>
       </c>
       <c r="B192" t="str">
-        <v>13-18k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>河南准澳网络科技有限公司</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E192" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F192" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G192" t="str">
         <v>一个月前</v>
@@ -4798,16 +4798,16 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>产品经理</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B193" t="str">
-        <v>7-12k·13薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>完美数联(杭州)科技有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E193" t="str">
         <v>3-5年</v>
@@ -4821,22 +4821,22 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>UI高级设计师</v>
+        <v>产品经理</v>
       </c>
       <c r="B194" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-12k·13薪</v>
       </c>
       <c r="C194" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>完美数联(杭州)科技有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E194" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F194" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G194" t="str">
         <v>一个月前</v>
@@ -4844,22 +4844,22 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>产品经理</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B195" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C195" t="str">
         <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E195" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F195" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G195" t="str">
         <v>一个月前</v>
@@ -4867,22 +4867,22 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>维护工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B196" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D196" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E196" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F196" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G196" t="str">
         <v>一个月前</v>
@@ -4890,10 +4890,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>维护助理工程师</v>
+        <v>维护工程师</v>
       </c>
       <c r="B197" t="str">
-        <v>3-5k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C197" t="str">
         <v>成都智元汇信息技术股份有限公司</v>
@@ -4902,10 +4902,10 @@
         <v>郑州-郑东新区</v>
       </c>
       <c r="E197" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F197" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G197" t="str">
         <v>一个月前</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>iOS开发工程师</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B198" t="str">
-        <v>14-20k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>浩鲸智能</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E198" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F198" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G198" t="str">
         <v>一个月前</v>
@@ -4936,19 +4936,19 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>软件开发</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B199" t="str">
-        <v>15-21k·12薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C199" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E199" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F199" t="str">
         <v>本科及以上</v>
@@ -4959,22 +4959,22 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>移动开发工程师</v>
+        <v>软件开发</v>
       </c>
       <c r="B200" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E200" t="str">
         <v>经验不限</v>
       </c>
       <c r="F200" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G200" t="str">
         <v>一个月前</v>
@@ -4982,22 +4982,22 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>移动端开发工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B201" t="str">
-        <v>15-25k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>中原银行</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D201" t="str">
         <v>郑州</v>
       </c>
       <c r="E201" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F201" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G201" t="str">
         <v>一个月前</v>
@@ -5005,13 +5005,13 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>软件外包业务经理</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B202" t="str">
-        <v>8-16k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>中原银行</v>
       </c>
       <c r="D202" t="str">
         <v>郑州</v>
@@ -5028,13 +5028,13 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>产品经理</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B203" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>新开普电子</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D203" t="str">
         <v>郑州</v>
@@ -5054,19 +5054,19 @@
         <v>产品经理</v>
       </c>
       <c r="B204" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E204" t="str">
         <v>3-5年</v>
       </c>
       <c r="F204" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G204" t="str">
         <v>一个月前</v>
@@ -5074,19 +5074,19 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>驻场安服工程师-郑州(J12532)</v>
+        <v>产品经理</v>
       </c>
       <c r="B205" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>绿盟科技集团股份有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D205" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E205" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F205" t="str">
         <v>大专及以上</v>
@@ -5097,22 +5097,22 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>软件研发总监</v>
+        <v>驻场安服工程师-郑州(J12532)</v>
       </c>
       <c r="B206" t="str">
-        <v>20-25k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>河南博联慧绿科技集团有限公司</v>
+        <v>绿盟科技集团股份有限公司</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E206" t="str">
-        <v>10年以上</v>
+        <v>经验不限</v>
       </c>
       <c r="F206" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G206" t="str">
         <v>一个月前</v>
@@ -5120,22 +5120,22 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>软件研发总监</v>
       </c>
       <c r="B207" t="str">
-        <v>10-15k·12薪</v>
+        <v>20-25k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>河南博联慧绿科技集团有限公司</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E207" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F207" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G207" t="str">
         <v>一个月前</v>
@@ -5143,22 +5143,22 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>测试工程师</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B208" t="str">
-        <v>6-12k·14薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E208" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F208" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G208" t="str">
         <v>一个月前</v>
@@ -5166,16 +5166,16 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>高级软件工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B209" t="str">
-        <v>8-12k·13薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C209" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D209" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E209" t="str">
         <v>5-10年</v>
@@ -5189,19 +5189,19 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B210" t="str">
-        <v>面议</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C210" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D210" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E210" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F210" t="str">
         <v>本科及以上</v>
@@ -5212,22 +5212,22 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B211" t="str">
-        <v>8-13k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C211" t="str">
-        <v>北京千锋互联科技</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E211" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F211" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G211" t="str">
         <v>一个月前</v>
@@ -5235,19 +5235,19 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>前端工程师</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B212" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>元丰科技</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D212" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E212" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F212" t="str">
         <v>大专及以上</v>
@@ -5258,16 +5258,16 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>前端工程师</v>
       </c>
       <c r="B213" t="str">
-        <v>15-25k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>朗新科技</v>
+        <v>元丰科技</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E213" t="str">
         <v>3-5年</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B214" t="str">
-        <v>11-20k·13薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C214" t="str">
         <v>朗新科技</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>售前技术支持</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B215" t="str">
-        <v>8-10k·12薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C215" t="str">
-        <v>环信</v>
+        <v>朗新科技</v>
       </c>
       <c r="D215" t="str">
         <v>郑州</v>
       </c>
       <c r="E215" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F215" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,22 +5327,22 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>java开发工程师助理</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B216" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>环信</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E216" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F216" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G216" t="str">
         <v>一个月前</v>
@@ -5350,22 +5350,22 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>UI设计师</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B217" t="str">
-        <v>4-6k·13薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C217" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E217" t="str">
         <v>经验不限</v>
       </c>
       <c r="F217" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G217" t="str">
         <v>一个月前</v>
@@ -5373,22 +5373,22 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>PC客户端产品经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B218" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C218" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D218" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E218" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F218" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G218" t="str">
         <v>一个月前</v>
@@ -5396,22 +5396,22 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>IOS</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B219" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C219" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D219" t="str">
         <v>郑州</v>
       </c>
       <c r="E219" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F219" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G219" t="str">
         <v>一个月前</v>
@@ -5419,10 +5419,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>IOS</v>
       </c>
       <c r="B220" t="str">
-        <v>18-25k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C220" t="str">
         <v>贵州宋代官窖酒业销售有限公司</v>
@@ -5442,19 +5442,19 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>高级软件测试工程师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B221" t="str">
-        <v>7-9k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>国际交友</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D221" t="str">
         <v>郑州</v>
       </c>
       <c r="E221" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F221" t="str">
         <v>大专及以上</v>
@@ -5474,7 +5474,7 @@
         <v>国际交友</v>
       </c>
       <c r="D222" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E222" t="str">
         <v>3-5年</v>
@@ -5488,16 +5488,16 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>JAVA开发工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B223" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C223" t="str">
-        <v>地理信息系统</v>
+        <v>国际交友</v>
       </c>
       <c r="D223" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E223" t="str">
         <v>3-5年</v>
@@ -5511,22 +5511,22 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>摄像头调试工程师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B224" t="str">
-        <v>4-9k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D224" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E224" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F224" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G224" t="str">
         <v>一个月前</v>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B225" t="str">
-        <v>6-12k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C225" t="str">
         <v>河南释码云识别技术研究院有限公司</v>
@@ -5546,10 +5546,10 @@
         <v>郑州-郑东新区</v>
       </c>
       <c r="E225" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F225" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G225" t="str">
         <v>一个月前</v>
@@ -5557,22 +5557,22 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B226" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E226" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F226" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G226" t="str">
         <v>一个月前</v>
@@ -5580,22 +5580,22 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>cocos开发工程师</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B227" t="str">
-        <v>9-16k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D227" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E227" t="str">
         <v>1-3年</v>
       </c>
       <c r="F227" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G227" t="str">
         <v>一个月前</v>
@@ -5603,22 +5603,22 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>学术经理</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B228" t="str">
-        <v>8-15k·12薪</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D228" t="str">
         <v>郑州</v>
       </c>
       <c r="E228" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F228" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G228" t="str">
         <v>一个月前</v>
@@ -5626,22 +5626,22 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>IT项目经理</v>
+        <v>学术经理</v>
       </c>
       <c r="B229" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D229" t="str">
         <v>郑州</v>
       </c>
       <c r="E229" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F229" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G229" t="str">
         <v>一个月前</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>前端高级讲师</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B230" t="str">
-        <v>10-18k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D230" t="str">
         <v>郑州</v>
       </c>
       <c r="E230" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F230" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G230" t="str">
         <v>一个月前</v>
@@ -5672,22 +5672,22 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>.NET开发工程师</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B231" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D231" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E231" t="str">
         <v>1-3年</v>
       </c>
       <c r="F231" t="str">
-        <v>中专/中技及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G231" t="str">
         <v>一个月前</v>
@@ -5695,22 +5695,22 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>网页UI设计师</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B232" t="str">
-        <v>4-8k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>羲和网络</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D232" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E232" t="str">
         <v>1-3年</v>
       </c>
       <c r="F232" t="str">
-        <v>大专及以上</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G232" t="str">
         <v>一个月前</v>
@@ -5718,19 +5718,19 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Web前端工程师</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B233" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D233" t="str">
         <v>郑州</v>
       </c>
       <c r="E233" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F233" t="str">
         <v>大专及以上</v>
@@ -5741,22 +5741,22 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>检查员</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B234" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C234" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E234" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F234" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G234" t="str">
         <v>一个月前</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>督导</v>
+        <v>检查员</v>
       </c>
       <c r="B235" t="str">
         <v>3-5k·12薪</v>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>游戏项目主程</v>
+        <v>督导</v>
       </c>
       <c r="B236" t="str">
-        <v>10-12k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E236" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F236" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G236" t="str">
         <v>一个月前</v>
@@ -5810,22 +5810,22 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B237" t="str">
-        <v>面议</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D237" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E237" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F237" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G237" t="str">
         <v>一个月前</v>
@@ -5833,22 +5833,22 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B238" t="str">
-        <v>6-10k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C238" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D238" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E238" t="str">
         <v>3-5年</v>
       </c>
       <c r="F238" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G238" t="str">
         <v>一个月前</v>
@@ -5856,10 +5856,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>产品经理（英语项目）</v>
       </c>
       <c r="B239" t="str">
-        <v>6-8k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C239" t="str">
         <v>郑州点读电子科技有限公司</v>
@@ -5879,19 +5879,19 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>高级APP工程师</v>
+        <v>产品经理（咿啦看书项目）</v>
       </c>
       <c r="B240" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C240" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D240" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E240" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F240" t="str">
         <v>本科及以上</v>
@@ -5902,22 +5902,22 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>UI设计师</v>
+        <v>高级APP工程师</v>
       </c>
       <c r="B241" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C241" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D241" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E241" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F241" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G241" t="str">
         <v>一个月前</v>
@@ -5934,7 +5934,7 @@
         <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D242" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E242" t="str">
         <v>1-3年</v>
@@ -5948,19 +5948,19 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>中级软件测试工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B243" t="str">
-        <v>10-14k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D243" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E243" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F243" t="str">
         <v>大专及以上</v>
@@ -5971,16 +5971,16 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>UI设计工程师</v>
+        <v>中级软件测试工程师</v>
       </c>
       <c r="B244" t="str">
-        <v>9-10k·12薪</v>
+        <v>10-14k·12薪</v>
       </c>
       <c r="C244" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>上海陆鹰实业有限公司河南分公司</v>
       </c>
       <c r="D244" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E244" t="str">
         <v>3-5年</v>
@@ -5994,22 +5994,22 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>产品经理</v>
+        <v>UI设计工程师</v>
       </c>
       <c r="B245" t="str">
-        <v>8-10k·12薪</v>
+        <v>9-10k·12薪</v>
       </c>
       <c r="C245" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D245" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E245" t="str">
         <v>3-5年</v>
       </c>
       <c r="F245" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G245" t="str">
         <v>一个月前</v>
@@ -6017,22 +6017,22 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Mobile App</v>
+        <v>产品经理</v>
       </c>
       <c r="B246" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C246" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D246" t="str">
         <v>郑州</v>
       </c>
       <c r="E246" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F246" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G246" t="str">
         <v>一个月前</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>UI/UX developer</v>
+        <v>Mobile App</v>
       </c>
       <c r="B247" t="str">
         <v>10-15k·12薪</v>
@@ -6052,10 +6052,10 @@
         <v>郑州</v>
       </c>
       <c r="E247" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F247" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G247" t="str">
         <v>一个月前</v>
@@ -6063,13 +6063,13 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>java软件工程师</v>
+        <v>UI/UX developer</v>
       </c>
       <c r="B248" t="str">
-        <v>7-13k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C248" t="str">
-        <v>思维自动化</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D248" t="str">
         <v>郑州</v>
@@ -6078,7 +6078,7 @@
         <v>3-5年</v>
       </c>
       <c r="F248" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G248" t="str">
         <v>一个月前</v>
@@ -6086,30 +6086,53 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B249" t="str">
+        <v>7-13k·13薪</v>
+      </c>
+      <c r="C249" t="str">
+        <v>思维自动化</v>
+      </c>
+      <c r="D249" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E249" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F249" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G249" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
         <v>研发工程师</v>
       </c>
-      <c r="B249" t="str">
+      <c r="B250" t="str">
         <v>5-10k·12薪</v>
       </c>
-      <c r="C249" t="str">
+      <c r="C250" t="str">
         <v>河南森源集团有限公司</v>
       </c>
-      <c r="D249" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E249" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F249" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G249" t="str">
+      <c r="D250" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E250" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F250" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G250" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G249"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G250"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,62 +405,62 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android开发工程师</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B2" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E2" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F2" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G2" t="str">
-        <v>27分钟前</v>
+        <v>22分钟前</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B3" t="str">
-        <v>8-10k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E3" t="str">
         <v>3-5年</v>
       </c>
       <c r="F3" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G3" t="str">
-        <v>27分钟前</v>
+        <v>22分钟前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8-10k·13薪</v>
+        <v>10-16k·13薪</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E4" t="str">
         <v>3-5年</v>
@@ -469,64 +469,64 @@
         <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>27分钟前</v>
+        <v>34分钟前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>资深android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D5" t="str">
         <v>郑州</v>
       </c>
       <c r="E5" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F5" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G5" t="str">
-        <v>1小时前</v>
+        <v>刚刚</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>10-15k·14薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C6" t="str">
-        <v>蓝信科技</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E6" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F6" t="str">
         <v>统招本科</v>
       </c>
       <c r="G6" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>资深安卓开发</v>
+        <v>Android</v>
       </c>
       <c r="B7" t="str">
-        <v>15-20k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D7" t="str">
         <v>郑州</v>
@@ -535,179 +535,179 @@
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G7" t="str">
-        <v>1小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B8" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C8" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E8" t="str">
         <v>3-5年</v>
       </c>
       <c r="F8" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G8" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android应用开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B9" t="str">
-        <v>7-11k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C9" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E9" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F9" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G9" t="str">
-        <v>23小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>安卓端工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B10" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C10" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E10" t="str">
         <v>5-10年</v>
       </c>
       <c r="F10" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G10" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓端工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C11" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E11" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F11" t="str">
         <v>统招本科</v>
       </c>
       <c r="G11" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E12" t="str">
         <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G12" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C13" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E13" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F13" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G13" t="str">
-        <v>2020-12-11</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C14" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E14" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F14" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G14" t="str">
-        <v>2020-12-11</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>资深android开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>15-20k·13薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C15" t="str">
         <v>麒麟合盛网络技术股份有限公司</v>
@@ -722,67 +722,67 @@
         <v>统招本科</v>
       </c>
       <c r="G15" t="str">
-        <v>2020-12-11</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>5-7k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C16" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G16" t="str">
-        <v>2020-12-11</v>
+        <v>2020-12-16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>15-20k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C17" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E17" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F17" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G17" t="str">
-        <v>2020-12-11</v>
+        <v>2020-12-16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>安卓开发</v>
+        <v>android系统开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C18" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E18" t="str">
         <v>3-5年</v>
@@ -791,110 +791,110 @@
         <v>统招本科</v>
       </c>
       <c r="G18" t="str">
-        <v>2020-12-11</v>
+        <v>2020-12-16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Andriod开发工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>12-16k·13薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C19" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>知名软件公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E19" t="str">
         <v>5-10年</v>
       </c>
       <c r="F19" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G19" t="str">
-        <v>2020-12-11</v>
+        <v>2020-12-16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>15-30k·13薪</v>
+        <v>10-15k·16薪</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E20" t="str">
         <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G20" t="str">
-        <v>2020-12-08</v>
+        <v>2020-12-16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Android开发工程师</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6-9k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E21" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F21" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G21" t="str">
-        <v>2020-12-08</v>
+        <v>2020-12-15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>高级android工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>12-18k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>知名软件公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F22" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G22" t="str">
-        <v>2020-12-07</v>
+        <v>2020-12-15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android系统开发工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B23" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C23" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D23" t="str">
         <v>郑州</v>
@@ -903,10 +903,10 @@
         <v>3-5年</v>
       </c>
       <c r="F23" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G23" t="str">
-        <v>2020-12-04</v>
+        <v>2020-12-15</v>
       </c>
     </row>
     <row r="24">
@@ -914,114 +914,114 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>7-10k·13薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E24" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F24" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G24" t="str">
-        <v>2020-11-30</v>
+        <v>2020-12-14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>7-10k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E25" t="str">
         <v>3-5年</v>
       </c>
       <c r="F25" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G25" t="str">
-        <v>2020-11-30</v>
+        <v>2020-12-13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>5-8k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C26" t="str">
-        <v>欣宜嘉</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D26" t="str">
         <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F26" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G26" t="str">
-        <v>2020-11-29</v>
+        <v>2020-12-13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android应用开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>10-15k·15薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C27" t="str">
-        <v>某大型互联网上市公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E27" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F27" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>2020-11-27</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>10-13k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E28" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F28" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G28" t="str">
-        <v>2020-11-26</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="29">
@@ -1029,134 +1029,134 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C29" t="str">
-        <v>迈特望</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E29" t="str">
         <v>3-5年</v>
       </c>
       <c r="F29" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G29" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>10-15k·14薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C30" t="str">
-        <v>天迈科技</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E30" t="str">
         <v>3-5年</v>
       </c>
       <c r="F30" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G30" t="str">
-        <v>2020-11-18</v>
+        <v>2020-11-30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android开发工程师</v>
+        <v>Android应用开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>某大型互联网上市公司</v>
       </c>
       <c r="D31" t="str">
         <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F31" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>2020-11-17</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B32" t="str">
-        <v>3-8k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C32" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F32" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G32" t="str">
-        <v>2020-11-17</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>6-11k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C33" t="str">
-        <v>新开普电子</v>
+        <v>迈特望</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E33" t="str">
         <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G33" t="str">
-        <v>一个月前</v>
+        <v>2020-11-25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>9-13k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C34" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E34" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F34" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G34" t="str">
         <v>一个月前</v>
@@ -1167,13 +1167,13 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>12-20k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C35" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E35" t="str">
         <v>3-5年</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>8-11k·12薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C36" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E36" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F36" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G36" t="str">
         <v>一个月前</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>5-9k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C37" t="str">
-        <v>中裕广恒</v>
+        <v>牧原食品股份有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android app开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B38" t="str">
-        <v>8-15k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F38" t="str">
         <v>大专及以上</v>
@@ -1256,22 +1256,22 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android</v>
+        <v>Android</v>
       </c>
       <c r="B39" t="str">
-        <v>9-12k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C39" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F39" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G39" t="str">
         <v>一个月前</v>
@@ -1279,22 +1279,22 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android开发</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F40" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G40" t="str">
         <v>一个月前</v>
@@ -1302,22 +1302,22 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android开发</v>
+        <v>android</v>
       </c>
       <c r="B41" t="str">
-        <v>8-12k·14薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C41" t="str">
-        <v>正商地产</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E41" t="str">
         <v>1-3年</v>
       </c>
       <c r="F41" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G41" t="str">
         <v>一个月前</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>android开发</v>
       </c>
       <c r="B42" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C42" t="str">
-        <v>正商地产</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E42" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F42" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G42" t="str">
         <v>一个月前</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B43" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C43" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E43" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F43" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G43" t="str">
         <v>一个月前</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B44" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C44" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E44" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F44" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G44" t="str">
         <v>一个月前</v>
@@ -1394,16 +1394,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C45" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E45" t="str">
         <v>5-10年</v>
@@ -1417,19 +1417,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android开发工程师岗</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B46" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C46" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E46" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F46" t="str">
         <v>统招本科</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C47" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D47" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E47" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F47" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G47" t="str">
         <v>一个月前</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>7.Android developer 安卓开发者</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B48" t="str">
-        <v>26-40k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E48" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F48" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G48" t="str">
         <v>一个月前</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android Developer</v>
+        <v>Android开发</v>
       </c>
       <c r="B49" t="str">
-        <v>26-40k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C49" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E49" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F49" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G49" t="str">
         <v>一个月前</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>7.Android developer 安卓开发者</v>
       </c>
       <c r="B50" t="str">
-        <v>7-10k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C50" t="str">
-        <v>超图软件</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D50" t="str">
         <v>郑州</v>
       </c>
       <c r="E50" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F50" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G50" t="str">
         <v>一个月前</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android</v>
+        <v>Android Developer</v>
       </c>
       <c r="B51" t="str">
-        <v>15-20k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>浩鲸智能</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F51" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G51" t="str">
         <v>一个月前</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B52" t="str">
-        <v>7-14k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C52" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F52" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G52" t="str">
         <v>一个月前</v>
@@ -1581,19 +1581,19 @@
         <v>Android</v>
       </c>
       <c r="B53" t="str">
-        <v>8-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E53" t="str">
         <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android开发工程师</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>杭州玛亚科技有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E54" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F54" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G54" t="str">
         <v>一个月前</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B55" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C55" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E55" t="str">
         <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G55" t="str">
         <v>一个月前</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>杭州玛亚科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E56" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F56" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G56" t="str">
         <v>一个月前</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>6k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C57" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>牧原食品股份有限公司</v>
       </c>
       <c r="D57" t="str">
         <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F57" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G57" t="str">
         <v>一个月前</v>
@@ -1693,19 +1693,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>8-16k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E58" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F58" t="str">
         <v>大专及以上</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Android开发工程师</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B59" t="str">
-        <v>6-12k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
@@ -1742,19 +1742,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E60" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F60" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G60" t="str">
         <v>一个月前</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>5-10k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C61" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E61" t="str">
         <v>1-3年</v>
       </c>
       <c r="F61" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G61" t="str">
         <v>一个月前</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州</v>
       </c>
       <c r="E62" t="str">
         <v>3-5年</v>
       </c>
       <c r="F62" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G62" t="str">
         <v>一个月前</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C63" t="str">
-        <v>汉克时代</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E63" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F63" t="str">
         <v>本科及以上</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B64" t="str">
-        <v>14-18k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C64" t="str">
-        <v>三门峡崤云信息服务股份有限公司</v>
+        <v>汉克时代</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E64" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F64" t="str">
         <v>本科及以上</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android高级开发工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B65" t="str">
-        <v>10-15k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>三门峡崤云信息服务股份有限公司</v>
       </c>
       <c r="D65" t="str">
         <v>郑州</v>
@@ -1869,7 +1869,7 @@
         <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G65" t="str">
         <v>一个月前</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>20-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C66" t="str">
-        <v>京东</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F66" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G66" t="str">
         <v>一个月前</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>4-8k·12薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>比特耐特</v>
+        <v>京东</v>
       </c>
       <c r="D67" t="str">
         <v>郑州</v>
       </c>
       <c r="E67" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F67" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G67" t="str">
         <v>一个月前</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B68" t="str">
         <v>4-8k·12薪</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>6-9k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E69" t="str">
         <v>1-3年</v>
       </c>
       <c r="F69" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G69" t="str">
         <v>一个月前</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android开发</v>
+        <v>Android</v>
       </c>
       <c r="B70" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E70" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F70" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G70" t="str">
         <v>一个月前</v>
@@ -1992,19 +1992,19 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android逆向工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B71" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F71" t="str">
         <v>大专及以上</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>高级android开发工程师</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>14-18k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C72" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E72" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F72" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G72" t="str">
         <v>一个月前</v>
@@ -2038,19 +2038,19 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>8-12k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E73" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F73" t="str">
         <v>本科及以上</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>8-12k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C74" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E74" t="str">
         <v>1-3年</v>
       </c>
       <c r="F74" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G74" t="str">
         <v>一个月前</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android</v>
+        <v>android工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C75" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E75" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F75" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G75" t="str">
         <v>一个月前</v>
@@ -2110,19 +2110,19 @@
         <v>Android</v>
       </c>
       <c r="B76" t="str">
-        <v>8-11k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D76" t="str">
         <v>郑州</v>
       </c>
       <c r="E76" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F76" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G76" t="str">
         <v>一个月前</v>
@@ -2130,16 +2130,16 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发</v>
+        <v>Android</v>
       </c>
       <c r="B77" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>华英农业</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E77" t="str">
         <v>1-3年</v>
@@ -2153,16 +2153,16 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B78" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E78" t="str">
         <v>1-3年</v>
@@ -2179,19 +2179,19 @@
         <v>Android</v>
       </c>
       <c r="B79" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C79" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D79" t="str">
         <v>郑州</v>
       </c>
       <c r="E79" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F79" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G79" t="str">
         <v>一个月前</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B80" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F80" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G80" t="str">
         <v>一个月前</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E81" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F81" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G81" t="str">
         <v>一个月前</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E82" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F82" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G82" t="str">
         <v>一个月前</v>
@@ -2271,13 +2271,13 @@
         <v>Android高级开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C83" t="str">
         <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E83" t="str">
         <v>1-3年</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C84" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F84" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G84" t="str">
         <v>一个月前</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android开发</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E85" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F85" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G85" t="str">
         <v>一个月前</v>
@@ -2340,13 +2340,13 @@
         <v>android开发</v>
       </c>
       <c r="B86" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>网道咨询</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E86" t="str">
         <v>1-3年</v>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B87" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C87" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D87" t="str">
         <v>郑州</v>
@@ -2375,7 +2375,7 @@
         <v>1-3年</v>
       </c>
       <c r="F87" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G87" t="str">
         <v>一个月前</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>6-13k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C88" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E88" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F88" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G88" t="str">
         <v>一个月前</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E89" t="str">
         <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G89" t="str">
         <v>一个月前</v>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>华英农业</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E90" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F90" t="str">
         <v>大专及以上</v>
@@ -2455,10 +2455,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
@@ -2467,7 +2467,7 @@
         <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G91" t="str">
         <v>一个月前</v>
@@ -2478,19 +2478,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>7-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G92" t="str">
         <v>一个月前</v>
@@ -2501,19 +2501,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D93" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E93" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F93" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G93" t="str">
         <v>一个月前</v>
@@ -2521,16 +2521,16 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>4-9k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E94" t="str">
         <v>1-3年</v>
@@ -2544,16 +2544,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android讲师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>8-12k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E95" t="str">
         <v>1-3年</v>
@@ -2567,13 +2567,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android开发工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B96" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
@@ -2590,19 +2590,19 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州</v>
       </c>
       <c r="E97" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F97" t="str">
         <v>本科及以上</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B98" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>修齐治平</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D98" t="str">
         <v>郑州</v>
@@ -2628,7 +2628,7 @@
         <v>3-5年</v>
       </c>
       <c r="F98" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G98" t="str">
         <v>一个月前</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>android开发工程师</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-国基路</v>
+        <v>郑州</v>
       </c>
       <c r="E99" t="str">
         <v>3-5年</v>
       </c>
       <c r="F99" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G99" t="str">
         <v>一个月前</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>8-13k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C100" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-国基路</v>
       </c>
       <c r="E100" t="str">
         <v>3-5年</v>
       </c>
       <c r="F100" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G100" t="str">
         <v>一个月前</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>安卓开发</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C101" t="str">
-        <v>浩鲸智能</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E101" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F101" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G101" t="str">
         <v>一个月前</v>
@@ -2708,19 +2708,19 @@
         <v>安卓开发</v>
       </c>
       <c r="B102" t="str">
-        <v>5-8k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
       </c>
       <c r="E102" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F102" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G102" t="str">
         <v>一个月前</v>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B103" t="str">
-        <v>6-7k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C103" t="str">
         <v>河南易众拍卖行有限公司</v>
@@ -2754,19 +2754,19 @@
         <v>安卓工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>浩鲸智能</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E104" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F104" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G104" t="str">
         <v>一个月前</v>
@@ -2777,19 +2777,19 @@
         <v>安卓工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>10-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C105" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E105" t="str">
         <v>3-5年</v>
       </c>
       <c r="F105" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G105" t="str">
         <v>一个月前</v>
@@ -2797,13 +2797,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>安卓讲师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
@@ -2820,13 +2820,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B107" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>河南紫马网络科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
@@ -2838,7 +2838,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G107" t="str">
-        <v>2020-11-16</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="108">
@@ -2846,19 +2846,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>6-8k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C108" t="str">
-        <v>思维自动化</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E108" t="str">
         <v>1-3年</v>
       </c>
       <c r="F108" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G108" t="str">
         <v>一个月前</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>8-20k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>刀锋互娱</v>
+        <v>思维自动化</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E109" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F109" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G109" t="str">
         <v>一个月前</v>
@@ -2889,16 +2889,16 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E110" t="str">
         <v>3-5年</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B111" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E111" t="str">
         <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G111" t="str">
         <v>一个月前</v>
@@ -2938,19 +2938,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E112" t="str">
         <v>3-5年</v>
       </c>
       <c r="F112" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G112" t="str">
         <v>一个月前</v>
@@ -2958,22 +2958,22 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E113" t="str">
         <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G113" t="str">
         <v>一个月前</v>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>安卓开发工程师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>7-9k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>蓓安科仪(北京)技术有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E114" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F114" t="str">
         <v>本科及以上</v>
@@ -3007,19 +3007,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>蓓安科仪(北京)技术有限公司</v>
       </c>
       <c r="D115" t="str">
         <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F115" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G115" t="str">
         <v>一个月前</v>
@@ -3030,19 +3030,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>3-8k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C116" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E116" t="str">
         <v>经验不限</v>
       </c>
       <c r="F116" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G116" t="str">
         <v>一个月前</v>
@@ -3053,16 +3053,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>5-7k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E117" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F117" t="str">
         <v>本科及以上</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>8-15k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E118" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F118" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G118" t="str">
         <v>一个月前</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓app开发工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>3-8k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D119" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E119" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F119" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G119" t="str">
         <v>一个月前</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓开发（双休）</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>6-9k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E120" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F120" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G120" t="str">
         <v>一个月前</v>
@@ -3142,19 +3142,19 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B121" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C121" t="str">
         <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F121" t="str">
         <v>大专及以上</v>
@@ -3165,200 +3165,200 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>web前端开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B122" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E122" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F122" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G122" t="str">
-        <v>27分钟前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>前端开发工程师</v>
+        <v>软件工程师 (智能座舱架构方向)</v>
       </c>
       <c r="B123" t="str">
-        <v>6-10k·13薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C123" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>精益达</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F123" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G123" t="str">
-        <v>27分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>UI/界面设计师</v>
       </c>
       <c r="B124" t="str">
-        <v>8-12k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州豫秀科技有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E124" t="str">
         <v>3-5年</v>
       </c>
       <c r="F124" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G124" t="str">
-        <v>27分钟前</v>
+        <v>19小时前</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
+        <v>测试工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>25-50k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C125" t="str">
-        <v>国内知名车企+新能源汽车</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州,武汉,上海</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E125" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F125" t="str">
         <v>统招本科</v>
       </c>
       <c r="G125" t="str">
-        <v>1小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>软件工程师 (智能座舱架构方向)</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>25-35k·12薪</v>
+        <v>25-40k·16薪</v>
       </c>
       <c r="C126" t="str">
-        <v>精益达</v>
+        <v>全国连锁猎头公司</v>
       </c>
       <c r="D126" t="str">
         <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F126" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G126" t="str">
-        <v>20小时前</v>
+        <v>22小时前</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>测试工程师</v>
+        <v>河南科技公司网络渗透工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6-12k·12薪</v>
+        <v>25-50k·16薪</v>
       </c>
       <c r="C127" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G127" t="str">
-        <v>昨天</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>移动端开发工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>8-17k·12薪</v>
+        <v>25-50k·16薪</v>
       </c>
       <c r="C128" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F128" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G128" t="str">
-        <v>2020-12-11</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>15-20k·13薪</v>
+        <v>25-50k·16薪</v>
       </c>
       <c r="C129" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>全国知名连锁猎头公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F129" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G129" t="str">
-        <v>刚刚</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>高级软件工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>6-11k·13薪</v>
+        <v>25-50k·16薪</v>
       </c>
       <c r="C130" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>全国知名连锁猎头公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E130" t="str">
         <v>3-5年</v>
@@ -3367,44 +3367,44 @@
         <v>本科及以上</v>
       </c>
       <c r="G130" t="str">
-        <v>2020-12-11</v>
+        <v>15小时前</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>软件工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>5-11k·13薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C131" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F131" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G131" t="str">
-        <v>2020-12-11</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Java开发工程师</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B132" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E132" t="str">
         <v>3-5年</v>
@@ -3413,481 +3413,481 @@
         <v>本科及以上</v>
       </c>
       <c r="G132" t="str">
-        <v>2020-12-11</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>高级产品经理</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B133" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C133" t="str">
-        <v>刀锋互娱</v>
+        <v>速游</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E133" t="str">
-        <v>经验不限</v>
+        <v>一年以下</v>
       </c>
       <c r="F133" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G133" t="str">
-        <v>2020-12-10</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>移动端资深产品经理</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>15-20k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C134" t="str">
-        <v>刀锋互娱</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E134" t="str">
         <v>5-10年</v>
       </c>
       <c r="F134" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G134" t="str">
-        <v>2020-12-10</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C135" t="str">
-        <v>天瑞集团</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E135" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F135" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G135" t="str">
-        <v>2020-12-09</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>流媒体开发</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>11-13k·12薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C136" t="str">
-        <v>某龙科教网络公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E136" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F136" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G136" t="str">
-        <v>2020-12-09</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>系统架构师</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C137" t="str">
-        <v>油田咨询</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E137" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F137" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G137" t="str">
-        <v>2020-12-08</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>APP运营主管/经理</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>10-18k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C138" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E138" t="str">
         <v>3-5年</v>
       </c>
       <c r="F138" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G138" t="str">
-        <v>2020-12-08</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>系统测试工程师</v>
+        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
       </c>
       <c r="B139" t="str">
-        <v>5-12k·12薪</v>
+        <v>25-50k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>油田咨询</v>
+        <v>国内知名车企+新能源汽车</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州,武汉,上海</v>
       </c>
       <c r="E139" t="str">
         <v>经验不限</v>
       </c>
       <c r="F139" t="str">
-        <v>硕士及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G139" t="str">
-        <v>2020-12-08</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>渗透测试工程师</v>
+        <v>嵌入式软件工程师（新三板上市公司）</v>
       </c>
       <c r="B140" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C140" t="str">
-        <v>爱加密</v>
+        <v>恩普特</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E140" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F140" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G140" t="str">
-        <v>2020-12-04</v>
+        <v>2020-12-17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>流媒体系统架构师</v>
+        <v>流媒体开发</v>
       </c>
       <c r="B141" t="str">
-        <v>15-20k·12薪</v>
+        <v>11-13k·12薪</v>
       </c>
       <c r="C141" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>某龙科教网络公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E141" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F141" t="str">
         <v>统招本科</v>
       </c>
       <c r="G141" t="str">
-        <v>2020-12-04</v>
+        <v>2020-12-17</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>信息化专员</v>
+        <v>招聘专家（招产妍）</v>
       </c>
       <c r="B142" t="str">
-        <v>面议</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C142" t="str">
-        <v>建业新生活</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E142" t="str">
         <v>3-5年</v>
       </c>
       <c r="F142" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G142" t="str">
-        <v>2020-12-02</v>
+        <v>2020-12-16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>嵌入式软件工程师（新三板上市公司）</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B143" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C143" t="str">
-        <v>恩普特</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E143" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F143" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G143" t="str">
-        <v>2020-12-02</v>
+        <v>2020-12-16</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>流媒体系统架构师</v>
       </c>
       <c r="B144" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C144" t="str">
-        <v>中原期货</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E144" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F144" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G144" t="str">
-        <v>2020-11-30</v>
+        <v>2020-12-16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>前端开发工程师</v>
+        <v>郑州网络高级渗透工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>8-12k·12薪</v>
+        <v>20-35k·12薪</v>
       </c>
       <c r="C145" t="str">
-        <v>北大软件</v>
+        <v>苏州智猎企业管理有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E145" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F145" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G145" t="str">
-        <v>2020-11-27</v>
+        <v>2020-12-15</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>java高级工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>10-11k·12薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C146" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E146" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F146" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G146" t="str">
-        <v>2020-11-26</v>
+        <v>2020-12-14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>java高级软件工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C147" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E147" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F147" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G147" t="str">
-        <v>2020-11-26</v>
+        <v>2020-12-14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>FAE现场工程师</v>
+        <v>系统架构师</v>
       </c>
       <c r="B148" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C148" t="str">
-        <v>广东九联科技股份有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E148" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F148" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G148" t="str">
-        <v>2020-11-26</v>
+        <v>2020-12-14</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>产品经理</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>8-15k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C149" t="str">
-        <v>郑州小魔兽电子商务有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E149" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F149" t="str">
-        <v>本科及以上</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G149" t="str">
-        <v>2020-11-26</v>
+        <v>2020-12-14</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>技术总监</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B150" t="str">
         <v>15-25k·12薪</v>
       </c>
       <c r="C150" t="str">
-        <v>欣宜嘉</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D150" t="str">
         <v>郑州</v>
       </c>
       <c r="E150" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F150" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G150" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>移动前端开发工程师</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B151" t="str">
-        <v>9-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C151" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D151" t="str">
         <v>郑州</v>
       </c>
       <c r="E151" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F151" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G151" t="str">
-        <v>一个月前</v>
+        <v>2020-12-10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B152" t="str">
-        <v>10-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C152" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E152" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F152" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G152" t="str">
-        <v>2020-11-23</v>
+        <v>2020-12-09</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>前端工程师</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B153" t="str">
-        <v>8-13k·13薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C153" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
@@ -3896,21 +3896,21 @@
         <v>大专及以上</v>
       </c>
       <c r="G153" t="str">
-        <v>一个月前</v>
+        <v>2020-12-08</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>移动前端开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C154" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E154" t="str">
         <v>3-5年</v>
@@ -3919,21 +3919,21 @@
         <v>大专及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>一个月前</v>
+        <v>2020-12-04</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>信息化专员</v>
       </c>
       <c r="B155" t="str">
-        <v>6-12k·13薪</v>
+        <v>面议</v>
       </c>
       <c r="C155" t="str">
-        <v>新开普电子</v>
+        <v>建业新生活</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E155" t="str">
         <v>3-5年</v>
@@ -3942,24 +3942,24 @@
         <v>统招本科</v>
       </c>
       <c r="G155" t="str">
-        <v>一个月前</v>
+        <v>2020-12-02</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>手机软件开发工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>6-7k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C156" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D156" t="str">
         <v>郑州</v>
       </c>
       <c r="E156" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F156" t="str">
         <v>大专及以上</v>
@@ -3970,68 +3970,68 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>app开发工程师</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B157" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C157" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>中原期货</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E157" t="str">
         <v>3-5年</v>
       </c>
       <c r="F157" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>一个月前</v>
+        <v>2020-11-30</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>前端工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C158" t="str">
-        <v>速游</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E158" t="str">
-        <v>一年以下</v>
+        <v>3-5年</v>
       </c>
       <c r="F158" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G158" t="str">
-        <v>2020-11-21</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>8-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E159" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F159" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G159" t="str">
         <v>一个月前</v>
@@ -4039,22 +4039,22 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>ASO优化师</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C160" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E160" t="str">
         <v>3-5年</v>
       </c>
       <c r="F160" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G160" t="str">
         <v>一个月前</v>
@@ -4062,22 +4062,22 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>app运营主管</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E161" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F161" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G161" t="str">
         <v>一个月前</v>
@@ -4085,22 +4085,22 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>移动开发工程师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>10-17k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C162" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E162" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F162" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G162" t="str">
         <v>一个月前</v>
@@ -4108,22 +4108,22 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>软件工程师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>郑州卓安</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E163" t="str">
         <v>1-3年</v>
       </c>
       <c r="F163" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G163" t="str">
         <v>一个月前</v>
@@ -4131,19 +4131,19 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>java开发</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B164" t="str">
-        <v>5-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>郑州卓安</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E164" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F164" t="str">
         <v>大专及以上</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>移动开发工程师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B165" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C165" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E165" t="str">
         <v>3-5年</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>软件测试工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C166" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E166" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F166" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G166" t="str">
         <v>一个月前</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>APP工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>10-12k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E167" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F167" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G167" t="str">
         <v>一个月前</v>
@@ -4223,19 +4223,19 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>APP推广</v>
+        <v>java开发</v>
       </c>
       <c r="B168" t="str">
-        <v>5-10k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E168" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F168" t="str">
         <v>大专及以上</v>
@@ -4246,45 +4246,45 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>应用层开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>北大软件</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E169" t="str">
         <v>1-3年</v>
       </c>
       <c r="F169" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G169" t="str">
-        <v>一个月前</v>
+        <v>2020-11-27</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>高级前端讲师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B170" t="str">
-        <v>15-30k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>北京千锋互联科技</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D170" t="str">
         <v>郑州</v>
       </c>
       <c r="E170" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F170" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G170" t="str">
         <v>一个月前</v>
@@ -4292,16 +4292,16 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>app推广经理</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B171" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E171" t="str">
         <v>1-3年</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>APP工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E172" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F172" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G172" t="str">
         <v>一个月前</v>
@@ -4338,62 +4338,62 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>ui设计师</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C173" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E173" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F173" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G173" t="str">
-        <v>一个月前</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>java高级软件工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>7-11k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>新开普电子</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D174" t="str">
         <v>郑州</v>
       </c>
       <c r="E174" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F174" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G174" t="str">
-        <v>一个月前</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>C++开发工程师中级</v>
+        <v>产品经理</v>
       </c>
       <c r="B175" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C175" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>郑州小魔兽电子商务有限公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E175" t="str">
         <v>3-5年</v>
@@ -4402,24 +4402,24 @@
         <v>本科及以上</v>
       </c>
       <c r="G175" t="str">
-        <v>一个月前</v>
+        <v>2020-11-26</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>APP推广</v>
       </c>
       <c r="B176" t="str">
-        <v>10-20k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E176" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F176" t="str">
         <v>大专及以上</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>智能技术开发主管</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B177" t="str">
-        <v>面议</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D177" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E177" t="str">
-        <v>10年以上</v>
+        <v>1-3年</v>
       </c>
       <c r="F177" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G177" t="str">
         <v>一个月前</v>
@@ -4453,13 +4453,13 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B178" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>正星科技</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D178" t="str">
         <v>郑州</v>
@@ -4468,7 +4468,7 @@
         <v>5-10年</v>
       </c>
       <c r="F178" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G178" t="str">
         <v>一个月前</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Java开发工程师</v>
+        <v>app推广经理</v>
       </c>
       <c r="B179" t="str">
-        <v>6-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E179" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F179" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G179" t="str">
         <v>一个月前</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>JAVA开发</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B180" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D180" t="str">
         <v>郑州</v>
       </c>
       <c r="E180" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F180" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G180" t="str">
         <v>一个月前</v>
@@ -4522,22 +4522,22 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>java开发工程师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B181" t="str">
-        <v>7-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E181" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F181" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G181" t="str">
         <v>一个月前</v>
@@ -4545,45 +4545,45 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B182" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D182" t="str">
         <v>郑州</v>
       </c>
       <c r="E182" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F182" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G182" t="str">
-        <v>一个月前</v>
+        <v>2020-11-23</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>产品经理</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B183" t="str">
-        <v>8-13k·13薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>郑州XX公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D183" t="str">
         <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F183" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G183" t="str">
         <v>一个月前</v>
@@ -4591,22 +4591,22 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>架构师</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B184" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E184" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F184" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G184" t="str">
         <v>一个月前</v>
@@ -4614,19 +4614,19 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>ui</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B185" t="str">
-        <v>6-11k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C185" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E185" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F185" t="str">
         <v>本科及以上</v>
@@ -4637,22 +4637,22 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>中级JAVA开发</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B186" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C186" t="str">
-        <v>正商地产</v>
+        <v>正星科技</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E186" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F186" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G186" t="str">
         <v>一个月前</v>
@@ -4660,19 +4660,19 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B187" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>埃林哲</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E187" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F187" t="str">
         <v>本科及以上</v>
@@ -4683,13 +4683,13 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B188" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C188" t="str">
-        <v>信大捷安</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D188" t="str">
         <v>郑州</v>
@@ -4706,13 +4706,13 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B189" t="str">
-        <v>13-25k·13薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C189" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D189" t="str">
         <v>郑州-二七区</v>
@@ -4729,13 +4729,13 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Mobile Application Developer</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B190" t="str">
-        <v>26-40k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D190" t="str">
         <v>郑州</v>
@@ -4744,7 +4744,7 @@
         <v>5-10年</v>
       </c>
       <c r="F190" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G190" t="str">
         <v>一个月前</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Senior System Developer 资深系统工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B191" t="str">
-        <v>26-40k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C191" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>郑州XX公司</v>
       </c>
       <c r="D191" t="str">
         <v>郑州</v>
       </c>
       <c r="E191" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F191" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G191" t="str">
         <v>一个月前</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>商务助理</v>
+        <v>架构师</v>
       </c>
       <c r="B192" t="str">
-        <v>5-8k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>河南准澳网络科技有限公司</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D192" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E192" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F192" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G192" t="str">
         <v>一个月前</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>ui</v>
       </c>
       <c r="B193" t="str">
-        <v>13-18k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E193" t="str">
         <v>3-5年</v>
       </c>
       <c r="F193" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G193" t="str">
         <v>一个月前</v>
@@ -4821,16 +4821,16 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>产品经理</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B194" t="str">
-        <v>7-12k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>完美数联(杭州)科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E194" t="str">
         <v>3-5年</v>
@@ -4844,19 +4844,19 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>UI高级设计师</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B195" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C195" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>埃林哲</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E195" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F195" t="str">
         <v>本科及以上</v>
@@ -4867,22 +4867,22 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>产品经理</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B196" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>信大捷安</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E196" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F196" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G196" t="str">
         <v>一个月前</v>
@@ -4890,16 +4890,16 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>维护工程师</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B197" t="str">
-        <v>4-6k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C197" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D197" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E197" t="str">
         <v>3-5年</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>维护助理工程师</v>
+        <v>Mobile Application Developer</v>
       </c>
       <c r="B198" t="str">
-        <v>3-5k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E198" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F198" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G198" t="str">
         <v>一个月前</v>
@@ -4936,22 +4936,22 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>iOS开发工程师</v>
+        <v>Senior System Developer 资深系统工程师</v>
       </c>
       <c r="B199" t="str">
-        <v>14-20k·12薪</v>
+        <v>26-40k·12薪</v>
       </c>
       <c r="C199" t="str">
-        <v>浩鲸智能</v>
+        <v>天津恒程科技有限公司</v>
       </c>
       <c r="D199" t="str">
         <v>郑州</v>
       </c>
       <c r="E199" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F199" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G199" t="str">
         <v>一个月前</v>
@@ -4959,22 +4959,22 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>软件开发</v>
+        <v>商务助理</v>
       </c>
       <c r="B200" t="str">
-        <v>15-21k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>河南准澳网络科技有限公司</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E200" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F200" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G200" t="str">
         <v>一个月前</v>
@@ -4982,22 +4982,22 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>移动开发工程师</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B201" t="str">
-        <v>5-10k·12薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E201" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F201" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G201" t="str">
         <v>一个月前</v>
@@ -5005,22 +5005,22 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>移动端开发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B202" t="str">
-        <v>15-25k·12薪</v>
+        <v>7-12k·13薪</v>
       </c>
       <c r="C202" t="str">
-        <v>中原银行</v>
+        <v>完美数联(杭州)科技有限公司</v>
       </c>
       <c r="D202" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E202" t="str">
         <v>3-5年</v>
       </c>
       <c r="F202" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G202" t="str">
         <v>一个月前</v>
@@ -5028,19 +5028,19 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>软件外包业务经理</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B203" t="str">
-        <v>8-16k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D203" t="str">
         <v>郑州</v>
       </c>
       <c r="E203" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F203" t="str">
         <v>本科及以上</v>
@@ -5057,16 +5057,16 @@
         <v>8-13k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>新开普电子</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E204" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F204" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G204" t="str">
         <v>一个月前</v>
@@ -5074,13 +5074,13 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>产品经理</v>
+        <v>维护工程师</v>
       </c>
       <c r="B205" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D205" t="str">
         <v>郑州-郑东新区</v>
@@ -5089,7 +5089,7 @@
         <v>3-5年</v>
       </c>
       <c r="F205" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G205" t="str">
         <v>一个月前</v>
@@ -5097,19 +5097,19 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>驻场安服工程师-郑州(J12532)</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B206" t="str">
-        <v>8-12k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>绿盟科技集团股份有限公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E206" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F206" t="str">
         <v>大专及以上</v>
@@ -5120,19 +5120,19 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>软件研发总监</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>20-25k·12薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>河南博联慧绿科技集团有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E207" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F207" t="str">
         <v>本科及以上</v>
@@ -5143,22 +5143,22 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>软件开发</v>
       </c>
       <c r="B208" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E208" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F208" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G208" t="str">
         <v>一个月前</v>
@@ -5166,22 +5166,22 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>测试工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B209" t="str">
-        <v>6-12k·14薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C209" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D209" t="str">
         <v>郑州</v>
       </c>
       <c r="E209" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F209" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G209" t="str">
         <v>一个月前</v>
@@ -5189,19 +5189,19 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>高级软件工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B210" t="str">
-        <v>8-12k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C210" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>中原银行</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E210" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F210" t="str">
         <v>本科及以上</v>
@@ -5212,16 +5212,16 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B211" t="str">
-        <v>面议</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E211" t="str">
         <v>3-5年</v>
@@ -5235,22 +5235,22 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>产品经理</v>
       </c>
       <c r="B212" t="str">
         <v>8-13k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>北京千锋互联科技</v>
+        <v>新开普电子</v>
       </c>
       <c r="D212" t="str">
         <v>郑州</v>
       </c>
       <c r="E212" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F212" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G212" t="str">
         <v>一个月前</v>
@@ -5258,16 +5258,16 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>前端工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B213" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>元丰科技</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E213" t="str">
         <v>3-5年</v>
@@ -5281,19 +5281,19 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>驻场安服工程师-郑州(J12532)</v>
       </c>
       <c r="B214" t="str">
-        <v>15-25k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C214" t="str">
-        <v>朗新科技</v>
+        <v>绿盟科技集团股份有限公司</v>
       </c>
       <c r="D214" t="str">
         <v>郑州</v>
       </c>
       <c r="E214" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F214" t="str">
         <v>大专及以上</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>软件研发总监</v>
       </c>
       <c r="B215" t="str">
-        <v>11-20k·13薪</v>
+        <v>20-25k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>朗新科技</v>
+        <v>河南博联慧绿科技集团有限公司</v>
       </c>
       <c r="D215" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E215" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F215" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,22 +5327,22 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>售前技术支持</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B216" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>环信</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E216" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F216" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G216" t="str">
         <v>一个月前</v>
@@ -5350,22 +5350,22 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>java开发工程师助理</v>
+        <v>测试工程师</v>
       </c>
       <c r="B217" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C217" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E217" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F217" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G217" t="str">
         <v>一个月前</v>
@@ -5373,22 +5373,22 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>UI设计师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B218" t="str">
-        <v>4-6k·13薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C218" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D218" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E218" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F218" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G218" t="str">
         <v>一个月前</v>
@@ -5396,16 +5396,16 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>PC客户端产品经理</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B219" t="str">
-        <v>6-10k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C219" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D219" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E219" t="str">
         <v>3-5年</v>
@@ -5419,13 +5419,13 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>IOS</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B220" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C220" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D220" t="str">
         <v>郑州</v>
@@ -5442,19 +5442,19 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B221" t="str">
-        <v>18-25k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>元丰科技</v>
       </c>
       <c r="D221" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E221" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F221" t="str">
         <v>大专及以上</v>
@@ -5465,13 +5465,13 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>高级软件测试工程师</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B222" t="str">
-        <v>7-9k·12薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C222" t="str">
-        <v>国际交友</v>
+        <v>朗新科技</v>
       </c>
       <c r="D222" t="str">
         <v>郑州</v>
@@ -5488,16 +5488,16 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>高级软件测试工程师</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B223" t="str">
-        <v>7-9k·12薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C223" t="str">
-        <v>国际交友</v>
+        <v>朗新科技</v>
       </c>
       <c r="D223" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E223" t="str">
         <v>3-5年</v>
@@ -5511,22 +5511,22 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>JAVA开发工程师</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B224" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>地理信息系统</v>
+        <v>环信</v>
       </c>
       <c r="D224" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E224" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F224" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G224" t="str">
         <v>一个月前</v>
@@ -5534,22 +5534,22 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>摄像头调试工程师</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B225" t="str">
-        <v>4-9k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C225" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D225" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E225" t="str">
         <v>经验不限</v>
       </c>
       <c r="F225" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G225" t="str">
         <v>一个月前</v>
@@ -5557,22 +5557,22 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B226" t="str">
-        <v>6-12k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C226" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E226" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F226" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G226" t="str">
         <v>一个月前</v>
@@ -5580,22 +5580,22 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B227" t="str">
         <v>6-10k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D227" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E227" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F227" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G227" t="str">
         <v>一个月前</v>
@@ -5603,22 +5603,22 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>cocos开发工程师</v>
+        <v>IOS</v>
       </c>
       <c r="B228" t="str">
-        <v>9-16k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D228" t="str">
         <v>郑州</v>
       </c>
       <c r="E228" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F228" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G228" t="str">
         <v>一个月前</v>
@@ -5626,22 +5626,22 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>学术经理</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B229" t="str">
-        <v>8-15k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D229" t="str">
         <v>郑州</v>
       </c>
       <c r="E229" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F229" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G229" t="str">
         <v>一个月前</v>
@@ -5649,13 +5649,13 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>IT项目经理</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B230" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D230" t="str">
         <v>郑州</v>
@@ -5672,22 +5672,22 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>前端高级讲师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B231" t="str">
-        <v>10-18k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D231" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E231" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F231" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G231" t="str">
         <v>一个月前</v>
@@ -5695,22 +5695,22 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>.NET开发工程师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B232" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D232" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E232" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F232" t="str">
-        <v>中专/中技及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G232" t="str">
         <v>一个月前</v>
@@ -5718,22 +5718,22 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>网页UI设计师</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B233" t="str">
-        <v>4-8k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>羲和网络</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D233" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E233" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F233" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G233" t="str">
         <v>一个月前</v>
@@ -5741,22 +5741,22 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Web前端工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B234" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C234" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E234" t="str">
         <v>3-5年</v>
       </c>
       <c r="F234" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G234" t="str">
         <v>一个月前</v>
@@ -5764,22 +5764,22 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>检查员</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B235" t="str">
-        <v>3-5k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D235" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E235" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F235" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G235" t="str">
         <v>一个月前</v>
@@ -5787,19 +5787,19 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>督导</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B236" t="str">
-        <v>3-5k·12薪</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E236" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F236" t="str">
         <v>学历不限</v>
@@ -5810,22 +5810,22 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>游戏项目主程</v>
+        <v>学术经理</v>
       </c>
       <c r="B237" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D237" t="str">
         <v>郑州</v>
       </c>
       <c r="E237" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F237" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G237" t="str">
         <v>一个月前</v>
@@ -5833,22 +5833,22 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B238" t="str">
-        <v>面议</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C238" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D238" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E238" t="str">
         <v>3-5年</v>
       </c>
       <c r="F238" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G238" t="str">
         <v>一个月前</v>
@@ -5856,19 +5856,19 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B239" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C239" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D239" t="str">
         <v>郑州</v>
       </c>
       <c r="E239" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F239" t="str">
         <v>本科及以上</v>
@@ -5879,22 +5879,22 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B240" t="str">
-        <v>6-8k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C240" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D240" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E240" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F240" t="str">
-        <v>本科及以上</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G240" t="str">
         <v>一个月前</v>
@@ -5902,22 +5902,22 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>高级APP工程师</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B241" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C241" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D241" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E241" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F241" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G241" t="str">
         <v>一个月前</v>
@@ -5925,19 +5925,19 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>UI设计师</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B242" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C242" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D242" t="str">
         <v>郑州</v>
       </c>
       <c r="E242" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F242" t="str">
         <v>大专及以上</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>UI设计师</v>
+        <v>检查员</v>
       </c>
       <c r="B243" t="str">
-        <v>4-6k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D243" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E243" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F243" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G243" t="str">
         <v>一个月前</v>
@@ -5971,22 +5971,22 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>中级软件测试工程师</v>
+        <v>督导</v>
       </c>
       <c r="B244" t="str">
-        <v>10-14k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C244" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D244" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E244" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F244" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G244" t="str">
         <v>一个月前</v>
@@ -5994,19 +5994,19 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>UI设计工程师</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B245" t="str">
-        <v>9-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C245" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D245" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E245" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F245" t="str">
         <v>大专及以上</v>
@@ -6017,22 +6017,22 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>产品经理</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B246" t="str">
-        <v>8-10k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C246" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D246" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E246" t="str">
         <v>3-5年</v>
       </c>
       <c r="F246" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G246" t="str">
         <v>一个月前</v>
@@ -6040,22 +6040,22 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Mobile App</v>
+        <v>产品经理（英语项目）</v>
       </c>
       <c r="B247" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C247" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D247" t="str">
         <v>郑州</v>
       </c>
       <c r="E247" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F247" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G247" t="str">
         <v>一个月前</v>
@@ -6063,13 +6063,13 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>UI/UX developer</v>
+        <v>产品经理（咿啦看书项目）</v>
       </c>
       <c r="B248" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C248" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D248" t="str">
         <v>郑州</v>
@@ -6086,22 +6086,22 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>java软件工程师</v>
+        <v>高级APP工程师</v>
       </c>
       <c r="B249" t="str">
-        <v>7-13k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C249" t="str">
-        <v>思维自动化</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D249" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E249" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F249" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G249" t="str">
         <v>一个月前</v>
@@ -6109,30 +6109,214 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B250" t="str">
+        <v>4-6k·12薪</v>
+      </c>
+      <c r="C250" t="str">
+        <v>河南汉达网络科技有限公司</v>
+      </c>
+      <c r="D250" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E250" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F250" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G250" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B251" t="str">
+        <v>4-6k·12薪</v>
+      </c>
+      <c r="C251" t="str">
+        <v>河南汉达网络科技有限公司</v>
+      </c>
+      <c r="D251" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E251" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F251" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G251" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>中级软件测试工程师</v>
+      </c>
+      <c r="B252" t="str">
+        <v>10-14k·12薪</v>
+      </c>
+      <c r="C252" t="str">
+        <v>上海陆鹰实业有限公司河南分公司</v>
+      </c>
+      <c r="D252" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E252" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F252" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G252" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>UI设计工程师</v>
+      </c>
+      <c r="B253" t="str">
+        <v>9-10k·12薪</v>
+      </c>
+      <c r="C253" t="str">
+        <v>郑州思博科信息技术有限公司</v>
+      </c>
+      <c r="D253" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E253" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F253" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G253" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>产品经理</v>
+      </c>
+      <c r="B254" t="str">
+        <v>8-10k·12薪</v>
+      </c>
+      <c r="C254" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D254" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E254" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F254" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G254" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Mobile App</v>
+      </c>
+      <c r="B255" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C255" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D255" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E255" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F255" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G255" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>UI/UX developer</v>
+      </c>
+      <c r="B256" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C256" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D256" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E256" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F256" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G256" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B257" t="str">
+        <v>7-13k·13薪</v>
+      </c>
+      <c r="C257" t="str">
+        <v>思维自动化</v>
+      </c>
+      <c r="D257" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E257" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F257" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G257" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
         <v>研发工程师</v>
       </c>
-      <c r="B250" t="str">
+      <c r="B258" t="str">
         <v>5-10k·12薪</v>
       </c>
-      <c r="C250" t="str">
+      <c r="C258" t="str">
         <v>河南森源集团有限公司</v>
       </c>
-      <c r="D250" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E250" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F250" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G250" t="str">
+      <c r="D258" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E258" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F258" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G258" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G250"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G258"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,62 +405,62 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C2" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D2" t="str">
         <v>郑州</v>
       </c>
       <c r="E2" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F2" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G2" t="str">
-        <v>22分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>安卓开发</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C3" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E3" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F3" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G3" t="str">
-        <v>22分钟前</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>10-16k·13薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C4" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E4" t="str">
         <v>3-5年</v>
@@ -469,64 +469,64 @@
         <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>34分钟前</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C5" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州</v>
+        <v>郑州-南关</v>
       </c>
       <c r="E5" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F5" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G5" t="str">
-        <v>刚刚</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C6" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
       </c>
       <c r="F6" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>昨天</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>9-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C7" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D7" t="str">
         <v>郑州</v>
@@ -535,162 +535,162 @@
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G7" t="str">
-        <v>前天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B8" t="str">
-        <v>8-11k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D8" t="str">
         <v>郑州</v>
       </c>
       <c r="E8" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F8" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G8" t="str">
-        <v>前天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>15-20k·13薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C9" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>知名软件公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E9" t="str">
         <v>5-10年</v>
       </c>
       <c r="F9" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G9" t="str">
-        <v>前天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>安卓开发</v>
       </c>
       <c r="B10" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C10" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E10" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F10" t="str">
         <v>统招本科</v>
       </c>
       <c r="G10" t="str">
-        <v>前天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>资深android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>15-20k·13薪</v>
+        <v>10-16k·13薪</v>
       </c>
       <c r="C11" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E11" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G11" t="str">
-        <v>前天</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>8-10k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E12" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F12" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G12" t="str">
-        <v>前天</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E13" t="str">
         <v>3-5年</v>
       </c>
       <c r="F13" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G13" t="str">
-        <v>前天</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android开发工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B14" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E14" t="str">
         <v>3-5年</v>
@@ -699,159 +699,159 @@
         <v>大专及以上</v>
       </c>
       <c r="G14" t="str">
-        <v>前天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Andriod开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>12-16k·13薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C15" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>缔云科技</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G15" t="str">
-        <v>前天</v>
+        <v>19小时前</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android应用开发工程师</v>
+        <v>软件设计师（安卓、车机）</v>
       </c>
       <c r="B16" t="str">
-        <v>10-15k·14薪</v>
+        <v>30-40k·12薪</v>
       </c>
       <c r="C16" t="str">
-        <v>天迈科技</v>
+        <v>郑州宇通集团-精益达零部件</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E16" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F16" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G16" t="str">
-        <v>2020-12-16</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>5-7k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C17" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E17" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G17" t="str">
-        <v>2020-12-16</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android系统开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B18" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C18" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E18" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F18" t="str">
         <v>统招本科</v>
       </c>
       <c r="G18" t="str">
-        <v>2020-12-16</v>
+        <v>2021-01-15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>高级android工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B19" t="str">
-        <v>12-18k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C19" t="str">
-        <v>知名软件公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E19" t="str">
         <v>5-10年</v>
       </c>
       <c r="F19" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G19" t="str">
-        <v>2020-12-16</v>
+        <v>2021-01-15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>10-15k·16薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C20" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E20" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F20" t="str">
         <v>统招本科</v>
       </c>
       <c r="G20" t="str">
-        <v>2020-12-16</v>
+        <v>2021-01-15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B21" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>某大型互联网企业</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E21" t="str">
         <v>3-5年</v>
@@ -860,18 +860,18 @@
         <v>统招本科</v>
       </c>
       <c r="G21" t="str">
-        <v>2020-12-15</v>
+        <v>2021-01-15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>资深android开发工程师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>智慧家居名企</v>
       </c>
       <c r="D22" t="str">
         <v>郑州</v>
@@ -880,24 +880,24 @@
         <v>3-5年</v>
       </c>
       <c r="F22" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G22" t="str">
-        <v>2020-12-15</v>
+        <v>2021-01-15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>资深安卓开发</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E23" t="str">
         <v>3-5年</v>
@@ -906,7 +906,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G23" t="str">
-        <v>2020-12-15</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="24">
@@ -914,82 +914,82 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>10-15k·14薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C24" t="str">
-        <v>蓝信科技</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E24" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F24" t="str">
         <v>统招本科</v>
       </c>
       <c r="G24" t="str">
-        <v>2020-12-14</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>10-15k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C25" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D25" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E25" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F25" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G25" t="str">
-        <v>2020-12-13</v>
+        <v>2021-01-15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android应用开发工程师</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>7-11k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C26" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E26" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F26" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G26" t="str">
-        <v>2020-12-13</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B27" t="str">
-        <v>15-30k·13薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>中钢网</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E27" t="str">
         <v>3-5年</v>
@@ -998,21 +998,21 @@
         <v>本科及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>2020-12-08</v>
+        <v>2021-01-14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>6-9k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E28" t="str">
         <v>1-3年</v>
@@ -1021,30 +1021,30 @@
         <v>本科及以上</v>
       </c>
       <c r="G28" t="str">
-        <v>2020-12-08</v>
+        <v>2021-01-13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>7-10k·13薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>某大型智能家居公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E29" t="str">
         <v>3-5年</v>
       </c>
       <c r="F29" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>2020-11-30</v>
+        <v>2021-01-13</v>
       </c>
     </row>
     <row r="30">
@@ -1052,114 +1052,114 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>7-10k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F30" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G30" t="str">
-        <v>2020-11-30</v>
+        <v>2021-01-13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android应用开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>10-15k·15薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>某大型互联网上市公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D31" t="str">
         <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F31" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>2020-11-27</v>
+        <v>2021-01-11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>10-13k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>郑州八角信息技术有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F32" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G32" t="str">
-        <v>2020-11-26</v>
+        <v>2021-01-11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>10-15k·12薪</v>
+        <v>9-13k·12薪</v>
       </c>
       <c r="C33" t="str">
-        <v>迈特望</v>
+        <v>雷神科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E33" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F33" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G33" t="str">
-        <v>2020-11-25</v>
+        <v>2021-01-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-8k·12薪</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D34" t="str">
         <v>郑州</v>
       </c>
       <c r="E34" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F34" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G34" t="str">
-        <v>一个月前</v>
+        <v>2021-01-04</v>
       </c>
     </row>
     <row r="35">
@@ -1167,125 +1167,125 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C35" t="str">
-        <v>新开普电子</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E35" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F35" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G35" t="str">
-        <v>一个月前</v>
+        <v>2020-12-25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓系统工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>9-13k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C36" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E36" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F36" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G36" t="str">
-        <v>一个月前</v>
+        <v>2020-12-25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B37" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C37" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E37" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F37" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G37" t="str">
-        <v>一个月前</v>
+        <v>2020-12-23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>8-11k·12薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C38" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G38" t="str">
-        <v>一个月前</v>
+        <v>2020-12-23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Android</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>5-9k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C39" t="str">
-        <v>中裕广恒</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F39" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G39" t="str">
-        <v>一个月前</v>
+        <v>2020-12-22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android app开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B40" t="str">
-        <v>8-15k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
@@ -1294,30 +1294,30 @@
         <v>3-5年</v>
       </c>
       <c r="F40" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G40" t="str">
-        <v>一个月前</v>
+        <v>2020-12-21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android</v>
+        <v>Android</v>
       </c>
       <c r="B41" t="str">
         <v>9-12k·12薪</v>
       </c>
       <c r="C41" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F41" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G41" t="str">
         <v>一个月前</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android开发</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C42" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E42" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F42" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G42" t="str">
         <v>一个月前</v>
@@ -1348,19 +1348,19 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android开发</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>8-12k·14薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C43" t="str">
-        <v>正商地产</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-国兴</v>
       </c>
       <c r="E43" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F43" t="str">
         <v>统招本科</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C44" t="str">
-        <v>正商地产</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-咸嘉湖</v>
       </c>
       <c r="E44" t="str">
         <v>3-5年</v>
       </c>
       <c r="F44" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G44" t="str">
         <v>一个月前</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C45" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D45" t="str">
         <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F45" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G45" t="str">
         <v>一个月前</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B46" t="str">
-        <v>10-12k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C46" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F46" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G46" t="str">
         <v>一个月前</v>
@@ -1446,16 +1446,16 @@
         <v>6-8k·12薪</v>
       </c>
       <c r="C47" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F47" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G47" t="str">
         <v>一个月前</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Android开发工程师岗</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E48" t="str">
         <v>3-5年</v>
       </c>
       <c r="F48" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G48" t="str">
         <v>一个月前</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android开发</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>6-10k·12薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C49" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-翠苑</v>
       </c>
       <c r="E49" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F49" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G49" t="str">
         <v>一个月前</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>7.Android developer 安卓开发者</v>
+        <v>android</v>
       </c>
       <c r="B50" t="str">
-        <v>26-40k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C50" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E50" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F50" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G50" t="str">
         <v>一个月前</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android Developer</v>
+        <v>Android</v>
       </c>
       <c r="B51" t="str">
-        <v>26-40k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G51" t="str">
         <v>一个月前</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C52" t="str">
-        <v>超图软件</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E52" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F52" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G52" t="str">
         <v>一个月前</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Android</v>
+        <v>android</v>
       </c>
       <c r="B53" t="str">
-        <v>15-20k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>浩鲸智能</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E53" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F53" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B54" t="str">
-        <v>7-14k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E54" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F54" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G54" t="str">
         <v>一个月前</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B55" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C55" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E55" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F55" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G55" t="str">
         <v>一个月前</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B56" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>杭州玛亚科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E56" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F56" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G56" t="str">
         <v>一个月前</v>
@@ -1673,19 +1673,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C57" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D57" t="str">
         <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F57" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G57" t="str">
         <v>一个月前</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B58" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C58" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E58" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F58" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G58" t="str">
         <v>一个月前</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>6k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C59" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E59" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F59" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G59" t="str">
         <v>一个月前</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B60" t="str">
-        <v>8-16k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E60" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F60" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G60" t="str">
         <v>一个月前</v>
@@ -1762,16 +1762,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B61" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C61" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E61" t="str">
         <v>1-3年</v>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B62" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E62" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F62" t="str">
         <v>本科及以上</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B63" t="str">
-        <v>5-10k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C63" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E63" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F63" t="str">
         <v>本科及以上</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C64" t="str">
-        <v>汉克时代</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E64" t="str">
         <v>5-10年</v>
       </c>
       <c r="F64" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G64" t="str">
         <v>一个月前</v>
@@ -1854,22 +1854,22 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>Android</v>
       </c>
       <c r="B65" t="str">
-        <v>14-18k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>三门峡崤云信息服务股份有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E65" t="str">
         <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G65" t="str">
         <v>一个月前</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B66" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>杭州玛亚科技有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F66" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G66" t="str">
         <v>一个月前</v>
@@ -1903,16 +1903,16 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>20-40k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>京东</v>
+        <v>牧原食品股份有限公司</v>
       </c>
       <c r="D67" t="str">
         <v>郑州</v>
       </c>
       <c r="E67" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F67" t="str">
         <v>统招本科</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B68" t="str">
-        <v>4-8k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>比特耐特</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D68" t="str">
         <v>郑州</v>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>比特耐特</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E69" t="str">
         <v>1-3年</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>6-9k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E70" t="str">
         <v>1-3年</v>
       </c>
       <c r="F70" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G70" t="str">
         <v>一个月前</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D71" t="str">
         <v>郑州</v>
@@ -2007,7 +2007,7 @@
         <v>3-5年</v>
       </c>
       <c r="F71" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G71" t="str">
         <v>一个月前</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android逆向工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>7-10k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C72" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E72" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F72" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G72" t="str">
         <v>一个月前</v>
@@ -2038,19 +2038,19 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B73" t="str">
-        <v>14-18k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>汉克时代</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州</v>
+        <v>郑州-中山公园</v>
       </c>
       <c r="E73" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F73" t="str">
         <v>本科及以上</v>
@@ -2061,19 +2061,19 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B74" t="str">
-        <v>8-12k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C74" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>崤云信息</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F74" t="str">
         <v>本科及以上</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>8-12k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C75" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E75" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G75" t="str">
         <v>一个月前</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>15-25k·12薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>京东</v>
       </c>
       <c r="D76" t="str">
         <v>郑州</v>
@@ -2122,7 +2122,7 @@
         <v>经验不限</v>
       </c>
       <c r="F76" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G76" t="str">
         <v>一个月前</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B77" t="str">
-        <v>8-11k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D77" t="str">
         <v>郑州</v>
@@ -2153,16 +2153,16 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>5-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>华英农业</v>
+        <v>比特耐特</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E78" t="str">
         <v>1-3年</v>
@@ -2179,19 +2179,19 @@
         <v>Android</v>
       </c>
       <c r="B79" t="str">
-        <v>6-8k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C79" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E79" t="str">
         <v>1-3年</v>
       </c>
       <c r="F79" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G79" t="str">
         <v>一个月前</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Android</v>
+        <v>android开发</v>
       </c>
       <c r="B80" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F80" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G80" t="str">
         <v>一个月前</v>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>android开发工程师</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E81" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F81" t="str">
         <v>大专及以上</v>
@@ -2245,13 +2245,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>10-15k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D82" t="str">
         <v>郑州</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E83" t="str">
         <v>1-3年</v>
       </c>
       <c r="F83" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G83" t="str">
         <v>一个月前</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C84" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E84" t="str">
         <v>1-3年</v>
       </c>
       <c r="F84" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G84" t="str">
         <v>一个月前</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B85" t="str">
-        <v>6-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E85" t="str">
         <v>经验不限</v>
       </c>
       <c r="F85" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G85" t="str">
         <v>一个月前</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>android开发</v>
+        <v>Android</v>
       </c>
       <c r="B86" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E86" t="str">
         <v>1-3年</v>
@@ -2360,16 +2360,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android开发</v>
+        <v>Android开发</v>
       </c>
       <c r="B87" t="str">
-        <v>7-10k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C87" t="str">
-        <v>网道咨询</v>
+        <v>华英农业</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E87" t="str">
         <v>1-3年</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B88" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C88" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E88" t="str">
         <v>1-3年</v>
       </c>
       <c r="F88" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G88" t="str">
         <v>一个月前</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B89" t="str">
-        <v>6-13k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F89" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G89" t="str">
         <v>一个月前</v>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D90" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E90" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F90" t="str">
         <v>大专及以上</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>华英农业</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
       </c>
       <c r="E91" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F91" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G91" t="str">
         <v>一个月前</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E92" t="str">
         <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G92" t="str">
         <v>一个月前</v>
@@ -2498,19 +2498,19 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>7-15k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E93" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F93" t="str">
         <v>大专及以上</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android开发工程师</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E94" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F94" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G94" t="str">
         <v>一个月前</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B95" t="str">
-        <v>4-9k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E95" t="str">
         <v>1-3年</v>
       </c>
       <c r="F95" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G95" t="str">
         <v>一个月前</v>
@@ -2567,13 +2567,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android讲师</v>
+        <v>android开发</v>
       </c>
       <c r="B96" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
@@ -2582,7 +2582,7 @@
         <v>1-3年</v>
       </c>
       <c r="F96" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G96" t="str">
         <v>一个月前</v>
@@ -2593,10 +2593,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E98" t="str">
         <v>3-5年</v>
       </c>
       <c r="F98" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G98" t="str">
         <v>一个月前</v>
@@ -2636,16 +2636,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B99" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>修齐治平</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E99" t="str">
         <v>3-5年</v>
@@ -2662,19 +2662,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>5-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C100" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州-国基路</v>
+        <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F100" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G100" t="str">
         <v>一个月前</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>8-13k·13薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F101" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G101" t="str">
         <v>一个月前</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>安卓开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>12-20k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>浩鲸智能</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E102" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F102" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G102" t="str">
         <v>一个月前</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>安卓开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E103" t="str">
         <v>1-3年</v>
       </c>
       <c r="F103" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G103" t="str">
         <v>一个月前</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>6-7k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E104" t="str">
         <v>1-3年</v>
       </c>
       <c r="F104" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G104" t="str">
         <v>一个月前</v>
@@ -2774,19 +2774,19 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>安卓工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B105" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C105" t="str">
-        <v>浩鲸智能</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E105" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F105" t="str">
         <v>本科及以上</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>10-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F106" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G106" t="str">
         <v>一个月前</v>
@@ -2820,13 +2820,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>安卓讲师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
@@ -2835,7 +2835,7 @@
         <v>3-5年</v>
       </c>
       <c r="F107" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G107" t="str">
         <v>一个月前</v>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>安卓开发工程师</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>3-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C108" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F108" t="str">
         <v>大专及以上</v>
@@ -2866,19 +2866,19 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>思维自动化</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州</v>
+        <v>郑州-国基路</v>
       </c>
       <c r="E109" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F109" t="str">
         <v>统招本科</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>8-20k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C110" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E110" t="str">
         <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G110" t="str">
         <v>一个月前</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B111" t="str">
-        <v>7-10k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E111" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F111" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G111" t="str">
         <v>一个月前</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>6-11k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F112" t="str">
         <v>大专及以上</v>
@@ -2958,22 +2958,22 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>7-10k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E113" t="str">
         <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G113" t="str">
         <v>一个月前</v>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州</v>
       </c>
       <c r="E114" t="str">
         <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G114" t="str">
         <v>一个月前</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B115" t="str">
-        <v>7-9k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>蓓安科仪(北京)技术有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D115" t="str">
         <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F115" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G115" t="str">
         <v>一个月前</v>
@@ -3030,19 +3030,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C116" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D116" t="str">
         <v>郑州</v>
       </c>
       <c r="E116" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F116" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G116" t="str">
         <v>一个月前</v>
@@ -3053,19 +3053,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>3-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>迈特望</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E117" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F117" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G117" t="str">
         <v>一个月前</v>
@@ -3076,19 +3076,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>5-7k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E118" t="str">
         <v>1-3年</v>
       </c>
       <c r="F118" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G118" t="str">
         <v>一个月前</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>思维自动化</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E119" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F119" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G119" t="str">
         <v>一个月前</v>
@@ -3119,19 +3119,19 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓app开发工程师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>3-8k·12薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E120" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F120" t="str">
         <v>学历不限</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>安卓开发（双休）</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B121" t="str">
-        <v>6-9k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E121" t="str">
         <v>3-5年</v>
       </c>
       <c r="F121" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G121" t="str">
         <v>一个月前</v>
@@ -3165,19 +3165,19 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E122" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F122" t="str">
         <v>大专及以上</v>
@@ -3188,39 +3188,39 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>软件工程师 (智能座舱架构方向)</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>25-35k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C123" t="str">
-        <v>精益达</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E123" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F123" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G123" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>UI/界面设计师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>郑州豫秀科技有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州</v>
+        <v>郑州-国兴</v>
       </c>
       <c r="E124" t="str">
         <v>3-5年</v>
@@ -3229,323 +3229,323 @@
         <v>本科及以上</v>
       </c>
       <c r="G124" t="str">
-        <v>19小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>测试工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>6-12k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C125" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G125" t="str">
-        <v>昨天</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>25-40k·16薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C126" t="str">
-        <v>全国连锁猎头公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E126" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F126" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G126" t="str">
-        <v>22小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>河南科技公司网络渗透工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>25-50k·16薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>全国连锁猎头集团</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E127" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F127" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G127" t="str">
-        <v>23小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>25-50k·16薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C128" t="str">
-        <v>全国连锁猎头集团</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F128" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G128" t="str">
-        <v>23小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>25-50k·16薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C129" t="str">
-        <v>全国知名连锁猎头公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F129" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G129" t="str">
-        <v>昨天</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>25-50k·16薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C130" t="str">
-        <v>全国知名连锁猎头公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E130" t="str">
         <v>3-5年</v>
       </c>
       <c r="F130" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G130" t="str">
-        <v>15小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>移动端开发工程师</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>8-17k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C131" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E131" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F131" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G131" t="str">
-        <v>前天</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B132" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>天瑞集团</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E132" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F132" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G132" t="str">
-        <v>前天</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C133" t="str">
-        <v>速游</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E133" t="str">
-        <v>一年以下</v>
+        <v>5-10年</v>
       </c>
       <c r="F133" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G133" t="str">
-        <v>昨天</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>15-20k·13薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C134" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E134" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F134" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G134" t="str">
-        <v>前天</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>web前端开发工程师</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C135" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E135" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F135" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G135" t="str">
-        <v>前天</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>前端开发工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>6-10k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C136" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E136" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F136" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G136" t="str">
-        <v>前天</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>质量管理工程师（智慧交通/自动驾驶/车联网QA质量工程师/系统软件测试）</v>
       </c>
       <c r="B137" t="str">
-        <v>8-12k·13薪</v>
+        <v>25-40k·12薪</v>
       </c>
       <c r="C137" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>国内知名车企+新能源汽车</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E137" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F137" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G137" t="str">
-        <v>前天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Java开发工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C138" t="str">
         <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E138" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F138" t="str">
         <v>本科及以上</v>
@@ -3556,108 +3556,108 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>质量管理工程师/系统软件测试（智能网联/智能座舱/adas/车联网QA质量工程师）</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>25-50k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>国内知名车企+新能源汽车</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州,武汉,上海</v>
+        <v>郑州</v>
       </c>
       <c r="E139" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F139" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G139" t="str">
-        <v>前天</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>嵌入式软件工程师（新三板上市公司）</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>10-20k·12薪</v>
+        <v>25-40k·16薪</v>
       </c>
       <c r="C140" t="str">
-        <v>恩普特</v>
+        <v>全国连锁猎头公司</v>
       </c>
       <c r="D140" t="str">
         <v>郑州</v>
       </c>
       <c r="E140" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F140" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G140" t="str">
-        <v>2020-12-17</v>
+        <v>21小时前</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>流媒体开发</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>11-13k·12薪</v>
+        <v>30-50k·16薪</v>
       </c>
       <c r="C141" t="str">
-        <v>某龙科教网络公司</v>
+        <v>全国连锁猎头公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E141" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F141" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G141" t="str">
-        <v>2020-12-17</v>
+        <v>21小时前</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>招聘专家（招产妍）</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>8-12k·13薪</v>
+        <v>25-50k·16薪</v>
       </c>
       <c r="C142" t="str">
-        <v>云鸟配送</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E142" t="str">
         <v>3-5年</v>
       </c>
       <c r="F142" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G142" t="str">
-        <v>2020-12-16</v>
+        <v>20小时前</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>C++开发工程师中级</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>6-12k·12薪</v>
+        <v>25-50k·16薪</v>
       </c>
       <c r="C143" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>全国知名连锁猎头公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E143" t="str">
         <v>3-5年</v>
@@ -3666,18 +3666,18 @@
         <v>本科及以上</v>
       </c>
       <c r="G143" t="str">
-        <v>2020-12-16</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>流媒体系统架构师</v>
+        <v>UI设计</v>
       </c>
       <c r="B144" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C144" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>河南千年国医健康产业集团有限公司</v>
       </c>
       <c r="D144" t="str">
         <v>郑州</v>
@@ -3686,110 +3686,110 @@
         <v>5-10年</v>
       </c>
       <c r="F144" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G144" t="str">
-        <v>2020-12-16</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>郑州网络高级渗透工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>20-35k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C145" t="str">
-        <v>苏州智猎企业管理有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E145" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F145" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G145" t="str">
-        <v>2020-12-15</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>高级软件工程师</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>6-11k·13薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C146" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E146" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F146" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G146" t="str">
-        <v>2020-12-14</v>
+        <v>2021-01-15</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>软件工程师</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B147" t="str">
-        <v>5-11k·13薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C147" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>速游</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-五山</v>
       </c>
       <c r="E147" t="str">
-        <v>1-3年</v>
+        <v>一年以下</v>
       </c>
       <c r="F147" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G147" t="str">
-        <v>2020-12-14</v>
+        <v>2021-01-14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>系统架构师</v>
+        <v>流媒体系统架构师</v>
       </c>
       <c r="B148" t="str">
-        <v>15-25k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C148" t="str">
-        <v>油田咨询</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E148" t="str">
         <v>5-10年</v>
       </c>
       <c r="F148" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G148" t="str">
-        <v>2020-12-14</v>
+        <v>2021-01-12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>系统测试工程师</v>
+        <v>系统架构师</v>
       </c>
       <c r="B149" t="str">
-        <v>5-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C149" t="str">
         <v>油田咨询</v>
@@ -3798,36 +3798,36 @@
         <v>郑州-郑东新区</v>
       </c>
       <c r="E149" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F149" t="str">
-        <v>硕士及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G149" t="str">
-        <v>2020-12-14</v>
+        <v>2021-01-09</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>高级产品经理</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>15-25k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C150" t="str">
-        <v>刀锋互娱</v>
+        <v>油田咨询</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E150" t="str">
         <v>经验不限</v>
       </c>
       <c r="F150" t="str">
-        <v>本科及以上</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G150" t="str">
-        <v>2020-12-10</v>
+        <v>2021-01-09</v>
       </c>
     </row>
     <row r="151">
@@ -3850,41 +3850,41 @@
         <v>本科及以上</v>
       </c>
       <c r="G151" t="str">
-        <v>2020-12-10</v>
+        <v>2021-01-08</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B152" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C152" t="str">
-        <v>天瑞集团</v>
+        <v>正星科技</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E152" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F152" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G152" t="str">
-        <v>2020-12-09</v>
+        <v>2021-01-07</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>APP运营主管/经理</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>10-18k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C153" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D153" t="str">
         <v>郑州</v>
@@ -3893,79 +3893,79 @@
         <v>3-5年</v>
       </c>
       <c r="F153" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G153" t="str">
-        <v>2020-12-08</v>
+        <v>2021-01-05</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>渗透测试工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C154" t="str">
-        <v>爱加密</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E154" t="str">
         <v>3-5年</v>
       </c>
       <c r="F154" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>2020-12-04</v>
+        <v>2021-01-04</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>信息化专员</v>
+        <v>软件工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>面议</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C155" t="str">
-        <v>建业新生活</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E155" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F155" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G155" t="str">
-        <v>2020-12-02</v>
+        <v>2021-01-04</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>移动前端开发工程师</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>9-12k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C156" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E156" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F156" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G156" t="str">
-        <v>一个月前</v>
+        <v>2021-01-04</v>
       </c>
     </row>
     <row r="157">
@@ -3988,30 +3988,30 @@
         <v>本科及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>2020-11-30</v>
+        <v>2021-01-03</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>前端工程师</v>
+        <v>软件工程师（java方向）</v>
       </c>
       <c r="B158" t="str">
-        <v>8-13k·13薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C158" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>某知名企业</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E158" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F158" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G158" t="str">
-        <v>一个月前</v>
+        <v>2020-12-31</v>
       </c>
     </row>
     <row r="159">
@@ -4019,16 +4019,16 @@
         <v>移动前端开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>3-5k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E159" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F159" t="str">
         <v>大专及以上</v>
@@ -4039,22 +4039,22 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>6-12k·13薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C160" t="str">
-        <v>新开普电子</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E160" t="str">
         <v>3-5年</v>
       </c>
       <c r="F160" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G160" t="str">
         <v>一个月前</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>手机软件开发工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>6-7k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E161" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F161" t="str">
         <v>大专及以上</v>
@@ -4085,22 +4085,22 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>app开发工程师</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C162" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E162" t="str">
         <v>3-5年</v>
       </c>
       <c r="F162" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G162" t="str">
         <v>一个月前</v>
@@ -4108,22 +4108,22 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E163" t="str">
         <v>1-3年</v>
       </c>
       <c r="F163" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G163" t="str">
         <v>一个月前</v>
@@ -4131,13 +4131,13 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>ASO优化师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D164" t="str">
         <v>郑州-金水区</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>app运营主管</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B165" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-15k·13薪</v>
       </c>
       <c r="C165" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E165" t="str">
         <v>3-5年</v>
@@ -4172,27 +4172,27 @@
         <v>本科及以上</v>
       </c>
       <c r="G165" t="str">
-        <v>一个月前</v>
+        <v>2020-12-26</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>移动开发工程师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>10-17k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C166" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E166" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F166" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G166" t="str">
         <v>一个月前</v>
@@ -4200,19 +4200,19 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>软件工程师</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B167" t="str">
-        <v>5-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>郑州卓安</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E167" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F167" t="str">
         <v>大专及以上</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>java开发</v>
+        <v>app运营主管</v>
       </c>
       <c r="B168" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>郑州卓安</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E168" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F168" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G168" t="str">
         <v>一个月前</v>
@@ -4246,45 +4246,45 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>前端开发工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>北大软件</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E169" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F169" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G169" t="str">
-        <v>2020-11-27</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>移动开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B170" t="str">
-        <v>8-13k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D170" t="str">
         <v>郑州</v>
       </c>
       <c r="E170" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F170" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G170" t="str">
         <v>一个月前</v>
@@ -4292,16 +4292,16 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>软件测试工程师</v>
+        <v>java开发</v>
       </c>
       <c r="B171" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E171" t="str">
         <v>1-3年</v>
@@ -4315,19 +4315,19 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>APP工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E172" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F172" t="str">
         <v>本科及以上</v>
@@ -4338,88 +4338,88 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>java高级工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>10-11k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C173" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E173" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F173" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G173" t="str">
-        <v>2020-11-26</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>java高级软件工程师</v>
+        <v>APP工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E174" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F174" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G174" t="str">
-        <v>2020-11-26</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>产品经理</v>
+        <v>APP推广</v>
       </c>
       <c r="B175" t="str">
-        <v>8-15k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C175" t="str">
-        <v>郑州小魔兽电子商务有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E175" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F175" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G175" t="str">
-        <v>2020-11-26</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>APP推广</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B176" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E176" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F176" t="str">
         <v>大专及以上</v>
@@ -4430,19 +4430,19 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>应用层开发工程师</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B177" t="str">
-        <v>10-20k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D177" t="str">
         <v>郑州</v>
       </c>
       <c r="E177" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F177" t="str">
         <v>大专及以上</v>
@@ -4453,19 +4453,19 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>高级前端讲师</v>
+        <v>app推广经理</v>
       </c>
       <c r="B178" t="str">
-        <v>15-30k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>北京千锋互联科技</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E178" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F178" t="str">
         <v>大专及以上</v>
@@ -4476,19 +4476,19 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>app推广经理</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B179" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E179" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F179" t="str">
         <v>大专及以上</v>
@@ -4499,19 +4499,19 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>ui设计师</v>
       </c>
       <c r="B180" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E180" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F180" t="str">
         <v>大专及以上</v>
@@ -4522,39 +4522,39 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>ui设计师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B181" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E181" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F181" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G181" t="str">
-        <v>一个月前</v>
+        <v>2020-12-21</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B182" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E182" t="str">
         <v>3-5年</v>
@@ -4563,24 +4563,24 @@
         <v>本科及以上</v>
       </c>
       <c r="G182" t="str">
-        <v>2020-11-23</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B183" t="str">
-        <v>7-11k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>新开普电子</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D183" t="str">
         <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F183" t="str">
         <v>本科及以上</v>
@@ -4591,22 +4591,22 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B184" t="str">
-        <v>10-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E184" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F184" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G184" t="str">
         <v>一个月前</v>
@@ -4614,22 +4614,22 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>智能技术开发主管</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B185" t="str">
-        <v>面议</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E185" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F185" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G185" t="str">
         <v>一个月前</v>
@@ -4637,22 +4637,22 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>信息化专员</v>
       </c>
       <c r="B186" t="str">
-        <v>8-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C186" t="str">
-        <v>正星科技</v>
+        <v>建业新生活</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E186" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F186" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G186" t="str">
         <v>一个月前</v>
@@ -4660,19 +4660,19 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Java开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B187" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>北大软件</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E187" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F187" t="str">
         <v>本科及以上</v>
@@ -4683,13 +4683,13 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>JAVA开发</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B188" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C188" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D188" t="str">
         <v>郑州</v>
@@ -4698,7 +4698,7 @@
         <v>5-10年</v>
       </c>
       <c r="F188" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G188" t="str">
         <v>一个月前</v>
@@ -4706,16 +4706,16 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>java开发工程师</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B189" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C189" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E189" t="str">
         <v>3-5年</v>
@@ -4729,13 +4729,13 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B190" t="str">
-        <v>7-10k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D190" t="str">
         <v>郑州</v>
@@ -4744,7 +4744,7 @@
         <v>5-10年</v>
       </c>
       <c r="F190" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G190" t="str">
         <v>一个月前</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>产品经理</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B191" t="str">
-        <v>8-13k·13薪</v>
+        <v>面议</v>
       </c>
       <c r="C191" t="str">
-        <v>郑州XX公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E191" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F191" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G191" t="str">
         <v>一个月前</v>
@@ -4775,16 +4775,16 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>架构师</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B192" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E192" t="str">
         <v>5-10年</v>
@@ -4798,16 +4798,16 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>ui</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B193" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E193" t="str">
         <v>3-5年</v>
@@ -4821,22 +4821,22 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>中级JAVA开发</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B194" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>正商地产</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E194" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F194" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G194" t="str">
         <v>一个月前</v>
@@ -4844,22 +4844,22 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>产品经理</v>
       </c>
       <c r="B195" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C195" t="str">
-        <v>埃林哲</v>
+        <v>郑州XX公司</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E195" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F195" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G195" t="str">
         <v>一个月前</v>
@@ -4867,16 +4867,16 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>架构师</v>
       </c>
       <c r="B196" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>信大捷安</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E196" t="str">
         <v>5-10年</v>
@@ -4890,16 +4890,16 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>ui</v>
       </c>
       <c r="B197" t="str">
-        <v>13-25k·13薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D197" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E197" t="str">
         <v>3-5年</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Mobile Application Developer</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B198" t="str">
-        <v>26-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E198" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F198" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G198" t="str">
         <v>一个月前</v>
@@ -4936,22 +4936,22 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Senior System Developer 资深系统工程师</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B199" t="str">
-        <v>26-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C199" t="str">
-        <v>天津恒程科技有限公司</v>
+        <v>埃林哲</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E199" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F199" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G199" t="str">
         <v>一个月前</v>
@@ -4959,22 +4959,22 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>商务助理</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B200" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>河南准澳网络科技有限公司</v>
+        <v>信大捷安</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E200" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F200" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G200" t="str">
         <v>一个月前</v>
@@ -4982,22 +4982,22 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B201" t="str">
-        <v>13-18k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C201" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E201" t="str">
         <v>3-5年</v>
       </c>
       <c r="F201" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G201" t="str">
         <v>一个月前</v>
@@ -5005,22 +5005,22 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>产品经理</v>
+        <v>商务助理</v>
       </c>
       <c r="B202" t="str">
-        <v>7-12k·13薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>完美数联(杭州)科技有限公司</v>
+        <v>河南准澳网络科技有限公司</v>
       </c>
       <c r="D202" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E202" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F202" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G202" t="str">
         <v>一个月前</v>
@@ -5028,22 +5028,22 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>UI高级设计师</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B203" t="str">
-        <v>10-15k·12薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E203" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F203" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G203" t="str">
         <v>一个月前</v>
@@ -5054,19 +5054,19 @@
         <v>产品经理</v>
       </c>
       <c r="B204" t="str">
-        <v>8-13k·12薪</v>
+        <v>7-12k·13薪</v>
       </c>
       <c r="C204" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>完美数联(杭州)科技有限公司</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E204" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F204" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G204" t="str">
         <v>一个月前</v>
@@ -5074,19 +5074,19 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>维护工程师</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B205" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D205" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E205" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F205" t="str">
         <v>本科及以上</v>
@@ -5097,13 +5097,13 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>维护助理工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B206" t="str">
-        <v>3-5k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D206" t="str">
         <v>郑州-郑东新区</v>
@@ -5120,16 +5120,16 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>iOS开发工程师</v>
+        <v>维护工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>14-20k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>浩鲸智能</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E207" t="str">
         <v>3-5年</v>
@@ -5143,22 +5143,22 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>软件开发</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B208" t="str">
-        <v>15-21k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E208" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F208" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G208" t="str">
         <v>一个月前</v>
@@ -5166,22 +5166,22 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>移动开发工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B209" t="str">
-        <v>5-10k·12薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C209" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D209" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E209" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F209" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G209" t="str">
         <v>一个月前</v>
@@ -5189,19 +5189,19 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>移动端开发工程师</v>
+        <v>软件开发</v>
       </c>
       <c r="B210" t="str">
-        <v>15-25k·12薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C210" t="str">
-        <v>中原银行</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E210" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F210" t="str">
         <v>本科及以上</v>
@@ -5212,22 +5212,22 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>软件外包业务经理</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B211" t="str">
-        <v>8-16k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D211" t="str">
         <v>郑州</v>
       </c>
       <c r="E211" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F211" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G211" t="str">
         <v>一个月前</v>
@@ -5235,13 +5235,13 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>产品经理</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B212" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>新开普电子</v>
+        <v>中原银行</v>
       </c>
       <c r="D212" t="str">
         <v>郑州</v>
@@ -5258,22 +5258,22 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>产品经理</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B213" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E213" t="str">
         <v>3-5年</v>
       </c>
       <c r="F213" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G213" t="str">
         <v>一个月前</v>
@@ -5281,22 +5281,22 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>驻场安服工程师-郑州(J12532)</v>
+        <v>产品经理</v>
       </c>
       <c r="B214" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C214" t="str">
-        <v>绿盟科技集团股份有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D214" t="str">
         <v>郑州</v>
       </c>
       <c r="E214" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F214" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G214" t="str">
         <v>一个月前</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>软件研发总监</v>
+        <v>产品经理</v>
       </c>
       <c r="B215" t="str">
-        <v>20-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>河南博联慧绿科技集团有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D215" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E215" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F215" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,22 +5327,22 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>软件研发总监</v>
       </c>
       <c r="B216" t="str">
-        <v>10-15k·12薪</v>
+        <v>20-25k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>河南博联慧绿科技集团有限公司</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E216" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F216" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G216" t="str">
         <v>一个月前</v>
@@ -5350,22 +5350,22 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>测试工程师</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B217" t="str">
-        <v>6-12k·14薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C217" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E217" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F217" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G217" t="str">
         <v>一个月前</v>
@@ -5373,16 +5373,16 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>高级软件工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B218" t="str">
-        <v>8-12k·13薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C218" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>三门峡崤云安全服务有限公司</v>
       </c>
       <c r="D218" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E218" t="str">
         <v>5-10年</v>
@@ -5396,19 +5396,19 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B219" t="str">
-        <v>面议</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C219" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D219" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E219" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F219" t="str">
         <v>本科及以上</v>
@@ -5419,22 +5419,22 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B220" t="str">
-        <v>8-13k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C220" t="str">
-        <v>北京千锋互联科技</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D220" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E220" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F220" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G220" t="str">
         <v>一个月前</v>
@@ -5442,19 +5442,19 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>前端工程师</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B221" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>元丰科技</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D221" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E221" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F221" t="str">
         <v>大专及以上</v>
@@ -5465,16 +5465,16 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>前端工程师</v>
       </c>
       <c r="B222" t="str">
-        <v>15-25k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C222" t="str">
-        <v>朗新科技</v>
+        <v>元丰科技</v>
       </c>
       <c r="D222" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E222" t="str">
         <v>3-5年</v>
@@ -5488,10 +5488,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B223" t="str">
-        <v>11-20k·13薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C223" t="str">
         <v>朗新科技</v>
@@ -5511,22 +5511,22 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>售前技术支持</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B224" t="str">
-        <v>8-10k·12薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C224" t="str">
-        <v>环信</v>
+        <v>朗新科技</v>
       </c>
       <c r="D224" t="str">
         <v>郑州</v>
       </c>
       <c r="E224" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F224" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G224" t="str">
         <v>一个月前</v>
@@ -5534,22 +5534,22 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>java开发工程师助理</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B225" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C225" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>环信</v>
       </c>
       <c r="D225" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E225" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F225" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G225" t="str">
         <v>一个月前</v>
@@ -5557,22 +5557,22 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>UI设计师</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B226" t="str">
-        <v>4-6k·13薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E226" t="str">
         <v>经验不限</v>
       </c>
       <c r="F226" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G226" t="str">
         <v>一个月前</v>
@@ -5580,22 +5580,22 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>PC客户端产品经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B227" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C227" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D227" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E227" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F227" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G227" t="str">
         <v>一个月前</v>
@@ -5603,22 +5603,22 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>IOS</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B228" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D228" t="str">
         <v>郑州</v>
       </c>
       <c r="E228" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F228" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G228" t="str">
         <v>一个月前</v>
@@ -5626,10 +5626,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>IOS</v>
       </c>
       <c r="B229" t="str">
-        <v>18-25k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C229" t="str">
         <v>贵州宋代官窖酒业销售有限公司</v>
@@ -5649,19 +5649,19 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>高级软件测试工程师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B230" t="str">
-        <v>7-9k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>国际交友</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D230" t="str">
         <v>郑州</v>
       </c>
       <c r="E230" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F230" t="str">
         <v>大专及以上</v>
@@ -5681,7 +5681,7 @@
         <v>国际交友</v>
       </c>
       <c r="D231" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E231" t="str">
         <v>3-5年</v>
@@ -5695,16 +5695,16 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>JAVA开发工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B232" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>地理信息系统</v>
+        <v>国际交友</v>
       </c>
       <c r="D232" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E232" t="str">
         <v>3-5年</v>
@@ -5718,22 +5718,22 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>摄像头调试工程师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B233" t="str">
-        <v>4-9k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D233" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E233" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F233" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G233" t="str">
         <v>一个月前</v>
@@ -5741,10 +5741,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B234" t="str">
-        <v>6-12k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C234" t="str">
         <v>河南释码云识别技术研究院有限公司</v>
@@ -5753,10 +5753,10 @@
         <v>郑州-郑东新区</v>
       </c>
       <c r="E234" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F234" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G234" t="str">
         <v>一个月前</v>
@@ -5764,22 +5764,22 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B235" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D235" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E235" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F235" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G235" t="str">
         <v>一个月前</v>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>cocos开发工程师</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B236" t="str">
-        <v>9-16k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E236" t="str">
         <v>1-3年</v>
       </c>
       <c r="F236" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G236" t="str">
         <v>一个月前</v>
@@ -5810,22 +5810,22 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>学术经理</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B237" t="str">
-        <v>8-15k·12薪</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D237" t="str">
         <v>郑州</v>
       </c>
       <c r="E237" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F237" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G237" t="str">
         <v>一个月前</v>
@@ -5833,22 +5833,22 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>IT项目经理</v>
+        <v>学术经理</v>
       </c>
       <c r="B238" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C238" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D238" t="str">
         <v>郑州</v>
       </c>
       <c r="E238" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F238" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G238" t="str">
         <v>一个月前</v>
@@ -5856,22 +5856,22 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>前端高级讲师</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B239" t="str">
-        <v>10-18k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C239" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D239" t="str">
         <v>郑州</v>
       </c>
       <c r="E239" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F239" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G239" t="str">
         <v>一个月前</v>
@@ -5879,22 +5879,22 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>.NET开发工程师</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B240" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C240" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D240" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E240" t="str">
         <v>1-3年</v>
       </c>
       <c r="F240" t="str">
-        <v>中专/中技及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G240" t="str">
         <v>一个月前</v>
@@ -5902,22 +5902,22 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>网页UI设计师</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B241" t="str">
-        <v>4-8k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C241" t="str">
-        <v>羲和网络</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D241" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E241" t="str">
         <v>1-3年</v>
       </c>
       <c r="F241" t="str">
-        <v>大专及以上</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G241" t="str">
         <v>一个月前</v>
@@ -5925,19 +5925,19 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Web前端工程师</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B242" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C242" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D242" t="str">
         <v>郑州</v>
       </c>
       <c r="E242" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F242" t="str">
         <v>大专及以上</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>检查员</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B243" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D243" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E243" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F243" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G243" t="str">
         <v>一个月前</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>督导</v>
+        <v>检查员</v>
       </c>
       <c r="B244" t="str">
         <v>3-5k·12薪</v>
@@ -5980,7 +5980,7 @@
         <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D244" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E244" t="str">
         <v>经验不限</v>
@@ -5994,22 +5994,22 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>游戏项目主程</v>
+        <v>督导</v>
       </c>
       <c r="B245" t="str">
-        <v>10-12k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C245" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D245" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E245" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F245" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G245" t="str">
         <v>一个月前</v>
@@ -6017,22 +6017,22 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B246" t="str">
-        <v>面议</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C246" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D246" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E246" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F246" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G246" t="str">
         <v>一个月前</v>
@@ -6040,22 +6040,22 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B247" t="str">
-        <v>6-10k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C247" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D247" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E247" t="str">
         <v>3-5年</v>
       </c>
       <c r="F247" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G247" t="str">
         <v>一个月前</v>
@@ -6063,10 +6063,10 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>产品经理（英语项目）</v>
       </c>
       <c r="B248" t="str">
-        <v>6-8k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C248" t="str">
         <v>郑州点读电子科技有限公司</v>
@@ -6086,19 +6086,19 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>高级APP工程师</v>
+        <v>产品经理（咿啦看书项目）</v>
       </c>
       <c r="B249" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C249" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D249" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E249" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F249" t="str">
         <v>本科及以上</v>
@@ -6109,22 +6109,22 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>UI设计师</v>
+        <v>高级APP工程师</v>
       </c>
       <c r="B250" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C250" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>河南鲜易供应链有限公司</v>
       </c>
       <c r="D250" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E250" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F250" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G250" t="str">
         <v>一个月前</v>
@@ -6141,7 +6141,7 @@
         <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D251" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E251" t="str">
         <v>1-3年</v>
@@ -6155,19 +6155,19 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>中级软件测试工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B252" t="str">
-        <v>10-14k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C252" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D252" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E252" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F252" t="str">
         <v>大专及以上</v>
@@ -6178,16 +6178,16 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>UI设计工程师</v>
+        <v>中级软件测试工程师</v>
       </c>
       <c r="B253" t="str">
-        <v>9-10k·12薪</v>
+        <v>10-14k·12薪</v>
       </c>
       <c r="C253" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>上海陆鹰实业有限公司河南分公司</v>
       </c>
       <c r="D253" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E253" t="str">
         <v>3-5年</v>
@@ -6201,22 +6201,22 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>产品经理</v>
+        <v>UI设计工程师</v>
       </c>
       <c r="B254" t="str">
-        <v>8-10k·12薪</v>
+        <v>9-10k·12薪</v>
       </c>
       <c r="C254" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D254" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E254" t="str">
         <v>3-5年</v>
       </c>
       <c r="F254" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G254" t="str">
         <v>一个月前</v>
@@ -6224,22 +6224,22 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>Mobile App</v>
+        <v>产品经理</v>
       </c>
       <c r="B255" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C255" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D255" t="str">
         <v>郑州</v>
       </c>
       <c r="E255" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F255" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G255" t="str">
         <v>一个月前</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>UI/UX developer</v>
+        <v>Mobile App</v>
       </c>
       <c r="B256" t="str">
         <v>10-15k·12薪</v>
@@ -6259,10 +6259,10 @@
         <v>郑州</v>
       </c>
       <c r="E256" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F256" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G256" t="str">
         <v>一个月前</v>
@@ -6270,13 +6270,13 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>java软件工程师</v>
+        <v>UI/UX developer</v>
       </c>
       <c r="B257" t="str">
-        <v>7-13k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C257" t="str">
-        <v>思维自动化</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D257" t="str">
         <v>郑州</v>
@@ -6285,7 +6285,7 @@
         <v>3-5年</v>
       </c>
       <c r="F257" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G257" t="str">
         <v>一个月前</v>
@@ -6293,30 +6293,53 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B258" t="str">
+        <v>7-13k·13薪</v>
+      </c>
+      <c r="C258" t="str">
+        <v>思维自动化</v>
+      </c>
+      <c r="D258" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E258" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F258" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G258" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
         <v>研发工程师</v>
       </c>
-      <c r="B258" t="str">
+      <c r="B259" t="str">
         <v>5-10k·12薪</v>
       </c>
-      <c r="C258" t="str">
+      <c r="C259" t="str">
         <v>河南森源集团有限公司</v>
       </c>
-      <c r="D258" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E258" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F258" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G258" t="str">
+      <c r="D259" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E259" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F259" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G259" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G258"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G259"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,22 +405,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B2" t="str">
         <v>8-15k·12薪</v>
       </c>
       <c r="C2" t="str">
-        <v>UIOT超级智慧家</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州</v>
       </c>
       <c r="E2" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F2" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G2" t="str">
         <v>1小时前</v>
@@ -428,71 +428,71 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>安卓android开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B3" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C3" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E3" t="str">
         <v>5-10年</v>
       </c>
       <c r="F3" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G3" t="str">
-        <v>2小时前</v>
+        <v>54分钟前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B4" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D4" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E4" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F4" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G4" t="str">
-        <v>9分钟前</v>
+        <v>54分钟前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-南关</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E5" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F5" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G5" t="str">
-        <v>9分钟前</v>
+        <v>54分钟前</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
@@ -515,27 +515,27 @@
         <v>大专及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>9分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>资深android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州</v>
+        <v>郑州-南关</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G7" t="str">
         <v>1小时前</v>
@@ -543,22 +543,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C8" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E8" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F8" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G8" t="str">
         <v>1小时前</v>
@@ -566,22 +566,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>高级android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>12-18k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C9" t="str">
-        <v>知名软件公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E9" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F9" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G9" t="str">
         <v>1小时前</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>安卓开发</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C10" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E10" t="str">
         <v>3-5年</v>
@@ -630,7 +630,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G11" t="str">
-        <v>2小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G12" t="str">
-        <v>2小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="13">
@@ -676,41 +676,41 @@
         <v>统招本科</v>
       </c>
       <c r="G13" t="str">
-        <v>2小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>资深安卓开发</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>15-20k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E14" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F14" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G14" t="str">
-        <v>1小时前</v>
+        <v>54分钟前</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>android工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B15" t="str">
-        <v>12-20k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C15" t="str">
-        <v>缔云科技</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
@@ -719,185 +719,185 @@
         <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G15" t="str">
-        <v>19小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>软件设计师（安卓、车机）</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>30-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州宇通集团-精益达零部件</v>
+        <v>某大型互联网企业</v>
       </c>
       <c r="D16" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E16" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G16" t="str">
-        <v>昨天</v>
+        <v>15小时前</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>android应用开发工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>12-20k·14薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C17" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>知名软件公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E17" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F17" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G17" t="str">
-        <v>前天</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>软件设计师（安卓、车机）</v>
       </c>
       <c r="B18" t="str">
-        <v>15-20k·13薪</v>
+        <v>30-40k·12薪</v>
       </c>
       <c r="C18" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州宇通集团-精益达零部件</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E18" t="str">
         <v>5-10年</v>
       </c>
       <c r="F18" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G18" t="str">
-        <v>2021-01-15</v>
+        <v>20小时前</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B19" t="str">
-        <v>15-20k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C19" t="str">
         <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E19" t="str">
         <v>5-10年</v>
       </c>
       <c r="F19" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G19" t="str">
-        <v>2021-01-15</v>
+        <v>2021-01-23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>资深android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C20" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E20" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F20" t="str">
         <v>统招本科</v>
       </c>
       <c r="G20" t="str">
-        <v>2021-01-15</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>高级android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>10-15k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>某大型互联网企业</v>
+        <v>缔云科技</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
         <v>3-5年</v>
       </c>
       <c r="F21" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G21" t="str">
-        <v>2021-01-15</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Android 开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>10-15k·12薪</v>
+        <v>11-17k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>智慧家居名企</v>
+        <v>中宝科技</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E22" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F22" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G22" t="str">
-        <v>2021-01-15</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>6-12k·14薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C23" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>众诚科技</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E23" t="str">
         <v>3-5年</v>
@@ -906,156 +906,156 @@
         <v>大专及以上</v>
       </c>
       <c r="G23" t="str">
-        <v>前天</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>12-20k·14薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C24" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>河南一九八八网络科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E24" t="str">
         <v>3-5年</v>
       </c>
       <c r="F24" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G24" t="str">
-        <v>前天</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Andriod开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>12-16k·13薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C25" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E25" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F25" t="str">
         <v>统招本科</v>
       </c>
       <c r="G25" t="str">
-        <v>2021-01-15</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>20-30k·14薪</v>
+        <v>9-13k·12薪</v>
       </c>
       <c r="C26" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>众诚科技</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E26" t="str">
         <v>5-10年</v>
       </c>
       <c r="F26" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G26" t="str">
-        <v>前天</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>7-10k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C27" t="str">
-        <v>中钢网</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E27" t="str">
         <v>3-5年</v>
       </c>
       <c r="F27" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G27" t="str">
-        <v>2021-01-14</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android开发工程师</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>5-7k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C28" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E28" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F28" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G28" t="str">
-        <v>2021-01-13</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B29" t="str">
-        <v>10-15k·15薪</v>
+        <v>9-13k·12薪</v>
       </c>
       <c r="C29" t="str">
-        <v>某大型智能家居公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
       </c>
       <c r="E29" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F29" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>2021-01-13</v>
+        <v>2021-01-20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B30" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C30" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D30" t="str">
         <v>郑州</v>
@@ -1064,67 +1064,67 @@
         <v>5-10年</v>
       </c>
       <c r="F30" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G30" t="str">
-        <v>2021-01-13</v>
+        <v>2021-01-20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>安卓工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>云涌科技</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D31" t="str">
         <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F31" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>2021-01-11</v>
+        <v>2021-01-20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B32" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州八角信息技术有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E32" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F32" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G32" t="str">
-        <v>2021-01-11</v>
+        <v>2021-01-19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android开发工程师</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B33" t="str">
-        <v>9-13k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C33" t="str">
-        <v>雷神科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D33" t="str">
         <v>郑州</v>
@@ -1136,18 +1136,18 @@
         <v>本科及以上</v>
       </c>
       <c r="G33" t="str">
-        <v>2021-01-07</v>
+        <v>2021-01-18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android 开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>7-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C34" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>智慧家居名企</v>
       </c>
       <c r="D34" t="str">
         <v>郑州</v>
@@ -1156,156 +1156,156 @@
         <v>3-5年</v>
       </c>
       <c r="F34" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G34" t="str">
-        <v>2021-01-04</v>
+        <v>2021-01-15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D35" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E35" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F35" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G35" t="str">
-        <v>2020-12-25</v>
+        <v>2021-01-15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>安卓系统工程师</v>
+        <v>Android</v>
       </c>
       <c r="B36" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C36" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>中钢网</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F36" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G36" t="str">
-        <v>2020-12-25</v>
+        <v>2021-01-14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C37" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>某大型智能家居公司</v>
       </c>
       <c r="D37" t="str">
         <v>郑州</v>
       </c>
       <c r="E37" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F37" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G37" t="str">
-        <v>2020-12-23</v>
+        <v>2021-01-13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>15-30k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F38" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G38" t="str">
-        <v>2020-12-23</v>
+        <v>2021-01-13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>10-13k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C39" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F39" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G39" t="str">
-        <v>2020-12-22</v>
+        <v>2021-01-11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>8-11k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州八角信息技术有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F40" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G40" t="str">
-        <v>2020-12-21</v>
+        <v>2021-01-11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>9-12k·12薪</v>
+        <v>7-8k·12薪</v>
       </c>
       <c r="C41" t="str">
         <v>河南旭正集团有限公司</v>
@@ -1317,30 +1317,30 @@
         <v>3-5年</v>
       </c>
       <c r="F41" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G41" t="str">
-        <v>一个月前</v>
+        <v>2021-01-04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android应用开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>10-15k·14薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C42" t="str">
-        <v>天迈科技</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E42" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F42" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G42" t="str">
         <v>一个月前</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>Android</v>
       </c>
       <c r="B43" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-国兴</v>
+        <v>郑州</v>
       </c>
       <c r="E43" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F43" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G43" t="str">
         <v>一个月前</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C44" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-咸嘉湖</v>
+        <v>郑州</v>
       </c>
       <c r="E44" t="str">
         <v>3-5年</v>
       </c>
       <c r="F44" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G44" t="str">
         <v>一个月前</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android应用开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B45" t="str">
-        <v>7-11k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C45" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D45" t="str">
         <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F45" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G45" t="str">
         <v>一个月前</v>
@@ -1417,13 +1417,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>Android</v>
       </c>
       <c r="B46" t="str">
-        <v>10-13k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
@@ -1432,7 +1432,7 @@
         <v>3-5年</v>
       </c>
       <c r="F46" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G46" t="str">
         <v>一个月前</v>
@@ -1440,19 +1440,19 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D47" t="str">
         <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F47" t="str">
         <v>大专及以上</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Android开发工程师</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>6-11k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>新开普电子</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州</v>
+        <v>郑州-国兴</v>
       </c>
       <c r="E48" t="str">
         <v>3-5年</v>
       </c>
       <c r="F48" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G48" t="str">
         <v>一个月前</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>9-13k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C49" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-翠苑</v>
+        <v>郑州-咸嘉湖</v>
       </c>
       <c r="E49" t="str">
         <v>3-5年</v>
       </c>
       <c r="F49" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G49" t="str">
         <v>一个月前</v>
@@ -1509,19 +1509,19 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>android</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B50" t="str">
-        <v>8-11k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C50" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州</v>
       </c>
       <c r="E50" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F50" t="str">
         <v>大专及以上</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>5-9k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>中裕广恒</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F51" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G51" t="str">
         <v>一个月前</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>android app开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E52" t="str">
         <v>3-5年</v>
       </c>
       <c r="F52" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G52" t="str">
         <v>一个月前</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>9-12k·12薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C53" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-翠苑</v>
       </c>
       <c r="E53" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android开发</v>
+        <v>android</v>
       </c>
       <c r="B54" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E54" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F54" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G54" t="str">
         <v>一个月前</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android开发</v>
+        <v>Android</v>
       </c>
       <c r="B55" t="str">
-        <v>8-12k·14薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C55" t="str">
-        <v>正商地产</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G55" t="str">
         <v>一个月前</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>正商地产</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E56" t="str">
         <v>3-5年</v>
       </c>
       <c r="F56" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G56" t="str">
         <v>一个月前</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B57" t="str">
-        <v>8-10k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C57" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E57" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F57" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G57" t="str">
         <v>一个月前</v>
@@ -1693,19 +1693,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>android开发</v>
       </c>
       <c r="B58" t="str">
-        <v>10-12k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C58" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E58" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F58" t="str">
         <v>统招本科</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B59" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C59" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E59" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F59" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G59" t="str">
         <v>一个月前</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android开发工程师岗</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B60" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E60" t="str">
         <v>3-5年</v>
       </c>
       <c r="F60" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G60" t="str">
         <v>一个月前</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C61" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F61" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G61" t="str">
         <v>一个月前</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B62" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>超图软件</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E62" t="str">
         <v>1-3年</v>
       </c>
       <c r="F62" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G62" t="str">
         <v>一个月前</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C63" t="str">
-        <v>浩鲸智能</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E63" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F63" t="str">
         <v>本科及以上</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B64" t="str">
-        <v>7-14k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C64" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E64" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G64" t="str">
         <v>一个月前</v>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B65" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E65" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F65" t="str">
         <v>大专及以上</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B66" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C66" t="str">
-        <v>杭州玛亚科技有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E66" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F66" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G66" t="str">
         <v>一个月前</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B67" t="str">
-        <v>10-20k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E67" t="str">
         <v>3-5年</v>
       </c>
       <c r="F67" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G67" t="str">
         <v>一个月前</v>
@@ -1923,19 +1923,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>6k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E68" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F68" t="str">
         <v>大专及以上</v>
@@ -1946,19 +1946,19 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B69" t="str">
-        <v>8-16k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E69" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F69" t="str">
         <v>大专及以上</v>
@@ -1972,19 +1972,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>牧原食品股份有限公司</v>
       </c>
       <c r="D70" t="str">
         <v>郑州</v>
       </c>
       <c r="E70" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F70" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G70" t="str">
         <v>一个月前</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android开发工程师</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B71" t="str">
-        <v>8-10k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D71" t="str">
         <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F71" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G71" t="str">
         <v>一个月前</v>
@@ -2018,10 +2018,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>5-10k·13薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C72" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D72" t="str">
         <v>郑州-高新区</v>
@@ -2030,7 +2030,7 @@
         <v>1-3年</v>
       </c>
       <c r="F72" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G72" t="str">
         <v>一个月前</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>汉克时代</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-中山公园</v>
+        <v>郑州</v>
       </c>
       <c r="E73" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F73" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G73" t="str">
         <v>一个月前</v>
@@ -2061,13 +2061,13 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>14-18k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C74" t="str">
-        <v>崤云信息</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D74" t="str">
         <v>郑州</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E75" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F75" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G75" t="str">
         <v>一个月前</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android开发工程师</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B76" t="str">
-        <v>20-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>京东</v>
+        <v>汉克时代</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州</v>
+        <v>郑州-中山公园</v>
       </c>
       <c r="E76" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F76" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G76" t="str">
         <v>一个月前</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B77" t="str">
-        <v>4-8k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>比特耐特</v>
+        <v>崤云信息</v>
       </c>
       <c r="D77" t="str">
         <v>郑州</v>
       </c>
       <c r="E77" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F77" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G77" t="str">
         <v>一个月前</v>
@@ -2153,19 +2153,19 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>比特耐特</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D78" t="str">
         <v>郑州</v>
       </c>
       <c r="E78" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F78" t="str">
         <v>大专及以上</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>6-9k·12薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C79" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>京东</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E79" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F79" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G79" t="str">
         <v>一个月前</v>
@@ -2199,19 +2199,19 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android开发</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B80" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F80" t="str">
         <v>大专及以上</v>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>android逆向工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>7-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E81" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F81" t="str">
         <v>大专及以上</v>
@@ -2245,19 +2245,19 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B82" t="str">
-        <v>14-18k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E82" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F82" t="str">
         <v>本科及以上</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B83" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F83" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G83" t="str">
         <v>一个月前</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android工程师</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>8-12k·13薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C84" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D84" t="str">
         <v>郑州-二七区</v>
       </c>
       <c r="E84" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F84" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G84" t="str">
         <v>一个月前</v>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>15-25k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D85" t="str">
         <v>郑州</v>
       </c>
       <c r="E85" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F85" t="str">
         <v>本科及以上</v>
@@ -2337,22 +2337,22 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android</v>
+        <v>Android工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>8-11k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E86" t="str">
         <v>1-3年</v>
       </c>
       <c r="F86" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G86" t="str">
         <v>一个月前</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android开发</v>
+        <v>android工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C87" t="str">
-        <v>华英农业</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E87" t="str">
         <v>1-3年</v>
       </c>
       <c r="F87" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G87" t="str">
         <v>一个月前</v>
@@ -2386,19 +2386,19 @@
         <v>Android</v>
       </c>
       <c r="B88" t="str">
-        <v>6-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C88" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州</v>
       </c>
       <c r="E88" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F88" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G88" t="str">
         <v>一个月前</v>
@@ -2409,19 +2409,19 @@
         <v>Android</v>
       </c>
       <c r="B89" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E89" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F89" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G89" t="str">
         <v>一个月前</v>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B90" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E90" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F90" t="str">
         <v>大专及以上</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B91" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E91" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G91" t="str">
         <v>一个月前</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B92" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F92" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G92" t="str">
         <v>一个月前</v>
@@ -2498,19 +2498,19 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E93" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F93" t="str">
         <v>大专及以上</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E94" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F94" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G94" t="str">
         <v>一个月前</v>
@@ -2544,16 +2544,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android开发</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E95" t="str">
         <v>1-3年</v>
@@ -2567,13 +2567,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android开发</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>网道咨询</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android开发工程师</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E97" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F97" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G97" t="str">
         <v>一个月前</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B98" t="str">
-        <v>6-13k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E98" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F98" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G98" t="str">
         <v>一个月前</v>
@@ -2636,19 +2636,19 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B99" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E99" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F99" t="str">
         <v>大专及以上</v>
@@ -2662,10 +2662,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C100" t="str">
-        <v>华英农业</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
@@ -2674,7 +2674,7 @@
         <v>1-3年</v>
       </c>
       <c r="F100" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G100" t="str">
         <v>一个月前</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E101" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F101" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G101" t="str">
         <v>一个月前</v>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>7-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D102" t="str">
         <v>郑州-郑东新区</v>
@@ -2731,19 +2731,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>8-12k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E103" t="str">
         <v>1-3年</v>
       </c>
       <c r="F103" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G103" t="str">
         <v>一个月前</v>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>4-9k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E104" t="str">
         <v>1-3年</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android讲师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C105" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E105" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F105" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G105" t="str">
         <v>一个月前</v>
@@ -2800,13 +2800,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E106" t="str">
         <v>1-3年</v>
@@ -2823,16 +2823,16 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>8-12k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E107" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F107" t="str">
         <v>本科及以上</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B108" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C108" t="str">
-        <v>修齐治平</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F108" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G108" t="str">
         <v>一个月前</v>
@@ -2869,19 +2869,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州-国基路</v>
+        <v>郑州</v>
       </c>
       <c r="E109" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F109" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G109" t="str">
         <v>一个月前</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>8-13k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E110" t="str">
         <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G110" t="str">
         <v>一个月前</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>安卓开发</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>浩鲸智能</v>
+        <v>修齐治平</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E111" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G111" t="str">
         <v>一个月前</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>6-7k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州</v>
+        <v>郑州-国基路</v>
       </c>
       <c r="E112" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F112" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G112" t="str">
         <v>一个月前</v>
@@ -2961,10 +2961,10 @@
         <v>安卓工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C113" t="str">
-        <v>浩鲸智能</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D113" t="str">
         <v>郑州-金水区</v>
@@ -2973,7 +2973,7 @@
         <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G113" t="str">
         <v>一个月前</v>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B114" t="str">
-        <v>10-12k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E114" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F114" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G114" t="str">
         <v>一个月前</v>
@@ -3004,19 +3004,19 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>安卓讲师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D115" t="str">
         <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F115" t="str">
         <v>大专及以上</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>10-15k·14薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C116" t="str">
-        <v>蓝信科技</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E116" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F116" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G116" t="str">
         <v>一个月前</v>
@@ -3050,16 +3050,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>迈特望</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E117" t="str">
         <v>3-5年</v>
@@ -3073,19 +3073,19 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B118" t="str">
-        <v>3-8k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E118" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F118" t="str">
         <v>大专及以上</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓系统工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>思维自动化</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E119" t="str">
         <v>1-3年</v>
       </c>
       <c r="F119" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G119" t="str">
         <v>一个月前</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>8-20k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>刀锋互娱</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F120" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G120" t="str">
         <v>一个月前</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C121" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F121" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G121" t="str">
         <v>一个月前</v>
@@ -3168,10 +3168,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>6-11k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>迈特望</v>
       </c>
       <c r="D122" t="str">
         <v>郑州-高新区</v>
@@ -3191,19 +3191,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>7-10k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C123" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E123" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F123" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G123" t="str">
         <v>一个月前</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>思维自动化</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-国兴</v>
+        <v>郑州</v>
       </c>
       <c r="E124" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F124" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G124" t="str">
         <v>一个月前</v>
@@ -3234,16 +3234,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>7-10k·13薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C125" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B126" t="str">
-        <v>7-10k·13薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C126" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E126" t="str">
         <v>3-5年</v>
@@ -3283,19 +3283,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6-8k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E127" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G127" t="str">
         <v>一个月前</v>
@@ -3306,19 +3306,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>3-8k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C128" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E128" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F128" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G128" t="str">
         <v>一个月前</v>
@@ -3326,19 +3326,19 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>安卓开发工程师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>5-7k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C129" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州</v>
+        <v>郑州-国兴</v>
       </c>
       <c r="E129" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F129" t="str">
         <v>本科及以上</v>
@@ -3349,22 +3349,22 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>8-15k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C130" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E130" t="str">
         <v>3-5年</v>
       </c>
       <c r="F130" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G130" t="str">
         <v>一个月前</v>
@@ -3372,19 +3372,19 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>安卓app开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>3-8k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C131" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E131" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F131" t="str">
         <v>学历不限</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E132" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F132" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G132" t="str">
         <v>一个月前</v>
@@ -3418,62 +3418,62 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>web前端开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>8-10k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C133" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E133" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F133" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G133" t="str">
-        <v>9分钟前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>前端开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>6-10k·13薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C134" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E134" t="str">
         <v>1-3年</v>
       </c>
       <c r="F134" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G134" t="str">
-        <v>9分钟前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>8-12k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C135" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E135" t="str">
         <v>3-5年</v>
@@ -3482,214 +3482,214 @@
         <v>大专及以上</v>
       </c>
       <c r="G135" t="str">
-        <v>9分钟前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>测试工程师</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>6-12k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C136" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E136" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F136" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G136" t="str">
-        <v>2小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>质量管理工程师（智慧交通/自动驾驶/车联网QA质量工程师/系统软件测试）</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B137" t="str">
-        <v>25-40k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C137" t="str">
-        <v>国内知名车企+新能源汽车</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E137" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F137" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G137" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>移动端开发工程师</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>8-17k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C138" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E138" t="str">
         <v>5-10年</v>
       </c>
       <c r="F138" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G138" t="str">
-        <v>前天</v>
+        <v>54分钟前</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Java开发工程师</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>8-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E139" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F139" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G139" t="str">
-        <v>昨天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>25-40k·16薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C140" t="str">
-        <v>全国连锁猎头公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E140" t="str">
         <v>1-3年</v>
       </c>
       <c r="F140" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G140" t="str">
-        <v>21小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>30-50k·16薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C141" t="str">
-        <v>全国连锁猎头公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E141" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F141" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G141" t="str">
-        <v>21小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>25-50k·16薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C142" t="str">
-        <v>全国连锁猎头集团</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E142" t="str">
         <v>3-5年</v>
       </c>
       <c r="F142" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G142" t="str">
-        <v>20小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>25-50k·16薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C143" t="str">
-        <v>全国知名连锁猎头公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D143" t="str">
         <v>郑州</v>
       </c>
       <c r="E143" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F143" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G143" t="str">
-        <v>23小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>UI设计</v>
+        <v>科技公司-移动端开发经理</v>
       </c>
       <c r="B144" t="str">
-        <v>6-9k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C144" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E144" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F144" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G144" t="str">
-        <v>前天</v>
+        <v>16小时前</v>
       </c>
     </row>
     <row r="145">
@@ -3697,13 +3697,13 @@
         <v>Java开发工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C145" t="str">
         <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E145" t="str">
         <v>3-5年</v>
@@ -3712,30 +3712,30 @@
         <v>本科及以上</v>
       </c>
       <c r="G145" t="str">
-        <v>前天</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>15-20k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C146" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E146" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F146" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G146" t="str">
-        <v>2021-01-15</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="147">
@@ -3758,44 +3758,44 @@
         <v>本科及以上</v>
       </c>
       <c r="G147" t="str">
-        <v>2021-01-14</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>流媒体系统架构师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>15-20k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C148" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>中原银行</v>
       </c>
       <c r="D148" t="str">
         <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F148" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G148" t="str">
-        <v>2021-01-12</v>
+        <v>17小时前</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>系统架构师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B149" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C149" t="str">
-        <v>油田咨询</v>
+        <v>正星科技</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E149" t="str">
         <v>5-10年</v>
@@ -3804,30 +3804,30 @@
         <v>本科及以上</v>
       </c>
       <c r="G149" t="str">
-        <v>2021-01-09</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>系统测试工程师</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B150" t="str">
-        <v>5-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C150" t="str">
-        <v>油田咨询</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E150" t="str">
         <v>经验不限</v>
       </c>
       <c r="F150" t="str">
-        <v>硕士及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G150" t="str">
-        <v>2021-01-09</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="151">
@@ -3850,44 +3850,44 @@
         <v>本科及以上</v>
       </c>
       <c r="G151" t="str">
-        <v>2021-01-08</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>8-15k·12薪</v>
+        <v>80-100k·12薪</v>
       </c>
       <c r="C152" t="str">
-        <v>正星科技</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D152" t="str">
         <v>郑州</v>
       </c>
       <c r="E152" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F152" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G152" t="str">
-        <v>2021-01-07</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>渗透测试工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C153" t="str">
-        <v>爱加密</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
@@ -3896,136 +3896,136 @@
         <v>本科及以上</v>
       </c>
       <c r="G153" t="str">
-        <v>2021-01-05</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>高级软件工程师</v>
+        <v>流媒体系统架构师</v>
       </c>
       <c r="B154" t="str">
-        <v>6-11k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C154" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E154" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F154" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G154" t="str">
-        <v>2021-01-04</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>软件工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>5-11k·13薪</v>
+        <v>25-50k·16薪</v>
       </c>
       <c r="C155" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>全国知名连锁猎头公司</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E155" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F155" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G155" t="str">
-        <v>2021-01-04</v>
+        <v>2021-01-20</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>UI设计</v>
       </c>
       <c r="B156" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C156" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>河南千年国医健康产业集团有限公司</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E156" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F156" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G156" t="str">
-        <v>2021-01-04</v>
+        <v>2021-01-19</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>5-10k·12薪</v>
+        <v>50-80k·16薪</v>
       </c>
       <c r="C157" t="str">
-        <v>中原期货</v>
+        <v>全国连锁猎头公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E157" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F157" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>2021-01-03</v>
+        <v>2021-01-19</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>软件工程师（java方向）</v>
+        <v>测试工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>25-35k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C158" t="str">
-        <v>某知名企业</v>
+        <v>崤云安全</v>
       </c>
       <c r="D158" t="str">
         <v>郑州</v>
       </c>
       <c r="E158" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F158" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G158" t="str">
-        <v>2020-12-31</v>
+        <v>2021-01-19</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>移动前端开发工程师</v>
+        <v>高级招聘专员</v>
       </c>
       <c r="B159" t="str">
-        <v>9-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E159" t="str">
         <v>经验不限</v>
@@ -4034,73 +4034,73 @@
         <v>大专及以上</v>
       </c>
       <c r="G159" t="str">
-        <v>一个月前</v>
+        <v>2021-01-18</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>前端工程师</v>
+        <v>系统架构师</v>
       </c>
       <c r="B160" t="str">
-        <v>8-13k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C160" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E160" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F160" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G160" t="str">
-        <v>一个月前</v>
+        <v>2021-01-09</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>移动前端开发工程师</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>3-5k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E161" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F161" t="str">
-        <v>大专及以上</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G161" t="str">
-        <v>一个月前</v>
+        <v>2021-01-09</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>6-12k·13薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C162" t="str">
-        <v>新开普电子</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E162" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F162" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G162" t="str">
         <v>一个月前</v>
@@ -4108,36 +4108,36 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>手机软件开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>6-7k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D163" t="str">
         <v>郑州</v>
       </c>
       <c r="E163" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F163" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G163" t="str">
-        <v>一个月前</v>
+        <v>2021-01-05</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>app开发工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C164" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D164" t="str">
         <v>郑州-金水区</v>
@@ -4154,62 +4154,62 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>软件工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>10-15k·13薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C165" t="str">
-        <v>天瑞集团</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E165" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F165" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G165" t="str">
-        <v>2020-12-26</v>
+        <v>2021-01-04</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C166" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E166" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F166" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G166" t="str">
-        <v>一个月前</v>
+        <v>2021-01-04</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>ASO优化师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>15-25k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E167" t="str">
         <v>3-5年</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>app运营主管</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C168" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E168" t="str">
         <v>3-5年</v>
       </c>
       <c r="F168" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G168" t="str">
         <v>一个月前</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>移动开发工程师</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>10-17k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E169" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F169" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G169" t="str">
         <v>一个月前</v>
@@ -4269,19 +4269,19 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>软件工程师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B170" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>郑州卓安</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E170" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F170" t="str">
         <v>大专及以上</v>
@@ -4292,42 +4292,42 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>java开发</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B171" t="str">
-        <v>5-8k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>郑州卓安</v>
+        <v>中原期货</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E171" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F171" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G171" t="str">
-        <v>一个月前</v>
+        <v>2021-01-03</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>移动开发工程师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E172" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F172" t="str">
         <v>本科及以上</v>
@@ -4338,19 +4338,19 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>软件测试工程师</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B173" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C173" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E173" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F173" t="str">
         <v>大专及以上</v>
@@ -4361,19 +4361,19 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>APP工程师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B174" t="str">
-        <v>10-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E174" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F174" t="str">
         <v>本科及以上</v>
@@ -4384,22 +4384,22 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>APP推广</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B175" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C175" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E175" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F175" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G175" t="str">
         <v>一个月前</v>
@@ -4407,13 +4407,13 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>应用层开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B176" t="str">
-        <v>10-20k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D176" t="str">
         <v>郑州</v>
@@ -4430,19 +4430,19 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>高级前端讲师</v>
+        <v>java开发</v>
       </c>
       <c r="B177" t="str">
-        <v>15-30k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>北京千锋互联科技</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D177" t="str">
         <v>郑州</v>
       </c>
       <c r="E177" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F177" t="str">
         <v>大专及以上</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>app推广经理</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B178" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E178" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F178" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G178" t="str">
         <v>一个月前</v>
@@ -4476,19 +4476,19 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E179" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F179" t="str">
         <v>大专及以上</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>ui设计师</v>
+        <v>APP工程师</v>
       </c>
       <c r="B180" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>鲜易控股</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E180" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F180" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G180" t="str">
         <v>一个月前</v>
@@ -4522,45 +4522,45 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>渗透测试工程师</v>
+        <v>软件工程师（java方向）</v>
       </c>
       <c r="B181" t="str">
-        <v>10-15k·12薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>爱加密</v>
+        <v>某知名企业</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E181" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F181" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G181" t="str">
-        <v>2020-12-21</v>
+        <v>2020-12-31</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>C++开发工程师中级</v>
+        <v>APP推广</v>
       </c>
       <c r="B182" t="str">
-        <v>6-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E182" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F182" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G182" t="str">
         <v>一个月前</v>
@@ -4568,22 +4568,22 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>高级产品经理</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B183" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>刀锋互娱</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D183" t="str">
         <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F183" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G183" t="str">
         <v>一个月前</v>
@@ -4591,22 +4591,22 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B184" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>天瑞集团</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E184" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F184" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G184" t="str">
         <v>一个月前</v>
@@ -4614,19 +4614,19 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>APP运营主管/经理</v>
+        <v>app推广经理</v>
       </c>
       <c r="B185" t="str">
-        <v>10-18k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E185" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F185" t="str">
         <v>大专及以上</v>
@@ -4637,22 +4637,22 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>信息化专员</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B186" t="str">
-        <v>面议</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C186" t="str">
-        <v>建业新生活</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E186" t="str">
         <v>3-5年</v>
       </c>
       <c r="F186" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G186" t="str">
         <v>一个月前</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>前端开发工程师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B187" t="str">
-        <v>8-12k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>北大软件</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E187" t="str">
         <v>1-3年</v>
       </c>
       <c r="F187" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G187" t="str">
         <v>一个月前</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>java高级工程师</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B188" t="str">
-        <v>10-11k·12薪</v>
+        <v>10-15k·13薪</v>
       </c>
       <c r="C188" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E188" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F188" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G188" t="str">
         <v>一个月前</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B189" t="str">
-        <v>10-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C189" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E189" t="str">
         <v>3-5年</v>
       </c>
       <c r="F189" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G189" t="str">
         <v>一个月前</v>
@@ -4729,19 +4729,19 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B190" t="str">
-        <v>7-11k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>新开普电子</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D190" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E190" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F190" t="str">
         <v>本科及以上</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>智能技术开发主管</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B191" t="str">
-        <v>面议</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C191" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E191" t="str">
-        <v>10年以上</v>
+        <v>1-3年</v>
       </c>
       <c r="F191" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G191" t="str">
         <v>一个月前</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>JAVA开发</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B192" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D192" t="str">
         <v>郑州</v>
       </c>
       <c r="E192" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F192" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G192" t="str">
         <v>一个月前</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>java开发工程师</v>
+        <v>信息化专员</v>
       </c>
       <c r="B193" t="str">
-        <v>7-10k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C193" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>建业新生活</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E193" t="str">
         <v>3-5年</v>
       </c>
       <c r="F193" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G193" t="str">
         <v>一个月前</v>
@@ -4821,22 +4821,22 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B194" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>北大软件</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E194" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F194" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G194" t="str">
         <v>一个月前</v>
@@ -4844,22 +4844,22 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>产品经理</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B195" t="str">
-        <v>8-13k·13薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C195" t="str">
-        <v>郑州XX公司</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D195" t="str">
         <v>郑州</v>
       </c>
       <c r="E195" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F195" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G195" t="str">
         <v>一个月前</v>
@@ -4867,19 +4867,19 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>架构师</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B196" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E196" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F196" t="str">
         <v>本科及以上</v>
@@ -4890,19 +4890,19 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>ui</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B197" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D197" t="str">
         <v>郑州</v>
       </c>
       <c r="E197" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F197" t="str">
         <v>本科及以上</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>中级JAVA开发</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B198" t="str">
-        <v>10-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C198" t="str">
-        <v>正商地产</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E198" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F198" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G198" t="str">
         <v>一个月前</v>
@@ -4936,19 +4936,19 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B199" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C199" t="str">
-        <v>埃林哲</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E199" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F199" t="str">
         <v>本科及以上</v>
@@ -4959,19 +4959,19 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B200" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>信大捷安</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E200" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F200" t="str">
         <v>本科及以上</v>
@@ -4982,22 +4982,22 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B201" t="str">
-        <v>13-25k·13薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E201" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F201" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G201" t="str">
         <v>一个月前</v>
@@ -5005,22 +5005,22 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>商务助理</v>
+        <v>架构师</v>
       </c>
       <c r="B202" t="str">
-        <v>5-8k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>河南准澳网络科技有限公司</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D202" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E202" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F202" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G202" t="str">
         <v>一个月前</v>
@@ -5028,22 +5028,22 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>ui</v>
       </c>
       <c r="B203" t="str">
-        <v>13-18k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E203" t="str">
         <v>3-5年</v>
       </c>
       <c r="F203" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G203" t="str">
         <v>一个月前</v>
@@ -5051,16 +5051,16 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>产品经理</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B204" t="str">
-        <v>7-12k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>完美数联(杭州)科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E204" t="str">
         <v>3-5年</v>
@@ -5074,19 +5074,19 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>UI高级设计师</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B205" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>埃林哲</v>
       </c>
       <c r="D205" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E205" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F205" t="str">
         <v>本科及以上</v>
@@ -5097,22 +5097,22 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>产品经理</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B206" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>信大捷安</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E206" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F206" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G206" t="str">
         <v>一个月前</v>
@@ -5120,16 +5120,16 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>维护工程师</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>4-6k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C207" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E207" t="str">
         <v>3-5年</v>
@@ -5143,13 +5143,13 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>维护助理工程师</v>
+        <v>商务助理</v>
       </c>
       <c r="B208" t="str">
-        <v>3-5k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>河南准澳网络科技有限公司</v>
       </c>
       <c r="D208" t="str">
         <v>郑州-郑东新区</v>
@@ -5166,22 +5166,22 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>iOS开发工程师</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B209" t="str">
-        <v>14-20k·12薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C209" t="str">
-        <v>浩鲸智能</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D209" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E209" t="str">
         <v>3-5年</v>
       </c>
       <c r="F209" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G209" t="str">
         <v>一个月前</v>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>软件开发</v>
+        <v>产品经理</v>
       </c>
       <c r="B210" t="str">
-        <v>15-21k·12薪</v>
+        <v>7-12k·13薪</v>
       </c>
       <c r="C210" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>完美数联(杭州)科技有限公司</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E210" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F210" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G210" t="str">
         <v>一个月前</v>
@@ -5212,22 +5212,22 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>移动开发工程师</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B211" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E211" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F211" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G211" t="str">
         <v>一个月前</v>
@@ -5235,22 +5235,22 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>移动端开发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B212" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>中原银行</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D212" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E212" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F212" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G212" t="str">
         <v>一个月前</v>
@@ -5258,16 +5258,16 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>软件外包业务经理</v>
+        <v>维护工程师</v>
       </c>
       <c r="B213" t="str">
-        <v>8-16k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E213" t="str">
         <v>3-5年</v>
@@ -5281,22 +5281,22 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>产品经理</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B214" t="str">
-        <v>8-13k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C214" t="str">
-        <v>新开普电子</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D214" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E214" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F214" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G214" t="str">
         <v>一个月前</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>产品经理</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B215" t="str">
-        <v>10-15k·12薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D215" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E215" t="str">
         <v>3-5年</v>
       </c>
       <c r="F215" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,19 +5327,19 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>软件研发总监</v>
+        <v>软件开发</v>
       </c>
       <c r="B216" t="str">
-        <v>20-25k·12薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>河南博联慧绿科技集团有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E216" t="str">
-        <v>10年以上</v>
+        <v>经验不限</v>
       </c>
       <c r="F216" t="str">
         <v>本科及以上</v>
@@ -5350,22 +5350,22 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B217" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C217" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E217" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F217" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G217" t="str">
         <v>一个月前</v>
@@ -5373,19 +5373,19 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>测试工程师</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B218" t="str">
-        <v>6-12k·14薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C218" t="str">
-        <v>三门峡崤云安全服务有限公司</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D218" t="str">
         <v>郑州</v>
       </c>
       <c r="E218" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F218" t="str">
         <v>本科及以上</v>
@@ -5396,19 +5396,19 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>高级软件工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B219" t="str">
-        <v>8-12k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C219" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D219" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E219" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F219" t="str">
         <v>本科及以上</v>
@@ -5419,22 +5419,22 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B220" t="str">
-        <v>面议</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C220" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D220" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E220" t="str">
         <v>3-5年</v>
       </c>
       <c r="F220" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G220" t="str">
         <v>一个月前</v>
@@ -5442,19 +5442,19 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B221" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>北京千锋互联科技</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D221" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E221" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F221" t="str">
         <v>大专及以上</v>
@@ -5465,22 +5465,22 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>前端工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B222" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C222" t="str">
-        <v>元丰科技</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D222" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E222" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F222" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G222" t="str">
         <v>一个月前</v>
@@ -5488,22 +5488,22 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B223" t="str">
-        <v>15-25k·13薪</v>
+        <v>面议</v>
       </c>
       <c r="C223" t="str">
-        <v>朗新科技</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D223" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E223" t="str">
         <v>3-5年</v>
       </c>
       <c r="F223" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G223" t="str">
         <v>一个月前</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B224" t="str">
-        <v>11-20k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>朗新科技</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D224" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E224" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F224" t="str">
         <v>大专及以上</v>
@@ -5534,22 +5534,22 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>售前技术支持</v>
+        <v>前端工程师</v>
       </c>
       <c r="B225" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C225" t="str">
-        <v>环信</v>
+        <v>元丰科技</v>
       </c>
       <c r="D225" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E225" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F225" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G225" t="str">
         <v>一个月前</v>
@@ -5557,19 +5557,19 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>java开发工程师助理</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B226" t="str">
-        <v>4-6k·12薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C226" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E226" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F226" t="str">
         <v>大专及以上</v>
@@ -5580,22 +5580,22 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>UI设计师</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B227" t="str">
-        <v>4-6k·13薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C227" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D227" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E227" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F227" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G227" t="str">
         <v>一个月前</v>
@@ -5603,19 +5603,19 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>PC客户端产品经理</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B228" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>环信</v>
       </c>
       <c r="D228" t="str">
         <v>郑州</v>
       </c>
       <c r="E228" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F228" t="str">
         <v>本科及以上</v>
@@ -5626,16 +5626,16 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>IOS</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B229" t="str">
-        <v>15-25k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D229" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E229" t="str">
         <v>经验不限</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B230" t="str">
-        <v>18-25k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C230" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D230" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E230" t="str">
         <v>经验不限</v>
       </c>
       <c r="F230" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G230" t="str">
         <v>一个月前</v>
@@ -5672,13 +5672,13 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>高级软件测试工程师</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B231" t="str">
-        <v>7-9k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>国际交友</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D231" t="str">
         <v>郑州</v>
@@ -5687,7 +5687,7 @@
         <v>3-5年</v>
       </c>
       <c r="F231" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G231" t="str">
         <v>一个月前</v>
@@ -5695,19 +5695,19 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>高级软件测试工程师</v>
+        <v>IOS</v>
       </c>
       <c r="B232" t="str">
-        <v>7-9k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>国际交友</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D232" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E232" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F232" t="str">
         <v>大专及以上</v>
@@ -5718,19 +5718,19 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>JAVA开发工程师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B233" t="str">
-        <v>6-8k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>地理信息系统</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D233" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E233" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F233" t="str">
         <v>大专及以上</v>
@@ -5741,22 +5741,22 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>摄像头调试工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B234" t="str">
-        <v>4-9k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C234" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E234" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F234" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G234" t="str">
         <v>一个月前</v>
@@ -5764,22 +5764,22 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B235" t="str">
-        <v>6-12k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D235" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E235" t="str">
         <v>3-5年</v>
       </c>
       <c r="F235" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G235" t="str">
         <v>一个月前</v>
@@ -5787,19 +5787,19 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B236" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E236" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F236" t="str">
         <v>大专及以上</v>
@@ -5810,19 +5810,19 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>cocos开发工程师</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B237" t="str">
-        <v>9-16k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D237" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E237" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F237" t="str">
         <v>学历不限</v>
@@ -5833,19 +5833,19 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>学术经理</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B238" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C238" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D238" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E238" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F238" t="str">
         <v>本科及以上</v>
@@ -5856,19 +5856,19 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>IT项目经理</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B239" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C239" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D239" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E239" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F239" t="str">
         <v>大专及以上</v>
@@ -5879,13 +5879,13 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>前端高级讲师</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B240" t="str">
-        <v>10-18k·12薪</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C240" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D240" t="str">
         <v>郑州</v>
@@ -5894,7 +5894,7 @@
         <v>1-3年</v>
       </c>
       <c r="F240" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G240" t="str">
         <v>一个月前</v>
@@ -5902,22 +5902,22 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>.NET开发工程师</v>
+        <v>学术经理</v>
       </c>
       <c r="B241" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C241" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D241" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E241" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F241" t="str">
-        <v>中专/中技及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G241" t="str">
         <v>一个月前</v>
@@ -5925,19 +5925,19 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>网页UI设计师</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B242" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C242" t="str">
-        <v>羲和网络</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D242" t="str">
         <v>郑州</v>
       </c>
       <c r="E242" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F242" t="str">
         <v>大专及以上</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Web前端工程师</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B243" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D243" t="str">
         <v>郑州</v>
       </c>
       <c r="E243" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F243" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G243" t="str">
         <v>一个月前</v>
@@ -5971,22 +5971,22 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>检查员</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B244" t="str">
-        <v>3-5k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C244" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D244" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E244" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F244" t="str">
-        <v>学历不限</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G244" t="str">
         <v>一个月前</v>
@@ -5994,22 +5994,22 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>督导</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B245" t="str">
-        <v>3-5k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C245" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D245" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E245" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F245" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G245" t="str">
         <v>一个月前</v>
@@ -6017,19 +6017,19 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>游戏项目主程</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B246" t="str">
-        <v>10-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C246" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D246" t="str">
         <v>郑州</v>
       </c>
       <c r="E246" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F246" t="str">
         <v>大专及以上</v>
@@ -6040,22 +6040,22 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>检查员</v>
       </c>
       <c r="B247" t="str">
-        <v>面议</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C247" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D247" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E247" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F247" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G247" t="str">
         <v>一个月前</v>
@@ -6063,22 +6063,22 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>督导</v>
       </c>
       <c r="B248" t="str">
-        <v>6-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C248" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D248" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E248" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F248" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G248" t="str">
         <v>一个月前</v>
@@ -6086,22 +6086,22 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B249" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C249" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D249" t="str">
         <v>郑州</v>
       </c>
       <c r="E249" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F249" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G249" t="str">
         <v>一个月前</v>
@@ -6109,22 +6109,22 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>高级APP工程师</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B250" t="str">
-        <v>10-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C250" t="str">
-        <v>河南鲜易供应链有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D250" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E250" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F250" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G250" t="str">
         <v>一个月前</v>
@@ -6132,22 +6132,22 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>UI设计师</v>
+        <v>产品经理（英语项目）</v>
       </c>
       <c r="B251" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C251" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D251" t="str">
         <v>郑州</v>
       </c>
       <c r="E251" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F251" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G251" t="str">
         <v>一个月前</v>
@@ -6155,22 +6155,22 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>UI设计师</v>
+        <v>产品经理（咿啦看书项目）</v>
       </c>
       <c r="B252" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C252" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D252" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E252" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F252" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G252" t="str">
         <v>一个月前</v>
@@ -6178,22 +6178,22 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>中级软件测试工程师</v>
+        <v>高级APP工程师</v>
       </c>
       <c r="B253" t="str">
-        <v>10-14k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C253" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>鲜易控股</v>
       </c>
       <c r="D253" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E253" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F253" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G253" t="str">
         <v>一个月前</v>
@@ -6201,19 +6201,19 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>UI设计工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B254" t="str">
-        <v>9-10k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C254" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D254" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E254" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F254" t="str">
         <v>大专及以上</v>
@@ -6224,22 +6224,22 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>产品经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B255" t="str">
-        <v>8-10k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C255" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D255" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E255" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F255" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G255" t="str">
         <v>一个月前</v>
@@ -6247,22 +6247,22 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>Mobile App</v>
+        <v>中级软件测试工程师</v>
       </c>
       <c r="B256" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-14k·12薪</v>
       </c>
       <c r="C256" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>上海陆鹰实业有限公司河南分公司</v>
       </c>
       <c r="D256" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E256" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F256" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G256" t="str">
         <v>一个月前</v>
@@ -6270,22 +6270,22 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>UI/UX developer</v>
+        <v>UI设计工程师</v>
       </c>
       <c r="B257" t="str">
-        <v>10-15k·12薪</v>
+        <v>9-10k·12薪</v>
       </c>
       <c r="C257" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D257" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E257" t="str">
         <v>3-5年</v>
       </c>
       <c r="F257" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G257" t="str">
         <v>一个月前</v>
@@ -6293,13 +6293,13 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>java软件工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B258" t="str">
-        <v>7-13k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C258" t="str">
-        <v>思维自动化</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D258" t="str">
         <v>郑州</v>
@@ -6308,7 +6308,7 @@
         <v>3-5年</v>
       </c>
       <c r="F258" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G258" t="str">
         <v>一个月前</v>
@@ -6316,30 +6316,99 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
+        <v>Mobile App</v>
+      </c>
+      <c r="B259" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C259" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D259" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E259" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F259" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G259" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>UI/UX developer</v>
+      </c>
+      <c r="B260" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C260" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D260" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E260" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F260" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G260" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B261" t="str">
+        <v>7-13k·13薪</v>
+      </c>
+      <c r="C261" t="str">
+        <v>思维自动化</v>
+      </c>
+      <c r="D261" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E261" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F261" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G261" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
         <v>研发工程师</v>
       </c>
-      <c r="B259" t="str">
+      <c r="B262" t="str">
         <v>5-10k·12薪</v>
       </c>
-      <c r="C259" t="str">
+      <c r="C262" t="str">
         <v>河南森源集团有限公司</v>
       </c>
-      <c r="D259" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E259" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F259" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G259" t="str">
+      <c r="D262" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E262" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F262" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G262" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G259"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G262"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,30 +405,30 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>安卓android开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B2" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C2" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E2" t="str">
         <v>5-10年</v>
       </c>
       <c r="F2" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G2" t="str">
-        <v>1小时前</v>
+        <v>刚刚</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B3" t="str">
         <v>15-20k·13薪</v>
@@ -446,274 +446,274 @@
         <v>统招本科</v>
       </c>
       <c r="G3" t="str">
-        <v>54分钟前</v>
+        <v>刚刚</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C4" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E4" t="str">
         <v>5-10年</v>
       </c>
       <c r="F4" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>54分钟前</v>
+        <v>22小时前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>资深android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>15-20k·13薪</v>
+        <v>10-16k·13薪</v>
       </c>
       <c r="C5" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E5" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F5" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G5" t="str">
-        <v>54分钟前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>8-10k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E6" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F6" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>1小时前</v>
+        <v>22小时前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-南关</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G7" t="str">
-        <v>1小时前</v>
+        <v>17小时前</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>Android C/C++开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>8-10k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E8" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F8" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G8" t="str">
-        <v>1小时前</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android开发工程师</v>
+        <v>安卓前端（运维、ui设计）</v>
       </c>
       <c r="B9" t="str">
-        <v>5-7k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C9" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>某化工企业</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州</v>
       </c>
       <c r="E9" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F9" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G9" t="str">
-        <v>1小时前</v>
+        <v>2021-02-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>资深android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E10" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F10" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G10" t="str">
-        <v>1小时前</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>10-16k·13薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C11" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D11" t="str">
         <v>郑州-管城区</v>
       </c>
       <c r="E11" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F11" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G11" t="str">
-        <v>1小时前</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>安卓端工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C12" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D12" t="str">
         <v>郑州</v>
       </c>
       <c r="E12" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F12" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G12" t="str">
-        <v>1小时前</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C13" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E13" t="str">
         <v>3-5年</v>
       </c>
       <c r="F13" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G13" t="str">
-        <v>1小时前</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Andriod开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>12-16k·13薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C14" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-南关</v>
       </c>
       <c r="E14" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F14" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G14" t="str">
-        <v>54分钟前</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>资深安卓开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E15" t="str">
         <v>3-5年</v>
@@ -722,110 +722,110 @@
         <v>大专及以上</v>
       </c>
       <c r="G15" t="str">
-        <v>1小时前</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B16" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C16" t="str">
-        <v>某大型互联网企业</v>
+        <v>天迈科技</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F16" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G16" t="str">
-        <v>15小时前</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>高级android工程师</v>
+        <v>高级Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>12-18k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C17" t="str">
-        <v>知名软件公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E17" t="str">
         <v>5-10年</v>
       </c>
       <c r="F17" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G17" t="str">
-        <v>昨天</v>
+        <v>2021-02-04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>软件设计师（安卓、车机）</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>30-40k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州宇通集团-精益达零部件</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F18" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G18" t="str">
-        <v>20小时前</v>
+        <v>2021-02-04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C19" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E19" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F19" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G19" t="str">
-        <v>2021-01-23</v>
+        <v>2021-02-04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android开发工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B20" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C20" t="str">
-        <v>UIOT超级智慧家</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D20" t="str">
         <v>郑州</v>
@@ -834,47 +834,47 @@
         <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G20" t="str">
-        <v>前天</v>
+        <v>2021-02-04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B21" t="str">
-        <v>12-20k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C21" t="str">
-        <v>缔云科技</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E21" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F21" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G21" t="str">
-        <v>前天</v>
+        <v>刚刚</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>高级android开发工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>11-17k·12薪</v>
+        <v>12-18k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>中宝科技</v>
+        <v>知名软件公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E22" t="str">
         <v>5-10年</v>
@@ -883,67 +883,67 @@
         <v>大专及以上</v>
       </c>
       <c r="G22" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Android开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>9-12k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C23" t="str">
-        <v>众诚科技</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E23" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F23" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G23" t="str">
-        <v>2021-01-21</v>
+        <v>刚刚</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>6-10k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C24" t="str">
-        <v>河南一九八八网络科技有限公司</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E24" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F24" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G24" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android应用开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>12-20k·14薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C25" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E25" t="str">
         <v>3-5年</v>
@@ -952,136 +952,136 @@
         <v>统招本科</v>
       </c>
       <c r="G25" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android系统固件工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>9-13k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C26" t="str">
-        <v>众诚科技</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F26" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G26" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B27" t="str">
-        <v>12-20k·14薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C27" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E27" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F27" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B28" t="str">
-        <v>20-30k·14薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C28" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E28" t="str">
         <v>5-10年</v>
       </c>
       <c r="F28" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G28" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>9-13k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C29" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
       </c>
       <c r="E29" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F29" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>android</v>
       </c>
       <c r="B30" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C30" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D30" t="str">
         <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F30" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G30" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>7-11k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>河南盈北网络科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E31" t="str">
         <v>经验不限</v>
@@ -1090,87 +1090,87 @@
         <v>大专及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>安卓开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>8-13k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C32" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E32" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F32" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G32" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>android工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>15-20k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C33" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>缔云科技</v>
       </c>
       <c r="D33" t="str">
         <v>郑州</v>
       </c>
       <c r="E33" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F33" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G33" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Android 开发工程师</v>
+        <v>软件设计师（安卓、车机）</v>
       </c>
       <c r="B34" t="str">
-        <v>10-15k·12薪</v>
+        <v>30-40k·12薪</v>
       </c>
       <c r="C34" t="str">
-        <v>智慧家居名企</v>
+        <v>郑州宇通集团-精益达零部件</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E34" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F34" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G34" t="str">
-        <v>2021-01-15</v>
+        <v>2021-01-26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>6-12k·14薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C35" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>某大型互联网企业</v>
       </c>
       <c r="D35" t="str">
         <v>郑州-高新区</v>
@@ -1179,182 +1179,182 @@
         <v>3-5年</v>
       </c>
       <c r="F35" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G35" t="str">
-        <v>2021-01-15</v>
+        <v>2021-01-25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>7-10k·12薪</v>
+        <v>11-17k·12薪</v>
       </c>
       <c r="C36" t="str">
-        <v>中钢网</v>
+        <v>中宝科技</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E36" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F36" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G36" t="str">
-        <v>2021-01-14</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>10-15k·15薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C37" t="str">
-        <v>某大型智能家居公司</v>
+        <v>河南一九八八网络科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G37" t="str">
-        <v>2021-01-13</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>安卓开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>8-13k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C38" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E38" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G38" t="str">
-        <v>2021-01-13</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>8-12k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C39" t="str">
-        <v>云涌科技</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E39" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F39" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G39" t="str">
-        <v>2021-01-11</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>8-12k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州八角信息技术有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E40" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F40" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G40" t="str">
-        <v>2021-01-11</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B41" t="str">
-        <v>7-8k·12薪</v>
+        <v>9-13k·12薪</v>
       </c>
       <c r="C41" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F41" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G41" t="str">
-        <v>2021-01-04</v>
+        <v>2021-01-20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B42" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C42" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D42" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E42" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F42" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G42" t="str">
-        <v>一个月前</v>
+        <v>2021-01-19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Android</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B43" t="str">
-        <v>8-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C43" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D43" t="str">
         <v>郑州</v>
@@ -1366,30 +1366,30 @@
         <v>本科及以上</v>
       </c>
       <c r="G43" t="str">
-        <v>一个月前</v>
+        <v>2021-01-18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>15-30k·13薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C44" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E44" t="str">
         <v>3-5年</v>
       </c>
       <c r="F44" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G44" t="str">
-        <v>一个月前</v>
+        <v>2021-01-15</v>
       </c>
     </row>
     <row r="45">
@@ -1397,10 +1397,10 @@
         <v>Android</v>
       </c>
       <c r="B45" t="str">
-        <v>8-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C45" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>中钢网</v>
       </c>
       <c r="D45" t="str">
         <v>郑州</v>
@@ -1412,18 +1412,18 @@
         <v>本科及以上</v>
       </c>
       <c r="G45" t="str">
-        <v>一个月前</v>
+        <v>2021-01-14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>9-12k·12薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C46" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>某大型智能家居公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
@@ -1435,50 +1435,50 @@
         <v>本科及以上</v>
       </c>
       <c r="G46" t="str">
-        <v>一个月前</v>
+        <v>2021-01-13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>10-15k·14薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C47" t="str">
-        <v>天迈科技</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D47" t="str">
         <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F47" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G47" t="str">
-        <v>一个月前</v>
+        <v>2021-01-13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-国兴</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E48" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F48" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G48" t="str">
         <v>一个月前</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B49" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C49" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-咸嘉湖</v>
+        <v>郑州</v>
       </c>
       <c r="E49" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F49" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G49" t="str">
         <v>一个月前</v>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>10-13k·12薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D50" t="str">
         <v>郑州</v>
@@ -1524,7 +1524,7 @@
         <v>3-5年</v>
       </c>
       <c r="F50" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G50" t="str">
         <v>一个月前</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B51" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G51" t="str">
         <v>一个月前</v>
@@ -1555,13 +1555,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B52" t="str">
-        <v>6-11k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C52" t="str">
-        <v>新开普电子</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D52" t="str">
         <v>郑州</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>高级android开发工程师</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>9-13k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-翠苑</v>
+        <v>郑州-国兴</v>
       </c>
       <c r="E53" t="str">
         <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1601,19 +1601,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>8-11k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-咸嘉湖</v>
       </c>
       <c r="E54" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F54" t="str">
         <v>大专及以上</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>5-9k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C55" t="str">
-        <v>中裕广恒</v>
+        <v>上市高科技企业</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E55" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F55" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G55" t="str">
         <v>一个月前</v>
@@ -1647,16 +1647,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android app开发工程师</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B56" t="str">
-        <v>8-15k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E56" t="str">
         <v>3-5年</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>9-12k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C57" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F57" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G57" t="str">
         <v>一个月前</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>5-8k·12薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-翠苑</v>
       </c>
       <c r="E58" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F58" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G58" t="str">
         <v>一个月前</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Android开发</v>
+        <v>android</v>
       </c>
       <c r="B59" t="str">
-        <v>8-12k·14薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C59" t="str">
-        <v>正商地产</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E59" t="str">
         <v>1-3年</v>
       </c>
       <c r="F59" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G59" t="str">
         <v>一个月前</v>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>Android</v>
       </c>
       <c r="B60" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>正商地产</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E60" t="str">
         <v>3-5年</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android开发工程师</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C61" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E61" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F61" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G61" t="str">
         <v>一个月前</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>android</v>
       </c>
       <c r="B62" t="str">
-        <v>10-12k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E62" t="str">
         <v>1-3年</v>
       </c>
       <c r="F62" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G62" t="str">
         <v>一个月前</v>
@@ -1808,22 +1808,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B63" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C63" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E63" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F63" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G63" t="str">
         <v>一个月前</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android开发工程师岗</v>
+        <v>Android开发</v>
       </c>
       <c r="B64" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C64" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E64" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F64" t="str">
         <v>统招本科</v>
@@ -1854,22 +1854,22 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android开发</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B65" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E65" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G65" t="str">
         <v>一个月前</v>
@@ -1877,19 +1877,19 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C66" t="str">
-        <v>超图软件</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F66" t="str">
         <v>本科及以上</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B67" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>浩鲸智能</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E67" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F67" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G67" t="str">
         <v>一个月前</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>7-14k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E68" t="str">
         <v>5-10年</v>
       </c>
       <c r="F68" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G68" t="str">
         <v>一个月前</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B69" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E69" t="str">
         <v>3-5年</v>
       </c>
       <c r="F69" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G69" t="str">
         <v>一个月前</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B70" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>牧原食品股份有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E70" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F70" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G70" t="str">
         <v>一个月前</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B71" t="str">
-        <v>6k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E71" t="str">
         <v>1-3年</v>
       </c>
       <c r="F71" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G71" t="str">
         <v>一个月前</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B72" t="str">
-        <v>8-16k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E72" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F72" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G72" t="str">
         <v>一个月前</v>
@@ -2038,19 +2038,19 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android开发工程师</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>6-12k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E73" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F73" t="str">
         <v>大专及以上</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B74" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C74" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E74" t="str">
         <v>3-5年</v>
       </c>
       <c r="F74" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G74" t="str">
         <v>一个月前</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发工程师</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B75" t="str">
-        <v>5-10k·13薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C75" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E75" t="str">
         <v>1-3年</v>
       </c>
       <c r="F75" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G75" t="str">
         <v>一个月前</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>汉克时代</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-中山公园</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E76" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F76" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G76" t="str">
         <v>一个月前</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>14-18k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>崤云信息</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D77" t="str">
         <v>郑州</v>
       </c>
       <c r="E77" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F77" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G77" t="str">
         <v>一个月前</v>
@@ -2153,13 +2153,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D78" t="str">
         <v>郑州</v>
@@ -2168,7 +2168,7 @@
         <v>3-5年</v>
       </c>
       <c r="F78" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G78" t="str">
         <v>一个月前</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>20-40k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C79" t="str">
-        <v>京东</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E79" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F79" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G79" t="str">
         <v>一个月前</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B80" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>比特耐特</v>
+        <v>汉克时代</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州</v>
+        <v>郑州-中山公园</v>
       </c>
       <c r="E80" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F80" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G80" t="str">
         <v>一个月前</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android开发工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B81" t="str">
-        <v>4-8k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>比特耐特</v>
+        <v>崤云信息</v>
       </c>
       <c r="D81" t="str">
         <v>郑州</v>
       </c>
       <c r="E81" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F81" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G81" t="str">
         <v>一个月前</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>6-9k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E82" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F82" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G82" t="str">
         <v>一个月前</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>6-10k·12薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>京东</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F83" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G83" t="str">
         <v>一个月前</v>
@@ -2291,19 +2291,19 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android逆向工程师</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B84" t="str">
-        <v>7-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C84" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F84" t="str">
         <v>大专及以上</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>14-18k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>崤云安全</v>
+        <v>比特耐特</v>
       </c>
       <c r="D85" t="str">
         <v>郑州</v>
       </c>
       <c r="E85" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F85" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G85" t="str">
         <v>一个月前</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android工程师</v>
+        <v>Android</v>
       </c>
       <c r="B86" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E86" t="str">
         <v>1-3年</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B87" t="str">
-        <v>8-12k·13薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C87" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E87" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F87" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G87" t="str">
         <v>一个月前</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>15-25k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C88" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E88" t="str">
         <v>经验不限</v>
       </c>
       <c r="F88" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G88" t="str">
         <v>一个月前</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>8-11k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G89" t="str">
         <v>一个月前</v>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android开发</v>
+        <v>Android工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>华英农业</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E90" t="str">
         <v>1-3年</v>
       </c>
       <c r="F90" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G90" t="str">
         <v>一个月前</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Android</v>
+        <v>android工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C91" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E91" t="str">
         <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G91" t="str">
         <v>一个月前</v>
@@ -2478,10 +2478,10 @@
         <v>Android</v>
       </c>
       <c r="B92" t="str">
-        <v>7-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D92" t="str">
         <v>郑州</v>
@@ -2498,19 +2498,19 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B93" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E93" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F93" t="str">
         <v>大专及以上</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B94" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E94" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F94" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G94" t="str">
         <v>一个月前</v>
@@ -2544,16 +2544,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B95" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E95" t="str">
         <v>1-3年</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B96" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
       </c>
       <c r="E96" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F96" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G96" t="str">
         <v>一个月前</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E97" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F97" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G97" t="str">
         <v>一个月前</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F98" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G98" t="str">
         <v>一个月前</v>
@@ -2636,16 +2636,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>android开发</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>网道咨询</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E99" t="str">
         <v>1-3年</v>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C100" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
@@ -2674,7 +2674,7 @@
         <v>1-3年</v>
       </c>
       <c r="F100" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G100" t="str">
         <v>一个月前</v>
@@ -2682,19 +2682,19 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>6-13k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E101" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F101" t="str">
         <v>学历不限</v>
@@ -2705,19 +2705,19 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B102" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E102" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F102" t="str">
         <v>大专及以上</v>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B103" t="str">
-        <v>4-8k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>华英农业</v>
+        <v>网道咨询</v>
       </c>
       <c r="D103" t="str">
         <v>郑州</v>
@@ -2754,10 +2754,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>7-15k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C105" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E105" t="str">
         <v>3-5年</v>
       </c>
       <c r="F105" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G105" t="str">
         <v>一个月前</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B106" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E106" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F106" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G106" t="str">
         <v>一个月前</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>4-9k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E107" t="str">
         <v>1-3年</v>
       </c>
       <c r="F107" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G107" t="str">
         <v>一个月前</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>android讲师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C108" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
@@ -2869,19 +2869,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E109" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F109" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G109" t="str">
         <v>一个月前</v>
@@ -2889,19 +2889,19 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B110" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E110" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F110" t="str">
         <v>本科及以上</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>8-12k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>修齐治平</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E111" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F111" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G111" t="str">
         <v>一个月前</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>android开发工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B112" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州-国基路</v>
+        <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F112" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G112" t="str">
         <v>一个月前</v>
@@ -2958,22 +2958,22 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>8-13k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F113" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G113" t="str">
         <v>一个月前</v>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>安卓开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>浩鲸智能</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F114" t="str">
         <v>本科及以上</v>
@@ -3004,19 +3004,19 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>安卓工程师</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>6-7k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D115" t="str">
         <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F115" t="str">
         <v>大专及以上</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>15-20k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C116" t="str">
-        <v>浩鲸智能</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E116" t="str">
         <v>3-5年</v>
       </c>
       <c r="F116" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G116" t="str">
         <v>一个月前</v>
@@ -3053,36 +3053,36 @@
         <v>安卓工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D117" t="str">
         <v>郑州</v>
       </c>
       <c r="E117" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F117" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G117" t="str">
-        <v>一个月前</v>
+        <v>2021-01-11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>安卓讲师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C118" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E118" t="str">
         <v>3-5年</v>
@@ -3096,19 +3096,19 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓系统工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B119" t="str">
-        <v>8-12k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E119" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F119" t="str">
         <v>本科及以上</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>10-13k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D120" t="str">
         <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F120" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G120" t="str">
         <v>一个月前</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>10-15k·14薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>蓝信科技</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E121" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F121" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G121" t="str">
         <v>一个月前</v>
@@ -3165,16 +3165,16 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>迈特望</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E122" t="str">
         <v>3-5年</v>
@@ -3188,19 +3188,19 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B123" t="str">
-        <v>3-8k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C123" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F123" t="str">
         <v>大专及以上</v>
@@ -3214,10 +3214,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>思维自动化</v>
+        <v>郑州八角信息技术有限公司</v>
       </c>
       <c r="D124" t="str">
         <v>郑州</v>
@@ -3226,30 +3226,30 @@
         <v>1-3年</v>
       </c>
       <c r="F124" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G124" t="str">
-        <v>一个月前</v>
+        <v>2021-01-11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>8-20k·12薪</v>
+        <v>7-8k·12薪</v>
       </c>
       <c r="C125" t="str">
-        <v>刀锋互娱</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G125" t="str">
         <v>一个月前</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓系统工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C126" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E126" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F126" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G126" t="str">
         <v>一个月前</v>
@@ -3283,19 +3283,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6-11k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E127" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F127" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G127" t="str">
         <v>一个月前</v>
@@ -3306,16 +3306,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C128" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F128" t="str">
         <v>统招本科</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B129" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C129" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>迈特望</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-国兴</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E129" t="str">
         <v>3-5年</v>
       </c>
       <c r="F129" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G129" t="str">
         <v>一个月前</v>
@@ -3352,19 +3352,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>7-10k·13薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C130" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E130" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F130" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G130" t="str">
         <v>一个月前</v>
@@ -3375,19 +3375,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>7-10k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C131" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>思维自动化</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F131" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G131" t="str">
         <v>一个月前</v>
@@ -3395,19 +3395,19 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E132" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F132" t="str">
         <v>学历不限</v>
@@ -3418,22 +3418,22 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B133" t="str">
-        <v>3-8k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C133" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E133" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G133" t="str">
         <v>一个月前</v>
@@ -3444,19 +3444,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>5-7k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C134" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E134" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G134" t="str">
         <v>一个月前</v>
@@ -3464,22 +3464,22 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>8-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C135" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E135" t="str">
         <v>3-5年</v>
       </c>
       <c r="F135" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G135" t="str">
         <v>一个月前</v>
@@ -3487,22 +3487,22 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>安卓app开发工程师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>3-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C136" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E136" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F136" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G136" t="str">
         <v>一个月前</v>
@@ -3510,22 +3510,22 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>6-10k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C137" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E137" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F137" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G137" t="str">
         <v>一个月前</v>
@@ -3533,249 +3533,249 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>15-20k·13薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C138" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E138" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F138" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G138" t="str">
-        <v>54分钟前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>web前端开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E139" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F139" t="str">
         <v>学历不限</v>
       </c>
       <c r="G139" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>前端开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>6-10k·13薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C140" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E140" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F140" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G140" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>8-12k·13薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C141" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E141" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F141" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G141" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>测试工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C142" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E142" t="str">
         <v>3-5年</v>
       </c>
       <c r="F142" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G142" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>移动端开发工程师</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>8-17k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C143" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E143" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F143" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G143" t="str">
-        <v>昨天</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>科技公司-移动端开发经理</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B144" t="str">
-        <v>7-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C144" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E144" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F144" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G144" t="str">
-        <v>16小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Java开发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B145" t="str">
-        <v>8-15k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C145" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D145" t="str">
         <v>郑州</v>
       </c>
       <c r="E145" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F145" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G145" t="str">
-        <v>昨天</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Java开发工程师</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C146" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E146" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F146" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G146" t="str">
-        <v>昨天</v>
+        <v>刚刚</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>测试工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C147" t="str">
-        <v>速游</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州-五山</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E147" t="str">
-        <v>一年以下</v>
+        <v>3-5年</v>
       </c>
       <c r="F147" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G147" t="str">
-        <v>23小时前</v>
+        <v>17小时前</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>移动端开发工程师</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B148" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C148" t="str">
-        <v>中原银行</v>
+        <v>速游</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州</v>
+        <v>郑州-五山</v>
       </c>
       <c r="E148" t="str">
-        <v>3-5年</v>
+        <v>一年以下</v>
       </c>
       <c r="F148" t="str">
         <v>本科及以上</v>
@@ -3786,128 +3786,128 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>8-15k·12薪</v>
+        <v>80-100k·12薪</v>
       </c>
       <c r="C149" t="str">
-        <v>正星科技</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D149" t="str">
         <v>郑州</v>
       </c>
       <c r="E149" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F149" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G149" t="str">
-        <v>23小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>高级产品经理</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C150" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E150" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F150" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G150" t="str">
-        <v>昨天</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>移动端资深产品经理</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C151" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E151" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F151" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G151" t="str">
-        <v>昨天</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>80-100k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C152" t="str">
-        <v>全国连锁猎头集团</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E152" t="str">
         <v>3-5年</v>
       </c>
       <c r="F152" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G152" t="str">
-        <v>昨天</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>高级软件工程师</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B153" t="str">
-        <v>6-11k·13薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C153" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
       </c>
       <c r="F153" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G153" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>流媒体系统架构师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C154" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D154" t="str">
         <v>郑州</v>
@@ -3916,24 +3916,24 @@
         <v>5-10年</v>
       </c>
       <c r="F154" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>25-50k·16薪</v>
+        <v>25-40k·12薪</v>
       </c>
       <c r="C155" t="str">
-        <v>全国知名连锁猎头公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E155" t="str">
         <v>3-5年</v>
@@ -3942,274 +3942,274 @@
         <v>本科及以上</v>
       </c>
       <c r="G155" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>UI设计</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B156" t="str">
-        <v>6-9k·12薪</v>
+        <v>10-15k·13薪</v>
       </c>
       <c r="C156" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E156" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F156" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G156" t="str">
-        <v>2021-01-19</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>50-80k·16薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C157" t="str">
-        <v>全国连锁猎头公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D157" t="str">
         <v>郑州</v>
       </c>
       <c r="E157" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F157" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>2021-01-19</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>测试工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>6-12k·14薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C158" t="str">
-        <v>崤云安全</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E158" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F158" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G158" t="str">
-        <v>2021-01-19</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>高级招聘专员</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B159" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>云鸟配送</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E159" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F159" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G159" t="str">
-        <v>2021-01-18</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>系统架构师</v>
+        <v>高级招聘专员</v>
       </c>
       <c r="B160" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C160" t="str">
-        <v>油田咨询</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E160" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F160" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G160" t="str">
-        <v>2021-01-09</v>
+        <v>2021-01-29</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>系统测试工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>5-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>油田咨询</v>
+        <v>爱加密</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E161" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F161" t="str">
-        <v>硕士及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G161" t="str">
-        <v>2021-01-09</v>
+        <v>2021-01-29</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>移动前端开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>9-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C162" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E162" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F162" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G162" t="str">
-        <v>一个月前</v>
+        <v>2021-01-29</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>渗透测试工程师</v>
+        <v>cocos2d-x客户端开发工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>爱加密</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E163" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F163" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G163" t="str">
-        <v>2021-01-05</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>前端工程师</v>
+        <v>（郑州）web前端开发工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>8-13k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>东华软件</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E164" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F164" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G164" t="str">
-        <v>一个月前</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>软件工程师</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B165" t="str">
-        <v>5-11k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C165" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E165" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F165" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G165" t="str">
-        <v>2021-01-04</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>10-20k·12薪</v>
+        <v>12-15k·14薪</v>
       </c>
       <c r="C166" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>某银行股份有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E166" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F166" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G166" t="str">
-        <v>2021-01-04</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>移动前端开发工程师</v>
+        <v>ios</v>
       </c>
       <c r="B167" t="str">
-        <v>3-5k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州</v>
       </c>
       <c r="E167" t="str">
         <v>3-5年</v>
@@ -4218,165 +4218,165 @@
         <v>大专及以上</v>
       </c>
       <c r="G167" t="str">
-        <v>一个月前</v>
+        <v>2021-01-27</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>科技公司-移动端开发经理</v>
       </c>
       <c r="B168" t="str">
-        <v>6-12k·13薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>新开普电子</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E168" t="str">
         <v>3-5年</v>
       </c>
       <c r="F168" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G168" t="str">
-        <v>一个月前</v>
+        <v>2021-01-25</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>手机软件开发工程师</v>
+        <v>流媒体系统架构师</v>
       </c>
       <c r="B169" t="str">
-        <v>6-7k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>深圳市巨龙科教网络有限公司</v>
       </c>
       <c r="D169" t="str">
         <v>郑州</v>
       </c>
       <c r="E169" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F169" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G169" t="str">
-        <v>一个月前</v>
+        <v>2021-01-26</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>app开发工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B170" t="str">
-        <v>8-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>中原银行</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E170" t="str">
         <v>3-5年</v>
       </c>
       <c r="F170" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G170" t="str">
-        <v>一个月前</v>
+        <v>2021-01-25</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B171" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>中原期货</v>
+        <v>正星科技</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E171" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F171" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G171" t="str">
-        <v>2021-01-03</v>
+        <v>2021-01-25</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B172" t="str">
-        <v>8-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E172" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F172" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G172" t="str">
-        <v>一个月前</v>
+        <v>2021-01-25</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>ASO优化师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C173" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E173" t="str">
         <v>3-5年</v>
       </c>
       <c r="F173" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G173" t="str">
-        <v>一个月前</v>
+        <v>2021-01-21</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>app运营主管</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>10-15k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E174" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F174" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G174" t="str">
         <v>一个月前</v>
@@ -4384,59 +4384,59 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>移动开发工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B175" t="str">
-        <v>10-17k·12薪</v>
+        <v>25-50k·16薪</v>
       </c>
       <c r="C175" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>全国知名连锁猎头公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E175" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F175" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G175" t="str">
-        <v>一个月前</v>
+        <v>2021-01-20</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>软件工程师</v>
+        <v>UI设计</v>
       </c>
       <c r="B176" t="str">
-        <v>5-8k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>郑州卓安</v>
+        <v>河南千年国医健康产业集团有限公司</v>
       </c>
       <c r="D176" t="str">
         <v>郑州</v>
       </c>
       <c r="E176" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F176" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G176" t="str">
-        <v>一个月前</v>
+        <v>2021-01-19</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>java开发</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B177" t="str">
-        <v>5-8k·12薪</v>
+        <v>50-80k·16薪</v>
       </c>
       <c r="C177" t="str">
-        <v>郑州卓安</v>
+        <v>全国连锁猎头公司</v>
       </c>
       <c r="D177" t="str">
         <v>郑州</v>
@@ -4445,50 +4445,50 @@
         <v>1-3年</v>
       </c>
       <c r="F177" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G177" t="str">
-        <v>一个月前</v>
+        <v>2021-01-19</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>移动开发工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B178" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C178" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州</v>
       </c>
       <c r="E178" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F178" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G178" t="str">
-        <v>一个月前</v>
+        <v>2021-01-19</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>软件测试工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C179" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E179" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F179" t="str">
         <v>大专及以上</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>APP工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B180" t="str">
-        <v>10-12k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>鲜易控股</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E180" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F180" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G180" t="str">
         <v>一个月前</v>
@@ -4522,42 +4522,42 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>软件工程师（java方向）</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B181" t="str">
-        <v>25-35k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C181" t="str">
-        <v>某知名企业</v>
+        <v>新开普电子</v>
       </c>
       <c r="D181" t="str">
         <v>郑州</v>
       </c>
       <c r="E181" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F181" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G181" t="str">
-        <v>2020-12-31</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>APP推广</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B182" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E182" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F182" t="str">
         <v>大专及以上</v>
@@ -4568,19 +4568,19 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>应用层开发工程师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B183" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D183" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E183" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F183" t="str">
         <v>大专及以上</v>
@@ -4591,22 +4591,22 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>高级前端讲师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B184" t="str">
-        <v>15-30k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>北京千锋互联科技</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E184" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F184" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G184" t="str">
         <v>一个月前</v>
@@ -4614,19 +4614,19 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>app推广经理</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B185" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E185" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F185" t="str">
         <v>大专及以上</v>
@@ -4637,22 +4637,22 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>app运营主管</v>
       </c>
       <c r="B186" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C186" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E186" t="str">
         <v>3-5年</v>
       </c>
       <c r="F186" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G186" t="str">
         <v>一个月前</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>ui设计师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B187" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E187" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F187" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G187" t="str">
         <v>一个月前</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>软件工程师</v>
       </c>
       <c r="B188" t="str">
-        <v>10-15k·13薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C188" t="str">
-        <v>天瑞集团</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E188" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F188" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G188" t="str">
         <v>一个月前</v>
@@ -4706,19 +4706,19 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>渗透测试工程师</v>
+        <v>java开发</v>
       </c>
       <c r="B189" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C189" t="str">
-        <v>爱加密</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E189" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F189" t="str">
         <v>大专及以上</v>
@@ -4729,16 +4729,16 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>C++开发工程师中级</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B190" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D190" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E190" t="str">
         <v>3-5年</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B191" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C191" t="str">
-        <v>天瑞集团</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E191" t="str">
         <v>1-3年</v>
       </c>
       <c r="F191" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G191" t="str">
         <v>一个月前</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>APP运营主管/经理</v>
+        <v>APP工程师</v>
       </c>
       <c r="B192" t="str">
-        <v>10-18k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>鲜易控股</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E192" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F192" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G192" t="str">
         <v>一个月前</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>信息化专员</v>
+        <v>APP推广</v>
       </c>
       <c r="B193" t="str">
-        <v>面议</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>建业新生活</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E193" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F193" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G193" t="str">
         <v>一个月前</v>
@@ -4821,22 +4821,22 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>前端开发工程师</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B194" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>北大软件</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E194" t="str">
         <v>1-3年</v>
       </c>
       <c r="F194" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G194" t="str">
         <v>一个月前</v>
@@ -4844,16 +4844,16 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>java高级工程师</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B195" t="str">
-        <v>10-11k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C195" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E195" t="str">
         <v>5-10年</v>
@@ -4867,22 +4867,22 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>app推广经理</v>
       </c>
       <c r="B196" t="str">
-        <v>10-20k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E196" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F196" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G196" t="str">
         <v>一个月前</v>
@@ -4890,22 +4890,22 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B197" t="str">
-        <v>7-11k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>新开普电子</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D197" t="str">
         <v>郑州</v>
       </c>
       <c r="E197" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F197" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G197" t="str">
         <v>一个月前</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>智能技术开发主管</v>
+        <v>ui设计师</v>
       </c>
       <c r="B198" t="str">
-        <v>面议</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E198" t="str">
-        <v>10年以上</v>
+        <v>1-3年</v>
       </c>
       <c r="F198" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G198" t="str">
         <v>一个月前</v>
@@ -4936,16 +4936,16 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>JAVA开发</v>
+        <v>系统架构师</v>
       </c>
       <c r="B199" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C199" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E199" t="str">
         <v>5-10年</v>
@@ -4959,22 +4959,22 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>java开发工程师</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B200" t="str">
-        <v>7-10k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E200" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F200" t="str">
-        <v>本科及以上</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G200" t="str">
         <v>一个月前</v>
@@ -4982,19 +4982,19 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>软件工程师</v>
       </c>
       <c r="B201" t="str">
-        <v>7-10k·12薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C201" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E201" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F201" t="str">
         <v>大专及以上</v>
@@ -5005,22 +5005,22 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>架构师</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B202" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D202" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E202" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F202" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G202" t="str">
         <v>一个月前</v>
@@ -5028,16 +5028,16 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>ui</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B203" t="str">
-        <v>6-11k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>中原期货</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E203" t="str">
         <v>3-5年</v>
@@ -5051,22 +5051,22 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>中级JAVA开发</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B204" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>正商地产</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E204" t="str">
         <v>3-5年</v>
       </c>
       <c r="F204" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G204" t="str">
         <v>一个月前</v>
@@ -5074,22 +5074,22 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B205" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>埃林哲</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D205" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E205" t="str">
         <v>1-3年</v>
       </c>
       <c r="F205" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G205" t="str">
         <v>一个月前</v>
@@ -5097,22 +5097,22 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>信息化专员</v>
       </c>
       <c r="B206" t="str">
-        <v>10-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C206" t="str">
-        <v>信大捷安</v>
+        <v>建业新生活</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E206" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F206" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G206" t="str">
         <v>一个月前</v>
@@ -5120,19 +5120,19 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>13-25k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>北大软件</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E207" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F207" t="str">
         <v>本科及以上</v>
@@ -5143,19 +5143,19 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>商务助理</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B208" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>河南准澳网络科技有限公司</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E208" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F208" t="str">
         <v>大专及以上</v>
@@ -5166,22 +5166,22 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B209" t="str">
-        <v>13-18k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C209" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D209" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E209" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F209" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G209" t="str">
         <v>一个月前</v>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>产品经理</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B210" t="str">
-        <v>7-12k·13薪</v>
+        <v>面议</v>
       </c>
       <c r="C210" t="str">
-        <v>完美数联(杭州)科技有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E210" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F210" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G210" t="str">
         <v>一个月前</v>
@@ -5212,16 +5212,16 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>UI高级设计师</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B211" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E211" t="str">
         <v>5-10年</v>
@@ -5235,22 +5235,22 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>产品经理</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B212" t="str">
-        <v>8-13k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D212" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E212" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F212" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G212" t="str">
         <v>一个月前</v>
@@ -5258,22 +5258,22 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>维护工程师</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B213" t="str">
-        <v>4-6k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E213" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F213" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G213" t="str">
         <v>一个月前</v>
@@ -5281,22 +5281,22 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>维护助理工程师</v>
+        <v>架构师</v>
       </c>
       <c r="B214" t="str">
-        <v>3-5k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C214" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>郑州东方蓝深信息技术有限公司</v>
       </c>
       <c r="D214" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E214" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F214" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G214" t="str">
         <v>一个月前</v>
@@ -5304,16 +5304,16 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>iOS开发工程师</v>
+        <v>ui</v>
       </c>
       <c r="B215" t="str">
-        <v>14-20k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>浩鲸智能</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D215" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E215" t="str">
         <v>3-5年</v>
@@ -5327,22 +5327,22 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>软件开发</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B216" t="str">
-        <v>15-21k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E216" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F216" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G216" t="str">
         <v>一个月前</v>
@@ -5350,22 +5350,22 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>移动开发工程师</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B217" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C217" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>埃林哲</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E217" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F217" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G217" t="str">
         <v>一个月前</v>
@@ -5373,19 +5373,19 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>软件外包业务经理</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B218" t="str">
-        <v>8-16k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C218" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>信大捷安</v>
       </c>
       <c r="D218" t="str">
         <v>郑州</v>
       </c>
       <c r="E218" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F218" t="str">
         <v>本科及以上</v>
@@ -5396,16 +5396,16 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>产品经理</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B219" t="str">
-        <v>8-13k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C219" t="str">
-        <v>新开普电子</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D219" t="str">
-        <v>郑州</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E219" t="str">
         <v>3-5年</v>
@@ -5419,19 +5419,19 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>产品经理</v>
+        <v>商务助理</v>
       </c>
       <c r="B220" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C220" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南准澳网络科技有限公司</v>
       </c>
       <c r="D220" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E220" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F220" t="str">
         <v>大专及以上</v>
@@ -5442,13 +5442,13 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B221" t="str">
-        <v>10-15k·12薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D221" t="str">
         <v>郑州-建设路</v>
@@ -5457,7 +5457,7 @@
         <v>3-5年</v>
       </c>
       <c r="F221" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G221" t="str">
         <v>一个月前</v>
@@ -5465,22 +5465,22 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>高级软件工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B222" t="str">
-        <v>8-12k·13薪</v>
+        <v>7-12k·13薪</v>
       </c>
       <c r="C222" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>完美数联(杭州)科技有限公司</v>
       </c>
       <c r="D222" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E222" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F222" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G222" t="str">
         <v>一个月前</v>
@@ -5488,19 +5488,19 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B223" t="str">
-        <v>面议</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C223" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D223" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E223" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F223" t="str">
         <v>本科及以上</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>产品经理</v>
       </c>
       <c r="B224" t="str">
         <v>8-13k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>北京千锋互联科技</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D224" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E224" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F224" t="str">
         <v>大专及以上</v>
@@ -5534,22 +5534,22 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>前端工程师</v>
+        <v>维护工程师</v>
       </c>
       <c r="B225" t="str">
-        <v>6-8k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C225" t="str">
-        <v>元丰科技</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D225" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E225" t="str">
         <v>3-5年</v>
       </c>
       <c r="F225" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G225" t="str">
         <v>一个月前</v>
@@ -5557,19 +5557,19 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B226" t="str">
-        <v>15-25k·13薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>朗新科技</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E226" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F226" t="str">
         <v>大专及以上</v>
@@ -5580,13 +5580,13 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B227" t="str">
-        <v>11-20k·13薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>朗新科技</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D227" t="str">
         <v>郑州</v>
@@ -5595,7 +5595,7 @@
         <v>3-5年</v>
       </c>
       <c r="F227" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G227" t="str">
         <v>一个月前</v>
@@ -5603,19 +5603,19 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>售前技术支持</v>
+        <v>软件开发</v>
       </c>
       <c r="B228" t="str">
-        <v>8-10k·12薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>环信</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D228" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E228" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F228" t="str">
         <v>本科及以上</v>
@@ -5626,22 +5626,22 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>java开发工程师助理</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B229" t="str">
-        <v>4-6k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D229" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E229" t="str">
         <v>经验不限</v>
       </c>
       <c r="F229" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G229" t="str">
         <v>一个月前</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>UI设计师</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B230" t="str">
-        <v>4-6k·13薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D230" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E230" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F230" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G230" t="str">
         <v>一个月前</v>
@@ -5672,13 +5672,13 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>PC客户端产品经理</v>
+        <v>产品经理</v>
       </c>
       <c r="B231" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D231" t="str">
         <v>郑州</v>
@@ -5695,19 +5695,19 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>IOS</v>
+        <v>产品经理</v>
       </c>
       <c r="B232" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>郑州时空隧道信息技术有限公司</v>
       </c>
       <c r="D232" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E232" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F232" t="str">
         <v>大专及以上</v>
@@ -5718,19 +5718,19 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B233" t="str">
-        <v>18-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D233" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E233" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F233" t="str">
         <v>大专及以上</v>
@@ -5741,22 +5741,22 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>高级软件测试工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B234" t="str">
-        <v>7-9k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C234" t="str">
-        <v>国际交友</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E234" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F234" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G234" t="str">
         <v>一个月前</v>
@@ -5764,22 +5764,22 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>高级软件测试工程师</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B235" t="str">
-        <v>7-9k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C235" t="str">
-        <v>国际交友</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D235" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E235" t="str">
         <v>3-5年</v>
       </c>
       <c r="F235" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G235" t="str">
         <v>一个月前</v>
@@ -5787,19 +5787,19 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>JAVA开发工程师</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B236" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>地理信息系统</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E236" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F236" t="str">
         <v>大专及以上</v>
@@ -5810,22 +5810,22 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>摄像头调试工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B237" t="str">
-        <v>4-9k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>元丰科技</v>
       </c>
       <c r="D237" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E237" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F237" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G237" t="str">
         <v>一个月前</v>
@@ -5833,22 +5833,22 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B238" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C238" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D238" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E238" t="str">
         <v>3-5年</v>
       </c>
       <c r="F238" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G238" t="str">
         <v>一个月前</v>
@@ -5856,19 +5856,19 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B239" t="str">
-        <v>6-10k·12薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C239" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D239" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E239" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F239" t="str">
         <v>大专及以上</v>
@@ -5879,22 +5879,22 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>cocos开发工程师</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B240" t="str">
-        <v>9-16k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C240" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>环信</v>
       </c>
       <c r="D240" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E240" t="str">
         <v>1-3年</v>
       </c>
       <c r="F240" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G240" t="str">
         <v>一个月前</v>
@@ -5902,22 +5902,22 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>学术经理</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B241" t="str">
-        <v>8-15k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C241" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D241" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E241" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F241" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G241" t="str">
         <v>一个月前</v>
@@ -5925,22 +5925,22 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>IT项目经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B242" t="str">
-        <v>8-10k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C242" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D242" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E242" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F242" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G242" t="str">
         <v>一个月前</v>
@@ -5948,19 +5948,19 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>前端高级讲师</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B243" t="str">
-        <v>10-18k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D243" t="str">
         <v>郑州</v>
       </c>
       <c r="E243" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F243" t="str">
         <v>本科及以上</v>
@@ -5971,22 +5971,22 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>.NET开发工程师</v>
+        <v>IOS</v>
       </c>
       <c r="B244" t="str">
-        <v>4-6k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C244" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D244" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E244" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F244" t="str">
-        <v>中专/中技及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G244" t="str">
         <v>一个月前</v>
@@ -5994,19 +5994,19 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>网页UI设计师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B245" t="str">
-        <v>4-8k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C245" t="str">
-        <v>羲和网络</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D245" t="str">
         <v>郑州</v>
       </c>
       <c r="E245" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F245" t="str">
         <v>大专及以上</v>
@@ -6017,13 +6017,13 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Web前端工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B246" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C246" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D246" t="str">
         <v>郑州</v>
@@ -6040,22 +6040,22 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>检查员</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B247" t="str">
-        <v>3-5k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C247" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D247" t="str">
         <v>郑州-建设路</v>
       </c>
       <c r="E247" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F247" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G247" t="str">
         <v>一个月前</v>
@@ -6063,22 +6063,22 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>督导</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B248" t="str">
-        <v>3-5k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C248" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D248" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E248" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F248" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G248" t="str">
         <v>一个月前</v>
@@ -6086,22 +6086,22 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>游戏项目主程</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B249" t="str">
-        <v>10-12k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C249" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D249" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E249" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F249" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G249" t="str">
         <v>一个月前</v>
@@ -6109,22 +6109,22 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B250" t="str">
-        <v>面议</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C250" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D250" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E250" t="str">
         <v>3-5年</v>
       </c>
       <c r="F250" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G250" t="str">
         <v>一个月前</v>
@@ -6132,22 +6132,22 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B251" t="str">
         <v>6-10k·12薪</v>
       </c>
       <c r="C251" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D251" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E251" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F251" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G251" t="str">
         <v>一个月前</v>
@@ -6155,22 +6155,22 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B252" t="str">
-        <v>6-8k·12薪</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C252" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D252" t="str">
         <v>郑州</v>
       </c>
       <c r="E252" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F252" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G252" t="str">
         <v>一个月前</v>
@@ -6178,16 +6178,16 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>高级APP工程师</v>
+        <v>学术经理</v>
       </c>
       <c r="B253" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C253" t="str">
-        <v>鲜易控股</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D253" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E253" t="str">
         <v>5-10年</v>
@@ -6201,19 +6201,19 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>UI设计师</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B254" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C254" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D254" t="str">
         <v>郑州</v>
       </c>
       <c r="E254" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F254" t="str">
         <v>大专及以上</v>
@@ -6224,22 +6224,22 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>UI设计师</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B255" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C255" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D255" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E255" t="str">
         <v>1-3年</v>
       </c>
       <c r="F255" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G255" t="str">
         <v>一个月前</v>
@@ -6247,22 +6247,22 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>中级软件测试工程师</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B256" t="str">
-        <v>10-14k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C256" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D256" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E256" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F256" t="str">
-        <v>大专及以上</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G256" t="str">
         <v>一个月前</v>
@@ -6270,19 +6270,19 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>UI设计工程师</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B257" t="str">
-        <v>9-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C257" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D257" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E257" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F257" t="str">
         <v>大专及以上</v>
@@ -6293,13 +6293,13 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>产品经理</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B258" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C258" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D258" t="str">
         <v>郑州</v>
@@ -6308,7 +6308,7 @@
         <v>3-5年</v>
       </c>
       <c r="F258" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G258" t="str">
         <v>一个月前</v>
@@ -6316,16 +6316,16 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>Mobile App</v>
+        <v>检查员</v>
       </c>
       <c r="B259" t="str">
-        <v>10-15k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C259" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D259" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E259" t="str">
         <v>经验不限</v>
@@ -6339,22 +6339,22 @@
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>UI/UX developer</v>
+        <v>督导</v>
       </c>
       <c r="B260" t="str">
-        <v>10-15k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C260" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D260" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E260" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F260" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G260" t="str">
         <v>一个月前</v>
@@ -6362,22 +6362,22 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>java软件工程师</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B261" t="str">
-        <v>7-13k·13薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C261" t="str">
-        <v>思维自动化</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D261" t="str">
         <v>郑州</v>
       </c>
       <c r="E261" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F261" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G261" t="str">
         <v>一个月前</v>
@@ -6385,30 +6385,306 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
+        <v>即时通讯研发工程师</v>
+      </c>
+      <c r="B262" t="str">
+        <v>面议</v>
+      </c>
+      <c r="C262" t="str">
+        <v>中移在线服务有限公司</v>
+      </c>
+      <c r="D262" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E262" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F262" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G262" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>产品经理（英语项目）</v>
+      </c>
+      <c r="B263" t="str">
+        <v>6-10k·12薪</v>
+      </c>
+      <c r="C263" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D263" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E263" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F263" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G263" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>产品经理（咿啦看书项目）</v>
+      </c>
+      <c r="B264" t="str">
+        <v>6-8k·12薪</v>
+      </c>
+      <c r="C264" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D264" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E264" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F264" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G264" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>高级APP工程师</v>
+      </c>
+      <c r="B265" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C265" t="str">
+        <v>鲜易控股</v>
+      </c>
+      <c r="D265" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E265" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F265" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G265" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B266" t="str">
+        <v>4-6k·12薪</v>
+      </c>
+      <c r="C266" t="str">
+        <v>河南汉达网络科技有限公司</v>
+      </c>
+      <c r="D266" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E266" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F266" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G266" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B267" t="str">
+        <v>4-6k·12薪</v>
+      </c>
+      <c r="C267" t="str">
+        <v>河南汉达网络科技有限公司</v>
+      </c>
+      <c r="D267" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E267" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F267" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G267" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>中级软件测试工程师</v>
+      </c>
+      <c r="B268" t="str">
+        <v>10-14k·12薪</v>
+      </c>
+      <c r="C268" t="str">
+        <v>上海陆鹰实业有限公司河南分公司</v>
+      </c>
+      <c r="D268" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E268" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F268" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G268" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>UI设计工程师</v>
+      </c>
+      <c r="B269" t="str">
+        <v>9-10k·12薪</v>
+      </c>
+      <c r="C269" t="str">
+        <v>郑州思博科信息技术有限公司</v>
+      </c>
+      <c r="D269" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E269" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F269" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G269" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>产品经理</v>
+      </c>
+      <c r="B270" t="str">
+        <v>8-10k·12薪</v>
+      </c>
+      <c r="C270" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D270" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E270" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F270" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G270" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Mobile App</v>
+      </c>
+      <c r="B271" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C271" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D271" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E271" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F271" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G271" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>UI/UX developer</v>
+      </c>
+      <c r="B272" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C272" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D272" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E272" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F272" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G272" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B273" t="str">
+        <v>7-13k·13薪</v>
+      </c>
+      <c r="C273" t="str">
+        <v>思维自动化</v>
+      </c>
+      <c r="D273" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E273" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F273" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G273" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
         <v>研发工程师</v>
       </c>
-      <c r="B262" t="str">
+      <c r="B274" t="str">
         <v>5-10k·12薪</v>
       </c>
-      <c r="C262" t="str">
+      <c r="C274" t="str">
         <v>河南森源集团有限公司</v>
       </c>
-      <c r="D262" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E262" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F262" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G262" t="str">
+      <c r="D274" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E274" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F274" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G274" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G262"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G274"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G274"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,140 +405,140 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>15-20k·13薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C2" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E2" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F2" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G2" t="str">
-        <v>刚刚</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>资深android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>15-20k·13薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C3" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E3" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F3" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G3" t="str">
-        <v>刚刚</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>安卓android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8-15k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C4" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E4" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F4" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>22小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>10-16k·13薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C5" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E5" t="str">
         <v>3-5年</v>
       </c>
       <c r="F5" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G5" t="str">
-        <v>昨天</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C6" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E6" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F6" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>22小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-16k·13薪</v>
       </c>
       <c r="C7" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G7" t="str">
-        <v>17小时前</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="8">
@@ -561,159 +561,159 @@
         <v>大专及以上</v>
       </c>
       <c r="G8" t="str">
-        <v>2021-02-05</v>
+        <v>17小时前</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>安卓前端（运维、ui设计）</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C9" t="str">
-        <v>某化工企业</v>
+        <v>天迈科技</v>
       </c>
       <c r="D9" t="str">
         <v>郑州</v>
       </c>
       <c r="E9" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F9" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G9" t="str">
-        <v>2021-02-06</v>
+        <v>17小时前</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6-12k·13薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E10" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F10" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G10" t="str">
-        <v>2021-02-05</v>
+        <v>21小时前</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6-12k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F11" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G11" t="str">
-        <v>2021-02-05</v>
+        <v>17小时前</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>10-15k·14薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C12" t="str">
-        <v>天迈科技</v>
+        <v>思维自动化</v>
       </c>
       <c r="D12" t="str">
         <v>郑州</v>
       </c>
       <c r="E12" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F12" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G12" t="str">
-        <v>2021-02-05</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>8-10k·13薪</v>
+        <v>20-35k·12薪</v>
       </c>
       <c r="C13" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E13" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F13" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G13" t="str">
-        <v>2021-02-05</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-南关</v>
+        <v>郑州</v>
       </c>
       <c r="E14" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F14" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G14" t="str">
-        <v>2021-02-05</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B15" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E15" t="str">
         <v>3-5年</v>
@@ -722,18 +722,18 @@
         <v>大专及以上</v>
       </c>
       <c r="G15" t="str">
-        <v>2021-02-05</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C16" t="str">
-        <v>天迈科技</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D16" t="str">
         <v>郑州</v>
@@ -742,240 +742,240 @@
         <v>5-10年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G16" t="str">
-        <v>2021-02-05</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>高级Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B17" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C17" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F17" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G17" t="str">
-        <v>2021-02-04</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>资深android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>15-20k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E18" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F18" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G18" t="str">
-        <v>2021-02-04</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C19" t="str">
-        <v>蓝信科技</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E19" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F19" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G19" t="str">
-        <v>2021-02-04</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>资深安卓开发</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E20" t="str">
         <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G20" t="str">
-        <v>2021-02-04</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>安卓前端（运维、ui设计）</v>
       </c>
       <c r="B21" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>某化工企业</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F21" t="str">
         <v>统招本科</v>
       </c>
       <c r="G21" t="str">
-        <v>刚刚</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>高级android工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>12-18k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>知名软件公司</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F22" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G22" t="str">
-        <v>2021-02-03</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Andriod开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>12-16k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C23" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E23" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F23" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G23" t="str">
-        <v>刚刚</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>android应用开发工程师</v>
+        <v>高级Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>7-11k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C24" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D24" t="str">
         <v>郑州</v>
       </c>
       <c r="E24" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F24" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G24" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Android开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B25" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C25" t="str">
-        <v>UIOT超级智慧家</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D25" t="str">
         <v>郑州</v>
       </c>
       <c r="E25" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F25" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G25" t="str">
-        <v>2021-01-30</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Android系统固件工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B26" t="str">
-        <v>6-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D26" t="str">
         <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F26" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G26" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="27">
@@ -983,22 +983,22 @@
         <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B27" t="str">
-        <v>15-25k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C27" t="str">
         <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E27" t="str">
         <v>5-10年</v>
       </c>
       <c r="F27" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G27" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="28">
@@ -1006,56 +1006,56 @@
         <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B28" t="str">
-        <v>15-25k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C28" t="str">
         <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E28" t="str">
         <v>5-10年</v>
       </c>
       <c r="F28" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G28" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>6-8k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E29" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F29" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G29" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>android</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>6-9k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C30" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D30" t="str">
         <v>郑州</v>
@@ -1064,366 +1064,366 @@
         <v>3-5年</v>
       </c>
       <c r="F30" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G30" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>安卓开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>5-10k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C31" t="str">
-        <v>河南盈北网络科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E31" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F31" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G31" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>android开发工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B32" t="str">
-        <v>5-7k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C32" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F32" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G32" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>12-20k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C33" t="str">
-        <v>缔云科技</v>
+        <v>上市高科技企业</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E33" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F33" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G33" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>软件设计师（安卓、车机）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>30-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州宇通集团-精益达零部件</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D34" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E34" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F34" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G34" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C35" t="str">
-        <v>某大型互联网企业</v>
+        <v>河南峦辉网络科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E35" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F35" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G35" t="str">
-        <v>2021-01-25</v>
+        <v>2021-02-17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>11-17k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C36" t="str">
-        <v>中宝科技</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F36" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G36" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android工程师</v>
+        <v>Android系统固件工程师</v>
       </c>
       <c r="B37" t="str">
         <v>6-10k·12薪</v>
       </c>
       <c r="C37" t="str">
-        <v>河南一九八八网络科技有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G37" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>12-20k·14薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C38" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F38" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G38" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>12-20k·14薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C39" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F39" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G39" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>20-30k·14薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C40" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>缔云科技</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F40" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G40" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Android开发</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>9-13k·12薪</v>
+        <v>11-17k·12薪</v>
       </c>
       <c r="C41" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>中宝科技</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E41" t="str">
         <v>5-10年</v>
       </c>
       <c r="F41" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G41" t="str">
-        <v>2021-01-20</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>安卓开发</v>
+        <v>Android工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C42" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南一九八八网络科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E42" t="str">
         <v>3-5年</v>
       </c>
       <c r="F42" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G42" t="str">
-        <v>2021-01-19</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>15-20k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C43" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E43" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F43" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G43" t="str">
-        <v>2021-01-18</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B44" t="str">
-        <v>6-12k·14薪</v>
+        <v>9-13k·12薪</v>
       </c>
       <c r="C44" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F44" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G44" t="str">
-        <v>2021-01-15</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Android</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B45" t="str">
-        <v>7-10k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C45" t="str">
-        <v>中钢网</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D45" t="str">
         <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F45" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G45" t="str">
-        <v>2021-01-14</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B46" t="str">
-        <v>10-15k·15薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C46" t="str">
-        <v>某大型智能家居公司</v>
+        <v>中钢网</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
@@ -1435,47 +1435,47 @@
         <v>本科及以上</v>
       </c>
       <c r="G46" t="str">
-        <v>2021-01-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C47" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>某大型智能家居公司</v>
       </c>
       <c r="D47" t="str">
         <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F47" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G47" t="str">
-        <v>2021-01-13</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B48" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E48" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F48" t="str">
         <v>本科及以上</v>
@@ -1486,19 +1486,19 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>8-12k·12薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C49" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D49" t="str">
         <v>郑州</v>
       </c>
       <c r="E49" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F49" t="str">
         <v>本科及以上</v>
@@ -1509,16 +1509,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B50" t="str">
-        <v>15-30k·13薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E50" t="str">
         <v>3-5年</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>8-11k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E51" t="str">
         <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G51" t="str">
         <v>一个月前</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>9-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C52" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州</v>
+        <v>郑州-咸嘉湖</v>
       </c>
       <c r="E52" t="str">
         <v>3-5年</v>
       </c>
       <c r="F52" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G52" t="str">
         <v>一个月前</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B53" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-国兴</v>
+        <v>郑州</v>
       </c>
       <c r="E53" t="str">
         <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1604,19 +1604,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-咸嘉湖</v>
+        <v>郑州</v>
       </c>
       <c r="E54" t="str">
         <v>3-5年</v>
       </c>
       <c r="F54" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G54" t="str">
         <v>一个月前</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>高级android工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>10-15k·14薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C55" t="str">
-        <v>上市高科技企业</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-翠苑</v>
       </c>
       <c r="E55" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G55" t="str">
         <v>一个月前</v>
@@ -1647,19 +1647,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>android</v>
       </c>
       <c r="B56" t="str">
-        <v>10-13k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E56" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F56" t="str">
         <v>大专及以上</v>
@@ -1670,16 +1670,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B57" t="str">
-        <v>6-11k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C57" t="str">
-        <v>新开普电子</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E57" t="str">
         <v>3-5年</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>高级android开发工程师</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>9-13k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C58" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-翠苑</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E58" t="str">
         <v>3-5年</v>
       </c>
       <c r="F58" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G58" t="str">
         <v>一个月前</v>
@@ -1719,13 +1719,13 @@
         <v>android</v>
       </c>
       <c r="B59" t="str">
-        <v>8-11k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C59" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E59" t="str">
         <v>1-3年</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android</v>
+        <v>android开发</v>
       </c>
       <c r="B60" t="str">
-        <v>5-9k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>中裕广恒</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E60" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F60" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G60" t="str">
         <v>一个月前</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android app开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B61" t="str">
-        <v>8-15k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C61" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E61" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F61" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G61" t="str">
         <v>一个月前</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B62" t="str">
-        <v>9-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E62" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F62" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G62" t="str">
         <v>一个月前</v>
@@ -1808,22 +1808,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>android开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C63" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E63" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F63" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G63" t="str">
         <v>一个月前</v>
@@ -1831,16 +1831,16 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android开发</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B64" t="str">
-        <v>8-12k·14薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C64" t="str">
-        <v>正商地产</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E64" t="str">
         <v>1-3年</v>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>正商地产</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E65" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F65" t="str">
         <v>本科及以上</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B66" t="str">
         <v>8-10k·12薪</v>
       </c>
       <c r="C66" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E66" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F66" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G66" t="str">
         <v>一个月前</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>Android开发</v>
       </c>
       <c r="B67" t="str">
-        <v>10-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E67" t="str">
         <v>1-3年</v>
       </c>
       <c r="F67" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G67" t="str">
         <v>一个月前</v>
@@ -1923,19 +1923,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B68" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E68" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F68" t="str">
         <v>本科及以上</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android开发工程师岗</v>
+        <v>Android</v>
       </c>
       <c r="B69" t="str">
-        <v>8-10k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E69" t="str">
         <v>3-5年</v>
       </c>
       <c r="F69" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G69" t="str">
         <v>一个月前</v>
@@ -1969,19 +1969,19 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android开发</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>6-10k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E70" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F70" t="str">
         <v>大专及以上</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>Android</v>
       </c>
       <c r="B71" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>超图软件</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E71" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F71" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G71" t="str">
         <v>一个月前</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B72" t="str">
-        <v>15-20k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C72" t="str">
-        <v>浩鲸智能</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E72" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F72" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G72" t="str">
         <v>一个月前</v>
@@ -2038,19 +2038,19 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>7-14k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E73" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F73" t="str">
         <v>大专及以上</v>
@@ -2061,19 +2061,19 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C74" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F74" t="str">
         <v>大专及以上</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>6k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C75" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D75" t="str">
         <v>郑州</v>
       </c>
       <c r="E75" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G75" t="str">
         <v>一个月前</v>
@@ -2110,10 +2110,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>8-16k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D76" t="str">
         <v>郑州-高新区</v>
@@ -2122,7 +2122,7 @@
         <v>1-3年</v>
       </c>
       <c r="F76" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G76" t="str">
         <v>一个月前</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B77" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>汉克时代</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州</v>
+        <v>郑州-中山公园</v>
       </c>
       <c r="E77" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F77" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G77" t="str">
         <v>一个月前</v>
@@ -2153,13 +2153,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android开发工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B78" t="str">
-        <v>8-10k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>崤云信息</v>
       </c>
       <c r="D78" t="str">
         <v>郑州</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>5-10k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C79" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E79" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F79" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G79" t="str">
         <v>一个月前</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>10-15k·12薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>汉克时代</v>
+        <v>京东</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-中山公园</v>
+        <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F80" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G80" t="str">
         <v>一个月前</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B81" t="str">
-        <v>14-18k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>崤云信息</v>
+        <v>比特耐特</v>
       </c>
       <c r="D81" t="str">
         <v>郑州</v>
       </c>
       <c r="E81" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F81" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G81" t="str">
         <v>一个月前</v>
@@ -2245,19 +2245,19 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D82" t="str">
         <v>郑州</v>
       </c>
       <c r="E82" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F82" t="str">
         <v>大专及以上</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B83" t="str">
-        <v>20-40k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>京东</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E83" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F83" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G83" t="str">
         <v>一个月前</v>
@@ -2291,19 +2291,19 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>android开发</v>
       </c>
       <c r="B84" t="str">
-        <v>4-8k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C84" t="str">
-        <v>比特耐特</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E84" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F84" t="str">
         <v>大专及以上</v>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android开发工程师</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>4-8k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>比特耐特</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E85" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F85" t="str">
         <v>大专及以上</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>6-9k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E86" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F86" t="str">
         <v>本科及以上</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android开发</v>
+        <v>Android工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E87" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F87" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G87" t="str">
         <v>一个月前</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android逆向工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C88" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E88" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F88" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G88" t="str">
         <v>一个月前</v>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B89" t="str">
-        <v>14-18k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>崤云安全</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D89" t="str">
         <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F89" t="str">
         <v>本科及以上</v>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android工程师</v>
+        <v>Android</v>
       </c>
       <c r="B90" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E90" t="str">
         <v>1-3年</v>
       </c>
       <c r="F90" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G90" t="str">
         <v>一个月前</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B91" t="str">
-        <v>8-12k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E91" t="str">
         <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G91" t="str">
         <v>一个月前</v>
@@ -2478,19 +2478,19 @@
         <v>Android</v>
       </c>
       <c r="B92" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E92" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G92" t="str">
         <v>一个月前</v>
@@ -2501,19 +2501,19 @@
         <v>Android</v>
       </c>
       <c r="B93" t="str">
-        <v>8-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州</v>
       </c>
       <c r="E93" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F93" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G93" t="str">
         <v>一个月前</v>
@@ -2521,19 +2521,19 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>华英农业</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E94" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F94" t="str">
         <v>大专及以上</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州</v>
       </c>
       <c r="E95" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F95" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G95" t="str">
         <v>一个月前</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Android</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E96" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F96" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G96" t="str">
         <v>一个月前</v>
@@ -2590,19 +2590,19 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B97" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E97" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F97" t="str">
         <v>大专及以上</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Android开发工程师</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E98" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F98" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G98" t="str">
         <v>一个月前</v>
@@ -2636,16 +2636,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B99" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E99" t="str">
         <v>1-3年</v>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B100" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C100" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F101" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G101" t="str">
         <v>一个月前</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android开发</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E102" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F102" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G102" t="str">
         <v>一个月前</v>
@@ -2728,19 +2728,19 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>网道咨询</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E103" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F103" t="str">
         <v>大专及以上</v>
@@ -2754,10 +2754,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>8-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
@@ -2766,7 +2766,7 @@
         <v>1-3年</v>
       </c>
       <c r="F104" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G104" t="str">
         <v>一个月前</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>6-13k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C105" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E105" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F105" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G105" t="str">
         <v>一个月前</v>
@@ -2797,13 +2797,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州-郑东新区</v>
@@ -2823,19 +2823,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>华英农业</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E107" t="str">
         <v>1-3年</v>
       </c>
       <c r="F107" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G107" t="str">
         <v>一个月前</v>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C108" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E108" t="str">
         <v>1-3年</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android开发工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B109" t="str">
-        <v>7-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E109" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F109" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G109" t="str">
         <v>一个月前</v>
@@ -2892,13 +2892,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E110" t="str">
         <v>1-3年</v>
@@ -2915,16 +2915,16 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>4-9k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E111" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F111" t="str">
         <v>本科及以上</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>android讲师</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B112" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F112" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G112" t="str">
         <v>一个月前</v>
@@ -2961,19 +2961,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E113" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G113" t="str">
         <v>一个月前</v>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B114" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E114" t="str">
         <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G114" t="str">
         <v>一个月前</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B115" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>修齐治平</v>
+        <v>云涌科技</v>
       </c>
       <c r="D115" t="str">
         <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F115" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G115" t="str">
         <v>一个月前</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C116" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E116" t="str">
         <v>3-5年</v>
       </c>
       <c r="F116" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G116" t="str">
         <v>一个月前</v>
@@ -3050,25 +3050,25 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B117" t="str">
-        <v>8-12k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>云涌科技</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E117" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F117" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G117" t="str">
-        <v>2021-01-11</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="118">
@@ -3076,16 +3076,16 @@
         <v>安卓工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>8-13k·13薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E118" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F118" t="str">
         <v>大专及以上</v>
@@ -3096,19 +3096,19 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓开发</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>12-20k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C119" t="str">
         <v>浩鲸智能</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E119" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F119" t="str">
         <v>本科及以上</v>
@@ -3122,16 +3122,16 @@
         <v>安卓工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>6-7k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D120" t="str">
         <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F120" t="str">
         <v>大专及以上</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>安卓工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B121" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>浩鲸智能</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E121" t="str">
         <v>3-5年</v>
       </c>
       <c r="F121" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G121" t="str">
         <v>一个月前</v>
@@ -3165,19 +3165,19 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州</v>
       </c>
       <c r="E122" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F122" t="str">
         <v>大专及以上</v>
@@ -3188,19 +3188,19 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>安卓讲师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C123" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>郑州八角信息技术有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F123" t="str">
         <v>大专及以上</v>
@@ -3214,22 +3214,22 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-8k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>郑州八角信息技术有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E124" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F124" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G124" t="str">
-        <v>2021-01-11</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="125">
@@ -3237,19 +3237,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>7-8k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C125" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D125" t="str">
         <v>郑州</v>
       </c>
       <c r="E125" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F125" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G125" t="str">
         <v>一个月前</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓系统工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C126" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F126" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G126" t="str">
         <v>一个月前</v>
@@ -3283,19 +3283,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>10-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>迈特望</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E127" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G127" t="str">
         <v>一个月前</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>10-15k·14薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C128" t="str">
-        <v>蓝信科技</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E128" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F128" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G128" t="str">
         <v>一个月前</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B129" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C129" t="str">
-        <v>迈特望</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E129" t="str">
         <v>3-5年</v>
       </c>
       <c r="F129" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G129" t="str">
         <v>一个月前</v>
@@ -3352,16 +3352,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>3-8k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C130" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E130" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F130" t="str">
         <v>大专及以上</v>
@@ -3375,16 +3375,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C131" t="str">
-        <v>思维自动化</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E131" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F131" t="str">
         <v>统招本科</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>安卓逆向工程师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>8-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E132" t="str">
         <v>3-5年</v>
       </c>
       <c r="F132" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G132" t="str">
         <v>一个月前</v>
@@ -3418,25 +3418,25 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>7-10k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C133" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>河南盈北网络科技有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F133" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G133" t="str">
-        <v>一个月前</v>
+        <v>2021-01-27</v>
       </c>
     </row>
     <row r="134">
@@ -3444,19 +3444,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>6-11k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C134" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E134" t="str">
         <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G134" t="str">
         <v>一个月前</v>
@@ -3467,19 +3467,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C135" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E135" t="str">
         <v>3-5年</v>
       </c>
       <c r="F135" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G135" t="str">
         <v>一个月前</v>
@@ -3487,22 +3487,22 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C136" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E136" t="str">
         <v>3-5年</v>
       </c>
       <c r="F136" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G136" t="str">
         <v>一个月前</v>
@@ -3519,7 +3519,7 @@
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E137" t="str">
         <v>3-5年</v>
@@ -3536,16 +3536,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>7-10k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C138" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E138" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F138" t="str">
         <v>学历不限</v>
@@ -3559,19 +3559,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>6-8k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E139" t="str">
         <v>经验不限</v>
       </c>
       <c r="F139" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G139" t="str">
         <v>一个月前</v>
@@ -3582,16 +3582,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>3-8k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C140" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E140" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F140" t="str">
         <v>本科及以上</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>安卓开发工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>5-7k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C141" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E141" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G141" t="str">
         <v>一个月前</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>8-15k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C142" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E142" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F142" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G142" t="str">
         <v>一个月前</v>
@@ -3694,200 +3694,200 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>软件设计师（安卓、车机）</v>
       </c>
       <c r="B145" t="str">
-        <v>5-10k·12薪</v>
+        <v>30-40k·12薪</v>
       </c>
       <c r="C145" t="str">
-        <v>超图软件</v>
+        <v>郑州宇通集团-精益达零部件</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E145" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F145" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G145" t="str">
-        <v>4小时前</v>
+        <v>2021-01-26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C146" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E146" t="str">
         <v>5-10年</v>
       </c>
       <c r="F146" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G146" t="str">
-        <v>刚刚</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>测试工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C147" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E147" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F147" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G147" t="str">
-        <v>17小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>移动开发技术经理</v>
       </c>
       <c r="B148" t="str">
-        <v>10-20k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C148" t="str">
-        <v>速游</v>
+        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州-五山</v>
+        <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>一年以下</v>
+        <v>5-10年</v>
       </c>
       <c r="F148" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G148" t="str">
-        <v>17小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>App运营推广专员</v>
       </c>
       <c r="B149" t="str">
-        <v>80-100k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C149" t="str">
-        <v>全国连锁猎头集团</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D149" t="str">
         <v>郑州</v>
       </c>
       <c r="E149" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F149" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G149" t="str">
-        <v>昨天</v>
+        <v>52分钟前</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>web前端开发工程师</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C150" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E150" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F150" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G150" t="str">
-        <v>2021-02-05</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>前端开发工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>6-10k·13薪</v>
+        <v>80-100k·12薪</v>
       </c>
       <c r="C151" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E151" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F151" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G151" t="str">
-        <v>2021-02-05</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>技术经理（移动端负责人）</v>
       </c>
       <c r="B152" t="str">
-        <v>8-12k·13薪</v>
+        <v>15-25k·14薪</v>
       </c>
       <c r="C152" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D152" t="str">
         <v>郑州-中原区</v>
       </c>
       <c r="E152" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F152" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G152" t="str">
-        <v>2021-02-05</v>
+        <v>19小时前</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>APP运营主管/经理</v>
+        <v>技术经理</v>
       </c>
       <c r="B153" t="str">
-        <v>10-18k·12薪</v>
+        <v>18-23k·14薪</v>
       </c>
       <c r="C153" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>某大型游戏陪玩公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
@@ -3896,18 +3896,18 @@
         <v>大专及以上</v>
       </c>
       <c r="G153" t="str">
-        <v>2021-02-05</v>
+        <v>20小时前</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>移动端开发工程师</v>
+        <v>移动端技术经理</v>
       </c>
       <c r="B154" t="str">
-        <v>8-17k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C154" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>某一线互联网公司</v>
       </c>
       <c r="D154" t="str">
         <v>郑州</v>
@@ -3916,113 +3916,113 @@
         <v>5-10年</v>
       </c>
       <c r="F154" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>2021-02-01</v>
+        <v>20小时前</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>前端工程师</v>
+        <v>移动端负责人</v>
       </c>
       <c r="B155" t="str">
-        <v>25-40k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C155" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E155" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F155" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G155" t="str">
-        <v>2021-02-01</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B156" t="str">
-        <v>10-15k·13薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C156" t="str">
-        <v>天瑞集团</v>
+        <v>速游</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-五山</v>
       </c>
       <c r="E156" t="str">
-        <v>3-5年</v>
+        <v>一年以下</v>
       </c>
       <c r="F156" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G156" t="str">
-        <v>2021-02-01</v>
+        <v>17小时前</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Java开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>8-15k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C157" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>恩普特</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E157" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F157" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G157" t="str">
-        <v>2021-02-01</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Java开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C158" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>郑州汉鑫电子科技有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E158" t="str">
         <v>3-5年</v>
       </c>
       <c r="F158" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G158" t="str">
-        <v>2021-02-01</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>ios</v>
       </c>
       <c r="B159" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D159" t="str">
         <v>郑州</v>
@@ -4031,125 +4031,125 @@
         <v>3-5年</v>
       </c>
       <c r="F159" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G159" t="str">
-        <v>2021-02-01</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>高级招聘专员</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C160" t="str">
-        <v>云鸟配送</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E160" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F160" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G160" t="str">
-        <v>2021-01-29</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>渗透测试工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>6-10k·12薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C161" t="str">
-        <v>爱加密</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E161" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F161" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G161" t="str">
-        <v>2021-01-29</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>渗透测试工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C162" t="str">
-        <v>爱加密</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E162" t="str">
         <v>3-5年</v>
       </c>
       <c r="F162" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G162" t="str">
-        <v>2021-01-29</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>cocos2d-x客户端开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B163" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E163" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F163" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G163" t="str">
-        <v>2021-01-28</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>（郑州）web前端开发工程师</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B164" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>东华软件</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E164" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F164" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G164" t="str">
-        <v>2021-01-28</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="165">
@@ -4172,90 +4172,90 @@
         <v>本科及以上</v>
       </c>
       <c r="G165" t="str">
-        <v>2021-01-28</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B166" t="str">
-        <v>12-15k·14薪</v>
+        <v>7-15k·13薪</v>
       </c>
       <c r="C166" t="str">
-        <v>某银行股份有限公司</v>
+        <v>完美数联</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E166" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F166" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G166" t="str">
-        <v>2021-01-28</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>ios</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>6-9k·12薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D167" t="str">
         <v>郑州</v>
       </c>
       <c r="E167" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F167" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G167" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>科技公司-移动端开发经理</v>
+        <v>UI设计</v>
       </c>
       <c r="B168" t="str">
-        <v>7-12k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>河南千年国医健康产业集团有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E168" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F168" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G168" t="str">
-        <v>2021-01-25</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>流媒体系统架构师</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>15-20k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C169" t="str">
-        <v>深圳市巨龙科教网络有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E169" t="str">
         <v>5-10年</v>
@@ -4264,90 +4264,90 @@
         <v>统招本科</v>
       </c>
       <c r="G169" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>移动端开发工程师</v>
+        <v>google广告优化师</v>
       </c>
       <c r="B170" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C170" t="str">
-        <v>中原银行</v>
+        <v>河南国超电子商务有限公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E170" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F170" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G170" t="str">
-        <v>2021-01-25</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B171" t="str">
-        <v>8-15k·12薪</v>
+        <v>10-15k·13薪</v>
       </c>
       <c r="C171" t="str">
-        <v>正星科技</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E171" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F171" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G171" t="str">
-        <v>2021-01-25</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>高级产品经理</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>刀锋互娱</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D172" t="str">
         <v>郑州</v>
       </c>
       <c r="E172" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F172" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G172" t="str">
-        <v>2021-01-25</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>高级软件工程师</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>6-11k·13薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C173" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E173" t="str">
         <v>3-5年</v>
@@ -4356,44 +4356,44 @@
         <v>本科及以上</v>
       </c>
       <c r="G173" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>移动前端开发工程师</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B174" t="str">
-        <v>9-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>中原期货</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E174" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F174" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G174" t="str">
-        <v>一个月前</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>科技公司-移动端开发经理</v>
       </c>
       <c r="B175" t="str">
-        <v>25-50k·16薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C175" t="str">
-        <v>全国知名连锁猎头公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E175" t="str">
         <v>3-5年</v>
@@ -4402,205 +4402,205 @@
         <v>本科及以上</v>
       </c>
       <c r="G175" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>UI设计</v>
+        <v>APP推广</v>
       </c>
       <c r="B176" t="str">
-        <v>6-9k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E176" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F176" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G176" t="str">
-        <v>2021-01-19</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>APP运行维护</v>
       </c>
       <c r="B177" t="str">
-        <v>50-80k·16薪</v>
+        <v>20-30k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>全国连锁猎头公司</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D177" t="str">
         <v>郑州</v>
       </c>
       <c r="E177" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F177" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G177" t="str">
-        <v>2021-01-19</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>测试工程师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B178" t="str">
-        <v>6-12k·14薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>崤云安全</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D178" t="str">
         <v>郑州</v>
       </c>
       <c r="E178" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F178" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G178" t="str">
-        <v>2021-01-19</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>前端工程师</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B179" t="str">
-        <v>8-13k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E179" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F179" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G179" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>移动前端开发工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B180" t="str">
-        <v>3-5k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>中原银行</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州</v>
       </c>
       <c r="E180" t="str">
         <v>3-5年</v>
       </c>
       <c r="F180" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G180" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B181" t="str">
-        <v>6-12k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>新开普电子</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E181" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F181" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G181" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>手机软件开发工程师</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B182" t="str">
-        <v>6-7k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州</v>
+        <v>郑州-来广营</v>
       </c>
       <c r="E182" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F182" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G182" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>app开发工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B183" t="str">
-        <v>8-12k·12薪</v>
+        <v>50-80k·16薪</v>
       </c>
       <c r="C183" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>全国连锁猎头公司</v>
       </c>
       <c r="D183" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F183" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G183" t="str">
-        <v>一个月前</v>
+        <v>2021-02-16</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B184" t="str">
-        <v>8-10k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>超图软件</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E184" t="str">
         <v>1-3年</v>
@@ -4609,21 +4609,21 @@
         <v>本科及以上</v>
       </c>
       <c r="G184" t="str">
-        <v>一个月前</v>
+        <v>2021-02-09</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>ASO优化师</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B185" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E185" t="str">
         <v>3-5年</v>
@@ -4632,27 +4632,27 @@
         <v>大专及以上</v>
       </c>
       <c r="G185" t="str">
-        <v>一个月前</v>
+        <v>2021-02-05</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>app运营主管</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B186" t="str">
-        <v>10-15k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C186" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E186" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F186" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G186" t="str">
         <v>一个月前</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>移动开发工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B187" t="str">
-        <v>10-17k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C187" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E187" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F187" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G187" t="str">
         <v>一个月前</v>
@@ -4683,19 +4683,19 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>软件工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B188" t="str">
-        <v>5-8k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C188" t="str">
-        <v>郑州卓安</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E188" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F188" t="str">
         <v>大专及以上</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>java开发</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B189" t="str">
-        <v>5-8k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C189" t="str">
-        <v>郑州卓安</v>
+        <v>新开普电子</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州</v>
       </c>
       <c r="E189" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F189" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G189" t="str">
         <v>一个月前</v>
@@ -4729,22 +4729,22 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>移动开发工程师</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B190" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D190" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州</v>
       </c>
       <c r="E190" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F190" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G190" t="str">
         <v>一个月前</v>
@@ -4752,19 +4752,19 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>软件测试工程师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B191" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C191" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E191" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F191" t="str">
         <v>大专及以上</v>
@@ -4775,68 +4775,68 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>APP工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B192" t="str">
-        <v>10-12k·12薪</v>
+        <v>25-40k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>鲜易控股</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E192" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F192" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G192" t="str">
-        <v>一个月前</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>APP推广</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B193" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E193" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F193" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G193" t="str">
-        <v>一个月前</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>应用层开发工程师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B194" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E194" t="str">
         <v>1-3年</v>
       </c>
       <c r="F194" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G194" t="str">
         <v>一个月前</v>
@@ -4844,19 +4844,19 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>高级前端讲师</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B195" t="str">
-        <v>15-30k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C195" t="str">
-        <v>北京千锋互联科技</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E195" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F195" t="str">
         <v>大专及以上</v>
@@ -4867,22 +4867,22 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>app推广经理</v>
+        <v>app运营主管</v>
       </c>
       <c r="B196" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E196" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F196" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G196" t="str">
         <v>一个月前</v>
@@ -4890,22 +4890,22 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B197" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D197" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E197" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F197" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G197" t="str">
         <v>一个月前</v>
@@ -4913,13 +4913,13 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>ui设计师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B198" t="str">
-        <v>4-8k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D198" t="str">
         <v>郑州-紫荆山</v>
@@ -4936,22 +4936,22 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>系统架构师</v>
+        <v>java开发</v>
       </c>
       <c r="B199" t="str">
-        <v>15-25k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C199" t="str">
-        <v>油田咨询</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E199" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F199" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G199" t="str">
         <v>一个月前</v>
@@ -4959,22 +4959,22 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>系统测试工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B200" t="str">
-        <v>5-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>油田咨询</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E200" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F200" t="str">
-        <v>硕士及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G200" t="str">
         <v>一个月前</v>
@@ -4982,13 +4982,13 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>软件工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B201" t="str">
-        <v>5-11k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D201" t="str">
         <v>郑州-高新区</v>
@@ -5005,22 +5005,22 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>APP工程师</v>
       </c>
       <c r="B202" t="str">
-        <v>10-20k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>鲜易控股</v>
       </c>
       <c r="D202" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E202" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F202" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G202" t="str">
         <v>一个月前</v>
@@ -5028,114 +5028,114 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>cocos2d-x客户端开发工程师</v>
       </c>
       <c r="B203" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>中原期货</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E203" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F203" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G203" t="str">
-        <v>一个月前</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>C++开发工程师中级</v>
+        <v>高级招聘专员</v>
       </c>
       <c r="B204" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E204" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F204" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G204" t="str">
-        <v>一个月前</v>
+        <v>2021-01-29</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B205" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>天瑞集团</v>
+        <v>爱加密</v>
       </c>
       <c r="D205" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E205" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F205" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G205" t="str">
-        <v>一个月前</v>
+        <v>2021-01-29</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>信息化专员</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B206" t="str">
-        <v>面议</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>建业新生活</v>
+        <v>爱加密</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E206" t="str">
         <v>3-5年</v>
       </c>
       <c r="F206" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G206" t="str">
-        <v>一个月前</v>
+        <v>2021-01-29</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>前端开发工程师</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>北大软件</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E207" t="str">
         <v>1-3年</v>
       </c>
       <c r="F207" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G207" t="str">
         <v>一个月前</v>
@@ -5143,16 +5143,16 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>java高级工程师</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B208" t="str">
-        <v>10-11k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E208" t="str">
         <v>5-10年</v>
@@ -5166,22 +5166,22 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>app推广经理</v>
       </c>
       <c r="B209" t="str">
-        <v>7-11k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C209" t="str">
-        <v>新开普电子</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D209" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E209" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F209" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G209" t="str">
         <v>一个月前</v>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>智能技术开发主管</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B210" t="str">
-        <v>面议</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C210" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E210" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F210" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G210" t="str">
         <v>一个月前</v>
@@ -5212,22 +5212,22 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>JAVA开发</v>
+        <v>ui设计师</v>
       </c>
       <c r="B211" t="str">
-        <v>8-13k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E211" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F211" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G211" t="str">
         <v>一个月前</v>
@@ -5235,62 +5235,62 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>java开发工程师</v>
+        <v>（郑州）web前端开发工程师</v>
       </c>
       <c r="B212" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>东华软件</v>
       </c>
       <c r="D212" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E212" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F212" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G212" t="str">
-        <v>一个月前</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B213" t="str">
-        <v>7-10k·12薪</v>
+        <v>12-15k·14薪</v>
       </c>
       <c r="C213" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>某银行股份有限公司</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E213" t="str">
         <v>5-10年</v>
       </c>
       <c r="F213" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G213" t="str">
-        <v>一个月前</v>
+        <v>2021-01-28</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>架构师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B214" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C214" t="str">
-        <v>郑州东方蓝深信息技术有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D214" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E214" t="str">
         <v>5-10年</v>
@@ -5304,19 +5304,19 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>ui</v>
+        <v>系统架构师</v>
       </c>
       <c r="B215" t="str">
-        <v>6-11k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D215" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E215" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F215" t="str">
         <v>本科及以上</v>
@@ -5327,22 +5327,22 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>中级JAVA开发</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B216" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>正商地产</v>
+        <v>油田咨询</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E216" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F216" t="str">
-        <v>统招本科</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G216" t="str">
         <v>一个月前</v>
@@ -5350,22 +5350,22 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B217" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C217" t="str">
-        <v>埃林哲</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E217" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F217" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G217" t="str">
         <v>一个月前</v>
@@ -5373,19 +5373,19 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B218" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C218" t="str">
-        <v>信大捷安</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D218" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E218" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F218" t="str">
         <v>本科及以上</v>
@@ -5396,22 +5396,22 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>信息化专员</v>
       </c>
       <c r="B219" t="str">
-        <v>13-25k·13薪</v>
+        <v>面议</v>
       </c>
       <c r="C219" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>建业新生活</v>
       </c>
       <c r="D219" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E219" t="str">
         <v>3-5年</v>
       </c>
       <c r="F219" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G219" t="str">
         <v>一个月前</v>
@@ -5419,13 +5419,13 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>商务助理</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B220" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C220" t="str">
-        <v>河南准澳网络科技有限公司</v>
+        <v>北大软件</v>
       </c>
       <c r="D220" t="str">
         <v>郑州-郑东新区</v>
@@ -5434,7 +5434,7 @@
         <v>1-3年</v>
       </c>
       <c r="F220" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G220" t="str">
         <v>一个月前</v>
@@ -5442,22 +5442,22 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B221" t="str">
-        <v>13-18k·12薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D221" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E221" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F221" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G221" t="str">
         <v>一个月前</v>
@@ -5465,22 +5465,22 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>产品经理</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B222" t="str">
-        <v>7-12k·13薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C222" t="str">
-        <v>完美数联(杭州)科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D222" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E222" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F222" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G222" t="str">
         <v>一个月前</v>
@@ -5488,19 +5488,19 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>UI高级设计师</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B223" t="str">
-        <v>10-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C223" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D223" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E223" t="str">
-        <v>5-10年</v>
+        <v>10年以上</v>
       </c>
       <c r="F223" t="str">
         <v>本科及以上</v>
@@ -5511,22 +5511,22 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>产品经理</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B224" t="str">
         <v>8-13k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D224" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E224" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F224" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G224" t="str">
         <v>一个月前</v>
@@ -5534,16 +5534,16 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>维护工程师</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B225" t="str">
-        <v>4-6k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C225" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D225" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E225" t="str">
         <v>3-5年</v>
@@ -5557,19 +5557,19 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>维护助理工程师</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B226" t="str">
-        <v>3-5k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E226" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F226" t="str">
         <v>大专及以上</v>
@@ -5580,19 +5580,19 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>iOS开发工程师</v>
+        <v>架构师</v>
       </c>
       <c r="B227" t="str">
-        <v>14-20k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>浩鲸智能</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D227" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E227" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F227" t="str">
         <v>本科及以上</v>
@@ -5603,19 +5603,19 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>软件开发</v>
+        <v>ui</v>
       </c>
       <c r="B228" t="str">
-        <v>15-21k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D228" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E228" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F228" t="str">
         <v>本科及以上</v>
@@ -5626,22 +5626,22 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>移动开发工程师</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B229" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D229" t="str">
-        <v>郑州</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E229" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F229" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G229" t="str">
         <v>一个月前</v>
@@ -5649,19 +5649,19 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>软件外包业务经理</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B230" t="str">
-        <v>8-16k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>埃林哲</v>
       </c>
       <c r="D230" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E230" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F230" t="str">
         <v>本科及以上</v>
@@ -5672,19 +5672,19 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>产品经理</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B231" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>新开普电子</v>
+        <v>信大捷安</v>
       </c>
       <c r="D231" t="str">
         <v>郑州</v>
       </c>
       <c r="E231" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F231" t="str">
         <v>本科及以上</v>
@@ -5695,19 +5695,19 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>产品经理</v>
+        <v>商务助理</v>
       </c>
       <c r="B232" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>郑州时空隧道信息技术有限公司</v>
+        <v>河南准澳网络科技有限公司</v>
       </c>
       <c r="D232" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E232" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F232" t="str">
         <v>大专及以上</v>
@@ -5718,13 +5718,13 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B233" t="str">
-        <v>10-15k·12薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D233" t="str">
         <v>郑州-建设路</v>
@@ -5733,7 +5733,7 @@
         <v>3-5年</v>
       </c>
       <c r="F233" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G233" t="str">
         <v>一个月前</v>
@@ -5741,16 +5741,16 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>高级软件工程师</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B234" t="str">
-        <v>8-12k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C234" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E234" t="str">
         <v>5-10年</v>
@@ -5764,16 +5764,16 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>维护工程师</v>
       </c>
       <c r="B235" t="str">
-        <v>面议</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D235" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E235" t="str">
         <v>3-5年</v>
@@ -5787,19 +5787,19 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B236" t="str">
-        <v>8-13k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>北京千锋互联科技</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E236" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F236" t="str">
         <v>大专及以上</v>
@@ -5810,22 +5810,22 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>前端工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B237" t="str">
-        <v>6-8k·12薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>元丰科技</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D237" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E237" t="str">
         <v>3-5年</v>
       </c>
       <c r="F237" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G237" t="str">
         <v>一个月前</v>
@@ -5833,22 +5833,22 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>软件开发</v>
       </c>
       <c r="B238" t="str">
-        <v>15-25k·13薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C238" t="str">
-        <v>朗新科技</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D238" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E238" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F238" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G238" t="str">
         <v>一个月前</v>
@@ -5856,22 +5856,22 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B239" t="str">
-        <v>11-20k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C239" t="str">
-        <v>朗新科技</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D239" t="str">
         <v>郑州</v>
       </c>
       <c r="E239" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F239" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G239" t="str">
         <v>一个月前</v>
@@ -5879,19 +5879,19 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>售前技术支持</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B240" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C240" t="str">
-        <v>环信</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D240" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E240" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F240" t="str">
         <v>本科及以上</v>
@@ -5902,22 +5902,22 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>java开发工程师助理</v>
+        <v>产品经理</v>
       </c>
       <c r="B241" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C241" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D241" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E241" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F241" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G241" t="str">
         <v>一个月前</v>
@@ -5925,22 +5925,22 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>UI设计师</v>
+        <v>产品经理</v>
       </c>
       <c r="B242" t="str">
-        <v>4-6k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C242" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D242" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E242" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F242" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G242" t="str">
         <v>一个月前</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>PC客户端产品经理</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B243" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D243" t="str">
-        <v>郑州</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E243" t="str">
         <v>3-5年</v>
       </c>
       <c r="F243" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G243" t="str">
         <v>一个月前</v>
@@ -5971,22 +5971,22 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>IOS</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B244" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C244" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D244" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E244" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F244" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G244" t="str">
         <v>一个月前</v>
@@ -5994,22 +5994,22 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B245" t="str">
-        <v>18-25k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C245" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D245" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E245" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F245" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G245" t="str">
         <v>一个月前</v>
@@ -6017,19 +6017,19 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>高级软件测试工程师</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B246" t="str">
-        <v>7-9k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C246" t="str">
-        <v>国际交友</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D246" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E246" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F246" t="str">
         <v>大专及以上</v>
@@ -6040,16 +6040,16 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>高级软件测试工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B247" t="str">
-        <v>7-9k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C247" t="str">
-        <v>国际交友</v>
+        <v>元丰科技</v>
       </c>
       <c r="D247" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E247" t="str">
         <v>3-5年</v>
@@ -6063,16 +6063,16 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>JAVA开发工程师</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B248" t="str">
-        <v>6-8k·12薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C248" t="str">
-        <v>地理信息系统</v>
+        <v>朗新科技</v>
       </c>
       <c r="D248" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E248" t="str">
         <v>3-5年</v>
@@ -6086,22 +6086,22 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>摄像头调试工程师</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B249" t="str">
-        <v>4-9k·12薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C249" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D249" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E249" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F249" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G249" t="str">
         <v>一个月前</v>
@@ -6109,19 +6109,19 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B250" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C250" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>环信</v>
       </c>
       <c r="D250" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E250" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F250" t="str">
         <v>本科及以上</v>
@@ -6132,19 +6132,19 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B251" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C251" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D251" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E251" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F251" t="str">
         <v>大专及以上</v>
@@ -6155,19 +6155,19 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>cocos开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B252" t="str">
-        <v>9-16k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C252" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D252" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E252" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F252" t="str">
         <v>学历不限</v>
@@ -6178,19 +6178,19 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>学术经理</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B253" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C253" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D253" t="str">
         <v>郑州</v>
       </c>
       <c r="E253" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F253" t="str">
         <v>本科及以上</v>
@@ -6201,19 +6201,19 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>IT项目经理</v>
+        <v>IOS</v>
       </c>
       <c r="B254" t="str">
-        <v>8-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C254" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D254" t="str">
         <v>郑州</v>
       </c>
       <c r="E254" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F254" t="str">
         <v>大专及以上</v>
@@ -6224,22 +6224,22 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>前端高级讲师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B255" t="str">
-        <v>10-18k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C255" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D255" t="str">
         <v>郑州</v>
       </c>
       <c r="E255" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F255" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G255" t="str">
         <v>一个月前</v>
@@ -6247,22 +6247,22 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>.NET开发工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B256" t="str">
-        <v>4-6k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C256" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D256" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E256" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F256" t="str">
-        <v>中专/中技及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G256" t="str">
         <v>一个月前</v>
@@ -6270,19 +6270,19 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>网页UI设计师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B257" t="str">
-        <v>4-8k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C257" t="str">
-        <v>羲和网络</v>
+        <v>国际交友</v>
       </c>
       <c r="D257" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E257" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F257" t="str">
         <v>大专及以上</v>
@@ -6293,16 +6293,16 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>Web前端工程师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B258" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C258" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D258" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E258" t="str">
         <v>3-5年</v>
@@ -6316,16 +6316,16 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>检查员</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B259" t="str">
-        <v>3-5k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C259" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D259" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E259" t="str">
         <v>经验不限</v>
@@ -6339,22 +6339,22 @@
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>督导</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B260" t="str">
-        <v>3-5k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C260" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D260" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E260" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F260" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G260" t="str">
         <v>一个月前</v>
@@ -6362,16 +6362,16 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>游戏项目主程</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B261" t="str">
-        <v>10-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C261" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D261" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E261" t="str">
         <v>1-3年</v>
@@ -6385,22 +6385,22 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B262" t="str">
-        <v>面议</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C262" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D262" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E262" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F262" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G262" t="str">
         <v>一个月前</v>
@@ -6408,19 +6408,19 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>学术经理</v>
       </c>
       <c r="B263" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C263" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D263" t="str">
         <v>郑州</v>
       </c>
       <c r="E263" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F263" t="str">
         <v>本科及以上</v>
@@ -6431,13 +6431,13 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B264" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C264" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D264" t="str">
         <v>郑州</v>
@@ -6446,7 +6446,7 @@
         <v>3-5年</v>
       </c>
       <c r="F264" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G264" t="str">
         <v>一个月前</v>
@@ -6454,19 +6454,19 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>高级APP工程师</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B265" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C265" t="str">
-        <v>鲜易控股</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D265" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E265" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F265" t="str">
         <v>本科及以上</v>
@@ -6477,22 +6477,22 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>UI设计师</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B266" t="str">
         <v>4-6k·12薪</v>
       </c>
       <c r="C266" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D266" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E266" t="str">
         <v>1-3年</v>
       </c>
       <c r="F266" t="str">
-        <v>大专及以上</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G266" t="str">
         <v>一个月前</v>
@@ -6500,16 +6500,16 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>UI设计师</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B267" t="str">
-        <v>4-6k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C267" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D267" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E267" t="str">
         <v>1-3年</v>
@@ -6523,16 +6523,16 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>中级软件测试工程师</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B268" t="str">
-        <v>10-14k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C268" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D268" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E268" t="str">
         <v>3-5年</v>
@@ -6546,22 +6546,22 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>UI设计工程师</v>
+        <v>检查员</v>
       </c>
       <c r="B269" t="str">
-        <v>9-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C269" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D269" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E269" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F269" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G269" t="str">
         <v>一个月前</v>
@@ -6569,22 +6569,22 @@
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>产品经理</v>
+        <v>督导</v>
       </c>
       <c r="B270" t="str">
-        <v>8-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C270" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D270" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E270" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F270" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G270" t="str">
         <v>一个月前</v>
@@ -6592,22 +6592,22 @@
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>Mobile App</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B271" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C271" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D271" t="str">
         <v>郑州</v>
       </c>
       <c r="E271" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F271" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G271" t="str">
         <v>一个月前</v>
@@ -6615,22 +6615,22 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>UI/UX developer</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B272" t="str">
-        <v>10-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C272" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D272" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E272" t="str">
         <v>3-5年</v>
       </c>
       <c r="F272" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G272" t="str">
         <v>一个月前</v>
@@ -6638,13 +6638,13 @@
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>java软件工程师</v>
+        <v>产品经理（英语项目）</v>
       </c>
       <c r="B273" t="str">
-        <v>7-13k·13薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C273" t="str">
-        <v>思维自动化</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D273" t="str">
         <v>郑州</v>
@@ -6653,7 +6653,7 @@
         <v>3-5年</v>
       </c>
       <c r="F273" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G273" t="str">
         <v>一个月前</v>
@@ -6661,30 +6661,260 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
+        <v>产品经理（咿啦看书项目）</v>
+      </c>
+      <c r="B274" t="str">
+        <v>6-8k·12薪</v>
+      </c>
+      <c r="C274" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D274" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E274" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F274" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G274" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>高级APP工程师</v>
+      </c>
+      <c r="B275" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C275" t="str">
+        <v>鲜易控股</v>
+      </c>
+      <c r="D275" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E275" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F275" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G275" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B276" t="str">
+        <v>4-6k·12薪</v>
+      </c>
+      <c r="C276" t="str">
+        <v>河南汉达网络科技有限公司</v>
+      </c>
+      <c r="D276" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E276" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F276" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G276" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B277" t="str">
+        <v>4-6k·12薪</v>
+      </c>
+      <c r="C277" t="str">
+        <v>河南汉达网络科技有限公司</v>
+      </c>
+      <c r="D277" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E277" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F277" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G277" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>中级软件测试工程师</v>
+      </c>
+      <c r="B278" t="str">
+        <v>10-14k·12薪</v>
+      </c>
+      <c r="C278" t="str">
+        <v>上海陆鹰实业有限公司河南分公司</v>
+      </c>
+      <c r="D278" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E278" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F278" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G278" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>UI设计工程师</v>
+      </c>
+      <c r="B279" t="str">
+        <v>9-10k·12薪</v>
+      </c>
+      <c r="C279" t="str">
+        <v>郑州思博科信息技术有限公司</v>
+      </c>
+      <c r="D279" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E279" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F279" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G279" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>产品经理</v>
+      </c>
+      <c r="B280" t="str">
+        <v>8-10k·12薪</v>
+      </c>
+      <c r="C280" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D280" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E280" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F280" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G280" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Mobile App</v>
+      </c>
+      <c r="B281" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C281" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D281" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E281" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F281" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G281" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>UI/UX developer</v>
+      </c>
+      <c r="B282" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C282" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D282" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E282" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F282" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G282" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B283" t="str">
+        <v>7-13k·13薪</v>
+      </c>
+      <c r="C283" t="str">
+        <v>思维自动化</v>
+      </c>
+      <c r="D283" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E283" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F283" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G283" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
         <v>研发工程师</v>
       </c>
-      <c r="B274" t="str">
+      <c r="B284" t="str">
         <v>5-10k·12薪</v>
       </c>
-      <c r="C274" t="str">
-        <v>河南森源集团有限公司</v>
-      </c>
-      <c r="D274" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E274" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F274" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G274" t="str">
+      <c r="C284" t="str">
+        <v>森源集团</v>
+      </c>
+      <c r="D284" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E284" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F284" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G284" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G274"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G284"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,16 +408,16 @@
         <v>高级android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>6-12k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E2" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F2" t="str">
         <v>大专及以上</v>
@@ -428,154 +428,154 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android底层开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>6-12k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州</v>
       </c>
       <c r="E3" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F3" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G3" t="str">
-        <v>1小时前</v>
+        <v>3小时前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>Android C/C++开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8-10k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E4" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F4" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>1小时前</v>
+        <v>5小时前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C5" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E5" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F5" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G5" t="str">
-        <v>1小时前</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C6" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E6" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F6" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>1小时前</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>10-16k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C7" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G7" t="str">
-        <v>2小时前</v>
+        <v>3小时前</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android C/C++开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C8" t="str">
-        <v>天迈科技</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E8" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F8" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G8" t="str">
-        <v>17小时前</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android应用开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>10-15k·14薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C9" t="str">
-        <v>天迈科技</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E9" t="str">
         <v>3-5年</v>
@@ -584,7 +584,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G9" t="str">
-        <v>17小时前</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="10">
@@ -592,102 +592,102 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E10" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F10" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G10" t="str">
-        <v>21小时前</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C11" t="str">
-        <v>天迈科技</v>
+        <v>河南银商信息咨询服务有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E11" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F11" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G11" t="str">
-        <v>17小时前</v>
+        <v>5小时前</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C12" t="str">
-        <v>思维自动化</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E12" t="str">
         <v>1-3年</v>
       </c>
       <c r="F12" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G12" t="str">
-        <v>昨天</v>
+        <v>6小时前</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>20-35k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C13" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南银商信息咨询服务有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E13" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F13" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G13" t="str">
-        <v>前天</v>
+        <v>5小时前</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C14" t="str">
-        <v>刀锋互娱</v>
+        <v>天迈科技</v>
       </c>
       <c r="D14" t="str">
         <v>郑州</v>
@@ -696,44 +696,44 @@
         <v>5-10年</v>
       </c>
       <c r="F14" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G14" t="str">
-        <v>前天</v>
+        <v>5小时前</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>android</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>6-9k·12薪</v>
+        <v>10-16k·13薪</v>
       </c>
       <c r="C15" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E15" t="str">
         <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G15" t="str">
-        <v>前天</v>
+        <v>6小时前</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>安卓android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>8-15k·12薪</v>
+        <v>20-35k·12薪</v>
       </c>
       <c r="C16" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D16" t="str">
         <v>郑州</v>
@@ -742,7 +742,7 @@
         <v>5-10年</v>
       </c>
       <c r="F16" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G16" t="str">
         <v>昨天</v>
@@ -750,19 +750,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Android</v>
+        <v>高级Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>8-11k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C17" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F17" t="str">
         <v>本科及以上</v>
@@ -773,22 +773,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B18" t="str">
-        <v>3-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C18" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F18" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G18" t="str">
         <v>昨天</v>
@@ -796,13 +796,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>安卓端工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B19" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C19" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D19" t="str">
         <v>郑州</v>
@@ -811,7 +811,7 @@
         <v>5-10年</v>
       </c>
       <c r="F19" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G19" t="str">
         <v>昨天</v>
@@ -819,45 +819,45 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>安卓端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>6-12k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C20" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E20" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F20" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G20" t="str">
-        <v>昨天</v>
+        <v>21小时前</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>安卓前端（运维、ui设计）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B21" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>某化工企业</v>
+        <v>云涌科技</v>
       </c>
       <c r="D21" t="str">
         <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F21" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G21" t="str">
         <v>昨天</v>
@@ -865,39 +865,39 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>7-11k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E22" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F22" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G22" t="str">
-        <v>前天</v>
+        <v>21小时前</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>5-10k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C23" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E23" t="str">
         <v>1-3年</v>
@@ -906,18 +906,18 @@
         <v>大专及以上</v>
       </c>
       <c r="G23" t="str">
-        <v>2021-02-20</v>
+        <v>22小时前</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>高级Android开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C24" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D24" t="str">
         <v>郑州</v>
@@ -926,21 +926,21 @@
         <v>5-10年</v>
       </c>
       <c r="F24" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G24" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C25" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D25" t="str">
         <v>郑州</v>
@@ -949,116 +949,116 @@
         <v>5-10年</v>
       </c>
       <c r="F25" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G25" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C26" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E26" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F26" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G26" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>15-20k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C27" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E27" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F27" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>15-20k·13薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C28" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>建达软件</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E28" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F28" t="str">
         <v>统招本科</v>
       </c>
       <c r="G28" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>资深android开发工程师</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B29" t="str">
-        <v>15-20k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C29" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E29" t="str">
         <v>5-10年</v>
       </c>
       <c r="F29" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>资深android开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B30" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E30" t="str">
         <v>3-5年</v>
@@ -1067,35 +1067,35 @@
         <v>统招本科</v>
       </c>
       <c r="G30" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Andriod开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>12-16k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>思维自动化</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F31" t="str">
         <v>统招本科</v>
       </c>
       <c r="G31" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>资深安卓开发</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B32" t="str">
         <v>15-20k·12薪</v>
@@ -1110,113 +1110,113 @@
         <v>3-5年</v>
       </c>
       <c r="F32" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G32" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>高级android工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B33" t="str">
-        <v>10-15k·14薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C33" t="str">
-        <v>上市高科技企业</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E33" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G33" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端（运维、ui设计）</v>
       </c>
       <c r="B34" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C34" t="str">
-        <v>蓝信科技</v>
+        <v>某化工企业</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E34" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F34" t="str">
         <v>统招本科</v>
       </c>
       <c r="G34" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>安卓开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C35" t="str">
-        <v>河南峦辉网络科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E35" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F35" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G35" t="str">
-        <v>2021-02-17</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C36" t="str">
-        <v>UIOT超级智慧家</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F36" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G36" t="str">
-        <v>2021-01-30</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Android系统固件工程师</v>
+        <v>android</v>
       </c>
       <c r="B37" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D37" t="str">
         <v>郑州</v>
@@ -1225,90 +1225,90 @@
         <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G37" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B38" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G38" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>5-7k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C39" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F39" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G39" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>12-20k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C40" t="str">
-        <v>缔云科技</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F40" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G40" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>高级android开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B41" t="str">
-        <v>11-17k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C41" t="str">
-        <v>中宝科技</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D41" t="str">
         <v>郑州-郑东新区</v>
@@ -1317,136 +1317,136 @@
         <v>5-10年</v>
       </c>
       <c r="F41" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G41" t="str">
-        <v>一个月前</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Android工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B42" t="str">
-        <v>6-10k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C42" t="str">
-        <v>河南一九八八网络科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E42" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F42" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G42" t="str">
-        <v>一个月前</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android应用开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>12-20k·14薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C43" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E43" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F43" t="str">
         <v>统招本科</v>
       </c>
       <c r="G43" t="str">
-        <v>一个月前</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Android开发</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>9-13k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C44" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E44" t="str">
         <v>5-10年</v>
       </c>
       <c r="F44" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G44" t="str">
-        <v>一个月前</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C45" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>上市高科技企业</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E45" t="str">
         <v>5-10年</v>
       </c>
       <c r="F45" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G45" t="str">
-        <v>一个月前</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Android</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C46" t="str">
-        <v>中钢网</v>
+        <v>河南峦辉网络科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E46" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F46" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G46" t="str">
-        <v>一个月前</v>
+        <v>2021-02-17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android系统固件工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>10-15k·15薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C47" t="str">
-        <v>某大型智能家居公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D47" t="str">
         <v>郑州</v>
@@ -1463,19 +1463,19 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E48" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F48" t="str">
         <v>本科及以上</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>高级android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>15-30k·13薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>缔云科技</v>
       </c>
       <c r="D49" t="str">
         <v>郑州</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>9-12k·12薪</v>
+        <v>11-17k·12薪</v>
       </c>
       <c r="C50" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>中宝科技</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E50" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F50" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G50" t="str">
         <v>一个月前</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南一九八八网络科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E51" t="str">
         <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G51" t="str">
         <v>一个月前</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>10-15k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C52" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-咸嘉湖</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E52" t="str">
         <v>3-5年</v>
       </c>
       <c r="F52" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G52" t="str">
         <v>一个月前</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>Android开发</v>
       </c>
       <c r="B53" t="str">
-        <v>10-13k·12薪</v>
+        <v>9-13k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D53" t="str">
         <v>郑州</v>
       </c>
       <c r="E53" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F53" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B54" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>新开普电子</v>
+        <v>中钢网</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
@@ -1627,13 +1627,13 @@
         <v>高级android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>9-13k·13薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C55" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>某大型智能家居公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-翠苑</v>
+        <v>郑州</v>
       </c>
       <c r="E55" t="str">
         <v>3-5年</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android</v>
+        <v>Android</v>
       </c>
       <c r="B56" t="str">
-        <v>8-11k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州</v>
       </c>
       <c r="E56" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F56" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G56" t="str">
         <v>一个月前</v>
@@ -1670,16 +1670,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>5-9k·12薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C57" t="str">
-        <v>中裕广恒</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E57" t="str">
         <v>3-5年</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android app开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B58" t="str">
-        <v>8-15k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E58" t="str">
         <v>3-5年</v>
       </c>
       <c r="F58" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G58" t="str">
         <v>一个月前</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>9-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C59" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E59" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F59" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G59" t="str">
         <v>一个月前</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>东方蓝深</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-咸嘉湖</v>
       </c>
       <c r="E60" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F60" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G60" t="str">
         <v>一个月前</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android开发</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B61" t="str">
-        <v>8-12k·14薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C61" t="str">
-        <v>正商地产</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F61" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G61" t="str">
         <v>一个月前</v>
@@ -1785,16 +1785,16 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>正商地产</v>
+        <v>新开普电子</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E62" t="str">
         <v>3-5年</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>8-10k·12薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C63" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州</v>
+        <v>郑州-翠苑</v>
       </c>
       <c r="E63" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F63" t="str">
         <v>本科及以上</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>android</v>
       </c>
       <c r="B64" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C64" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E64" t="str">
         <v>1-3年</v>
       </c>
       <c r="F64" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G64" t="str">
         <v>一个月前</v>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B65" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-城东路</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E65" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F65" t="str">
         <v>本科及以上</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android开发工程师岗</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C66" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E66" t="str">
         <v>3-5年</v>
       </c>
       <c r="F66" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G66" t="str">
         <v>一个月前</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Android开发</v>
+        <v>android</v>
       </c>
       <c r="B67" t="str">
-        <v>6-10k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E67" t="str">
         <v>1-3年</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>android开发</v>
       </c>
       <c r="B68" t="str">
-        <v>7-10k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>超图软件</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E68" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F68" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G68" t="str">
         <v>一个月前</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B69" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C69" t="str">
-        <v>浩鲸智能</v>
+        <v>正商地产</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E69" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F69" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G69" t="str">
         <v>一个月前</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B70" t="str">
-        <v>7-14k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E70" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F70" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G70" t="str">
         <v>一个月前</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F71" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G71" t="str">
         <v>一个月前</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B72" t="str">
-        <v>6k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C72" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E72" t="str">
         <v>1-3年</v>
       </c>
       <c r="F72" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G72" t="str">
         <v>一个月前</v>
@@ -2041,19 +2041,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>8-16k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E73" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F73" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G73" t="str">
         <v>一个月前</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B74" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E74" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F74" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G74" t="str">
         <v>一个月前</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B75" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C75" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E75" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F75" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G75" t="str">
         <v>一个月前</v>
@@ -2107,16 +2107,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B76" t="str">
-        <v>5-10k·13薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E76" t="str">
         <v>1-3年</v>
@@ -2130,19 +2130,19 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>Android</v>
       </c>
       <c r="B77" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>汉克时代</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-中山公园</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E77" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F77" t="str">
         <v>本科及以上</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>14-18k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>崤云信息</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E78" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F78" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G78" t="str">
         <v>一个月前</v>
@@ -2176,16 +2176,16 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B79" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E79" t="str">
         <v>3-5年</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Android开发工程师</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B80" t="str">
-        <v>20-40k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>京东</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F80" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G80" t="str">
         <v>一个月前</v>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>比特耐特</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E81" t="str">
         <v>1-3年</v>
@@ -2248,10 +2248,10 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>4-8k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>比特耐特</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D82" t="str">
         <v>郑州</v>
@@ -2268,19 +2268,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>6-9k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F83" t="str">
         <v>本科及以上</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>6-10k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E84" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F84" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G84" t="str">
         <v>一个月前</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android逆向工程师</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B85" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>汉克时代</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-中山公园</v>
       </c>
       <c r="E85" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F85" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G85" t="str">
         <v>一个月前</v>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>高级android开发工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B86" t="str">
         <v>14-18k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>崤云安全</v>
+        <v>崤云信息</v>
       </c>
       <c r="D86" t="str">
         <v>郑州</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C87" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E87" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F87" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G87" t="str">
         <v>一个月前</v>
@@ -2383,19 +2383,19 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>8-12k·13薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C88" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>京东</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E88" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F88" t="str">
         <v>统招本科</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B89" t="str">
-        <v>15-25k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D89" t="str">
         <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F89" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G89" t="str">
         <v>一个月前</v>
@@ -2429,16 +2429,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>8-11k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州</v>
       </c>
       <c r="E90" t="str">
         <v>1-3年</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Android开发</v>
+        <v>Android</v>
       </c>
       <c r="B91" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>华英农业</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E91" t="str">
         <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G91" t="str">
         <v>一个月前</v>
@@ -2475,19 +2475,19 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Android</v>
+        <v>android开发</v>
       </c>
       <c r="B92" t="str">
-        <v>6-8k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E92" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F92" t="str">
         <v>大专及以上</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Android</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B93" t="str">
         <v>7-10k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E93" t="str">
         <v>经验不限</v>
       </c>
       <c r="F93" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G93" t="str">
         <v>一个月前</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>10-15k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E94" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F94" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G94" t="str">
         <v>一个月前</v>
@@ -2544,19 +2544,19 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android开发工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E95" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F95" t="str">
         <v>本科及以上</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C96" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E96" t="str">
         <v>1-3年</v>
       </c>
       <c r="F96" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G96" t="str">
         <v>一个月前</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B97" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州</v>
       </c>
       <c r="E97" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F97" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G97" t="str">
         <v>一个月前</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B98" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E98" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F98" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G98" t="str">
         <v>一个月前</v>
@@ -2636,16 +2636,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>android开发</v>
+        <v>Android开发</v>
       </c>
       <c r="B99" t="str">
-        <v>6-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E99" t="str">
         <v>1-3年</v>
@@ -2659,16 +2659,16 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android开发</v>
+        <v>Android</v>
       </c>
       <c r="B100" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C100" t="str">
-        <v>网道咨询</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E100" t="str">
         <v>1-3年</v>
@@ -2682,19 +2682,19 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B101" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D101" t="str">
         <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F101" t="str">
         <v>本科及以上</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>6-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E102" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F102" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G102" t="str">
         <v>一个月前</v>
@@ -2731,19 +2731,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E103" t="str">
         <v>3-5年</v>
       </c>
       <c r="F103" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G103" t="str">
         <v>一个月前</v>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>华英农业</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E104" t="str">
         <v>1-3年</v>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C105" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D105" t="str">
         <v>郑州</v>
@@ -2789,7 +2789,7 @@
         <v>1-3年</v>
       </c>
       <c r="F105" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G105" t="str">
         <v>一个月前</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>android开发工程师</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>7-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E106" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F106" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G106" t="str">
         <v>一个月前</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B107" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E107" t="str">
         <v>1-3年</v>
       </c>
       <c r="F107" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G107" t="str">
         <v>一个月前</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B108" t="str">
-        <v>4-9k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C108" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E108" t="str">
         <v>1-3年</v>
       </c>
       <c r="F108" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G108" t="str">
         <v>一个月前</v>
@@ -2866,13 +2866,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android讲师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D109" t="str">
         <v>郑州</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>6-8k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E110" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G110" t="str">
         <v>一个月前</v>
@@ -2918,16 +2918,16 @@
         <v>8-12k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E111" t="str">
         <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G111" t="str">
         <v>一个月前</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>8-12k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>修齐治平</v>
+        <v>华英农业</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F112" t="str">
         <v>大专及以上</v>
@@ -2961,19 +2961,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F113" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G113" t="str">
         <v>一个月前</v>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>安卓开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>8-13k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E114" t="str">
         <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G114" t="str">
         <v>一个月前</v>
@@ -3004,16 +3004,16 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B115" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>云涌科技</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E115" t="str">
         <v>1-3年</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>8-13k·13薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C116" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E116" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F116" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G116" t="str">
         <v>一个月前</v>
@@ -3050,19 +3050,19 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>安卓开发</v>
+        <v>android讲师</v>
       </c>
       <c r="B117" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>浩鲸智能</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E117" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F117" t="str">
         <v>本科及以上</v>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>6-7k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州</v>
@@ -3088,7 +3088,7 @@
         <v>1-3年</v>
       </c>
       <c r="F118" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G118" t="str">
         <v>一个月前</v>
@@ -3096,16 +3096,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>浩鲸智能</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E119" t="str">
         <v>3-5年</v>
@@ -3119,13 +3119,13 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓工程师</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D120" t="str">
         <v>郑州</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>安卓讲师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>6-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E121" t="str">
         <v>3-5年</v>
       </c>
       <c r="F121" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G121" t="str">
         <v>一个月前</v>
@@ -3165,19 +3165,19 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C122" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E122" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F122" t="str">
         <v>大专及以上</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B123" t="str">
-        <v>8-12k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C123" t="str">
-        <v>郑州八角信息技术有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E123" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F123" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G123" t="str">
         <v>一个月前</v>
@@ -3211,19 +3211,19 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>7-8k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州</v>
       </c>
       <c r="E124" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F124" t="str">
         <v>大专及以上</v>
@@ -3234,19 +3234,19 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>10-13k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C125" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E125" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F125" t="str">
         <v>本科及以上</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>10-15k·14薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C126" t="str">
-        <v>蓝信科技</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D126" t="str">
         <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F126" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G126" t="str">
         <v>一个月前</v>
@@ -3280,16 +3280,16 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B127" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>迈特望</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>8-20k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C128" t="str">
-        <v>刀锋互娱</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F128" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G128" t="str">
         <v>一个月前</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C129" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>郑州八角信息技术有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F129" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G129" t="str">
         <v>一个月前</v>
@@ -3352,13 +3352,13 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-8k·12薪</v>
       </c>
       <c r="C130" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E130" t="str">
         <v>3-5年</v>
@@ -3375,19 +3375,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C131" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F131" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G131" t="str">
         <v>一个月前</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C132" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F132" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G132" t="str">
         <v>一个月前</v>
@@ -3421,42 +3421,42 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C133" t="str">
-        <v>河南盈北网络科技有限公司</v>
+        <v>迈特望</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E133" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G133" t="str">
-        <v>2021-01-27</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>12-20k·14薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C134" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E134" t="str">
         <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G134" t="str">
         <v>一个月前</v>
@@ -3464,22 +3464,22 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B135" t="str">
-        <v>6-12k·14薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C135" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E135" t="str">
         <v>3-5年</v>
       </c>
       <c r="F135" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G135" t="str">
         <v>一个月前</v>
@@ -3490,19 +3490,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>7-10k·13薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C136" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E136" t="str">
         <v>3-5年</v>
       </c>
       <c r="F136" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G136" t="str">
         <v>一个月前</v>
@@ -3513,19 +3513,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>7-10k·13薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C137" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E137" t="str">
         <v>3-5年</v>
       </c>
       <c r="F137" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G137" t="str">
         <v>一个月前</v>
@@ -3533,22 +3533,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安卓开发工程师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C138" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E138" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F138" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G138" t="str">
         <v>一个月前</v>
@@ -3559,19 +3559,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>3-8k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南盈北网络科技有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E139" t="str">
         <v>经验不限</v>
       </c>
       <c r="F139" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G139" t="str">
         <v>一个月前</v>
@@ -3582,19 +3582,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>5-7k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C140" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E140" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F140" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G140" t="str">
         <v>一个月前</v>
@@ -3602,16 +3602,16 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C141" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E141" t="str">
         <v>3-5年</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>20-30k·14薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C142" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E142" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F142" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G142" t="str">
         <v>一个月前</v>
@@ -3648,19 +3648,19 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>安卓app开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>3-8k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C143" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E143" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F143" t="str">
         <v>学历不限</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C144" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E144" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F144" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G144" t="str">
         <v>一个月前</v>
@@ -3694,321 +3694,321 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>软件设计师（安卓、车机）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>30-40k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C145" t="str">
-        <v>郑州宇通集团-精益达零部件</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E145" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F145" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G145" t="str">
-        <v>2021-01-26</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>web前端开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>8-10k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C146" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F146" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G146" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>前端开发工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>6-10k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C147" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E147" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F147" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G147" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>移动开发技术经理</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>15-25k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C148" t="str">
-        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E148" t="str">
         <v>5-10年</v>
       </c>
       <c r="F148" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G148" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>App运营推广专员</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>4-6k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C149" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E149" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F149" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G149" t="str">
-        <v>52分钟前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B150" t="str">
-        <v>8-12k·13薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C150" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E150" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F150" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G150" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>80-100k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C151" t="str">
-        <v>全国连锁猎头集团</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E151" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F151" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G151" t="str">
-        <v>2小时前</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>技术经理（移动端负责人）</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>15-25k·14薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C152" t="str">
-        <v>一站式游戏社交服务平台</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D152" t="str">
         <v>郑州-中原区</v>
       </c>
       <c r="E152" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F152" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G152" t="str">
-        <v>19小时前</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>技术经理</v>
+        <v>APP运行维护</v>
       </c>
       <c r="B153" t="str">
-        <v>18-23k·14薪</v>
+        <v>20-30k·12薪</v>
       </c>
       <c r="C153" t="str">
-        <v>某大型游戏陪玩公司</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
       </c>
       <c r="F153" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G153" t="str">
-        <v>20小时前</v>
+        <v>5小时前</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>移动端技术经理</v>
+        <v>ui设计师</v>
       </c>
       <c r="B154" t="str">
-        <v>20-30k·14薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C154" t="str">
-        <v>某一线互联网公司</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D154" t="str">
         <v>郑州</v>
       </c>
       <c r="E154" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F154" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>20小时前</v>
+        <v>5小时前</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>移动端负责人</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C155" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D155" t="str">
         <v>郑州-中原区</v>
       </c>
       <c r="E155" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F155" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G155" t="str">
-        <v>23小时前</v>
+        <v>9分钟前</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>10-20k·12薪</v>
+        <v>80-100k·12薪</v>
       </c>
       <c r="C156" t="str">
-        <v>速游</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州-五山</v>
+        <v>郑州</v>
       </c>
       <c r="E156" t="str">
-        <v>一年以下</v>
+        <v>3-5年</v>
       </c>
       <c r="F156" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G156" t="str">
-        <v>17小时前</v>
+        <v>3小时前</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>技术经理</v>
       </c>
       <c r="B157" t="str">
-        <v>10-12k·12薪</v>
+        <v>18-23k·14薪</v>
       </c>
       <c r="C157" t="str">
-        <v>恩普特</v>
+        <v>某大型游戏陪玩公司</v>
       </c>
       <c r="D157" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E157" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F157" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>前天</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>前端开发工程师</v>
+        <v>软件测试</v>
       </c>
       <c r="B158" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C158" t="str">
-        <v>郑州汉鑫电子科技有限公司</v>
+        <v>郑州市金琥科技有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州-城东路</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E158" t="str">
         <v>3-5年</v>
       </c>
       <c r="F158" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G158" t="str">
         <v>昨天</v>
@@ -4016,25 +4016,25 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>ios</v>
+        <v>google广告优化师</v>
       </c>
       <c r="B159" t="str">
-        <v>6-9k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C159" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>河南国超电子商务有限公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E159" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F159" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G159" t="str">
-        <v>前天</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="160">
@@ -4057,7 +4057,7 @@
         <v>本科及以上</v>
       </c>
       <c r="G160" t="str">
-        <v>前天</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="161">
@@ -4080,70 +4080,70 @@
         <v>大专及以上</v>
       </c>
       <c r="G161" t="str">
-        <v>前天</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>测试工程师</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B162" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C162" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E162" t="str">
         <v>3-5年</v>
       </c>
       <c r="F162" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G162" t="str">
-        <v>昨天</v>
+        <v>22小时前</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>测试工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E163" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F163" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G163" t="str">
-        <v>前天</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>高级产品经理</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B164" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>刀锋互娱</v>
+        <v>速游</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州</v>
+        <v>郑州-五山</v>
       </c>
       <c r="E164" t="str">
-        <v>经验不限</v>
+        <v>一年以下</v>
       </c>
       <c r="F164" t="str">
         <v>本科及以上</v>
@@ -4154,25 +4154,25 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>移动端资深产品经理</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B165" t="str">
-        <v>15-20k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C165" t="str">
-        <v>刀锋互娱</v>
+        <v>中原期货</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E165" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F165" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G165" t="str">
-        <v>前天</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="166">
@@ -4180,22 +4180,22 @@
         <v>产品经理</v>
       </c>
       <c r="B166" t="str">
-        <v>7-15k·13薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C166" t="str">
-        <v>完美数联</v>
+        <v>猎豹移动</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E166" t="str">
         <v>3-5年</v>
       </c>
       <c r="F166" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G166" t="str">
-        <v>昨天</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="167">
@@ -4203,309 +4203,309 @@
         <v>移动端开发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>8-17k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>中原银行</v>
       </c>
       <c r="D167" t="str">
         <v>郑州</v>
       </c>
       <c r="E167" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F167" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G167" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>UI设计</v>
+        <v>APP前端开发工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>6-9k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>河南昭麒信息技术有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E168" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F168" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G168" t="str">
-        <v>前天</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>公众号运营</v>
       </c>
       <c r="B169" t="str">
-        <v>15-20k·13薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南小微动力科技有限公司</v>
       </c>
       <c r="D169" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E169" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F169" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G169" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>google广告优化师</v>
+        <v>移动端产品副总监</v>
       </c>
       <c r="B170" t="str">
-        <v>8-12k·13薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>河南国超电子商务有限公司</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E170" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F170" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G170" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>移动开发测试经理</v>
       </c>
       <c r="B171" t="str">
-        <v>10-15k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>天瑞集团</v>
+        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E171" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F171" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G171" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Java开发工程师</v>
+        <v>移动开发技术经理</v>
       </c>
       <c r="B172" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
       </c>
       <c r="D172" t="str">
         <v>郑州</v>
       </c>
       <c r="E172" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F172" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G172" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>App运营推广专员</v>
       </c>
       <c r="B173" t="str">
-        <v>13-25k·13薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C173" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州</v>
       </c>
       <c r="E173" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F173" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G173" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>技术经理（移动端负责人）</v>
       </c>
       <c r="B174" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-25k·14薪</v>
       </c>
       <c r="C174" t="str">
-        <v>中原期货</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E174" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F174" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G174" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>科技公司-移动端开发经理</v>
+        <v>移动端技术经理</v>
       </c>
       <c r="B175" t="str">
-        <v>7-12k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C175" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>某一线互联网公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E175" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F175" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G175" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>APP推广</v>
+        <v>移动端负责人</v>
       </c>
       <c r="B176" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>UU跑腿</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E176" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F176" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G176" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>APP运行维护</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B177" t="str">
-        <v>20-30k·12薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>河南博众供应链管理有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D177" t="str">
         <v>郑州</v>
       </c>
       <c r="E177" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F177" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G177" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>ui设计师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B178" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>河南博众供应链管理有限公司</v>
+        <v>恩普特</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E178" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F178" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G178" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>天瑞集团</v>
+        <v>郑州汉鑫电子科技有限公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E179" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F179" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G179" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>移动端开发工程师</v>
+        <v>ios</v>
       </c>
       <c r="B180" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>中原银行</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D180" t="str">
         <v>郑州</v>
@@ -4514,398 +4514,398 @@
         <v>3-5年</v>
       </c>
       <c r="F180" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G180" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>产品经理</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B181" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>UU跑腿</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E181" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F181" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G181" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B182" t="str">
-        <v>10-20k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州-来广营</v>
+        <v>郑州</v>
       </c>
       <c r="E182" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F182" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G182" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B183" t="str">
-        <v>50-80k·16薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>全国连锁猎头公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D183" t="str">
         <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F183" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G183" t="str">
-        <v>2021-02-16</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>产品经理</v>
       </c>
       <c r="B184" t="str">
-        <v>5-10k·12薪</v>
+        <v>7-15k·13薪</v>
       </c>
       <c r="C184" t="str">
-        <v>超图软件</v>
+        <v>完美数联</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E184" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F184" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G184" t="str">
-        <v>2021-02-09</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>APP运营主管/经理</v>
+        <v>UI设计</v>
       </c>
       <c r="B185" t="str">
-        <v>10-18k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>河南千年国医健康产业集团有限公司</v>
       </c>
       <c r="D185" t="str">
         <v>郑州</v>
       </c>
       <c r="E185" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F185" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G185" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-21</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>移动前端开发工程师</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B186" t="str">
-        <v>9-12k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C186" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E186" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F186" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G186" t="str">
-        <v>一个月前</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>前端工程师</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B187" t="str">
-        <v>8-13k·13薪</v>
+        <v>10-15k·13薪</v>
       </c>
       <c r="C187" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E187" t="str">
         <v>3-5年</v>
       </c>
       <c r="F187" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G187" t="str">
-        <v>一个月前</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>移动前端开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B188" t="str">
-        <v>3-5k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C188" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州</v>
       </c>
       <c r="E188" t="str">
         <v>3-5年</v>
       </c>
       <c r="F188" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G188" t="str">
-        <v>一个月前</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B189" t="str">
-        <v>6-12k·13薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C189" t="str">
-        <v>新开普电子</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E189" t="str">
         <v>3-5年</v>
       </c>
       <c r="F189" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G189" t="str">
-        <v>一个月前</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>手机软件开发工程师</v>
+        <v>科技公司-移动端开发经理</v>
       </c>
       <c r="B190" t="str">
-        <v>6-7k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D190" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E190" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F190" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G190" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>app开发工程师</v>
+        <v>APP推广</v>
       </c>
       <c r="B191" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C191" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E191" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F191" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G191" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>前端工程师</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B192" t="str">
-        <v>25-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E192" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F192" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G192" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Java开发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B193" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E193" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F193" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G193" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B194" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-来广营</v>
       </c>
       <c r="E194" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F194" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G194" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>ASO优化师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B195" t="str">
-        <v>15-25k·12薪</v>
+        <v>50-80k·16薪</v>
       </c>
       <c r="C195" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>全国连锁猎头公司</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E195" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F195" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G195" t="str">
-        <v>一个月前</v>
+        <v>2021-02-16</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>app运营主管</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B196" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E196" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F196" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G196" t="str">
-        <v>一个月前</v>
+        <v>2021-02-09</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>移动开发工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B197" t="str">
-        <v>10-17k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D197" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E197" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F197" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G197" t="str">
         <v>一个月前</v>
@@ -4913,19 +4913,19 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>软件工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B198" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C198" t="str">
-        <v>郑州卓安</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E198" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F198" t="str">
         <v>大专及以上</v>
@@ -4936,19 +4936,19 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>java开发</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B199" t="str">
-        <v>5-8k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C199" t="str">
-        <v>郑州卓安</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E199" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F199" t="str">
         <v>大专及以上</v>
@@ -4959,22 +4959,22 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>移动开发工程师</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B200" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C200" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州</v>
       </c>
       <c r="E200" t="str">
         <v>3-5年</v>
       </c>
       <c r="F200" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G200" t="str">
         <v>一个月前</v>
@@ -4982,16 +4982,16 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>软件测试工程师</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B201" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E201" t="str">
         <v>1-3年</v>
@@ -5005,22 +5005,22 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>APP工程师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B202" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>鲜易控股</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D202" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E202" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F202" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G202" t="str">
         <v>一个月前</v>
@@ -5028,62 +5028,62 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>cocos2d-x客户端开发工程师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B203" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E203" t="str">
         <v>1-3年</v>
       </c>
       <c r="F203" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G203" t="str">
-        <v>2021-01-28</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>高级招聘专员</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B204" t="str">
-        <v>8-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>云鸟配送</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E204" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F204" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G204" t="str">
-        <v>2021-01-29</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>渗透测试工程师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B205" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>爱加密</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D205" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E205" t="str">
         <v>3-5年</v>
@@ -5092,44 +5092,44 @@
         <v>本科及以上</v>
       </c>
       <c r="G205" t="str">
-        <v>2021-01-29</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>渗透测试工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B206" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>爱加密</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E206" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F206" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G206" t="str">
-        <v>2021-01-29</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>应用层开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>10-20k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E207" t="str">
         <v>1-3年</v>
@@ -5143,19 +5143,19 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>高级前端讲师</v>
+        <v>java开发</v>
       </c>
       <c r="B208" t="str">
-        <v>15-30k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>北京千锋互联科技</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E208" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F208" t="str">
         <v>大专及以上</v>
@@ -5166,22 +5166,22 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>app推广经理</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B209" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C209" t="str">
-        <v>UU跑腿</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D209" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E209" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F209" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G209" t="str">
         <v>一个月前</v>
@@ -5189,19 +5189,19 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B210" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C210" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E210" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F210" t="str">
         <v>大专及以上</v>
@@ -5212,22 +5212,22 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>ui设计师</v>
+        <v>APP工程师</v>
       </c>
       <c r="B211" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>鲜易控股</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E211" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F211" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G211" t="str">
         <v>一个月前</v>
@@ -5235,68 +5235,68 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>（郑州）web前端开发工程师</v>
+        <v>cocos2d-x客户端开发工程师</v>
       </c>
       <c r="B212" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>东华软件</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D212" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E212" t="str">
         <v>1-3年</v>
       </c>
       <c r="F212" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G212" t="str">
-        <v>2021-01-28</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B213" t="str">
-        <v>12-15k·14薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>某银行股份有限公司</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D213" t="str">
         <v>郑州</v>
       </c>
       <c r="E213" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F213" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G213" t="str">
-        <v>2021-01-28</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>测试工程师</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B214" t="str">
-        <v>6-12k·14薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C214" t="str">
-        <v>崤云安全</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D214" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E214" t="str">
         <v>5-10年</v>
       </c>
       <c r="F214" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G214" t="str">
         <v>一个月前</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>系统架构师</v>
+        <v>app推广经理</v>
       </c>
       <c r="B215" t="str">
-        <v>15-25k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>油田咨询</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D215" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E215" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F215" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,22 +5327,22 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>系统测试工程师</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B216" t="str">
-        <v>5-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>油田咨询</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E216" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F216" t="str">
-        <v>硕士及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G216" t="str">
         <v>一个月前</v>
@@ -5350,19 +5350,19 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B217" t="str">
-        <v>10-20k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C217" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E217" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F217" t="str">
         <v>大专及以上</v>
@@ -5373,13 +5373,13 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>C++开发工程师中级</v>
+        <v>前端工程师</v>
       </c>
       <c r="B218" t="str">
-        <v>6-12k·12薪</v>
+        <v>25-40k·12薪</v>
       </c>
       <c r="C218" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D218" t="str">
         <v>郑州-高新区</v>
@@ -5391,50 +5391,50 @@
         <v>本科及以上</v>
       </c>
       <c r="G218" t="str">
-        <v>一个月前</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>信息化专员</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B219" t="str">
-        <v>面议</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C219" t="str">
-        <v>建业新生活</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D219" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E219" t="str">
         <v>3-5年</v>
       </c>
       <c r="F219" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G219" t="str">
-        <v>一个月前</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>前端开发工程师</v>
+        <v>高级招聘专员</v>
       </c>
       <c r="B220" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C220" t="str">
-        <v>北大软件</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D220" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E220" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F220" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G220" t="str">
         <v>一个月前</v>
@@ -5442,22 +5442,22 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>java高级工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B221" t="str">
-        <v>10-11k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D221" t="str">
         <v>郑州</v>
       </c>
       <c r="E221" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F221" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G221" t="str">
         <v>一个月前</v>
@@ -5465,22 +5465,22 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B222" t="str">
-        <v>7-11k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C222" t="str">
-        <v>新开普电子</v>
+        <v>爱加密</v>
       </c>
       <c r="D222" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E222" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F222" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G222" t="str">
         <v>一个月前</v>
@@ -5488,19 +5488,19 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>智能技术开发主管</v>
+        <v>（郑州）web前端开发工程师</v>
       </c>
       <c r="B223" t="str">
-        <v>面议</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C223" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>东华软件</v>
       </c>
       <c r="D223" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E223" t="str">
-        <v>10年以上</v>
+        <v>1-3年</v>
       </c>
       <c r="F223" t="str">
         <v>本科及以上</v>
@@ -5511,13 +5511,13 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>JAVA开发</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B224" t="str">
-        <v>8-13k·12薪</v>
+        <v>12-15k·14薪</v>
       </c>
       <c r="C224" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>某银行股份有限公司</v>
       </c>
       <c r="D224" t="str">
         <v>郑州</v>
@@ -5534,19 +5534,19 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>java开发工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B225" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C225" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D225" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E225" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F225" t="str">
         <v>本科及以上</v>
@@ -5557,22 +5557,22 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>系统架构师</v>
       </c>
       <c r="B226" t="str">
-        <v>7-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E226" t="str">
         <v>5-10年</v>
       </c>
       <c r="F226" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G226" t="str">
         <v>一个月前</v>
@@ -5580,22 +5580,22 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>架构师</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B227" t="str">
-        <v>15-20k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>东方蓝深</v>
+        <v>油田咨询</v>
       </c>
       <c r="D227" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E227" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F227" t="str">
-        <v>本科及以上</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G227" t="str">
         <v>一个月前</v>
@@ -5603,22 +5603,22 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>ui</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B228" t="str">
-        <v>6-11k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D228" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E228" t="str">
         <v>3-5年</v>
       </c>
       <c r="F228" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G228" t="str">
         <v>一个月前</v>
@@ -5626,22 +5626,22 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>中级JAVA开发</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B229" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>正商地产</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D229" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E229" t="str">
         <v>3-5年</v>
       </c>
       <c r="F229" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G229" t="str">
         <v>一个月前</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>信息化专员</v>
       </c>
       <c r="B230" t="str">
-        <v>10-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C230" t="str">
-        <v>埃林哲</v>
+        <v>建业新生活</v>
       </c>
       <c r="D230" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E230" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F230" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G230" t="str">
         <v>一个月前</v>
@@ -5672,19 +5672,19 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B231" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>信大捷安</v>
+        <v>北大软件</v>
       </c>
       <c r="D231" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E231" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F231" t="str">
         <v>本科及以上</v>
@@ -5695,19 +5695,19 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>商务助理</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B232" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>河南准澳网络科技有限公司</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D232" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E232" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F232" t="str">
         <v>大专及以上</v>
@@ -5718,22 +5718,22 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B233" t="str">
-        <v>13-18k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D233" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E233" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F233" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G233" t="str">
         <v>一个月前</v>
@@ -5741,19 +5741,19 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>UI高级设计师</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B234" t="str">
-        <v>10-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C234" t="str">
-        <v>UU跑腿</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E234" t="str">
-        <v>5-10年</v>
+        <v>10年以上</v>
       </c>
       <c r="F234" t="str">
         <v>本科及以上</v>
@@ -5764,19 +5764,19 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>维护工程师</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B235" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D235" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E235" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F235" t="str">
         <v>本科及以上</v>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>维护助理工程师</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B236" t="str">
-        <v>3-5k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E236" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F236" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G236" t="str">
         <v>一个月前</v>
@@ -5810,22 +5810,22 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>iOS开发工程师</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B237" t="str">
-        <v>14-20k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>浩鲸智能</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D237" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E237" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F237" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G237" t="str">
         <v>一个月前</v>
@@ -5833,19 +5833,19 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>软件开发</v>
+        <v>架构师</v>
       </c>
       <c r="B238" t="str">
-        <v>15-21k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C238" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D238" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E238" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F238" t="str">
         <v>本科及以上</v>
@@ -5856,22 +5856,22 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>移动开发工程师</v>
+        <v>ui</v>
       </c>
       <c r="B239" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C239" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D239" t="str">
         <v>郑州</v>
       </c>
       <c r="E239" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F239" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G239" t="str">
         <v>一个月前</v>
@@ -5879,22 +5879,22 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>软件外包业务经理</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B240" t="str">
-        <v>8-16k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C240" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D240" t="str">
-        <v>郑州</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E240" t="str">
         <v>3-5年</v>
       </c>
       <c r="F240" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G240" t="str">
         <v>一个月前</v>
@@ -5902,19 +5902,19 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>产品经理</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B241" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C241" t="str">
-        <v>新开普电子</v>
+        <v>埃林哲</v>
       </c>
       <c r="D241" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E241" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F241" t="str">
         <v>本科及以上</v>
@@ -5925,22 +5925,22 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>产品经理</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B242" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C242" t="str">
-        <v>UU跑腿</v>
+        <v>信大捷安</v>
       </c>
       <c r="D242" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E242" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F242" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G242" t="str">
         <v>一个月前</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B243" t="str">
-        <v>10-15k·12薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D243" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E243" t="str">
         <v>3-5年</v>
       </c>
       <c r="F243" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G243" t="str">
         <v>一个月前</v>
@@ -5971,16 +5971,16 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>高级软件工程师</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B244" t="str">
-        <v>8-12k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C244" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D244" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E244" t="str">
         <v>5-10年</v>
@@ -5994,16 +5994,16 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>维护工程师</v>
       </c>
       <c r="B245" t="str">
-        <v>面议</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C245" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D245" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E245" t="str">
         <v>3-5年</v>
@@ -6017,19 +6017,19 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B246" t="str">
-        <v>8-13k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C246" t="str">
-        <v>北京千锋互联科技</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D246" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E246" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F246" t="str">
         <v>大专及以上</v>
@@ -6040,22 +6040,22 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>前端工程师</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B247" t="str">
-        <v>6-8k·12薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C247" t="str">
-        <v>元丰科技</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D247" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E247" t="str">
         <v>3-5年</v>
       </c>
       <c r="F247" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G247" t="str">
         <v>一个月前</v>
@@ -6063,22 +6063,22 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>软件开发</v>
       </c>
       <c r="B248" t="str">
-        <v>15-25k·13薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C248" t="str">
-        <v>朗新科技</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D248" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E248" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F248" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G248" t="str">
         <v>一个月前</v>
@@ -6086,22 +6086,22 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B249" t="str">
-        <v>11-20k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C249" t="str">
-        <v>朗新科技</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D249" t="str">
         <v>郑州</v>
       </c>
       <c r="E249" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F249" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G249" t="str">
         <v>一个月前</v>
@@ -6109,19 +6109,19 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>售前技术支持</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B250" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C250" t="str">
-        <v>环信</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D250" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E250" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F250" t="str">
         <v>本科及以上</v>
@@ -6132,22 +6132,22 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>java开发工程师助理</v>
+        <v>产品经理</v>
       </c>
       <c r="B251" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C251" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D251" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E251" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F251" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G251" t="str">
         <v>一个月前</v>
@@ -6155,22 +6155,22 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>UI设计师</v>
+        <v>产品经理</v>
       </c>
       <c r="B252" t="str">
-        <v>4-6k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C252" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D252" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E252" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F252" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G252" t="str">
         <v>一个月前</v>
@@ -6178,22 +6178,22 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>PC客户端产品经理</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B253" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C253" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D253" t="str">
-        <v>郑州</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E253" t="str">
         <v>3-5年</v>
       </c>
       <c r="F253" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G253" t="str">
         <v>一个月前</v>
@@ -6201,22 +6201,22 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>IOS</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B254" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C254" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D254" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E254" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F254" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G254" t="str">
         <v>一个月前</v>
@@ -6224,22 +6224,22 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B255" t="str">
-        <v>18-25k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C255" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D255" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E255" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F255" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G255" t="str">
         <v>一个月前</v>
@@ -6247,19 +6247,19 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>高级软件测试工程师</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B256" t="str">
-        <v>7-9k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C256" t="str">
-        <v>国际交友</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D256" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E256" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F256" t="str">
         <v>大专及以上</v>
@@ -6270,16 +6270,16 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>高级软件测试工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B257" t="str">
-        <v>7-9k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C257" t="str">
-        <v>国际交友</v>
+        <v>元丰科技</v>
       </c>
       <c r="D257" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E257" t="str">
         <v>3-5年</v>
@@ -6293,16 +6293,16 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>JAVA开发工程师</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B258" t="str">
-        <v>6-8k·12薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C258" t="str">
-        <v>地理信息系统</v>
+        <v>朗新科技</v>
       </c>
       <c r="D258" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E258" t="str">
         <v>3-5年</v>
@@ -6316,22 +6316,22 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>摄像头调试工程师</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B259" t="str">
-        <v>4-9k·12薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C259" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D259" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E259" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F259" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G259" t="str">
         <v>一个月前</v>
@@ -6339,19 +6339,19 @@
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B260" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C260" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>环信</v>
       </c>
       <c r="D260" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E260" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F260" t="str">
         <v>本科及以上</v>
@@ -6362,19 +6362,19 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B261" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C261" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D261" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E261" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F261" t="str">
         <v>大专及以上</v>
@@ -6385,19 +6385,19 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>cocos开发工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B262" t="str">
-        <v>9-16k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C262" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D262" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E262" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F262" t="str">
         <v>学历不限</v>
@@ -6408,19 +6408,19 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>学术经理</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B263" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C263" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D263" t="str">
         <v>郑州</v>
       </c>
       <c r="E263" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F263" t="str">
         <v>本科及以上</v>
@@ -6431,19 +6431,19 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>IT项目经理</v>
+        <v>IOS</v>
       </c>
       <c r="B264" t="str">
-        <v>8-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C264" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D264" t="str">
         <v>郑州</v>
       </c>
       <c r="E264" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F264" t="str">
         <v>大专及以上</v>
@@ -6454,22 +6454,22 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>前端高级讲师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B265" t="str">
-        <v>10-18k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C265" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D265" t="str">
         <v>郑州</v>
       </c>
       <c r="E265" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F265" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G265" t="str">
         <v>一个月前</v>
@@ -6477,22 +6477,22 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>.NET开发工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B266" t="str">
-        <v>4-6k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C266" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D266" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E266" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F266" t="str">
-        <v>中专/中技及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G266" t="str">
         <v>一个月前</v>
@@ -6500,19 +6500,19 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>网页UI设计师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B267" t="str">
-        <v>4-8k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C267" t="str">
-        <v>羲和网络</v>
+        <v>国际交友</v>
       </c>
       <c r="D267" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E267" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F267" t="str">
         <v>大专及以上</v>
@@ -6523,16 +6523,16 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>Web前端工程师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B268" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C268" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D268" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E268" t="str">
         <v>3-5年</v>
@@ -6546,16 +6546,16 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>检查员</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B269" t="str">
-        <v>3-5k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C269" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D269" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E269" t="str">
         <v>经验不限</v>
@@ -6569,22 +6569,22 @@
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>督导</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B270" t="str">
-        <v>3-5k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C270" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D270" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E270" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F270" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G270" t="str">
         <v>一个月前</v>
@@ -6592,16 +6592,16 @@
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>游戏项目主程</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B271" t="str">
-        <v>10-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C271" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D271" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E271" t="str">
         <v>1-3年</v>
@@ -6615,22 +6615,22 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B272" t="str">
-        <v>面议</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C272" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D272" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E272" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F272" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G272" t="str">
         <v>一个月前</v>
@@ -6638,19 +6638,19 @@
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>学术经理</v>
       </c>
       <c r="B273" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C273" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D273" t="str">
         <v>郑州</v>
       </c>
       <c r="E273" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F273" t="str">
         <v>本科及以上</v>
@@ -6661,13 +6661,13 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B274" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C274" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D274" t="str">
         <v>郑州</v>
@@ -6676,7 +6676,7 @@
         <v>3-5年</v>
       </c>
       <c r="F274" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G274" t="str">
         <v>一个月前</v>
@@ -6684,19 +6684,19 @@
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>高级APP工程师</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B275" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C275" t="str">
-        <v>鲜易控股</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D275" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E275" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F275" t="str">
         <v>本科及以上</v>
@@ -6707,22 +6707,22 @@
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>UI设计师</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B276" t="str">
         <v>4-6k·12薪</v>
       </c>
       <c r="C276" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D276" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E276" t="str">
         <v>1-3年</v>
       </c>
       <c r="F276" t="str">
-        <v>大专及以上</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G276" t="str">
         <v>一个月前</v>
@@ -6730,16 +6730,16 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>UI设计师</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B277" t="str">
-        <v>4-6k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C277" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D277" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E277" t="str">
         <v>1-3年</v>
@@ -6753,16 +6753,16 @@
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>中级软件测试工程师</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B278" t="str">
-        <v>10-14k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C278" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D278" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E278" t="str">
         <v>3-5年</v>
@@ -6776,22 +6776,22 @@
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>UI设计工程师</v>
+        <v>检查员</v>
       </c>
       <c r="B279" t="str">
-        <v>9-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C279" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D279" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E279" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F279" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G279" t="str">
         <v>一个月前</v>
@@ -6799,22 +6799,22 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>产品经理</v>
+        <v>督导</v>
       </c>
       <c r="B280" t="str">
-        <v>8-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C280" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D280" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E280" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F280" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G280" t="str">
         <v>一个月前</v>
@@ -6822,22 +6822,22 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>Mobile App</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B281" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C281" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D281" t="str">
         <v>郑州</v>
       </c>
       <c r="E281" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F281" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G281" t="str">
         <v>一个月前</v>
@@ -6845,22 +6845,22 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>UI/UX developer</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B282" t="str">
-        <v>10-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C282" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D282" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E282" t="str">
         <v>3-5年</v>
       </c>
       <c r="F282" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G282" t="str">
         <v>一个月前</v>
@@ -6868,13 +6868,13 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>java软件工程师</v>
+        <v>产品经理（英语项目）</v>
       </c>
       <c r="B283" t="str">
-        <v>7-13k·13薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C283" t="str">
-        <v>思维自动化</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D283" t="str">
         <v>郑州</v>
@@ -6883,7 +6883,7 @@
         <v>3-5年</v>
       </c>
       <c r="F283" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G283" t="str">
         <v>一个月前</v>
@@ -6891,30 +6891,260 @@
     </row>
     <row r="284">
       <c r="A284" t="str">
+        <v>产品经理（咿啦看书项目）</v>
+      </c>
+      <c r="B284" t="str">
+        <v>6-8k·12薪</v>
+      </c>
+      <c r="C284" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D284" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E284" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F284" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G284" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>高级APP工程师</v>
+      </c>
+      <c r="B285" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C285" t="str">
+        <v>鲜易控股</v>
+      </c>
+      <c r="D285" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E285" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F285" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G285" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B286" t="str">
+        <v>4-6k·12薪</v>
+      </c>
+      <c r="C286" t="str">
+        <v>河南汉达网络科技有限公司</v>
+      </c>
+      <c r="D286" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E286" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F286" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G286" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>UI设计师</v>
+      </c>
+      <c r="B287" t="str">
+        <v>4-6k·12薪</v>
+      </c>
+      <c r="C287" t="str">
+        <v>河南汉达网络科技有限公司</v>
+      </c>
+      <c r="D287" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E287" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F287" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G287" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>中级软件测试工程师</v>
+      </c>
+      <c r="B288" t="str">
+        <v>10-14k·12薪</v>
+      </c>
+      <c r="C288" t="str">
+        <v>上海陆鹰实业有限公司河南分公司</v>
+      </c>
+      <c r="D288" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E288" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F288" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G288" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>UI设计工程师</v>
+      </c>
+      <c r="B289" t="str">
+        <v>9-10k·12薪</v>
+      </c>
+      <c r="C289" t="str">
+        <v>郑州思博科信息技术有限公司</v>
+      </c>
+      <c r="D289" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E289" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F289" t="str">
+        <v>大专及以上</v>
+      </c>
+      <c r="G289" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>产品经理</v>
+      </c>
+      <c r="B290" t="str">
+        <v>8-10k·12薪</v>
+      </c>
+      <c r="C290" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D290" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E290" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F290" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G290" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Mobile App</v>
+      </c>
+      <c r="B291" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C291" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D291" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E291" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F291" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G291" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>UI/UX developer</v>
+      </c>
+      <c r="B292" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C292" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D292" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E292" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F292" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G292" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B293" t="str">
+        <v>7-13k·13薪</v>
+      </c>
+      <c r="C293" t="str">
+        <v>思维自动化</v>
+      </c>
+      <c r="D293" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E293" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F293" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G293" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
         <v>研发工程师</v>
       </c>
-      <c r="B284" t="str">
+      <c r="B294" t="str">
         <v>5-10k·12薪</v>
       </c>
-      <c r="C284" t="str">
+      <c r="C294" t="str">
         <v>森源集团</v>
       </c>
-      <c r="D284" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E284" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F284" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G284" t="str">
+      <c r="D294" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E294" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F294" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G294" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G284"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G294"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -408,16 +408,16 @@
         <v>高级android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>6-8k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C2" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E2" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F2" t="str">
         <v>大专及以上</v>
@@ -428,105 +428,105 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Android底层开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C3" t="str">
-        <v>UIOT超级智慧家</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E3" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F3" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G3" t="str">
-        <v>3小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android C/C++开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C4" t="str">
-        <v>天迈科技</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E4" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F4" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>5小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>6-12k·13薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C5" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E5" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F5" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G5" t="str">
-        <v>9分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>6-12k·13薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C6" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E6" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F6" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>9分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C7" t="str">
-        <v>UIOT超级智慧家</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D7" t="str">
         <v>郑州</v>
@@ -538,67 +538,67 @@
         <v>统招本科</v>
       </c>
       <c r="G7" t="str">
-        <v>3小时前</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>8-10k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D8" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E8" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F8" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G8" t="str">
-        <v>9分钟前</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>8-10k·13薪</v>
+        <v>10-16k·13薪</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E9" t="str">
         <v>3-5年</v>
       </c>
       <c r="F9" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G9" t="str">
-        <v>9分钟前</v>
+        <v>3小时前</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Android开发工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B10" t="str">
-        <v>8-10k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E10" t="str">
         <v>3-5年</v>
@@ -607,139 +607,139 @@
         <v>大专及以上</v>
       </c>
       <c r="G10" t="str">
-        <v>9分钟前</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>8-12k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C11" t="str">
-        <v>河南银商信息咨询服务有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F11" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G11" t="str">
-        <v>5小时前</v>
+        <v>22小时前</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>安卓工程师</v>
+        <v>Android底层开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C12" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E12" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F12" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G12" t="str">
-        <v>6小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android C/C++开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C13" t="str">
-        <v>河南银商信息咨询服务有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E13" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F13" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G13" t="str">
-        <v>5小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>安卓开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>10-15k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C14" t="str">
-        <v>天迈科技</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E14" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F14" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G14" t="str">
-        <v>5小时前</v>
+        <v>19小时前</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>10-16k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C15" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E15" t="str">
         <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G15" t="str">
-        <v>6小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Android高级开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>20-35k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C16" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南银商信息咨询服务有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E16" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F16" t="str">
         <v>本科及以上</v>
@@ -750,22 +750,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>高级Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C17" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南银商信息咨询服务有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E17" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G17" t="str">
         <v>昨天</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C18" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D18" t="str">
         <v>郑州</v>
@@ -796,177 +796,177 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>15-25k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C19" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E19" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F19" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G19" t="str">
-        <v>昨天</v>
+        <v>19小时前</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>7-10k·12薪</v>
+        <v>20-35k·12薪</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E20" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F20" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G20" t="str">
-        <v>21小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>安卓工程师</v>
+        <v>高级Android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>8-12k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>云涌科技</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D21" t="str">
         <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F21" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G21" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B22" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>蓝信科技</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F22" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G22" t="str">
-        <v>21小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B23" t="str">
-        <v>3-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C23" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E23" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F23" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G23" t="str">
-        <v>22小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>安卓android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>8-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C24" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E24" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F24" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G24" t="str">
-        <v>2021-02-27</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C25" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D25" t="str">
         <v>郑州</v>
       </c>
       <c r="E25" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F25" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G25" t="str">
-        <v>2021-02-27</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C26" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E26" t="str">
         <v>3-5年</v>
@@ -975,21 +975,21 @@
         <v>统招本科</v>
       </c>
       <c r="G26" t="str">
-        <v>2021-02-27</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>6-8k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E27" t="str">
         <v>1-3年</v>
@@ -998,41 +998,41 @@
         <v>大专及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>2021-02-26</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>20-30k·14薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C28" t="str">
-        <v>建达软件</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D28" t="str">
         <v>郑州</v>
       </c>
       <c r="E28" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F28" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G28" t="str">
-        <v>2021-02-26</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C29" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
@@ -1041,24 +1041,24 @@
         <v>5-10年</v>
       </c>
       <c r="F29" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>安卓开发</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C30" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E30" t="str">
         <v>3-5年</v>
@@ -1067,18 +1067,18 @@
         <v>统招本科</v>
       </c>
       <c r="G30" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
         <v>6-8k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>思维自动化</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D31" t="str">
         <v>郑州</v>
@@ -1087,21 +1087,21 @@
         <v>1-3年</v>
       </c>
       <c r="F31" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>资深android开发工程师</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>15-20k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>建达软件</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
@@ -1113,110 +1113,110 @@
         <v>统招本科</v>
       </c>
       <c r="G32" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>资深安卓开发</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B33" t="str">
         <v>15-20k·12薪</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D33" t="str">
         <v>郑州</v>
       </c>
       <c r="E33" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F33" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G33" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>安卓前端（运维、ui设计）</v>
+        <v>安卓开发</v>
       </c>
       <c r="B34" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C34" t="str">
-        <v>某化工企业</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E34" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F34" t="str">
         <v>统招本科</v>
       </c>
       <c r="G34" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>10-15k·14薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C35" t="str">
-        <v>天迈科技</v>
+        <v>思维自动化</v>
       </c>
       <c r="D35" t="str">
         <v>郑州</v>
       </c>
       <c r="E35" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F35" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G35" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓前端（运维、ui设计）</v>
       </c>
       <c r="B36" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C36" t="str">
-        <v>刀锋互娱</v>
+        <v>某化工企业</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F36" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G36" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>android</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6-9k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C37" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D37" t="str">
         <v>郑州</v>
@@ -1228,27 +1228,27 @@
         <v>大专及以上</v>
       </c>
       <c r="G37" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>8-11k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F38" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G38" t="str">
         <v>2021-02-22</v>
@@ -1256,91 +1256,91 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android应用开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B39" t="str">
-        <v>7-11k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C39" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F39" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G39" t="str">
-        <v>2021-02-21</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B40" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C40" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F40" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G40" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>15-20k·13薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C41" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F41" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G41" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>15-20k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C42" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E42" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F42" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G42" t="str">
         <v>2021-02-20</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>资深android开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B43" t="str">
         <v>15-20k·13薪</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Andriod开发工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B44" t="str">
-        <v>12-16k·13薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C44" t="str">
         <v>麒麟合盛网络技术股份有限公司</v>
@@ -1394,16 +1394,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>高级android工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>10-15k·14薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C45" t="str">
-        <v>上市高科技企业</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E45" t="str">
         <v>5-10年</v>
@@ -1412,87 +1412,87 @@
         <v>统招本科</v>
       </c>
       <c r="G45" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>安卓开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>6-10k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C46" t="str">
-        <v>河南峦辉网络科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E46" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F46" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G46" t="str">
-        <v>2021-02-17</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android系统固件工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>上市高科技企业</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E47" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F47" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G47" t="str">
-        <v>一个月前</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>5-7k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南峦辉网络科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E48" t="str">
         <v>1-3年</v>
       </c>
       <c r="F48" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G48" t="str">
-        <v>一个月前</v>
+        <v>2021-02-17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>android工程师</v>
+        <v>Android系统固件工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>12-20k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C49" t="str">
-        <v>缔云科技</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D49" t="str">
         <v>郑州</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>11-17k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C50" t="str">
-        <v>中宝科技</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E50" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F50" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G50" t="str">
         <v>一个月前</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>6-10k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>河南一九八八网络科技有限公司</v>
+        <v>缔云科技</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E51" t="str">
         <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G51" t="str">
         <v>一个月前</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>android应用开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>12-20k·14薪</v>
+        <v>11-17k·12薪</v>
       </c>
       <c r="C52" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>中宝科技</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E52" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F52" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G52" t="str">
         <v>一个月前</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Android开发</v>
+        <v>Android工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>9-13k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南一九八八网络科技有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E53" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1601,19 +1601,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B54" t="str">
-        <v>7-10k·12薪</v>
+        <v>9-13k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>中钢网</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
       </c>
       <c r="E54" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F54" t="str">
         <v>本科及以上</v>
@@ -1624,13 +1624,13 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B55" t="str">
-        <v>10-15k·15薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C55" t="str">
-        <v>某大型智能家居公司</v>
+        <v>中钢网</v>
       </c>
       <c r="D55" t="str">
         <v>郑州</v>
@@ -1647,19 +1647,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C56" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>某大型智能家居公司</v>
       </c>
       <c r="D56" t="str">
         <v>郑州</v>
       </c>
       <c r="E56" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F56" t="str">
         <v>本科及以上</v>
@@ -1670,19 +1670,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B57" t="str">
-        <v>15-30k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D57" t="str">
         <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F57" t="str">
         <v>本科及以上</v>
@@ -1693,16 +1693,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>9-12k·12薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C58" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州</v>
       </c>
       <c r="E58" t="str">
         <v>3-5年</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>Android</v>
       </c>
       <c r="B59" t="str">
-        <v>10-15k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E59" t="str">
         <v>3-5年</v>
       </c>
       <c r="F59" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G59" t="str">
         <v>一个月前</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Android开发工程师</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B60" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-咸嘉湖</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E60" t="str">
         <v>3-5年</v>
       </c>
       <c r="F60" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G60" t="str">
         <v>一个月前</v>
@@ -1762,16 +1762,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>10-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C61" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州</v>
+        <v>郑州-咸嘉湖</v>
       </c>
       <c r="E61" t="str">
         <v>3-5年</v>
@@ -1785,13 +1785,13 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B62" t="str">
-        <v>6-11k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>新开普电子</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D62" t="str">
         <v>郑州</v>
@@ -1800,7 +1800,7 @@
         <v>3-5年</v>
       </c>
       <c r="F62" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G62" t="str">
         <v>一个月前</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>9-13k·13薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C63" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-翠苑</v>
+        <v>郑州</v>
       </c>
       <c r="E63" t="str">
         <v>3-5年</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>8-11k·12薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C64" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-翠苑</v>
       </c>
       <c r="E64" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G64" t="str">
         <v>一个月前</v>
@@ -1854,22 +1854,22 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android</v>
+        <v>android</v>
       </c>
       <c r="B65" t="str">
-        <v>5-9k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>中裕广恒</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E65" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F65" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G65" t="str">
         <v>一个月前</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android app开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B66" t="str">
-        <v>8-15k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D66" t="str">
         <v>郑州-北林路</v>
@@ -1892,7 +1892,7 @@
         <v>3-5年</v>
       </c>
       <c r="F66" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G66" t="str">
         <v>一个月前</v>
@@ -1900,19 +1900,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>9-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E67" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F67" t="str">
         <v>大专及以上</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发</v>
+        <v>android</v>
       </c>
       <c r="B68" t="str">
-        <v>5-8k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>东方蓝深</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E68" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F68" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G68" t="str">
         <v>一个月前</v>
@@ -1946,19 +1946,19 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Android开发</v>
+        <v>android开发</v>
       </c>
       <c r="B69" t="str">
-        <v>8-12k·14薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>正商地产</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E69" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F69" t="str">
         <v>统招本科</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>Android开发</v>
       </c>
       <c r="B70" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C70" t="str">
         <v>正商地产</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E70" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F70" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G70" t="str">
         <v>一个月前</v>
@@ -1992,19 +1992,19 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B71" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E71" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F71" t="str">
         <v>本科及以上</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C72" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E72" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F72" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G72" t="str">
         <v>一个月前</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B73" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-城东路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E73" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F73" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G73" t="str">
         <v>一个月前</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android开发工程师岗</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C74" t="str">
         <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E74" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F74" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G74" t="str">
         <v>一个月前</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android开发</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B75" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C75" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E75" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G75" t="str">
         <v>一个月前</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>Android开发</v>
       </c>
       <c r="B76" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>超图软件</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E76" t="str">
         <v>1-3年</v>
       </c>
       <c r="F76" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G76" t="str">
         <v>一个月前</v>
@@ -2130,19 +2130,19 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B77" t="str">
-        <v>15-20k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>浩鲸智能</v>
+        <v>超图软件</v>
       </c>
       <c r="D77" t="str">
         <v>郑州-燕庄</v>
       </c>
       <c r="E77" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F77" t="str">
         <v>本科及以上</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B78" t="str">
-        <v>7-14k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E78" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F78" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G78" t="str">
         <v>一个月前</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C79" t="str">
         <v>北京云海航创网络科技有限公司郑州分公司</v>
@@ -2188,7 +2188,7 @@
         <v>郑州-二七区</v>
       </c>
       <c r="E79" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F79" t="str">
         <v>大专及以上</v>
@@ -2199,19 +2199,19 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>Android</v>
       </c>
       <c r="B80" t="str">
-        <v>6k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E80" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F80" t="str">
         <v>大专及以上</v>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>android开发工程师</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B81" t="str">
-        <v>8-16k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E81" t="str">
         <v>1-3年</v>
@@ -2245,16 +2245,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E82" t="str">
         <v>1-3年</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F83" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G83" t="str">
         <v>一个月前</v>
@@ -2294,16 +2294,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>5-10k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C84" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F84" t="str">
         <v>本科及以上</v>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C85" t="str">
-        <v>汉克时代</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-中山公园</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E85" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F85" t="str">
         <v>本科及以上</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B86" t="str">
-        <v>14-18k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>崤云信息</v>
+        <v>汉克时代</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州</v>
+        <v>郑州-中山公园</v>
       </c>
       <c r="E86" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F86" t="str">
         <v>本科及以上</v>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Android高级开发工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B87" t="str">
-        <v>10-15k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>崤云信息</v>
       </c>
       <c r="D87" t="str">
         <v>郑州</v>
@@ -2375,7 +2375,7 @@
         <v>3-5年</v>
       </c>
       <c r="F87" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G87" t="str">
         <v>一个月前</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>20-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C88" t="str">
-        <v>京东</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D88" t="str">
         <v>郑州</v>
       </c>
       <c r="E88" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F88" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G88" t="str">
         <v>一个月前</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>4-8k·12薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>比特耐特</v>
+        <v>京东</v>
       </c>
       <c r="D89" t="str">
         <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F89" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G89" t="str">
         <v>一个月前</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B90" t="str">
         <v>4-8k·12薪</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6-9k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E91" t="str">
         <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G91" t="str">
         <v>一个月前</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android开发</v>
+        <v>Android</v>
       </c>
       <c r="B92" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E92" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G92" t="str">
         <v>一个月前</v>
@@ -2498,19 +2498,19 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android逆向工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B93" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E93" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F93" t="str">
         <v>大专及以上</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>高级android开发工程师</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>14-18k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>崤云安全</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E94" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F94" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G94" t="str">
         <v>一个月前</v>
@@ -2544,19 +2544,19 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Android工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>8-12k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E95" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F95" t="str">
         <v>本科及以上</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>8-12k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E96" t="str">
         <v>1-3年</v>
       </c>
       <c r="F96" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G96" t="str">
         <v>一个月前</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Android</v>
+        <v>android工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C97" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E97" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F97" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G97" t="str">
         <v>一个月前</v>
@@ -2616,19 +2616,19 @@
         <v>Android</v>
       </c>
       <c r="B98" t="str">
-        <v>8-11k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F98" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G98" t="str">
         <v>一个月前</v>
@@ -2636,16 +2636,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Android开发</v>
+        <v>Android</v>
       </c>
       <c r="B99" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>华英农业</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E99" t="str">
         <v>1-3年</v>
@@ -2659,16 +2659,16 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B100" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C100" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E100" t="str">
         <v>1-3年</v>
@@ -2685,19 +2685,19 @@
         <v>Android</v>
       </c>
       <c r="B101" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E101" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F101" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G101" t="str">
         <v>一个月前</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B102" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E102" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F102" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G102" t="str">
         <v>一个月前</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B103" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E103" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F103" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G103" t="str">
         <v>一个月前</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E104" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F104" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G104" t="str">
         <v>一个月前</v>
@@ -2777,13 +2777,13 @@
         <v>Android高级开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C105" t="str">
         <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E105" t="str">
         <v>1-3年</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F106" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G106" t="str">
         <v>一个月前</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>android开发</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E107" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F107" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G107" t="str">
         <v>一个月前</v>
@@ -2846,13 +2846,13 @@
         <v>android开发</v>
       </c>
       <c r="B108" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C108" t="str">
-        <v>网道咨询</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E108" t="str">
         <v>1-3年</v>
@@ -2866,13 +2866,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B109" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D109" t="str">
         <v>郑州</v>
@@ -2881,7 +2881,7 @@
         <v>1-3年</v>
       </c>
       <c r="F109" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G109" t="str">
         <v>一个月前</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>6-13k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E110" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F110" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G110" t="str">
         <v>一个月前</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E111" t="str">
         <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G111" t="str">
         <v>一个月前</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>华英农业</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E112" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F112" t="str">
         <v>大专及以上</v>
@@ -2961,10 +2961,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D113" t="str">
         <v>郑州</v>
@@ -2973,7 +2973,7 @@
         <v>1-3年</v>
       </c>
       <c r="F113" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G113" t="str">
         <v>一个月前</v>
@@ -2984,19 +2984,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>7-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F114" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G114" t="str">
         <v>一个月前</v>
@@ -3007,19 +3007,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D115" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E115" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F115" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G115" t="str">
         <v>一个月前</v>
@@ -3027,16 +3027,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>4-9k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C116" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E116" t="str">
         <v>1-3年</v>
@@ -3050,16 +3050,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>android讲师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>8-12k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E117" t="str">
         <v>1-3年</v>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>android开发工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B118" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州</v>
@@ -3096,19 +3096,19 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D119" t="str">
         <v>郑州</v>
       </c>
       <c r="E119" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F119" t="str">
         <v>本科及以上</v>
@@ -3119,13 +3119,13 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B120" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>修齐治平</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D120" t="str">
         <v>郑州</v>
@@ -3134,7 +3134,7 @@
         <v>3-5年</v>
       </c>
       <c r="F120" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G120" t="str">
         <v>一个月前</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>android开发工程师</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E121" t="str">
         <v>3-5年</v>
       </c>
       <c r="F121" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G121" t="str">
         <v>一个月前</v>
@@ -3165,22 +3165,22 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>8-13k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E122" t="str">
         <v>3-5年</v>
       </c>
       <c r="F122" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G122" t="str">
         <v>一个月前</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>安卓开发</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C123" t="str">
-        <v>浩鲸智能</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E123" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F123" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G123" t="str">
         <v>一个月前</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B124" t="str">
-        <v>6-7k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E124" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F124" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G124" t="str">
         <v>一个月前</v>
@@ -3237,19 +3237,19 @@
         <v>安卓工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C125" t="str">
-        <v>浩鲸智能</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E125" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F125" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G125" t="str">
         <v>一个月前</v>
@@ -3260,19 +3260,19 @@
         <v>安卓工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>10-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C126" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E126" t="str">
         <v>3-5年</v>
       </c>
       <c r="F126" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G126" t="str">
         <v>一个月前</v>
@@ -3280,13 +3280,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>安卓讲师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D127" t="str">
         <v>郑州</v>
@@ -3303,19 +3303,19 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B128" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C128" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F128" t="str">
         <v>大专及以上</v>
@@ -3329,16 +3329,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C129" t="str">
-        <v>郑州八角信息技术有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F129" t="str">
         <v>大专及以上</v>
@@ -3352,16 +3352,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>7-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C130" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>郑州八角信息技术有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F130" t="str">
         <v>大专及以上</v>
@@ -3375,19 +3375,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>10-13k·12薪</v>
+        <v>7-8k·12薪</v>
       </c>
       <c r="C131" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E131" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F131" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G131" t="str">
         <v>一个月前</v>
@@ -3398,10 +3398,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>10-15k·14薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>蓝信科技</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D132" t="str">
         <v>郑州</v>
@@ -3410,7 +3410,7 @@
         <v>5-10年</v>
       </c>
       <c r="F132" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G132" t="str">
         <v>一个月前</v>
@@ -3421,19 +3421,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C133" t="str">
-        <v>迈特望</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F133" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G133" t="str">
         <v>一个月前</v>
@@ -3441,22 +3441,22 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>8-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C134" t="str">
-        <v>刀锋互娱</v>
+        <v>迈特望</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E134" t="str">
         <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G134" t="str">
         <v>一个月前</v>
@@ -3464,16 +3464,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C135" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E135" t="str">
         <v>3-5年</v>
@@ -3487,22 +3487,22 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B136" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C136" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E136" t="str">
         <v>3-5年</v>
       </c>
       <c r="F136" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G136" t="str">
         <v>一个月前</v>
@@ -3513,19 +3513,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C137" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E137" t="str">
         <v>3-5年</v>
       </c>
       <c r="F137" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G137" t="str">
         <v>一个月前</v>
@@ -3533,22 +3533,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C138" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E138" t="str">
         <v>3-5年</v>
       </c>
       <c r="F138" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G138" t="str">
         <v>一个月前</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>安卓开发工程师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>河南盈北网络科技有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E139" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F139" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G139" t="str">
         <v>一个月前</v>
@@ -3582,19 +3582,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>12-20k·14薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C140" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>河南盈北网络科技有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E140" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F140" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G140" t="str">
         <v>一个月前</v>
@@ -3850,7 +3850,7 @@
         <v>学历不限</v>
       </c>
       <c r="G151" t="str">
-        <v>9分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="152">
@@ -3873,21 +3873,21 @@
         <v>大专及以上</v>
       </c>
       <c r="G152" t="str">
-        <v>9分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>APP运行维护</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>20-30k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C153" t="str">
-        <v>河南博众供应链管理有限公司</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
@@ -3896,21 +3896,21 @@
         <v>本科及以上</v>
       </c>
       <c r="G153" t="str">
-        <v>5小时前</v>
+        <v>36分钟前</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>ui设计师</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>4-6k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C154" t="str">
-        <v>河南博众供应链管理有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E154" t="str">
         <v>3-5年</v>
@@ -3919,96 +3919,96 @@
         <v>大专及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>5小时前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>架构师</v>
       </c>
       <c r="B155" t="str">
-        <v>8-12k·13薪</v>
+        <v>20-25k·12薪</v>
       </c>
       <c r="C155" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E155" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F155" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G155" t="str">
-        <v>9分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>移动开发负责人</v>
       </c>
       <c r="B156" t="str">
-        <v>80-100k·12薪</v>
+        <v>15-25k·15薪</v>
       </c>
       <c r="C156" t="str">
-        <v>全国连锁猎头集团</v>
+        <v>某知名互联网公司</v>
       </c>
       <c r="D156" t="str">
         <v>郑州</v>
       </c>
       <c r="E156" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F156" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G156" t="str">
-        <v>3小时前</v>
+        <v>18小时前</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>技术经理</v>
+        <v>APP运行维护</v>
       </c>
       <c r="B157" t="str">
-        <v>18-23k·14薪</v>
+        <v>20-30k·12薪</v>
       </c>
       <c r="C157" t="str">
-        <v>某大型游戏陪玩公司</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E157" t="str">
         <v>3-5年</v>
       </c>
       <c r="F157" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>23小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>软件测试</v>
+        <v>ui设计师</v>
       </c>
       <c r="B158" t="str">
-        <v>7-12k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C158" t="str">
-        <v>郑州市金琥科技有限公司</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E158" t="str">
         <v>3-5年</v>
       </c>
       <c r="F158" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G158" t="str">
         <v>昨天</v>
@@ -4016,39 +4016,39 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>google广告优化师</v>
+        <v>系统架构师</v>
       </c>
       <c r="B159" t="str">
-        <v>8-12k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>河南国超电子商务有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E159" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F159" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G159" t="str">
-        <v>昨天</v>
+        <v>12小时前</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>高级软件工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>6-11k·13薪</v>
+        <v>80-100k·12薪</v>
       </c>
       <c r="C160" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E160" t="str">
         <v>3-5年</v>
@@ -4057,44 +4057,44 @@
         <v>本科及以上</v>
       </c>
       <c r="G160" t="str">
-        <v>23小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>软件工程师</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>5-11k·13薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E161" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F161" t="str">
-        <v>大专及以上</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G161" t="str">
-        <v>23小时前</v>
+        <v>12小时前</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>APP运营主管/经理</v>
+        <v>技术经理</v>
       </c>
       <c r="B162" t="str">
-        <v>10-18k·12薪</v>
+        <v>18-23k·14薪</v>
       </c>
       <c r="C162" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>某大型游戏陪玩公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E162" t="str">
         <v>3-5年</v>
@@ -4103,67 +4103,67 @@
         <v>大专及以上</v>
       </c>
       <c r="G162" t="str">
-        <v>22小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>测试工程师</v>
+        <v>软件测试</v>
       </c>
       <c r="B163" t="str">
-        <v>6-12k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州市金琥科技有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E163" t="str">
         <v>3-5年</v>
       </c>
       <c r="F163" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G163" t="str">
-        <v>2021-02-27</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>google广告优化师</v>
       </c>
       <c r="B164" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C164" t="str">
-        <v>速游</v>
+        <v>河南国超电子商务有限公司</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州-五山</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E164" t="str">
-        <v>一年以下</v>
+        <v>1-3年</v>
       </c>
       <c r="F164" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G164" t="str">
-        <v>前天</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C165" t="str">
-        <v>中原期货</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E165" t="str">
         <v>3-5年</v>
@@ -4172,41 +4172,41 @@
         <v>本科及以上</v>
       </c>
       <c r="G165" t="str">
-        <v>2021-02-27</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>产品经理</v>
+        <v>软件工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>15-30k·12薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C166" t="str">
-        <v>猎豹移动</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E166" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F166" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G166" t="str">
-        <v>2021-02-26</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>移动端开发工程师</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B167" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>中原银行</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D167" t="str">
         <v>郑州</v>
@@ -4215,145 +4215,145 @@
         <v>3-5年</v>
       </c>
       <c r="F167" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G167" t="str">
-        <v>2021-02-26</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>APP前端开发工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>河南昭麒信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E168" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F168" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G168" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>公众号运营</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B169" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>河南小微动力科技有限公司</v>
+        <v>速游</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-五山</v>
       </c>
       <c r="E169" t="str">
-        <v>1-3年</v>
+        <v>一年以下</v>
       </c>
       <c r="F169" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G169" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>移动端产品副总监</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B170" t="str">
-        <v>25-35k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>一站式游戏社交服务平台</v>
+        <v>中原期货</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E170" t="str">
         <v>3-5年</v>
       </c>
       <c r="F170" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G170" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>移动开发测试经理</v>
+        <v>产品经理</v>
       </c>
       <c r="B171" t="str">
-        <v>15-25k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
+        <v>猎豹移动</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E171" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F171" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G171" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>移动开发技术经理</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B172" t="str">
         <v>15-25k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
+        <v>中原银行</v>
       </c>
       <c r="D172" t="str">
         <v>郑州</v>
       </c>
       <c r="E172" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F172" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G172" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>App运营推广专员</v>
+        <v>APP前端开发工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C173" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>河南昭麒信息技术有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E173" t="str">
         <v>1-3年</v>
       </c>
       <c r="F173" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G173" t="str">
         <v>2021-02-24</v>
@@ -4361,82 +4361,82 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>技术经理（移动端负责人）</v>
+        <v>公众号运营</v>
       </c>
       <c r="B174" t="str">
-        <v>15-25k·14薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>一站式游戏社交服务平台</v>
+        <v>河南小微动力科技有限公司</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E174" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F174" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G174" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>移动端技术经理</v>
+        <v>移动端产品副总监</v>
       </c>
       <c r="B175" t="str">
-        <v>20-30k·14薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C175" t="str">
-        <v>某一线互联网公司</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E175" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F175" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G175" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>移动端负责人</v>
+        <v>移动开发测试经理</v>
       </c>
       <c r="B176" t="str">
         <v>15-25k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>刀锋互娱</v>
+        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E176" t="str">
         <v>5-10年</v>
       </c>
       <c r="F176" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G176" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>移动端开发工程师</v>
+        <v>移动开发技术经理</v>
       </c>
       <c r="B177" t="str">
-        <v>8-17k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
       </c>
       <c r="D177" t="str">
         <v>郑州</v>
@@ -4448,87 +4448,87 @@
         <v>本科及以上</v>
       </c>
       <c r="G177" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>App运营推广专员</v>
       </c>
       <c r="B178" t="str">
-        <v>10-12k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>恩普特</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E178" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F178" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G178" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>前端开发工程师</v>
+        <v>技术经理（移动端负责人）</v>
       </c>
       <c r="B179" t="str">
-        <v>8-12k·12薪</v>
+        <v>15-25k·14薪</v>
       </c>
       <c r="C179" t="str">
-        <v>郑州汉鑫电子科技有限公司</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-城东路</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E179" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F179" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G179" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>ios</v>
+        <v>移动端技术经理</v>
       </c>
       <c r="B180" t="str">
-        <v>6-9k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C180" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>某一线互联网公司</v>
       </c>
       <c r="D180" t="str">
         <v>郑州</v>
       </c>
       <c r="E180" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F180" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G180" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B181" t="str">
-        <v>8-15k·12薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D181" t="str">
         <v>郑州</v>
@@ -4540,12 +4540,12 @@
         <v>本科及以上</v>
       </c>
       <c r="G181" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>高级产品经理</v>
+        <v>移动端负责人</v>
       </c>
       <c r="B182" t="str">
         <v>15-25k·12薪</v>
@@ -4554,36 +4554,36 @@
         <v>刀锋互娱</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E182" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F182" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G182" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>移动端资深产品经理</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B183" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>刀锋互娱</v>
+        <v>恩普特</v>
       </c>
       <c r="D183" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E183" t="str">
         <v>5-10年</v>
       </c>
       <c r="F183" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G183" t="str">
         <v>2021-02-22</v>
@@ -4591,22 +4591,22 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>产品经理</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B184" t="str">
-        <v>7-15k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>完美数联</v>
+        <v>郑州汉鑫电子科技有限公司</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E184" t="str">
         <v>3-5年</v>
       </c>
       <c r="F184" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G184" t="str">
         <v>2021-02-22</v>
@@ -4614,223 +4614,223 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>UI设计</v>
+        <v>ios</v>
       </c>
       <c r="B185" t="str">
         <v>6-9k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D185" t="str">
         <v>郑州</v>
       </c>
       <c r="E185" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F185" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G185" t="str">
-        <v>2021-02-21</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B186" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C186" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E186" t="str">
         <v>5-10年</v>
       </c>
       <c r="F186" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G186" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B187" t="str">
-        <v>10-15k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>天瑞集团</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E187" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F187" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G187" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Java开发工程师</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B188" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C188" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D188" t="str">
         <v>郑州</v>
       </c>
       <c r="E188" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F188" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G188" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B189" t="str">
-        <v>13-25k·13薪</v>
+        <v>7-15k·13薪</v>
       </c>
       <c r="C189" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>完美数联</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E189" t="str">
         <v>3-5年</v>
       </c>
       <c r="F189" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G189" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>科技公司-移动端开发经理</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B190" t="str">
-        <v>7-12k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C190" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D190" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E190" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F190" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G190" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>APP推广</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B191" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·13薪</v>
       </c>
       <c r="C191" t="str">
-        <v>UU跑腿</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E191" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F191" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G191" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B192" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>天瑞集团</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E192" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F192" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G192" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>产品经理</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B193" t="str">
-        <v>8-13k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C193" t="str">
-        <v>UU跑腿</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E193" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F193" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G193" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>科技公司-移动端开发经理</v>
       </c>
       <c r="B194" t="str">
-        <v>10-20k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-来广营</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E194" t="str">
         <v>3-5年</v>
@@ -4844,157 +4844,157 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>APP推广</v>
       </c>
       <c r="B195" t="str">
-        <v>50-80k·16薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C195" t="str">
-        <v>全国连锁猎头公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E195" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F195" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G195" t="str">
-        <v>2021-02-16</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B196" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>超图软件</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E196" t="str">
         <v>1-3年</v>
       </c>
       <c r="F196" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G196" t="str">
-        <v>2021-02-09</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>移动前端开发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B197" t="str">
-        <v>9-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D197" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E197" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F197" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G197" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>前端工程师</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B198" t="str">
-        <v>8-13k·13薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-来广营</v>
       </c>
       <c r="E198" t="str">
         <v>3-5年</v>
       </c>
       <c r="F198" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G198" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>移动前端开发工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B199" t="str">
-        <v>3-5k·12薪</v>
+        <v>50-80k·16薪</v>
       </c>
       <c r="C199" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>全国连锁猎头公司</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州</v>
       </c>
       <c r="E199" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F199" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G199" t="str">
-        <v>一个月前</v>
+        <v>2021-02-16</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B200" t="str">
-        <v>6-12k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>新开普电子</v>
+        <v>超图软件</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E200" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F200" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G200" t="str">
-        <v>一个月前</v>
+        <v>2021-02-09</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>手机软件开发工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B201" t="str">
-        <v>6-7k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E201" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F201" t="str">
         <v>大专及以上</v>
@@ -5005,16 +5005,16 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>app开发工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B202" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C202" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D202" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E202" t="str">
         <v>3-5年</v>
@@ -5028,22 +5028,22 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B203" t="str">
-        <v>8-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E203" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F203" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G203" t="str">
         <v>一个月前</v>
@@ -5051,22 +5051,22 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>ASO优化师</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B204" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C204" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E204" t="str">
         <v>3-5年</v>
       </c>
       <c r="F204" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G204" t="str">
         <v>一个月前</v>
@@ -5074,22 +5074,22 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>app运营主管</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B205" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D205" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E205" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F205" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G205" t="str">
         <v>一个月前</v>
@@ -5097,22 +5097,22 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>移动开发工程师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B206" t="str">
-        <v>10-17k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E206" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F206" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G206" t="str">
         <v>一个月前</v>
@@ -5120,22 +5120,22 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>软件工程师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>郑州卓安</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E207" t="str">
         <v>1-3年</v>
       </c>
       <c r="F207" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G207" t="str">
         <v>一个月前</v>
@@ -5143,19 +5143,19 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>java开发</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B208" t="str">
-        <v>5-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>郑州卓安</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E208" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F208" t="str">
         <v>大专及以上</v>
@@ -5166,16 +5166,16 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>移动开发工程师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B209" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C209" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D209" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E209" t="str">
         <v>3-5年</v>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>软件测试工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B210" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C210" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E210" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F210" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G210" t="str">
         <v>一个月前</v>
@@ -5212,22 +5212,22 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>APP工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B211" t="str">
-        <v>10-12k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>鲜易控股</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E211" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F211" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G211" t="str">
         <v>一个月前</v>
@@ -5235,16 +5235,16 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>cocos2d-x客户端开发工程师</v>
+        <v>java开发</v>
       </c>
       <c r="B212" t="str">
-        <v>6-12k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D212" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E212" t="str">
         <v>1-3年</v>
@@ -5258,22 +5258,22 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>应用层开发工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B213" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E213" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F213" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G213" t="str">
         <v>一个月前</v>
@@ -5281,19 +5281,19 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>高级前端讲师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B214" t="str">
-        <v>15-30k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C214" t="str">
-        <v>北京千锋互联科技</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D214" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E214" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F214" t="str">
         <v>大专及以上</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>app推广经理</v>
+        <v>APP工程师</v>
       </c>
       <c r="B215" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>UU跑腿</v>
+        <v>鲜易控股</v>
       </c>
       <c r="D215" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E215" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F215" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,19 +5327,19 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>cocos2d-x客户端开发工程师</v>
       </c>
       <c r="B216" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E216" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F216" t="str">
         <v>大专及以上</v>
@@ -5350,16 +5350,16 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>ui设计师</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B217" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C217" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州</v>
       </c>
       <c r="E217" t="str">
         <v>1-3年</v>
@@ -5373,65 +5373,65 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>前端工程师</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B218" t="str">
-        <v>25-40k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C218" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D218" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E218" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F218" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G218" t="str">
-        <v>2021-02-01</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Java开发工程师</v>
+        <v>app推广经理</v>
       </c>
       <c r="B219" t="str">
-        <v>6-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C219" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D219" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E219" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F219" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G219" t="str">
-        <v>2021-02-01</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>高级招聘专员</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B220" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C220" t="str">
-        <v>云鸟配送</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D220" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E220" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F220" t="str">
         <v>大专及以上</v>
@@ -5442,22 +5442,22 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>渗透测试工程师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B221" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>爱加密</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D221" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E221" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F221" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G221" t="str">
         <v>一个月前</v>
@@ -5465,68 +5465,68 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>渗透测试工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B222" t="str">
-        <v>10-15k·12薪</v>
+        <v>25-40k·12薪</v>
       </c>
       <c r="C222" t="str">
-        <v>爱加密</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D222" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E222" t="str">
         <v>3-5年</v>
       </c>
       <c r="F222" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G222" t="str">
-        <v>一个月前</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>（郑州）web前端开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B223" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C223" t="str">
-        <v>东华软件</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D223" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E223" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F223" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G223" t="str">
-        <v>一个月前</v>
+        <v>2021-02-01</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>高级招聘专员</v>
       </c>
       <c r="B224" t="str">
-        <v>12-15k·14薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>某银行股份有限公司</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D224" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E224" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F224" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G224" t="str">
         <v>一个月前</v>
@@ -5534,19 +5534,19 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>测试工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B225" t="str">
-        <v>6-12k·14薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C225" t="str">
-        <v>崤云安全</v>
+        <v>爱加密</v>
       </c>
       <c r="D225" t="str">
         <v>郑州</v>
       </c>
       <c r="E225" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F225" t="str">
         <v>本科及以上</v>
@@ -5557,22 +5557,22 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>系统架构师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B226" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>油田咨询</v>
+        <v>爱加密</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E226" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F226" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G226" t="str">
         <v>一个月前</v>
@@ -5580,22 +5580,22 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>系统测试工程师</v>
+        <v>（郑州）web前端开发工程师</v>
       </c>
       <c r="B227" t="str">
-        <v>5-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>油田咨询</v>
+        <v>东华软件</v>
       </c>
       <c r="D227" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E227" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F227" t="str">
-        <v>硕士及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G227" t="str">
         <v>一个月前</v>
@@ -5603,22 +5603,22 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B228" t="str">
-        <v>10-20k·12薪</v>
+        <v>12-15k·14薪</v>
       </c>
       <c r="C228" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>某银行股份有限公司</v>
       </c>
       <c r="D228" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E228" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F228" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G228" t="str">
         <v>一个月前</v>
@@ -5626,19 +5626,19 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>C++开发工程师中级</v>
+        <v>测试工程师</v>
       </c>
       <c r="B229" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C229" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D229" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E229" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F229" t="str">
         <v>本科及以上</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>信息化专员</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B230" t="str">
-        <v>面议</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>建业新生活</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D230" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E230" t="str">
         <v>3-5年</v>
       </c>
       <c r="F230" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G230" t="str">
         <v>一个月前</v>
@@ -5672,19 +5672,19 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>前端开发工程师</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B231" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>北大软件</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D231" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E231" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F231" t="str">
         <v>本科及以上</v>
@@ -5695,22 +5695,22 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>java高级工程师</v>
+        <v>信息化专员</v>
       </c>
       <c r="B232" t="str">
-        <v>10-11k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C232" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>建业新生活</v>
       </c>
       <c r="D232" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E232" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F232" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G232" t="str">
         <v>一个月前</v>
@@ -5718,19 +5718,19 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B233" t="str">
-        <v>7-11k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C233" t="str">
-        <v>新开普电子</v>
+        <v>北大软件</v>
       </c>
       <c r="D233" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E233" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F233" t="str">
         <v>本科及以上</v>
@@ -5741,22 +5741,22 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>智能技术开发主管</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B234" t="str">
-        <v>面议</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C234" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E234" t="str">
-        <v>10年以上</v>
+        <v>5-10年</v>
       </c>
       <c r="F234" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G234" t="str">
         <v>一个月前</v>
@@ -5764,13 +5764,13 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>JAVA开发</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B235" t="str">
-        <v>8-13k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D235" t="str">
         <v>郑州</v>
@@ -5787,19 +5787,19 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>java开发工程师</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B236" t="str">
-        <v>7-10k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C236" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E236" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F236" t="str">
         <v>本科及以上</v>
@@ -5810,22 +5810,22 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B237" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D237" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E237" t="str">
         <v>5-10年</v>
       </c>
       <c r="F237" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G237" t="str">
         <v>一个月前</v>
@@ -5833,22 +5833,22 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>架构师</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B238" t="str">
-        <v>15-20k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C238" t="str">
-        <v>东方蓝深</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D238" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E238" t="str">
         <v>5-10年</v>
       </c>
       <c r="F238" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G238" t="str">
         <v>一个月前</v>

--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,22 +408,22 @@
         <v>高级android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>6-12k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E2" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F2" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G2" t="str">
-        <v>1小时前</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E3" t="str">
         <v>经验不限</v>
@@ -446,30 +446,30 @@
         <v>大专及以上</v>
       </c>
       <c r="G3" t="str">
-        <v>1小时前</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C4" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E4" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F4" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>1小时前</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E5" t="str">
         <v>3-5年</v>
@@ -492,7 +492,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G5" t="str">
-        <v>1小时前</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
@@ -515,50 +515,50 @@
         <v>大专及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>1小时前</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>资深android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G7" t="str">
-        <v>2小时前</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>安卓工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C8" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E8" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F8" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G8" t="str">
         <v>2小时前</v>
@@ -566,16 +566,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>10-16k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C9" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>河南某互联网科技公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E9" t="str">
         <v>3-5年</v>
@@ -584,18 +584,18 @@
         <v>本科及以上</v>
       </c>
       <c r="G9" t="str">
-        <v>3小时前</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>资深安卓开发</v>
+        <v>安卓开发</v>
       </c>
       <c r="B10" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>科蓝软件</v>
       </c>
       <c r="D10" t="str">
         <v>郑州</v>
@@ -604,145 +604,145 @@
         <v>3-5年</v>
       </c>
       <c r="F10" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G10" t="str">
-        <v>2小时前</v>
+        <v>8小时前</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C11" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E11" t="str">
         <v>1-3年</v>
       </c>
       <c r="F11" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G11" t="str">
-        <v>22小时前</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Android底层开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>8-15k·12薪</v>
+        <v>10-16k·13薪</v>
       </c>
       <c r="C12" t="str">
-        <v>UIOT超级智慧家</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E12" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F12" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G12" t="str">
-        <v>昨天</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Android C/C++开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B13" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C13" t="str">
-        <v>天迈科技</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E13" t="str">
         <v>5-10年</v>
       </c>
       <c r="F13" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G13" t="str">
-        <v>昨天</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>android应用开发工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B14" t="str">
-        <v>12-20k·14薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C14" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E14" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F14" t="str">
         <v>统招本科</v>
       </c>
       <c r="G14" t="str">
-        <v>19小时前</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C15" t="str">
-        <v>UIOT超级智慧家</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E15" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F15" t="str">
         <v>统招本科</v>
       </c>
       <c r="G15" t="str">
-        <v>昨天</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>安卓工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>8-12k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C16" t="str">
-        <v>河南银商信息咨询服务有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E16" t="str">
         <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G16" t="str">
         <v>昨天</v>
@@ -750,45 +750,45 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>安卓开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>8-12k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C17" t="str">
-        <v>河南银商信息咨询服务有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E17" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F17" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G17" t="str">
-        <v>昨天</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B18" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C18" t="str">
-        <v>天迈科技</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D18" t="str">
         <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F18" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G18" t="str">
         <v>昨天</v>
@@ -796,36 +796,36 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android底层开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>12-20k·14薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C19" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E19" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F19" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G19" t="str">
-        <v>19小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android C/C++开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>20-35k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C20" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D20" t="str">
         <v>郑州</v>
@@ -834,7 +834,7 @@
         <v>5-10年</v>
       </c>
       <c r="F20" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G20" t="str">
         <v>前天</v>
@@ -842,45 +842,45 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>高级Android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>12-20k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C21" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E21" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F21" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G21" t="str">
-        <v>前天</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D22" t="str">
         <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F22" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G22" t="str">
         <v>前天</v>
@@ -888,19 +888,19 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C23" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南银商信息咨询服务有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E23" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F23" t="str">
         <v>本科及以上</v>
@@ -911,48 +911,48 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南银商信息咨询服务有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E24" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F24" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G24" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C25" t="str">
-        <v>云涌科技</v>
+        <v>天迈科技</v>
       </c>
       <c r="D25" t="str">
         <v>郑州</v>
       </c>
       <c r="E25" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F25" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G25" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="26">
@@ -960,13 +960,13 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>10-15k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C26" t="str">
-        <v>蓝信科技</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E26" t="str">
         <v>3-5年</v>
@@ -980,36 +980,36 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>3-8k·12薪</v>
+        <v>20-35k·12薪</v>
       </c>
       <c r="C27" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E27" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F27" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>昨天</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>安卓android开发工程师</v>
+        <v>高级Android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>8-15k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C28" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D28" t="str">
         <v>郑州</v>
@@ -1018,21 +1018,21 @@
         <v>5-10年</v>
       </c>
       <c r="F28" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G28" t="str">
-        <v>2021-02-27</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>安卓端工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B29" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C29" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
@@ -1041,228 +1041,228 @@
         <v>5-10年</v>
       </c>
       <c r="F29" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>2021-02-27</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>安卓端工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B30" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C30" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F30" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G30" t="str">
-        <v>2021-02-27</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E31" t="str">
         <v>1-3年</v>
       </c>
       <c r="F31" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>2021-02-26</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>20-30k·14薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C32" t="str">
-        <v>建达软件</v>
+        <v>云涌科技</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F32" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G32" t="str">
-        <v>2021-02-26</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C33" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E33" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G33" t="str">
-        <v>2021-02-25</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>安卓开发</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>8-13k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C34" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E34" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F34" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G34" t="str">
-        <v>2021-02-25</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C35" t="str">
-        <v>思维自动化</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D35" t="str">
         <v>郑州</v>
       </c>
       <c r="E35" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F35" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G35" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>安卓前端（运维、ui设计）</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C36" t="str">
-        <v>某化工企业</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F36" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G36" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>10-15k·14薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C37" t="str">
-        <v>天迈科技</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G37" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C38" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F38" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G38" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>6-9k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C39" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>建达软件</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
@@ -1271,67 +1271,67 @@
         <v>3-5年</v>
       </c>
       <c r="F39" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G39" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Android</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B40" t="str">
-        <v>8-11k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F40" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G40" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B41" t="str">
-        <v>7-11k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C41" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E41" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F41" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G41" t="str">
-        <v>2021-02-21</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C42" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>思维自动化</v>
       </c>
       <c r="D42" t="str">
         <v>郑州</v>
@@ -1340,139 +1340,139 @@
         <v>1-3年</v>
       </c>
       <c r="F42" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G42" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>安卓前端（运维、ui设计）</v>
       </c>
       <c r="B43" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C43" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>某化工企业</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E43" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F43" t="str">
         <v>统招本科</v>
       </c>
       <c r="G43" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>15-20k·13薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C44" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F44" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G44" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>资深android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>15-20k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C45" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E45" t="str">
         <v>5-10年</v>
       </c>
       <c r="F45" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G45" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Andriod开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B46" t="str">
-        <v>12-16k·13薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C46" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F46" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G46" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>高级android工程师</v>
+        <v>Android</v>
       </c>
       <c r="B47" t="str">
-        <v>10-15k·14薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C47" t="str">
-        <v>上市高科技企业</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F47" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G47" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>6-10k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>河南峦辉网络科技有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E48" t="str">
         <v>1-3年</v>
@@ -1481,64 +1481,64 @@
         <v>大专及以上</v>
       </c>
       <c r="G48" t="str">
-        <v>2021-02-17</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Android系统固件工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>上市高科技企业</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E49" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F49" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G49" t="str">
-        <v>一个月前</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>5-7k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C50" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南峦辉网络科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E50" t="str">
         <v>1-3年</v>
       </c>
       <c r="F50" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G50" t="str">
-        <v>一个月前</v>
+        <v>2021-02-17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android工程师</v>
+        <v>Android系统固件工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>12-20k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>缔云科技</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>11-17k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C52" t="str">
-        <v>中宝科技</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E52" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F52" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G52" t="str">
         <v>一个月前</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Android工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>6-10k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>河南一九八八网络科技有限公司</v>
+        <v>缔云科技</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E53" t="str">
         <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G53" t="str">
         <v>一个月前</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Android开发</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>9-13k·12薪</v>
+        <v>11-17k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>中宝科技</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E54" t="str">
         <v>5-10年</v>
       </c>
       <c r="F54" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G54" t="str">
         <v>一个月前</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android</v>
+        <v>Android工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C55" t="str">
-        <v>中钢网</v>
+        <v>河南一九八八网络科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E55" t="str">
         <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G55" t="str">
         <v>一个月前</v>
@@ -1647,19 +1647,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B56" t="str">
-        <v>10-15k·15薪</v>
+        <v>9-13k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>某大型智能家居公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D56" t="str">
         <v>郑州</v>
       </c>
       <c r="E56" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F56" t="str">
         <v>本科及以上</v>
@@ -1673,16 +1673,16 @@
         <v>Android</v>
       </c>
       <c r="B57" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C57" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>中钢网</v>
       </c>
       <c r="D57" t="str">
         <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F57" t="str">
         <v>本科及以上</v>
@@ -1696,10 +1696,10 @@
         <v>高级android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>15-30k·13薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>某大型智能家居公司</v>
       </c>
       <c r="D58" t="str">
         <v>郑州</v>
@@ -1719,16 +1719,16 @@
         <v>Android</v>
       </c>
       <c r="B59" t="str">
-        <v>9-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C59" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F59" t="str">
         <v>本科及以上</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州</v>
       </c>
       <c r="E60" t="str">
         <v>3-5年</v>
       </c>
       <c r="F60" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G60" t="str">
         <v>一个月前</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B61" t="str">
-        <v>10-15k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C61" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-咸嘉湖</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E61" t="str">
         <v>3-5年</v>
       </c>
       <c r="F61" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G61" t="str">
         <v>一个月前</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>10-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E62" t="str">
         <v>3-5年</v>
       </c>
       <c r="F62" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G62" t="str">
         <v>一个月前</v>
@@ -1811,19 +1811,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>6-11k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C63" t="str">
-        <v>新开普电子</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州</v>
+        <v>郑州-咸嘉湖</v>
       </c>
       <c r="E63" t="str">
         <v>3-5年</v>
       </c>
       <c r="F63" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G63" t="str">
         <v>一个月前</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B64" t="str">
-        <v>9-13k·13薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C64" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-翠苑</v>
+        <v>郑州</v>
       </c>
       <c r="E64" t="str">
         <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G64" t="str">
         <v>一个月前</v>
@@ -1854,22 +1854,22 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>8-11k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州</v>
       </c>
       <c r="E65" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G65" t="str">
         <v>一个月前</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>5-9k·12薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C66" t="str">
-        <v>中裕广恒</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-翠苑</v>
       </c>
       <c r="E66" t="str">
         <v>3-5年</v>
@@ -1900,19 +1900,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android app开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B67" t="str">
-        <v>8-15k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E67" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F67" t="str">
         <v>大专及以上</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android</v>
+        <v>Android</v>
       </c>
       <c r="B68" t="str">
-        <v>9-12k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E68" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F68" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G68" t="str">
         <v>一个月前</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android开发</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>东方蓝深</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E69" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F69" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G69" t="str">
         <v>一个月前</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Android开发</v>
+        <v>android</v>
       </c>
       <c r="B70" t="str">
-        <v>8-12k·14薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>正商地产</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E70" t="str">
         <v>1-3年</v>
       </c>
       <c r="F70" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G70" t="str">
         <v>一个月前</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>android开发</v>
       </c>
       <c r="B71" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>正商地产</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E71" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F71" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G71" t="str">
         <v>一个月前</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发</v>
       </c>
       <c r="B72" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C72" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E72" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F72" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G72" t="str">
         <v>一个月前</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B73" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C73" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E73" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F73" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G73" t="str">
         <v>一个月前</v>
@@ -2061,16 +2061,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C74" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-城东路</v>
+        <v>郑州</v>
       </c>
       <c r="E74" t="str">
         <v>5-10年</v>
@@ -2084,19 +2084,19 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android开发工程师岗</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B75" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C75" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E75" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F75" t="str">
         <v>统招本科</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E76" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F76" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G76" t="str">
         <v>一个月前</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B77" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C77" t="str">
-        <v>超图软件</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E77" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F77" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G77" t="str">
         <v>一个月前</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B78" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>浩鲸智能</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E78" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F78" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G78" t="str">
         <v>一个月前</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B79" t="str">
-        <v>7-14k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C79" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E79" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F79" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G79" t="str">
         <v>一个月前</v>
@@ -2202,19 +2202,19 @@
         <v>Android</v>
       </c>
       <c r="B80" t="str">
-        <v>8-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E80" t="str">
         <v>3-5年</v>
       </c>
       <c r="F80" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G80" t="str">
         <v>一个月前</v>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>6k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E81" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F81" t="str">
         <v>大专及以上</v>
@@ -2245,19 +2245,19 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B82" t="str">
-        <v>8-16k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E82" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F82" t="str">
         <v>大专及以上</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Android开发工程师</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B83" t="str">
-        <v>6-12k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
@@ -2294,19 +2294,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C84" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E84" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F84" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G84" t="str">
         <v>一个月前</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>5-10k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E85" t="str">
         <v>1-3年</v>
       </c>
       <c r="F85" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G85" t="str">
         <v>一个月前</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>汉克时代</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-中山公园</v>
+        <v>郑州</v>
       </c>
       <c r="E86" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F86" t="str">
         <v>本科及以上</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>14-18k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C87" t="str">
-        <v>崤云信息</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E87" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F87" t="str">
         <v>本科及以上</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B88" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C88" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>汉克时代</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州</v>
+        <v>郑州-中山公园</v>
       </c>
       <c r="E88" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F88" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G88" t="str">
         <v>一个月前</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Android开发工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B89" t="str">
-        <v>20-40k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>京东</v>
+        <v>崤云信息</v>
       </c>
       <c r="D89" t="str">
         <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G89" t="str">
         <v>一个月前</v>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>比特耐特</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D90" t="str">
         <v>郑州</v>
       </c>
       <c r="E90" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F90" t="str">
         <v>大专及以上</v>
@@ -2455,19 +2455,19 @@
         <v>Android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>4-8k·12薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>比特耐特</v>
+        <v>京东</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
       </c>
       <c r="E91" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F91" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G91" t="str">
         <v>一个月前</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Android</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B92" t="str">
-        <v>6-9k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E92" t="str">
         <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G92" t="str">
         <v>一个月前</v>
@@ -2498,19 +2498,19 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C93" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E93" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F93" t="str">
         <v>大专及以上</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android逆向工程师</v>
+        <v>Android</v>
       </c>
       <c r="B94" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E94" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F94" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G94" t="str">
         <v>一个月前</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B95" t="str">
-        <v>14-18k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>崤云安全</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E95" t="str">
         <v>3-5年</v>
       </c>
       <c r="F95" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G95" t="str">
         <v>一个月前</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Android工程师</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E96" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F96" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G96" t="str">
         <v>一个月前</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>8-12k·13薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E97" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F97" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G97" t="str">
         <v>一个月前</v>
@@ -2613,19 +2613,19 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Android</v>
+        <v>Android工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E98" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F98" t="str">
         <v>本科及以上</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Android</v>
+        <v>android工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>8-11k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C99" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E99" t="str">
         <v>1-3年</v>
       </c>
       <c r="F99" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G99" t="str">
         <v>一个月前</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Android开发</v>
+        <v>Android</v>
       </c>
       <c r="B100" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C100" t="str">
-        <v>华英农业</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F100" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G100" t="str">
         <v>一个月前</v>
@@ -2685,13 +2685,13 @@
         <v>Android</v>
       </c>
       <c r="B101" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E101" t="str">
         <v>1-3年</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B102" t="str">
-        <v>7-10k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E102" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F102" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G102" t="str">
         <v>一个月前</v>
@@ -2728,19 +2728,19 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B103" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E103" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F103" t="str">
         <v>大专及以上</v>
@@ -2751,19 +2751,19 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B104" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
       </c>
       <c r="E104" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F104" t="str">
         <v>本科及以上</v>
@@ -2774,19 +2774,19 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C105" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E105" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F105" t="str">
         <v>大专及以上</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B106" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F106" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G106" t="str">
         <v>一个月前</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E107" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F107" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G107" t="str">
         <v>一个月前</v>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>android开发</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C108" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州</v>
       </c>
       <c r="E108" t="str">
         <v>1-3年</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android开发</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>网道咨询</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E109" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F109" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G109" t="str">
         <v>一个月前</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B110" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E110" t="str">
         <v>1-3年</v>
       </c>
       <c r="F110" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G110" t="str">
         <v>一个月前</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B111" t="str">
-        <v>6-13k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E111" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F111" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G111" t="str">
         <v>一个月前</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F112" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G112" t="str">
         <v>一个月前</v>
@@ -2958,22 +2958,22 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>4-8k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>华英农业</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E113" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G113" t="str">
         <v>一个月前</v>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E114" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G114" t="str">
         <v>一个月前</v>
@@ -3007,16 +3007,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>7-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F115" t="str">
         <v>大专及以上</v>
@@ -3030,13 +3030,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C116" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E116" t="str">
         <v>1-3年</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>4-9k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E117" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F117" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G117" t="str">
         <v>一个月前</v>
@@ -3073,16 +3073,16 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>android讲师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B118" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E118" t="str">
         <v>1-3年</v>
@@ -3096,16 +3096,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>6-8k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E119" t="str">
         <v>1-3年</v>
@@ -3119,19 +3119,19 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Android开发工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B120" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D120" t="str">
         <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F120" t="str">
         <v>本科及以上</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>修齐治平</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F121" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G121" t="str">
         <v>一个月前</v>
@@ -3165,22 +3165,22 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E122" t="str">
         <v>3-5年</v>
       </c>
       <c r="F122" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G122" t="str">
         <v>一个月前</v>
@@ -3188,16 +3188,16 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>安卓工程师</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>8-13k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C123" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E123" t="str">
         <v>3-5年</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>安卓开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>12-20k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>浩鲸智能</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E124" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F124" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G124" t="str">
         <v>一个月前</v>
@@ -3237,16 +3237,16 @@
         <v>安卓工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>6-7k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C125" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E125" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F125" t="str">
         <v>大专及以上</v>
@@ -3257,19 +3257,19 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B126" t="str">
-        <v>15-20k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C126" t="str">
         <v>浩鲸智能</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E126" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F126" t="str">
         <v>本科及以上</v>
@@ -3283,16 +3283,16 @@
         <v>安卓工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>10-12k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D127" t="str">
         <v>郑州</v>
       </c>
       <c r="E127" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F127" t="str">
         <v>大专及以上</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>安卓讲师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C128" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E128" t="str">
         <v>3-5年</v>
       </c>
       <c r="F128" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G128" t="str">
         <v>一个月前</v>
@@ -3326,19 +3326,19 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C129" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F129" t="str">
         <v>大专及以上</v>
@@ -3349,19 +3349,19 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B130" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C130" t="str">
-        <v>郑州八角信息技术有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F130" t="str">
         <v>大专及以上</v>
@@ -3375,16 +3375,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>7-8k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C131" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F131" t="str">
         <v>大专及以上</v>
@@ -3398,19 +3398,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>10-13k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>郑州八角信息技术有限公司</v>
       </c>
       <c r="D132" t="str">
         <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F132" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G132" t="str">
         <v>一个月前</v>
@@ -3421,19 +3421,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>10-15k·14薪</v>
+        <v>7-8k·12薪</v>
       </c>
       <c r="C133" t="str">
-        <v>蓝信科技</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E133" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G133" t="str">
         <v>一个月前</v>
@@ -3444,19 +3444,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C134" t="str">
-        <v>迈特望</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F134" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G134" t="str">
         <v>一个月前</v>
@@ -3464,22 +3464,22 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>8-20k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C135" t="str">
-        <v>刀锋互娱</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E135" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F135" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G135" t="str">
         <v>一个月前</v>
@@ -3487,22 +3487,22 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C136" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>迈特望</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E136" t="str">
         <v>3-5年</v>
       </c>
       <c r="F136" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G136" t="str">
         <v>一个月前</v>
@@ -3510,22 +3510,22 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>6-11k·12薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C137" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E137" t="str">
         <v>3-5年</v>
       </c>
       <c r="F137" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G137" t="str">
         <v>一个月前</v>
@@ -3533,22 +3533,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B138" t="str">
         <v>7-10k·12薪</v>
       </c>
       <c r="C138" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E138" t="str">
         <v>3-5年</v>
       </c>
       <c r="F138" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G138" t="str">
         <v>一个月前</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E139" t="str">
         <v>3-5年</v>
       </c>
       <c r="F139" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G139" t="str">
         <v>一个月前</v>
@@ -3582,19 +3582,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>5-10k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C140" t="str">
-        <v>河南盈北网络科技有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E140" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F140" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G140" t="str">
         <v>一个月前</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>安卓开发工程师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>6-12k·14薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C141" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E141" t="str">
         <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G141" t="str">
         <v>一个月前</v>
@@ -3628,19 +3628,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>7-10k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C142" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南盈北网络科技有限公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E142" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F142" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G142" t="str">
         <v>一个月前</v>
@@ -3651,19 +3651,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>7-10k·13薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C143" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E143" t="str">
         <v>3-5年</v>
       </c>
       <c r="F143" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G143" t="str">
         <v>一个月前</v>
@@ -3674,16 +3674,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C144" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E144" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F144" t="str">
         <v>学历不限</v>
@@ -3697,19 +3697,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>3-8k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C145" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E145" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F145" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G145" t="str">
         <v>一个月前</v>
@@ -3720,19 +3720,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>5-7k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C146" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E146" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F146" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G146" t="str">
         <v>一个月前</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>8-15k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C147" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D147" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E147" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F147" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G147" t="str">
         <v>一个月前</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>20-30k·14薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C148" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F148" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G148" t="str">
         <v>一个月前</v>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>安卓app开发工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>3-8k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C149" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D149" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E149" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F149" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G149" t="str">
         <v>一个月前</v>
@@ -3809,22 +3809,22 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>6-10k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C150" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E150" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F150" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G150" t="str">
         <v>一个月前</v>
@@ -3832,39 +3832,39 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>web前端开发工程师</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>8-10k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C151" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E151" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F151" t="str">
         <v>学历不限</v>
       </c>
       <c r="G151" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>前端开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B152" t="str">
-        <v>6-10k·13薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C152" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E152" t="str">
         <v>1-3年</v>
@@ -3873,38 +3873,38 @@
         <v>大专及以上</v>
       </c>
       <c r="G152" t="str">
-        <v>1小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>java开发工程师</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C153" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E153" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F153" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G153" t="str">
-        <v>36分钟前</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>8-12k·13薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C154" t="str">
         <v>郑州思博科信息技术有限公司</v>
@@ -3913,93 +3913,93 @@
         <v>郑州-中原区</v>
       </c>
       <c r="E154" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F154" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>1小时前</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>架构师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>20-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C155" t="str">
-        <v>东方蓝深</v>
+        <v>北京修齐治平科技有限公司郑州二七区分公司</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E155" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F155" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G155" t="str">
-        <v>1小时前</v>
+        <v>3小时前</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>移动开发负责人</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>15-25k·15薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C156" t="str">
-        <v>某知名互联网公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E156" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F156" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G156" t="str">
-        <v>18小时前</v>
+        <v>4小时前</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>APP运行维护</v>
+        <v>主策划</v>
       </c>
       <c r="B157" t="str">
-        <v>20-30k·12薪</v>
+        <v>15-25k·14薪</v>
       </c>
       <c r="C157" t="str">
-        <v>河南博众供应链管理有限公司</v>
+        <v>某知名游戏公司</v>
       </c>
       <c r="D157" t="str">
         <v>郑州</v>
       </c>
       <c r="E157" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F157" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>昨天</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>ui设计师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>4-6k·12薪</v>
+        <v>80-100k·12薪</v>
       </c>
       <c r="C158" t="str">
-        <v>河南博众供应链管理有限公司</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D158" t="str">
         <v>郑州</v>
@@ -4008,145 +4008,145 @@
         <v>3-5年</v>
       </c>
       <c r="F158" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G158" t="str">
-        <v>昨天</v>
+        <v>3小时前</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>系统架构师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>油田咨询</v>
+        <v>北京微训科技有限公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E159" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F159" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G159" t="str">
-        <v>12小时前</v>
+        <v>19小时前</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>80-100k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C160" t="str">
-        <v>全国连锁猎头集团</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E160" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F160" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G160" t="str">
-        <v>昨天</v>
+        <v>23小时前</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>系统测试工程师</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>5-12k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>油田咨询</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E161" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F161" t="str">
-        <v>硕士及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G161" t="str">
-        <v>12小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>技术经理</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B162" t="str">
-        <v>18-23k·14薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C162" t="str">
-        <v>某大型游戏陪玩公司</v>
+        <v>速游</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-五山</v>
       </c>
       <c r="E162" t="str">
-        <v>3-5年</v>
+        <v>一年以下</v>
       </c>
       <c r="F162" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G162" t="str">
-        <v>昨天</v>
+        <v>18小时前</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>软件测试</v>
+        <v>架构师</v>
       </c>
       <c r="B163" t="str">
-        <v>7-12k·12薪</v>
+        <v>20-25k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>郑州市金琥科技有限公司</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E163" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F163" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G163" t="str">
-        <v>前天</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>google广告优化师</v>
+        <v>移动开发负责人</v>
       </c>
       <c r="B164" t="str">
-        <v>8-12k·13薪</v>
+        <v>15-25k·15薪</v>
       </c>
       <c r="C164" t="str">
-        <v>河南国超电子商务有限公司</v>
+        <v>某知名互联网公司</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E164" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F164" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G164" t="str">
         <v>昨天</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>高级软件工程师</v>
+        <v>APP运行维护</v>
       </c>
       <c r="B165" t="str">
-        <v>6-11k·13薪</v>
+        <v>20-30k·12薪</v>
       </c>
       <c r="C165" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E165" t="str">
         <v>3-5年</v>
@@ -4172,50 +4172,50 @@
         <v>本科及以上</v>
       </c>
       <c r="G165" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>软件工程师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B166" t="str">
-        <v>5-11k·13薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C166" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E166" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F166" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G166" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>APP运营主管/经理</v>
+        <v>系统架构师</v>
       </c>
       <c r="B167" t="str">
-        <v>10-18k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E167" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F167" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G167" t="str">
         <v>昨天</v>
@@ -4223,62 +4223,62 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>测试工程师</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>6-12k·12薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E168" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F168" t="str">
-        <v>统招本科</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G168" t="str">
-        <v>2021-02-27</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>技术经理</v>
       </c>
       <c r="B169" t="str">
-        <v>10-20k·12薪</v>
+        <v>18-23k·14薪</v>
       </c>
       <c r="C169" t="str">
-        <v>速游</v>
+        <v>某大型游戏陪玩公司</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州-五山</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E169" t="str">
-        <v>一年以下</v>
+        <v>3-5年</v>
       </c>
       <c r="F169" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G169" t="str">
-        <v>2021-02-27</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>软件测试</v>
       </c>
       <c r="B170" t="str">
-        <v>5-10k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C170" t="str">
-        <v>中原期货</v>
+        <v>郑州市金琥科技有限公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E170" t="str">
         <v>3-5年</v>
@@ -4287,44 +4287,44 @@
         <v>本科及以上</v>
       </c>
       <c r="G170" t="str">
-        <v>2021-02-27</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>产品经理</v>
+        <v>google广告优化师</v>
       </c>
       <c r="B171" t="str">
-        <v>15-30k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C171" t="str">
-        <v>猎豹移动</v>
+        <v>河南国超电子商务有限公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E171" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F171" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G171" t="str">
-        <v>2021-02-26</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>移动端开发工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>15-25k·12薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C172" t="str">
-        <v>中原银行</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E172" t="str">
         <v>3-5年</v>
@@ -4333,317 +4333,317 @@
         <v>本科及以上</v>
       </c>
       <c r="G172" t="str">
-        <v>2021-02-26</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>APP前端开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>6-10k·12薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C173" t="str">
-        <v>河南昭麒信息技术有限公司</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E173" t="str">
         <v>1-3年</v>
       </c>
       <c r="F173" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G173" t="str">
-        <v>2021-02-24</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>公众号运营</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B174" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>河南小微动力科技有限公司</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E174" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F174" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G174" t="str">
-        <v>2021-02-25</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>移动端产品副总监</v>
+        <v>测试工程师</v>
       </c>
       <c r="B175" t="str">
-        <v>25-35k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C175" t="str">
-        <v>一站式游戏社交服务平台</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E175" t="str">
         <v>3-5年</v>
       </c>
       <c r="F175" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G175" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>移动开发测试经理</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B176" t="str">
-        <v>15-25k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
+        <v>中原期货</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E176" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F176" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G176" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>移动开发技术经理</v>
+        <v>产品经理</v>
       </c>
       <c r="B177" t="str">
-        <v>15-25k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
+        <v>猎豹移动</v>
       </c>
       <c r="D177" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E177" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F177" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G177" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>App运营推广专员</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B178" t="str">
-        <v>4-6k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>中原银行</v>
       </c>
       <c r="D178" t="str">
         <v>郑州</v>
       </c>
       <c r="E178" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F178" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G178" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>技术经理（移动端负责人）</v>
+        <v>APP前端开发工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>15-25k·14薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>一站式游戏社交服务平台</v>
+        <v>河南昭麒信息技术有限公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E179" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F179" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G179" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>移动端技术经理</v>
+        <v>公众号运营</v>
       </c>
       <c r="B180" t="str">
-        <v>20-30k·14薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>某一线互联网公司</v>
+        <v>河南小微动力科技有限公司</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E180" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F180" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G180" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>移动端开发工程师</v>
+        <v>移动端产品副总监</v>
       </c>
       <c r="B181" t="str">
-        <v>8-17k·12薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E181" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F181" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G181" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>移动端负责人</v>
+        <v>移动开发测试经理</v>
       </c>
       <c r="B182" t="str">
         <v>15-25k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>刀锋互娱</v>
+        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E182" t="str">
         <v>5-10年</v>
       </c>
       <c r="F182" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G182" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>移动开发技术经理</v>
       </c>
       <c r="B183" t="str">
-        <v>10-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>恩普特</v>
+        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
       </c>
       <c r="D183" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E183" t="str">
         <v>5-10年</v>
       </c>
       <c r="F183" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G183" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>前端开发工程师</v>
+        <v>App运营推广专员</v>
       </c>
       <c r="B184" t="str">
-        <v>8-12k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>郑州汉鑫电子科技有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州-城东路</v>
+        <v>郑州</v>
       </c>
       <c r="E184" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F184" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G184" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>ios</v>
+        <v>技术经理（移动端负责人）</v>
       </c>
       <c r="B185" t="str">
-        <v>6-9k·12薪</v>
+        <v>15-25k·14薪</v>
       </c>
       <c r="C185" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E185" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F185" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G185" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>移动端技术经理</v>
       </c>
       <c r="B186" t="str">
-        <v>8-15k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C186" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>某一线互联网公司</v>
       </c>
       <c r="D186" t="str">
         <v>郑州</v>
@@ -4652,47 +4652,47 @@
         <v>5-10年</v>
       </c>
       <c r="F186" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G186" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>高级产品经理</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B187" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>刀锋互娱</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D187" t="str">
         <v>郑州</v>
       </c>
       <c r="E187" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F187" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G187" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>移动端资深产品经理</v>
+        <v>移动端负责人</v>
       </c>
       <c r="B188" t="str">
-        <v>15-20k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C188" t="str">
         <v>刀锋互娱</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E188" t="str">
         <v>5-10年</v>
@@ -4701,24 +4701,24 @@
         <v>本科及以上</v>
       </c>
       <c r="G188" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>产品经理</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B189" t="str">
-        <v>7-15k·13薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C189" t="str">
-        <v>完美数联</v>
+        <v>恩普特</v>
       </c>
       <c r="D189" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E189" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F189" t="str">
         <v>统招本科</v>
@@ -4729,160 +4729,160 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B190" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州汉鑫电子科技有限公司</v>
       </c>
       <c r="D190" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E190" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F190" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G190" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>ios</v>
       </c>
       <c r="B191" t="str">
-        <v>10-15k·13薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C191" t="str">
-        <v>天瑞集团</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E191" t="str">
         <v>3-5年</v>
       </c>
       <c r="F191" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G191" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Java开发工程师</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B192" t="str">
         <v>8-15k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D192" t="str">
         <v>郑州</v>
       </c>
       <c r="E192" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F192" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G192" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B193" t="str">
-        <v>13-25k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州</v>
       </c>
       <c r="E193" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F193" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G193" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>科技公司-移动端开发经理</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B194" t="str">
-        <v>7-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E194" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F194" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G194" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>APP推广</v>
+        <v>产品经理</v>
       </c>
       <c r="B195" t="str">
-        <v>5-10k·12薪</v>
+        <v>7-15k·13薪</v>
       </c>
       <c r="C195" t="str">
-        <v>UU跑腿</v>
+        <v>完美数联</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E195" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F195" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G195" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>科技公司-移动端开发经理</v>
       </c>
       <c r="B196" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>天瑞集团</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D196" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E196" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F196" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G196" t="str">
         <v>2021-02-18</v>
@@ -4890,19 +4890,19 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>产品经理</v>
+        <v>APP推广</v>
       </c>
       <c r="B197" t="str">
-        <v>8-13k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C197" t="str">
         <v>UU跑腿</v>
       </c>
       <c r="D197" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E197" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F197" t="str">
         <v>大专及以上</v>
@@ -4913,16 +4913,16 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B198" t="str">
-        <v>10-20k·12薪</v>
+        <v>10-15k·13薪</v>
       </c>
       <c r="C198" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州-来广营</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E198" t="str">
         <v>3-5年</v>
@@ -4931,162 +4931,162 @@
         <v>本科及以上</v>
       </c>
       <c r="G198" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B199" t="str">
-        <v>50-80k·16薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C199" t="str">
-        <v>全国连锁猎头公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D199" t="str">
         <v>郑州</v>
       </c>
       <c r="E199" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F199" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G199" t="str">
-        <v>2021-02-16</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B200" t="str">
-        <v>5-10k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C200" t="str">
-        <v>超图软件</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E200" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F200" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G200" t="str">
-        <v>2021-02-09</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>移动前端开发工程师</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B201" t="str">
-        <v>9-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E201" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F201" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G201" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>前端工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B202" t="str">
-        <v>8-13k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D202" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E202" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F202" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G202" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>移动前端开发工程师</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B203" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州-来广营</v>
       </c>
       <c r="E203" t="str">
         <v>3-5年</v>
       </c>
       <c r="F203" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G203" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B204" t="str">
-        <v>6-12k·13薪</v>
+        <v>50-80k·16薪</v>
       </c>
       <c r="C204" t="str">
-        <v>新开普电子</v>
+        <v>全国连锁猎头公司</v>
       </c>
       <c r="D204" t="str">
         <v>郑州</v>
       </c>
       <c r="E204" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F204" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G204" t="str">
-        <v>一个月前</v>
+        <v>2021-02-16</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>手机软件开发工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B205" t="str">
-        <v>6-7k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D205" t="str">
-        <v>郑州</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E205" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F205" t="str">
         <v>大专及以上</v>
@@ -5097,45 +5097,45 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>app开发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B206" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E206" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F206" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G206" t="str">
-        <v>一个月前</v>
+        <v>2021-02-09</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C207" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E207" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F207" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G207" t="str">
         <v>一个月前</v>
@@ -5143,16 +5143,16 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>ASO优化师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B208" t="str">
-        <v>15-25k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E208" t="str">
         <v>3-5年</v>
@@ -5166,22 +5166,22 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>app运营主管</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B209" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C209" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D209" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E209" t="str">
         <v>3-5年</v>
       </c>
       <c r="F209" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G209" t="str">
         <v>一个月前</v>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>移动开发工程师</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B210" t="str">
-        <v>10-17k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C210" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D210" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E210" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F210" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G210" t="str">
         <v>一个月前</v>
@@ -5212,19 +5212,19 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>软件工程师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B211" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>郑州卓安</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E211" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F211" t="str">
         <v>大专及以上</v>
@@ -5235,22 +5235,22 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>java开发</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B212" t="str">
-        <v>5-8k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>郑州卓安</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D212" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E212" t="str">
         <v>1-3年</v>
       </c>
       <c r="F212" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G212" t="str">
         <v>一个月前</v>
@@ -5258,22 +5258,22 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>移动开发工程师</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B213" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E213" t="str">
         <v>3-5年</v>
       </c>
       <c r="F213" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G213" t="str">
         <v>一个月前</v>
@@ -5281,22 +5281,22 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>软件测试工程师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B214" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C214" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D214" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E214" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F214" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G214" t="str">
         <v>一个月前</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>APP工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B215" t="str">
-        <v>10-12k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>鲜易控股</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D215" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E215" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F215" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,16 +5327,16 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>cocos2d-x客户端开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B216" t="str">
-        <v>6-12k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E216" t="str">
         <v>1-3年</v>
@@ -5350,16 +5350,16 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>应用层开发工程师</v>
+        <v>java开发</v>
       </c>
       <c r="B217" t="str">
-        <v>10-20k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C217" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D217" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E217" t="str">
         <v>1-3年</v>
@@ -5373,22 +5373,22 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>高级前端讲师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B218" t="str">
-        <v>15-30k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C218" t="str">
-        <v>北京千锋互联科技</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D218" t="str">
         <v>郑州-京广路</v>
       </c>
       <c r="E218" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F218" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G218" t="str">
         <v>一个月前</v>
@@ -5396,16 +5396,16 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>app推广经理</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B219" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C219" t="str">
-        <v>UU跑腿</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D219" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E219" t="str">
         <v>1-3年</v>
@@ -5419,22 +5419,22 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>APP工程师</v>
       </c>
       <c r="B220" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C220" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>鲜易控股</v>
       </c>
       <c r="D220" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E220" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F220" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G220" t="str">
         <v>一个月前</v>
@@ -5442,16 +5442,16 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>ui设计师</v>
+        <v>cocos2d-x客户端开发工程师</v>
       </c>
       <c r="B221" t="str">
-        <v>4-8k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D221" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E221" t="str">
         <v>1-3年</v>
@@ -5465,65 +5465,65 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>前端工程师</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B222" t="str">
-        <v>25-40k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C222" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D222" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E222" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F222" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G222" t="str">
-        <v>2021-02-01</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Java开发工程师</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B223" t="str">
-        <v>6-12k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C223" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D223" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E223" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F223" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G223" t="str">
-        <v>2021-02-01</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>高级招聘专员</v>
+        <v>app推广经理</v>
       </c>
       <c r="B224" t="str">
-        <v>8-12k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>云鸟配送</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D224" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E224" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F224" t="str">
         <v>大专及以上</v>
@@ -5534,13 +5534,13 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>渗透测试工程师</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B225" t="str">
         <v>6-10k·12薪</v>
       </c>
       <c r="C225" t="str">
-        <v>爱加密</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D225" t="str">
         <v>郑州</v>
@@ -5549,7 +5549,7 @@
         <v>3-5年</v>
       </c>
       <c r="F225" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G225" t="str">
         <v>一个月前</v>
@@ -5557,19 +5557,19 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>渗透测试工程师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B226" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>爱加密</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E226" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F226" t="str">
         <v>大专及以上</v>
@@ -5580,19 +5580,19 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>（郑州）web前端开发工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B227" t="str">
-        <v>8-13k·12薪</v>
+        <v>25-40k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>东华软件</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D227" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E227" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F227" t="str">
         <v>本科及以上</v>
@@ -5603,19 +5603,19 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B228" t="str">
-        <v>12-15k·14薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>某银行股份有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D228" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E228" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F228" t="str">
         <v>本科及以上</v>
@@ -5626,22 +5626,22 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>测试工程师</v>
+        <v>高级招聘专员</v>
       </c>
       <c r="B229" t="str">
-        <v>6-12k·14薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>崤云安全</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D229" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E229" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F229" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G229" t="str">
         <v>一个月前</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B230" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D230" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E230" t="str">
         <v>3-5年</v>
       </c>
       <c r="F230" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G230" t="str">
         <v>一个月前</v>
@@ -5672,22 +5672,22 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>C++开发工程师中级</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B231" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C231" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D231" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E231" t="str">
         <v>3-5年</v>
       </c>
       <c r="F231" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G231" t="str">
         <v>一个月前</v>
@@ -5695,22 +5695,22 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>信息化专员</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B232" t="str">
-        <v>面议</v>
+        <v>12-15k·14薪</v>
       </c>
       <c r="C232" t="str">
-        <v>建业新生活</v>
+        <v>某银行股份有限公司</v>
       </c>
       <c r="D232" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E232" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F232" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G232" t="str">
         <v>一个月前</v>
@@ -5718,19 +5718,19 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>前端开发工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B233" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C233" t="str">
-        <v>北大软件</v>
+        <v>崤云安全</v>
       </c>
       <c r="D233" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E233" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F233" t="str">
         <v>本科及以上</v>
@@ -5741,19 +5741,19 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>java高级工程师</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B234" t="str">
-        <v>10-11k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C234" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E234" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F234" t="str">
         <v>大专及以上</v>
@@ -5764,19 +5764,19 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B235" t="str">
-        <v>7-11k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>新开普电子</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D235" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E235" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F235" t="str">
         <v>本科及以上</v>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>智能技术开发主管</v>
+        <v>信息化专员</v>
       </c>
       <c r="B236" t="str">
         <v>面议</v>
       </c>
       <c r="C236" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>建业新生活</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E236" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F236" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G236" t="str">
         <v>一个月前</v>
@@ -5810,19 +5810,19 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>JAVA开发</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B237" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C237" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>北大软件</v>
       </c>
       <c r="D237" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E237" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F237" t="str">
         <v>本科及以上</v>
@@ -5833,16 +5833,16 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B238" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C238" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D238" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E238" t="str">
         <v>5-10年</v>
@@ -5856,19 +5856,19 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>ui</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B239" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C239" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D239" t="str">
         <v>郑州</v>
       </c>
       <c r="E239" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F239" t="str">
         <v>本科及以上</v>
@@ -5879,22 +5879,22 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>中级JAVA开发</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B240" t="str">
-        <v>10-15k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C240" t="str">
-        <v>正商地产</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D240" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E240" t="str">
-        <v>3-5年</v>
+        <v>10年以上</v>
       </c>
       <c r="F240" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G240" t="str">
         <v>一个月前</v>
@@ -5902,19 +5902,19 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B241" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C241" t="str">
-        <v>埃林哲</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D241" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E241" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F241" t="str">
         <v>本科及以上</v>
@@ -5925,22 +5925,22 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B242" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C242" t="str">
-        <v>信大捷安</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D242" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E242" t="str">
         <v>5-10年</v>
       </c>
       <c r="F242" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G242" t="str">
         <v>一个月前</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>ui</v>
       </c>
       <c r="B243" t="str">
-        <v>13-18k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D243" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E243" t="str">
         <v>3-5年</v>
       </c>
       <c r="F243" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G243" t="str">
         <v>一个月前</v>
@@ -5971,22 +5971,22 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>UI高级设计师</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B244" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C244" t="str">
-        <v>UU跑腿</v>
+        <v>正商地产</v>
       </c>
       <c r="D244" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E244" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F244" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G244" t="str">
         <v>一个月前</v>
@@ -5994,19 +5994,19 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>维护工程师</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B245" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C245" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>埃林哲</v>
       </c>
       <c r="D245" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E245" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F245" t="str">
         <v>本科及以上</v>
@@ -6017,22 +6017,22 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>维护助理工程师</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B246" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C246" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>信大捷安</v>
       </c>
       <c r="D246" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E246" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F246" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G246" t="str">
         <v>一个月前</v>
@@ -6040,22 +6040,22 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>iOS开发工程师</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B247" t="str">
-        <v>14-20k·12薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C247" t="str">
-        <v>浩鲸智能</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D247" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E247" t="str">
         <v>3-5年</v>
       </c>
       <c r="F247" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G247" t="str">
         <v>一个月前</v>
@@ -6063,19 +6063,19 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>软件开发</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B248" t="str">
-        <v>15-21k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C248" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D248" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E248" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F248" t="str">
         <v>本科及以上</v>
@@ -6086,22 +6086,22 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>移动开发工程师</v>
+        <v>维护工程师</v>
       </c>
       <c r="B249" t="str">
-        <v>5-10k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C249" t="str">
-        <v>河南纵驰信息技术有限公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D249" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E249" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F249" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G249" t="str">
         <v>一个月前</v>
@@ -6109,22 +6109,22 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>软件外包业务经理</v>
+        <v>维护助理工程师</v>
       </c>
       <c r="B250" t="str">
-        <v>8-16k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C250" t="str">
-        <v>河南汇祥通信设备有限公司</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D250" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E250" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F250" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G250" t="str">
         <v>一个月前</v>
@@ -6132,13 +6132,13 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>产品经理</v>
+        <v>iOS开发工程师</v>
       </c>
       <c r="B251" t="str">
-        <v>8-13k·12薪</v>
+        <v>14-20k·12薪</v>
       </c>
       <c r="C251" t="str">
-        <v>新开普电子</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D251" t="str">
         <v>郑州</v>
@@ -6155,22 +6155,22 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>产品经理</v>
+        <v>软件开发</v>
       </c>
       <c r="B252" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-21k·12薪</v>
       </c>
       <c r="C252" t="str">
-        <v>UU跑腿</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D252" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E252" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F252" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G252" t="str">
         <v>一个月前</v>
@@ -6178,22 +6178,22 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>java软件开发高级工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B253" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C253" t="str">
-        <v>北京智能乐业科技有限公司</v>
+        <v>河南纵驰信息技术有限公司</v>
       </c>
       <c r="D253" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州</v>
       </c>
       <c r="E253" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F253" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G253" t="str">
         <v>一个月前</v>
@@ -6201,19 +6201,19 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>高级软件工程师</v>
+        <v>软件外包业务经理</v>
       </c>
       <c r="B254" t="str">
-        <v>8-12k·13薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C254" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>河南汇祥通信设备有限公司</v>
       </c>
       <c r="D254" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E254" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F254" t="str">
         <v>本科及以上</v>
@@ -6224,16 +6224,16 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B255" t="str">
-        <v>面议</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C255" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D255" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E255" t="str">
         <v>3-5年</v>
@@ -6247,19 +6247,19 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>产品经理</v>
       </c>
       <c r="B256" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C256" t="str">
-        <v>北京千锋互联科技</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D256" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E256" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F256" t="str">
         <v>大专及以上</v>
@@ -6270,16 +6270,16 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>前端工程师</v>
+        <v>java软件开发高级工程师</v>
       </c>
       <c r="B257" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C257" t="str">
-        <v>元丰科技</v>
+        <v>北京智能乐业科技有限公司</v>
       </c>
       <c r="D257" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E257" t="str">
         <v>3-5年</v>
@@ -6293,22 +6293,22 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B258" t="str">
-        <v>15-25k·13薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C258" t="str">
-        <v>朗新科技</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D258" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E258" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F258" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G258" t="str">
         <v>一个月前</v>
@@ -6316,22 +6316,22 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B259" t="str">
-        <v>11-20k·13薪</v>
+        <v>面议</v>
       </c>
       <c r="C259" t="str">
-        <v>朗新科技</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D259" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E259" t="str">
         <v>3-5年</v>
       </c>
       <c r="F259" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G259" t="str">
         <v>一个月前</v>
@@ -6339,22 +6339,22 @@
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>售前技术支持</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B260" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C260" t="str">
-        <v>环信</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D260" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E260" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F260" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G260" t="str">
         <v>一个月前</v>
@@ -6362,19 +6362,19 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>java开发工程师助理</v>
+        <v>前端工程师</v>
       </c>
       <c r="B261" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C261" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>元丰科技</v>
       </c>
       <c r="D261" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E261" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F261" t="str">
         <v>大专及以上</v>
@@ -6385,22 +6385,22 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>UI设计师</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B262" t="str">
-        <v>4-6k·13薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C262" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D262" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E262" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F262" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G262" t="str">
         <v>一个月前</v>
@@ -6408,13 +6408,13 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>PC客户端产品经理</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B263" t="str">
-        <v>6-10k·12薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C263" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>朗新科技</v>
       </c>
       <c r="D263" t="str">
         <v>郑州</v>
@@ -6423,7 +6423,7 @@
         <v>3-5年</v>
       </c>
       <c r="F263" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G263" t="str">
         <v>一个月前</v>
@@ -6431,22 +6431,22 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>IOS</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B264" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C264" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>环信</v>
       </c>
       <c r="D264" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E264" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F264" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G264" t="str">
         <v>一个月前</v>
@@ -6454,16 +6454,16 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B265" t="str">
-        <v>18-25k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C265" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D265" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E265" t="str">
         <v>经验不限</v>
@@ -6477,22 +6477,22 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>高级软件测试工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B266" t="str">
-        <v>7-9k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C266" t="str">
-        <v>国际交友</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D266" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E266" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F266" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G266" t="str">
         <v>一个月前</v>
@@ -6500,22 +6500,22 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>高级软件测试工程师</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B267" t="str">
-        <v>7-9k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C267" t="str">
-        <v>国际交友</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D267" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E267" t="str">
         <v>3-5年</v>
       </c>
       <c r="F267" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G267" t="str">
         <v>一个月前</v>
@@ -6523,19 +6523,19 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>JAVA开发工程师</v>
+        <v>IOS</v>
       </c>
       <c r="B268" t="str">
-        <v>6-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C268" t="str">
-        <v>地理信息系统</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D268" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E268" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F268" t="str">
         <v>大专及以上</v>
@@ -6546,22 +6546,22 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>摄像头调试工程师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B269" t="str">
-        <v>4-9k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C269" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D269" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E269" t="str">
         <v>经验不限</v>
       </c>
       <c r="F269" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G269" t="str">
         <v>一个月前</v>
@@ -6569,22 +6569,22 @@
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B270" t="str">
-        <v>6-12k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C270" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D270" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E270" t="str">
         <v>3-5年</v>
       </c>
       <c r="F270" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G270" t="str">
         <v>一个月前</v>
@@ -6592,19 +6592,19 @@
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B271" t="str">
-        <v>6-10k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C271" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D271" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E271" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F271" t="str">
         <v>大专及以上</v>
@@ -6615,22 +6615,22 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>cocos开发工程师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B272" t="str">
-        <v>9-16k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C272" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D272" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E272" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F272" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G272" t="str">
         <v>一个月前</v>
@@ -6638,22 +6638,22 @@
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>学术经理</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B273" t="str">
-        <v>8-15k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C273" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D273" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E273" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F273" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G273" t="str">
         <v>一个月前</v>
@@ -6661,22 +6661,22 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>IT项目经理</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B274" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C274" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D274" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E274" t="str">
         <v>3-5年</v>
       </c>
       <c r="F274" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G274" t="str">
         <v>一个月前</v>
@@ -6684,22 +6684,22 @@
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>前端高级讲师</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B275" t="str">
-        <v>10-18k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C275" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D275" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E275" t="str">
         <v>1-3年</v>
       </c>
       <c r="F275" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G275" t="str">
         <v>一个月前</v>
@@ -6707,22 +6707,22 @@
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>.NET开发工程师</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B276" t="str">
-        <v>4-6k·12薪</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C276" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D276" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E276" t="str">
         <v>1-3年</v>
       </c>
       <c r="F276" t="str">
-        <v>中专/中技及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G276" t="str">
         <v>一个月前</v>
@@ -6730,22 +6730,22 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>网页UI设计师</v>
+        <v>学术经理</v>
       </c>
       <c r="B277" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C277" t="str">
-        <v>羲和网络</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D277" t="str">
         <v>郑州</v>
       </c>
       <c r="E277" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F277" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G277" t="str">
         <v>一个月前</v>
@@ -6753,13 +6753,13 @@
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>Web前端工程师</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B278" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C278" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D278" t="str">
         <v>郑州</v>
@@ -6776,22 +6776,22 @@
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>检查员</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B279" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C279" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D279" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E279" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F279" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G279" t="str">
         <v>一个月前</v>
@@ -6799,22 +6799,22 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>督导</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B280" t="str">
-        <v>3-5k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C280" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D280" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E280" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F280" t="str">
-        <v>学历不限</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G280" t="str">
         <v>一个月前</v>
@@ -6822,13 +6822,13 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>游戏项目主程</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B281" t="str">
-        <v>10-12k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C281" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D281" t="str">
         <v>郑州</v>
@@ -6845,22 +6845,22 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B282" t="str">
-        <v>面议</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C282" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D282" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E282" t="str">
         <v>3-5年</v>
       </c>
       <c r="F282" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G282" t="str">
         <v>一个月前</v>
@@ -6868,22 +6868,22 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>检查员</v>
       </c>
       <c r="B283" t="str">
-        <v>6-10k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C283" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D283" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E283" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F283" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G283" t="str">
         <v>一个月前</v>
@@ -6891,22 +6891,22 @@
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>督导</v>
       </c>
       <c r="B284" t="str">
-        <v>6-8k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C284" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D284" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E284" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F284" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G284" t="str">
         <v>一个月前</v>
@@ -6914,22 +6914,22 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>高级APP工程师</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B285" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C285" t="str">
-        <v>鲜易控股</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D285" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E285" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F285" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G285" t="str">
         <v>一个月前</v>
@@ -6937,22 +6937,22 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>UI设计师</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B286" t="str">
-        <v>4-6k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C286" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D286" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E286" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F286" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G286" t="str">
         <v>一个月前</v>
@@ -6960,22 +6960,22 @@
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>UI设计师</v>
+        <v>产品经理（英语项目）</v>
       </c>
       <c r="B287" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C287" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D287" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E287" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F287" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G287" t="str">
         <v>一个月前</v>
@@ -6983,22 +6983,22 @@
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>中级软件测试工程师</v>
+        <v>产品经理（咿啦看书项目）</v>
       </c>
       <c r="B288" t="str">
-        <v>10-14k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C288" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D288" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E288" t="str">
         <v>3-5年</v>
       </c>
       <c r="F288" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G288" t="str">
         <v>一个月前</v>
@@ -7006,22 +7006,22 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>UI设计工程师</v>
+        <v>高级APP工程师</v>
       </c>
       <c r="B289" t="str">
-        <v>9-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C289" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>鲜易控股</v>
       </c>
       <c r="D289" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E289" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F289" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G289" t="str">
         <v>一个月前</v>
@@ -7029,22 +7029,22 @@
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>产品经理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B290" t="str">
-        <v>8-10k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C290" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D290" t="str">
         <v>郑州</v>
       </c>
       <c r="E290" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F290" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G290" t="str">
         <v>一个月前</v>
@@ -7052,22 +7052,22 @@
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>Mobile App</v>
+        <v>UI设计师</v>
       </c>
       <c r="B291" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C291" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D291" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E291" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F291" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G291" t="str">
         <v>一个月前</v>
@@ -7075,22 +7075,22 @@
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>UI/UX developer</v>
+        <v>中级软件测试工程师</v>
       </c>
       <c r="B292" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-14k·12薪</v>
       </c>
       <c r="C292" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>上海陆鹰实业有限公司河南分公司</v>
       </c>
       <c r="D292" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E292" t="str">
         <v>3-5年</v>
       </c>
       <c r="F292" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G292" t="str">
         <v>一个月前</v>
@@ -7098,22 +7098,22 @@
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>java软件工程师</v>
+        <v>UI设计工程师</v>
       </c>
       <c r="B293" t="str">
-        <v>7-13k·13薪</v>
+        <v>9-10k·12薪</v>
       </c>
       <c r="C293" t="str">
-        <v>思维自动化</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D293" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E293" t="str">
         <v>3-5年</v>
       </c>
       <c r="F293" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G293" t="str">
         <v>一个月前</v>
@@ -7121,30 +7121,122 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
+        <v>产品经理</v>
+      </c>
+      <c r="B294" t="str">
+        <v>8-10k·12薪</v>
+      </c>
+      <c r="C294" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D294" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E294" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F294" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G294" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Mobile App</v>
+      </c>
+      <c r="B295" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C295" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D295" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E295" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F295" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G295" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>UI/UX developer</v>
+      </c>
+      <c r="B296" t="str">
+        <v>10-15k·12薪</v>
+      </c>
+      <c r="C296" t="str">
+        <v>上海云邻通信技术有限公司</v>
+      </c>
+      <c r="D296" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E296" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F296" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G296" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B297" t="str">
+        <v>7-13k·13薪</v>
+      </c>
+      <c r="C297" t="str">
+        <v>思维自动化</v>
+      </c>
+      <c r="D297" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E297" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F297" t="str">
+        <v>统招本科</v>
+      </c>
+      <c r="G297" t="str">
+        <v>一个月前</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
         <v>研发工程师</v>
       </c>
-      <c r="B294" t="str">
+      <c r="B298" t="str">
         <v>5-10k·12薪</v>
       </c>
-      <c r="C294" t="str">
+      <c r="C298" t="str">
         <v>森源集团</v>
       </c>
-      <c r="D294" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E294" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F294" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G294" t="str">
+      <c r="D298" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E298" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F298" t="str">
+        <v>本科及以上</v>
+      </c>
+      <c r="G298" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G294"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G298"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -405,25 +405,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-16k·13薪</v>
       </c>
       <c r="C2" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E2" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F2" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G2" t="str">
-        <v>2小时前</v>
+        <v>5分钟前</v>
       </c>
     </row>
     <row r="3">
@@ -431,22 +431,22 @@
         <v>高级android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>6-12k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E3" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F3" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G3" t="str">
-        <v>4小时前</v>
+        <v>22小时前</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E4" t="str">
         <v>经验不限</v>
@@ -469,30 +469,30 @@
         <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>4小时前</v>
+        <v>16小时前</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C5" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E5" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F5" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G5" t="str">
-        <v>4小时前</v>
+        <v>16小时前</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
@@ -515,7 +515,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G6" t="str">
-        <v>4小时前</v>
+        <v>16小时前</v>
       </c>
     </row>
     <row r="7">
@@ -529,7 +529,7 @@
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
@@ -538,67 +538,67 @@
         <v>大专及以上</v>
       </c>
       <c r="G7" t="str">
-        <v>4小时前</v>
+        <v>16小时前</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>android应用开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>7-11k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C8" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E8" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F8" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G8" t="str">
-        <v>2小时前</v>
+        <v>16小时前</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C9" t="str">
-        <v>河南某互联网科技公司</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E9" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F9" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G9" t="str">
-        <v>4小时前</v>
+        <v>21小时前</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>安卓开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6-9k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C10" t="str">
-        <v>科蓝软件</v>
+        <v>河南某互联网科技公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E10" t="str">
         <v>3-5年</v>
@@ -607,53 +607,53 @@
         <v>本科及以上</v>
       </c>
       <c r="G10" t="str">
-        <v>8小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B11" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C11" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>科蓝软件</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F11" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G11" t="str">
-        <v>2小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>10-16k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C12" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E12" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F12" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G12" t="str">
-        <v>4小时前</v>
+        <v>19小时前</v>
       </c>
     </row>
     <row r="13">
@@ -676,7 +676,7 @@
         <v>统招本科</v>
       </c>
       <c r="G13" t="str">
-        <v>23小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="14">
@@ -699,7 +699,7 @@
         <v>统招本科</v>
       </c>
       <c r="G14" t="str">
-        <v>23小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="15">
@@ -722,7 +722,7 @@
         <v>统招本科</v>
       </c>
       <c r="G15" t="str">
-        <v>23小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="16">
@@ -768,7 +768,7 @@
         <v>统招本科</v>
       </c>
       <c r="G17" t="str">
-        <v>23小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="18">
@@ -860,7 +860,7 @@
         <v>统招本科</v>
       </c>
       <c r="G21" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="22">
@@ -975,7 +975,7 @@
         <v>统招本科</v>
       </c>
       <c r="G26" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="27">
@@ -1090,7 +1090,7 @@
         <v>本科及以上</v>
       </c>
       <c r="G31" t="str">
-        <v>前天</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="32">
@@ -1113,7 +1113,7 @@
         <v>本科及以上</v>
       </c>
       <c r="G32" t="str">
-        <v>前天</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="33">
@@ -1136,7 +1136,7 @@
         <v>统招本科</v>
       </c>
       <c r="G33" t="str">
-        <v>前天</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="34">
@@ -1159,7 +1159,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G34" t="str">
-        <v>前天</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="35">
@@ -3896,7 +3896,7 @@
         <v>学历不限</v>
       </c>
       <c r="G153" t="str">
-        <v>4小时前</v>
+        <v>16小时前</v>
       </c>
     </row>
     <row r="154">
@@ -3919,7 +3919,7 @@
         <v>大专及以上</v>
       </c>
       <c r="G154" t="str">
-        <v>4小时前</v>
+        <v>16小时前</v>
       </c>
     </row>
     <row r="155">
@@ -3942,7 +3942,7 @@
         <v>统招本科</v>
       </c>
       <c r="G155" t="str">
-        <v>3小时前</v>
+        <v>22小时前</v>
       </c>
     </row>
     <row r="156">
@@ -3965,44 +3965,44 @@
         <v>大专及以上</v>
       </c>
       <c r="G156" t="str">
-        <v>4小时前</v>
+        <v>16小时前</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>主策划</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B157" t="str">
-        <v>15-25k·14薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C157" t="str">
-        <v>某知名游戏公司</v>
+        <v>速游</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州</v>
+        <v>郑州-五山</v>
       </c>
       <c r="E157" t="str">
-        <v>5-10年</v>
+        <v>一年以下</v>
       </c>
       <c r="F157" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>2小时前</v>
+        <v>13小时前</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>维护工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>80-100k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C158" t="str">
-        <v>全国连锁猎头集团</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E158" t="str">
         <v>3-5年</v>
@@ -4011,50 +4011,50 @@
         <v>本科及以上</v>
       </c>
       <c r="G158" t="str">
-        <v>3小时前</v>
+        <v>17小时前</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>前端开发工程师</v>
+        <v>主策划</v>
       </c>
       <c r="B159" t="str">
-        <v>6-10k·12薪</v>
+        <v>15-25k·14薪</v>
       </c>
       <c r="C159" t="str">
-        <v>北京微训科技有限公司</v>
+        <v>某知名游戏公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E159" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F159" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G159" t="str">
-        <v>19小时前</v>
+        <v>22小时前</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>15-20k·13薪</v>
+        <v>80-100k·12薪</v>
       </c>
       <c r="C160" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E160" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F160" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G160" t="str">
         <v>23小时前</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>java开发工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C161" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>北京微训科技有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E161" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F161" t="str">
         <v>本科及以上</v>
@@ -4085,42 +4085,42 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>10-20k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C162" t="str">
-        <v>速游</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-五山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E162" t="str">
-        <v>一年以下</v>
+        <v>5-10年</v>
       </c>
       <c r="F162" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G162" t="str">
-        <v>18小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>架构师</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>20-25k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>东方蓝深</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E163" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F163" t="str">
         <v>本科及以上</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>移动开发负责人</v>
+        <v>架构师</v>
       </c>
       <c r="B164" t="str">
-        <v>15-25k·15薪</v>
+        <v>20-25k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>某知名互联网公司</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E164" t="str">
-        <v>5-10年</v>
+        <v>10年以上</v>
       </c>
       <c r="F164" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G164" t="str">
         <v>昨天</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>APP运行维护</v>
+        <v>移动开发负责人</v>
       </c>
       <c r="B165" t="str">
-        <v>20-30k·12薪</v>
+        <v>15-25k·15薪</v>
       </c>
       <c r="C165" t="str">
-        <v>河南博众供应链管理有限公司</v>
+        <v>某知名互联网公司</v>
       </c>
       <c r="D165" t="str">
         <v>郑州</v>
       </c>
       <c r="E165" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F165" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G165" t="str">
         <v>前天</v>
@@ -4177,10 +4177,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>ui设计师</v>
+        <v>APP运行维护</v>
       </c>
       <c r="B166" t="str">
-        <v>4-6k·12薪</v>
+        <v>20-30k·12薪</v>
       </c>
       <c r="C166" t="str">
         <v>河南博众供应链管理有限公司</v>
@@ -4192,7 +4192,7 @@
         <v>3-5年</v>
       </c>
       <c r="F166" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G166" t="str">
         <v>前天</v>
@@ -4200,33 +4200,33 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>系统架构师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B167" t="str">
-        <v>15-25k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>油田咨询</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E167" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F167" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G167" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>系统测试工程师</v>
+        <v>系统架构师</v>
       </c>
       <c r="B168" t="str">
-        <v>5-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C168" t="str">
         <v>油田咨询</v>
@@ -4235,33 +4235,33 @@
         <v>郑州-郑东新区</v>
       </c>
       <c r="E168" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F168" t="str">
-        <v>硕士及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G168" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>技术经理</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>18-23k·14薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>某大型游戏陪玩公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E169" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F169" t="str">
-        <v>大专及以上</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G169" t="str">
         <v>前天</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>软件测试</v>
+        <v>技术经理</v>
       </c>
       <c r="B170" t="str">
-        <v>7-12k·12薪</v>
+        <v>18-23k·14薪</v>
       </c>
       <c r="C170" t="str">
-        <v>郑州市金琥科技有限公司</v>
+        <v>某大型游戏陪玩公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E170" t="str">
         <v>3-5年</v>
       </c>
       <c r="F170" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G170" t="str">
         <v>2021-03-01</v>
@@ -4292,56 +4292,56 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>google广告优化师</v>
+        <v>软件测试</v>
       </c>
       <c r="B171" t="str">
-        <v>8-12k·13薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>河南国超电子商务有限公司</v>
+        <v>郑州市金琥科技有限公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E171" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F171" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G171" t="str">
-        <v>前天</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>高级软件工程师</v>
+        <v>google广告优化师</v>
       </c>
       <c r="B172" t="str">
-        <v>6-11k·13薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C172" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>河南国超电子商务有限公司</v>
       </c>
       <c r="D172" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E172" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F172" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G172" t="str">
-        <v>前天</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>软件工程师</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>5-11k·13薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C173" t="str">
         <v>河南胜之源智能科技有限公司</v>
@@ -4350,79 +4350,79 @@
         <v>郑州-高新区</v>
       </c>
       <c r="E173" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F173" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G173" t="str">
-        <v>前天</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>APP运营主管/经理</v>
+        <v>软件工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>10-18k·12薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C174" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E174" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F174" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G174" t="str">
-        <v>前天</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>测试工程师</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B175" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C175" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E175" t="str">
         <v>3-5年</v>
       </c>
       <c r="F175" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G175" t="str">
-        <v>2021-02-27</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>测试工程师</v>
       </c>
       <c r="B176" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>中原期货</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E176" t="str">
         <v>3-5年</v>
       </c>
       <c r="F176" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G176" t="str">
         <v>2021-02-27</v>
@@ -4430,16 +4430,16 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>产品经理</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B177" t="str">
-        <v>15-30k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C177" t="str">
-        <v>猎豹移动</v>
+        <v>中原期货</v>
       </c>
       <c r="D177" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E177" t="str">
         <v>3-5年</v>
@@ -4448,21 +4448,21 @@
         <v>本科及以上</v>
       </c>
       <c r="G177" t="str">
-        <v>2021-02-26</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>移动端开发工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B178" t="str">
-        <v>15-25k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C178" t="str">
-        <v>中原银行</v>
+        <v>猎豹移动</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E178" t="str">
         <v>3-5年</v>
@@ -4476,65 +4476,65 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>APP前端开发工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>6-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>河南昭麒信息技术有限公司</v>
+        <v>中原银行</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E179" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F179" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G179" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>公众号运营</v>
+        <v>APP前端开发工程师</v>
       </c>
       <c r="B180" t="str">
-        <v>5-8k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>河南小微动力科技有限公司</v>
+        <v>河南昭麒信息技术有限公司</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E180" t="str">
         <v>1-3年</v>
       </c>
       <c r="F180" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G180" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>移动端产品副总监</v>
+        <v>公众号运营</v>
       </c>
       <c r="B181" t="str">
-        <v>25-35k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>一站式游戏社交服务平台</v>
+        <v>河南小微动力科技有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E181" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F181" t="str">
         <v>学历不限</v>
@@ -4545,30 +4545,30 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>移动开发测试经理</v>
+        <v>移动端产品副总监</v>
       </c>
       <c r="B182" t="str">
-        <v>15-25k·12薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E182" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F182" t="str">
-        <v>统招本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G182" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>移动开发技术经理</v>
+        <v>移动开发测试经理</v>
       </c>
       <c r="B183" t="str">
         <v>15-25k·12薪</v>
@@ -4583,7 +4583,7 @@
         <v>5-10年</v>
       </c>
       <c r="F183" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G183" t="str">
         <v>2021-02-24</v>
@@ -4591,22 +4591,22 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>App运营推广专员</v>
+        <v>移动开发技术经理</v>
       </c>
       <c r="B184" t="str">
-        <v>4-6k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
       </c>
       <c r="D184" t="str">
         <v>郑州</v>
       </c>
       <c r="E184" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F184" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G184" t="str">
         <v>2021-02-24</v>
@@ -4614,45 +4614,45 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>技术经理（移动端负责人）</v>
+        <v>App运营推广专员</v>
       </c>
       <c r="B185" t="str">
-        <v>15-25k·14薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>一站式游戏社交服务平台</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E185" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F185" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G185" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>移动端技术经理</v>
+        <v>技术经理（移动端负责人）</v>
       </c>
       <c r="B186" t="str">
-        <v>20-30k·14薪</v>
+        <v>15-25k·14薪</v>
       </c>
       <c r="C186" t="str">
-        <v>某一线互联网公司</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E186" t="str">
         <v>5-10年</v>
       </c>
       <c r="F186" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G186" t="str">
         <v>2021-02-23</v>
@@ -4660,13 +4660,13 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>移动端开发工程师</v>
+        <v>移动端技术经理</v>
       </c>
       <c r="B187" t="str">
-        <v>8-17k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C187" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>某一线互联网公司</v>
       </c>
       <c r="D187" t="str">
         <v>郑州</v>
@@ -4675,24 +4675,24 @@
         <v>5-10年</v>
       </c>
       <c r="F187" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G187" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>移动端负责人</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B188" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-17k·12薪</v>
       </c>
       <c r="C188" t="str">
-        <v>刀锋互娱</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E188" t="str">
         <v>5-10年</v>
@@ -4701,50 +4701,50 @@
         <v>本科及以上</v>
       </c>
       <c r="G188" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>移动端负责人</v>
       </c>
       <c r="B189" t="str">
-        <v>10-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C189" t="str">
-        <v>恩普特</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E189" t="str">
         <v>5-10年</v>
       </c>
       <c r="F189" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G189" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>前端开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B190" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C190" t="str">
-        <v>郑州汉鑫电子科技有限公司</v>
+        <v>恩普特</v>
       </c>
       <c r="D190" t="str">
-        <v>郑州-城东路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E190" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F190" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G190" t="str">
         <v>2021-02-22</v>
@@ -4752,16 +4752,16 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>ios</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B191" t="str">
-        <v>6-9k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C191" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>郑州汉鑫电子科技有限公司</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E191" t="str">
         <v>3-5年</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>ios</v>
       </c>
       <c r="B192" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D192" t="str">
         <v>郑州</v>
       </c>
       <c r="E192" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F192" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G192" t="str">
         <v>2021-02-22</v>
@@ -4798,19 +4798,19 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>高级产品经理</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B193" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>刀锋互娱</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D193" t="str">
         <v>郑州</v>
       </c>
       <c r="E193" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F193" t="str">
         <v>本科及以上</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>移动端资深产品经理</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B194" t="str">
-        <v>15-20k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C194" t="str">
         <v>刀锋互娱</v>
@@ -4833,7 +4833,7 @@
         <v>郑州</v>
       </c>
       <c r="E194" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F194" t="str">
         <v>本科及以上</v>
@@ -4844,22 +4844,22 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>产品经理</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B195" t="str">
-        <v>7-15k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C195" t="str">
-        <v>完美数联</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E195" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F195" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G195" t="str">
         <v>2021-02-22</v>
@@ -4867,45 +4867,45 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>科技公司-移动端开发经理</v>
+        <v>产品经理</v>
       </c>
       <c r="B196" t="str">
-        <v>7-12k·12薪</v>
+        <v>7-15k·13薪</v>
       </c>
       <c r="C196" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>完美数联</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E196" t="str">
         <v>3-5年</v>
       </c>
       <c r="F196" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G196" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>APP推广</v>
+        <v>科技公司-移动端开发经理</v>
       </c>
       <c r="B197" t="str">
-        <v>5-10k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>UU跑腿</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D197" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E197" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F197" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G197" t="str">
         <v>2021-02-18</v>
@@ -4913,39 +4913,39 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>APP推广</v>
       </c>
       <c r="B198" t="str">
-        <v>10-15k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>天瑞集团</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E198" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F198" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G198" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Java开发工程师</v>
+        <v>产品经理-运力端方向</v>
       </c>
       <c r="B199" t="str">
-        <v>8-15k·12薪</v>
+        <v>10-15k·13薪</v>
       </c>
       <c r="C199" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E199" t="str">
         <v>3-5年</v>
@@ -4959,16 +4959,16 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B200" t="str">
-        <v>13-25k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州</v>
       </c>
       <c r="E200" t="str">
         <v>3-5年</v>
@@ -4982,36 +4982,36 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B201" t="str">
-        <v>10-15k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C201" t="str">
-        <v>天瑞集团</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E201" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F201" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G201" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>产品经理</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B202" t="str">
-        <v>8-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>UU跑腿</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D202" t="str">
         <v>郑州-郑东新区</v>
@@ -5020,7 +5020,7 @@
         <v>1-3年</v>
       </c>
       <c r="F202" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G202" t="str">
         <v>2021-02-18</v>
@@ -5028,22 +5028,22 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>产品经理</v>
       </c>
       <c r="B203" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C203" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州-来广营</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E203" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F203" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G203" t="str">
         <v>2021-02-18</v>
@@ -5051,71 +5051,71 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B204" t="str">
-        <v>50-80k·16薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>全国连锁猎头公司</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州</v>
+        <v>郑州-来广营</v>
       </c>
       <c r="E204" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F204" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G204" t="str">
-        <v>2021-02-16</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>移动前端开发工程师</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B205" t="str">
-        <v>9-12k·12薪</v>
+        <v>50-80k·16薪</v>
       </c>
       <c r="C205" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>全国连锁猎头公司</v>
       </c>
       <c r="D205" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州</v>
       </c>
       <c r="E205" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F205" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G205" t="str">
-        <v>一个月前</v>
+        <v>2021-02-16</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B206" t="str">
-        <v>5-10k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>超图软件</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E206" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F206" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G206" t="str">
-        <v>2021-02-09</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="207">
@@ -5143,45 +5143,45 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>移动前端开发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B208" t="str">
-        <v>3-5k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C208" t="str">
-        <v>郑州方古信息科技有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E208" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F208" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G208" t="str">
-        <v>一个月前</v>
+        <v>2021-02-09</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Linux驱动开发工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B209" t="str">
-        <v>6-12k·13薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C209" t="str">
-        <v>新开普电子</v>
+        <v>郑州方古信息科技有限公司</v>
       </c>
       <c r="D209" t="str">
-        <v>郑州</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E209" t="str">
         <v>3-5年</v>
       </c>
       <c r="F209" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G209" t="str">
         <v>一个月前</v>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>手机软件开发工程师</v>
+        <v>Linux驱动开发工程师</v>
       </c>
       <c r="B210" t="str">
-        <v>6-7k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C210" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D210" t="str">
         <v>郑州</v>
       </c>
       <c r="E210" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F210" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G210" t="str">
         <v>一个月前</v>
@@ -5212,19 +5212,19 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>app开发工程师</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B211" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C211" t="str">
-        <v>融猎国际科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D211" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E211" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F211" t="str">
         <v>大专及以上</v>
@@ -5235,22 +5235,22 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>app开发工程师</v>
       </c>
       <c r="B212" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C212" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>融猎国际科技有限公司</v>
       </c>
       <c r="D212" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E212" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F212" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G212" t="str">
         <v>一个月前</v>
@@ -5258,22 +5258,22 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>ASO优化师</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B213" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E213" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F213" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G213" t="str">
         <v>一个月前</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>app运营主管</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B214" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C214" t="str">
         <v>郑州爱梦教育科技有限公司</v>
@@ -5296,7 +5296,7 @@
         <v>3-5年</v>
       </c>
       <c r="F214" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G214" t="str">
         <v>一个月前</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>移动开发工程师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B215" t="str">
-        <v>10-17k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D215" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E215" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F215" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,22 +5327,22 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>软件工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B216" t="str">
-        <v>5-8k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>郑州卓安</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E216" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F216" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G216" t="str">
         <v>一个月前</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>java开发</v>
+        <v>软件工程师</v>
       </c>
       <c r="B217" t="str">
         <v>5-8k·12薪</v>
@@ -5373,22 +5373,22 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>移动开发工程师</v>
+        <v>java开发</v>
       </c>
       <c r="B218" t="str">
-        <v>8-13k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C218" t="str">
-        <v>郑州闻秋信息科技有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D218" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E218" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F218" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G218" t="str">
         <v>一个月前</v>
@@ -5396,22 +5396,22 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>软件测试工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B219" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C219" t="str">
-        <v>郑州百思特软件科技有限公司</v>
+        <v>郑州闻秋信息科技有限公司</v>
       </c>
       <c r="D219" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E219" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F219" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G219" t="str">
         <v>一个月前</v>
@@ -5419,22 +5419,22 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>APP工程师</v>
+        <v>软件测试工程师</v>
       </c>
       <c r="B220" t="str">
-        <v>10-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C220" t="str">
-        <v>鲜易控股</v>
+        <v>郑州百思特软件科技有限公司</v>
       </c>
       <c r="D220" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E220" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F220" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G220" t="str">
         <v>一个月前</v>
@@ -5442,22 +5442,22 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>cocos2d-x客户端开发工程师</v>
+        <v>APP工程师</v>
       </c>
       <c r="B221" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C221" t="str">
-        <v>河南巨之乾网络技术有限公司</v>
+        <v>鲜易控股</v>
       </c>
       <c r="D221" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E221" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F221" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G221" t="str">
         <v>一个月前</v>
@@ -5465,16 +5465,16 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>应用层开发工程师</v>
+        <v>cocos2d-x客户端开发工程师</v>
       </c>
       <c r="B222" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C222" t="str">
-        <v>河南东京软件科技有限公司</v>
+        <v>河南巨之乾网络技术有限公司</v>
       </c>
       <c r="D222" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E222" t="str">
         <v>1-3年</v>
@@ -5488,19 +5488,19 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>高级前端讲师</v>
+        <v>应用层开发工程师</v>
       </c>
       <c r="B223" t="str">
-        <v>15-30k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C223" t="str">
-        <v>北京千锋互联科技</v>
+        <v>河南东京软件科技有限公司</v>
       </c>
       <c r="D223" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州</v>
       </c>
       <c r="E223" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F223" t="str">
         <v>大专及以上</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>app推广经理</v>
+        <v>高级前端讲师</v>
       </c>
       <c r="B224" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C224" t="str">
-        <v>UU跑腿</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D224" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E224" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F224" t="str">
         <v>大专及以上</v>
@@ -5534,19 +5534,19 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>​前端开发工程师（React &amp; React Native）</v>
+        <v>app推广经理</v>
       </c>
       <c r="B225" t="str">
-        <v>6-10k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C225" t="str">
-        <v>郑州家音顺达通讯有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D225" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E225" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F225" t="str">
         <v>大专及以上</v>
@@ -5557,19 +5557,19 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>ui设计师</v>
+        <v>​前端开发工程师（React &amp; React Native）</v>
       </c>
       <c r="B226" t="str">
-        <v>4-8k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C226" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>郑州家音顺达通讯有限公司</v>
       </c>
       <c r="D226" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州</v>
       </c>
       <c r="E226" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F226" t="str">
         <v>大专及以上</v>
@@ -5580,22 +5580,22 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>前端工程师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B227" t="str">
-        <v>25-40k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C227" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D227" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E227" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F227" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G227" t="str">
         <v>一个月前</v>
@@ -5603,16 +5603,16 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Java开发工程师</v>
+        <v>前端工程师</v>
       </c>
       <c r="B228" t="str">
-        <v>6-12k·12薪</v>
+        <v>25-40k·12薪</v>
       </c>
       <c r="C228" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D228" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E228" t="str">
         <v>3-5年</v>
@@ -5626,22 +5626,22 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>高级招聘专员</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B229" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C229" t="str">
-        <v>云鸟配送</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D229" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E229" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F229" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G229" t="str">
         <v>一个月前</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>渗透测试工程师</v>
+        <v>高级招聘专员</v>
       </c>
       <c r="B230" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C230" t="str">
-        <v>爱加密</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D230" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E230" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F230" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G230" t="str">
         <v>一个月前</v>
@@ -5675,19 +5675,19 @@
         <v>渗透测试工程师</v>
       </c>
       <c r="B231" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C231" t="str">
         <v>爱加密</v>
       </c>
       <c r="D231" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E231" t="str">
         <v>3-5年</v>
       </c>
       <c r="F231" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G231" t="str">
         <v>一个月前</v>
@@ -5695,22 +5695,22 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>渗透测试工程师</v>
       </c>
       <c r="B232" t="str">
-        <v>12-15k·14薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C232" t="str">
-        <v>某银行股份有限公司</v>
+        <v>爱加密</v>
       </c>
       <c r="D232" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E232" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F232" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G232" t="str">
         <v>一个月前</v>
@@ -5718,13 +5718,13 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>测试工程师</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B233" t="str">
-        <v>6-12k·14薪</v>
+        <v>12-15k·14薪</v>
       </c>
       <c r="C233" t="str">
-        <v>崤云安全</v>
+        <v>某银行股份有限公司</v>
       </c>
       <c r="D233" t="str">
         <v>郑州</v>
@@ -5741,22 +5741,22 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Flutter框架方向 Leader/工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B234" t="str">
-        <v>10-20k·12薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C234" t="str">
-        <v>河南斗呗互娱网络科技有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D234" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E234" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F234" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G234" t="str">
         <v>一个月前</v>
@@ -5764,13 +5764,13 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>C++开发工程师中级</v>
+        <v>Flutter框架方向 Leader/工程师</v>
       </c>
       <c r="B235" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C235" t="str">
-        <v>郑州迪维勒普科技有限公司</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D235" t="str">
         <v>郑州-高新区</v>
@@ -5779,7 +5779,7 @@
         <v>3-5年</v>
       </c>
       <c r="F235" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G235" t="str">
         <v>一个月前</v>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>信息化专员</v>
+        <v>C++开发工程师中级</v>
       </c>
       <c r="B236" t="str">
-        <v>面议</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C236" t="str">
-        <v>建业新生活</v>
+        <v>郑州迪维勒普科技有限公司</v>
       </c>
       <c r="D236" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E236" t="str">
         <v>3-5年</v>
       </c>
       <c r="F236" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G236" t="str">
         <v>一个月前</v>
@@ -5810,22 +5810,22 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>前端开发工程师</v>
+        <v>信息化专员</v>
       </c>
       <c r="B237" t="str">
-        <v>8-12k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C237" t="str">
-        <v>北大软件</v>
+        <v>建业新生活</v>
       </c>
       <c r="D237" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E237" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F237" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G237" t="str">
         <v>一个月前</v>
@@ -5833,22 +5833,22 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>java高级工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B238" t="str">
-        <v>10-11k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C238" t="str">
-        <v>郑州速衍科技有限公司</v>
+        <v>北大软件</v>
       </c>
       <c r="D238" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E238" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F238" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G238" t="str">
         <v>一个月前</v>
@@ -5856,13 +5856,13 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>双师岗-Web前端工程师-中级</v>
+        <v>java高级工程师</v>
       </c>
       <c r="B239" t="str">
-        <v>7-11k·12薪</v>
+        <v>10-11k·12薪</v>
       </c>
       <c r="C239" t="str">
-        <v>新开普电子</v>
+        <v>郑州速衍科技有限公司</v>
       </c>
       <c r="D239" t="str">
         <v>郑州</v>
@@ -5871,7 +5871,7 @@
         <v>5-10年</v>
       </c>
       <c r="F239" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G239" t="str">
         <v>一个月前</v>
@@ -5879,19 +5879,19 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>智能技术开发主管</v>
+        <v>双师岗-Web前端工程师-中级</v>
       </c>
       <c r="B240" t="str">
-        <v>面议</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C240" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D240" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E240" t="str">
-        <v>10年以上</v>
+        <v>5-10年</v>
       </c>
       <c r="F240" t="str">
         <v>本科及以上</v>
@@ -5902,19 +5902,19 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>JAVA开发</v>
+        <v>智能技术开发主管</v>
       </c>
       <c r="B241" t="str">
-        <v>8-13k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C241" t="str">
-        <v>白象食品股份有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D241" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E241" t="str">
-        <v>5-10年</v>
+        <v>10年以上</v>
       </c>
       <c r="F241" t="str">
         <v>本科及以上</v>
@@ -5925,22 +5925,22 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>前端开发工程师（JS）</v>
+        <v>JAVA开发</v>
       </c>
       <c r="B242" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C242" t="str">
-        <v>河南代代环境科技有限公司</v>
+        <v>白象食品股份有限公司</v>
       </c>
       <c r="D242" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E242" t="str">
         <v>5-10年</v>
       </c>
       <c r="F242" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G242" t="str">
         <v>一个月前</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>ui</v>
+        <v>前端开发工程师（JS）</v>
       </c>
       <c r="B243" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C243" t="str">
-        <v>郑州卯一科技有限公司</v>
+        <v>河南代代环境科技有限公司</v>
       </c>
       <c r="D243" t="str">
-        <v>郑州</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E243" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F243" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G243" t="str">
         <v>一个月前</v>
@@ -5971,22 +5971,22 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>中级JAVA开发</v>
+        <v>ui</v>
       </c>
       <c r="B244" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C244" t="str">
-        <v>正商地产</v>
+        <v>郑州卯一科技有限公司</v>
       </c>
       <c r="D244" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州</v>
       </c>
       <c r="E244" t="str">
         <v>3-5年</v>
       </c>
       <c r="F244" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G244" t="str">
         <v>一个月前</v>
@@ -5994,22 +5994,22 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Java基础中级技术顾问</v>
+        <v>中级JAVA开发</v>
       </c>
       <c r="B245" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C245" t="str">
-        <v>埃林哲</v>
+        <v>正商地产</v>
       </c>
       <c r="D245" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E245" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F245" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G245" t="str">
         <v>一个月前</v>
@@ -6017,19 +6017,19 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>C/C++开发工程师-2020YF25</v>
+        <v>Java基础中级技术顾问</v>
       </c>
       <c r="B246" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C246" t="str">
-        <v>信大捷安</v>
+        <v>埃林哲</v>
       </c>
       <c r="D246" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E246" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F246" t="str">
         <v>本科及以上</v>
@@ -6040,22 +6040,22 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>软件开发部 网优支撑中心</v>
+        <v>C/C++开发工程师-2020YF25</v>
       </c>
       <c r="B247" t="str">
-        <v>13-18k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C247" t="str">
-        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
+        <v>信大捷安</v>
       </c>
       <c r="D247" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E247" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F247" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G247" t="str">
         <v>一个月前</v>
@@ -6063,22 +6063,22 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>UI高级设计师</v>
+        <v>软件开发部 网优支撑中心</v>
       </c>
       <c r="B248" t="str">
-        <v>10-15k·12薪</v>
+        <v>13-18k·12薪</v>
       </c>
       <c r="C248" t="str">
-        <v>UU跑腿</v>
+        <v>中讯邮电咨询设计院有限公司郑州分公司</v>
       </c>
       <c r="D248" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E248" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F248" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G248" t="str">
         <v>一个月前</v>
@@ -6086,19 +6086,19 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>维护工程师</v>
+        <v>UI高级设计师</v>
       </c>
       <c r="B249" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C249" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D249" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E249" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F249" t="str">
         <v>本科及以上</v>

--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,159 +423,159 @@
         <v>本科及以上</v>
       </c>
       <c r="G2" t="str">
-        <v>5分钟前</v>
+        <v>2小时前</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android应用工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C3" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D3" t="str">
         <v>郑州</v>
       </c>
       <c r="E3" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F3" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G3" t="str">
-        <v>22小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>6-12k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E4" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F4" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G4" t="str">
-        <v>16小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>6-12k·13薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州</v>
       </c>
       <c r="E5" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F5" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G5" t="str">
-        <v>16小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
       </c>
       <c r="F6" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G6" t="str">
-        <v>16小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州</v>
       </c>
       <c r="E7" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F7" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G7" t="str">
-        <v>16小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Android开发工程师</v>
+        <v>Android底层开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>8-10k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E8" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F8" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G8" t="str">
-        <v>16小时前</v>
+        <v>2021-03-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android应用开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>7-11k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C9" t="str">
-        <v>河南华鼎供应链管理有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E9" t="str">
         <v>经验不限</v>
@@ -584,41 +584,41 @@
         <v>大专及以上</v>
       </c>
       <c r="G9" t="str">
-        <v>21小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C10" t="str">
-        <v>河南某互联网科技公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E10" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F10" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G10" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6-9k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C11" t="str">
-        <v>科蓝软件</v>
+        <v>UIOT超级智慧家</v>
       </c>
       <c r="D11" t="str">
         <v>郑州</v>
@@ -627,38 +627,38 @@
         <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G11" t="str">
-        <v>昨天</v>
+        <v>2021-03-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>安卓工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B12" t="str">
-        <v>8-10k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C12" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D12" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E12" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F12" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G12" t="str">
-        <v>19小时前</v>
+        <v>2021-03-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B13" t="str">
         <v>15-20k·13薪</v>
@@ -676,12 +676,12 @@
         <v>统招本科</v>
       </c>
       <c r="G13" t="str">
-        <v>昨天</v>
+        <v>2021-03-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B14" t="str">
         <v>15-20k·13薪</v>
@@ -699,179 +699,179 @@
         <v>统招本科</v>
       </c>
       <c r="G14" t="str">
-        <v>昨天</v>
+        <v>2021-03-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>资深android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C15" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E15" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G15" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>资深android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E16" t="str">
         <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G16" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Andriod开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>12-16k·13薪</v>
+        <v>8-10k·13薪</v>
       </c>
       <c r="C17" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E17" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G17" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>资深安卓开发</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>15-20k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E18" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F18" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G18" t="str">
-        <v>昨天</v>
+        <v>2021-03-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Android底层开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>8-15k·12薪</v>
+        <v>12-16k·13薪</v>
       </c>
       <c r="C19" t="str">
-        <v>UIOT超级智慧家</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E19" t="str">
         <v>5-10年</v>
       </c>
       <c r="F19" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G19" t="str">
-        <v>前天</v>
+        <v>2021-03-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Android C/C++开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-11k·12薪</v>
       </c>
       <c r="C20" t="str">
-        <v>天迈科技</v>
+        <v>河南华鼎供应链管理有限公司</v>
       </c>
       <c r="D20" t="str">
         <v>郑州</v>
       </c>
       <c r="E20" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F20" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G20" t="str">
-        <v>前天</v>
+        <v>2021-03-04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android应用开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>12-20k·14薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C21" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>河南某互联网科技公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E21" t="str">
         <v>3-5年</v>
       </c>
       <c r="F21" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G21" t="str">
-        <v>前天</v>
+        <v>2021-03-04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B22" t="str">
-        <v>8-15k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C22" t="str">
-        <v>UIOT超级智慧家</v>
+        <v>科蓝软件</v>
       </c>
       <c r="D22" t="str">
         <v>郑州</v>
@@ -880,47 +880,47 @@
         <v>3-5年</v>
       </c>
       <c r="F22" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G22" t="str">
-        <v>前天</v>
+        <v>2021-03-04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>安卓工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>8-12k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C23" t="str">
-        <v>河南银商信息咨询服务有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E23" t="str">
         <v>3-5年</v>
       </c>
       <c r="F23" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G23" t="str">
-        <v>前天</v>
+        <v>2021-03-03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深安卓开发</v>
       </c>
       <c r="B24" t="str">
-        <v>8-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C24" t="str">
-        <v>河南银商信息咨询服务有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E24" t="str">
         <v>3-5年</v>
@@ -929,12 +929,12 @@
         <v>大专及以上</v>
       </c>
       <c r="G24" t="str">
-        <v>前天</v>
+        <v>2021-03-03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android C/C++开发工程师</v>
       </c>
       <c r="B25" t="str">
         <v>10-15k·12薪</v>
@@ -949,15 +949,15 @@
         <v>5-10年</v>
       </c>
       <c r="F25" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G25" t="str">
-        <v>前天</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>安卓开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B26" t="str">
         <v>12-20k·14薪</v>
@@ -975,64 +975,64 @@
         <v>统招本科</v>
       </c>
       <c r="G26" t="str">
-        <v>前天</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Android高级开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>20-35k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C27" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南银商信息咨询服务有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E27" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F27" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G27" t="str">
-        <v>2021-03-01</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>高级Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C28" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南银商信息咨询服务有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E28" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F28" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G28" t="str">
-        <v>2021-03-01</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>资深Android开发工程师-浏览器方向</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C29" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
@@ -1044,47 +1044,47 @@
         <v>本科及以上</v>
       </c>
       <c r="G29" t="str">
-        <v>2021-03-01</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>资深Android开发工程师-清理安全方向</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>15-25k·12薪</v>
+        <v>12-20k·14薪</v>
       </c>
       <c r="C30" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E30" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F30" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G30" t="str">
-        <v>2021-03-01</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>7-10k·12薪</v>
+        <v>20-35k·12薪</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F31" t="str">
         <v>本科及以上</v>
@@ -1095,19 +1095,19 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>安卓工程师</v>
+        <v>高级Android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>8-12k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C32" t="str">
-        <v>云涌科技</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F32" t="str">
         <v>本科及以上</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深Android开发工程师-浏览器方向</v>
       </c>
       <c r="B33" t="str">
-        <v>10-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C33" t="str">
-        <v>蓝信科技</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E33" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F33" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G33" t="str">
         <v>2021-03-01</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深Android开发工程师-清理安全方向</v>
       </c>
       <c r="B34" t="str">
-        <v>3-8k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C34" t="str">
-        <v>河南常春藤软件有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E34" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F34" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G34" t="str">
         <v>2021-03-01</v>
@@ -1164,62 +1164,62 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>安卓android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>8-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C35" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E35" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F35" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G35" t="str">
-        <v>2021-02-27</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>8-13k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C36" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F36" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G36" t="str">
-        <v>2021-02-27</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C37" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
@@ -1228,21 +1228,21 @@
         <v>统招本科</v>
       </c>
       <c r="G37" t="str">
-        <v>2021-02-27</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>6-8k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南常春藤软件有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E38" t="str">
         <v>1-3年</v>
@@ -1251,27 +1251,27 @@
         <v>大专及以上</v>
       </c>
       <c r="G38" t="str">
-        <v>2021-02-26</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>20-30k·14薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C39" t="str">
-        <v>建达软件</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F39" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G39" t="str">
         <v>2021-02-26</v>
@@ -1279,45 +1279,45 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>project manager(JAVA /.NET/Android/iOS)</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>15-20k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C40" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>建达软件</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F40" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G40" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>安卓开发</v>
+        <v>project manager(JAVA /.NET/Android/iOS)</v>
       </c>
       <c r="B41" t="str">
-        <v>8-13k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C41" t="str">
         <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F41" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G41" t="str">
         <v>2021-02-25</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B42" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C42" t="str">
-        <v>思维自动化</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E42" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F42" t="str">
         <v>统招本科</v>
@@ -1348,88 +1348,88 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>安卓前端（运维、ui设计）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C43" t="str">
-        <v>某化工企业</v>
+        <v>思维自动化</v>
       </c>
       <c r="D43" t="str">
         <v>郑州</v>
       </c>
       <c r="E43" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F43" t="str">
         <v>统招本科</v>
       </c>
       <c r="G43" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓前端（运维、ui设计）</v>
       </c>
       <c r="B44" t="str">
-        <v>10-15k·14薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C44" t="str">
-        <v>天迈科技</v>
+        <v>某化工企业</v>
       </c>
       <c r="D44" t="str">
         <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F44" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G44" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>高级android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>15-20k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C45" t="str">
-        <v>刀锋互娱</v>
+        <v>天迈科技</v>
       </c>
       <c r="D45" t="str">
         <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F45" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G45" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>6-9k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C46" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F46" t="str">
         <v>大专及以上</v>
@@ -1440,13 +1440,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Android</v>
+        <v>android</v>
       </c>
       <c r="B47" t="str">
-        <v>8-11k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D47" t="str">
         <v>郑州</v>
@@ -1455,7 +1455,7 @@
         <v>3-5年</v>
       </c>
       <c r="F47" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G47" t="str">
         <v>2021-02-22</v>
@@ -1463,111 +1463,111 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B48" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C48" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D48" t="str">
         <v>郑州</v>
       </c>
       <c r="E48" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F48" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G48" t="str">
-        <v>2021-02-20</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>高级android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>10-15k·14薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C49" t="str">
-        <v>上市高科技企业</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E49" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F49" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G49" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>6-10k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C50" t="str">
-        <v>河南峦辉网络科技有限公司</v>
+        <v>上市高科技企业</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E50" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F50" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G50" t="str">
-        <v>2021-02-17</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Android系统固件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B51" t="str">
         <v>6-10k·12薪</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南峦辉网络科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E51" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F51" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G51" t="str">
-        <v>一个月前</v>
+        <v>2021-02-17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>android开发工程师</v>
+        <v>Android系统固件工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>5-7k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C52" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F52" t="str">
         <v>本科及以上</v>
@@ -1578,19 +1578,19 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>12-20k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C53" t="str">
-        <v>缔云科技</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E53" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F53" t="str">
         <v>本科及以上</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>高级android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>11-17k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C54" t="str">
-        <v>中宝科技</v>
+        <v>缔云科技</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E54" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F54" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G54" t="str">
         <v>一个月前</v>
@@ -1624,19 +1624,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Android工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>6-10k·12薪</v>
+        <v>11-17k·12薪</v>
       </c>
       <c r="C55" t="str">
-        <v>河南一九八八网络科技有限公司</v>
+        <v>中宝科技</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E55" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F55" t="str">
         <v>大专及以上</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Android开发</v>
+        <v>Android工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>9-13k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C56" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南一九八八网络科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E56" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F56" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G56" t="str">
         <v>一个月前</v>
@@ -1670,19 +1670,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B57" t="str">
-        <v>7-10k·12薪</v>
+        <v>9-13k·12薪</v>
       </c>
       <c r="C57" t="str">
-        <v>中钢网</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D57" t="str">
         <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F57" t="str">
         <v>本科及以上</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B58" t="str">
-        <v>10-15k·15薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C58" t="str">
-        <v>某大型智能家居公司</v>
+        <v>中钢网</v>
       </c>
       <c r="D58" t="str">
         <v>郑州</v>
@@ -1716,19 +1716,19 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>8-12k·12薪</v>
+        <v>10-15k·15薪</v>
       </c>
       <c r="C59" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>某大型智能家居公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F59" t="str">
         <v>本科及以上</v>
@@ -1739,19 +1739,19 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B60" t="str">
-        <v>15-30k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州卓见软件科技有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D60" t="str">
         <v>郑州</v>
       </c>
       <c r="E60" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F60" t="str">
         <v>本科及以上</v>
@@ -1762,16 +1762,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>9-12k·12薪</v>
+        <v>15-30k·13薪</v>
       </c>
       <c r="C61" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>郑州卓见软件科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州</v>
       </c>
       <c r="E61" t="str">
         <v>3-5年</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>地面站Android软件工程师</v>
+        <v>Android</v>
       </c>
       <c r="B62" t="str">
-        <v>10-15k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E62" t="str">
         <v>3-5年</v>
       </c>
       <c r="F62" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G62" t="str">
         <v>一个月前</v>
@@ -1808,22 +1808,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Android开发工程师</v>
+        <v>地面站Android软件工程师</v>
       </c>
       <c r="B63" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C63" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-咸嘉湖</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E63" t="str">
         <v>3-5年</v>
       </c>
       <c r="F63" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G63" t="str">
         <v>一个月前</v>
@@ -1831,16 +1831,16 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>安卓（Android）前端开发</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>10-13k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州木歌科技有限公司</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州</v>
+        <v>郑州-咸嘉湖</v>
       </c>
       <c r="E64" t="str">
         <v>3-5年</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓（Android）前端开发</v>
       </c>
       <c r="B65" t="str">
-        <v>6-11k·12薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C65" t="str">
-        <v>新开普电子</v>
+        <v>郑州木歌科技有限公司</v>
       </c>
       <c r="D65" t="str">
         <v>郑州</v>
@@ -1869,7 +1869,7 @@
         <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G65" t="str">
         <v>一个月前</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>9-13k·13薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C66" t="str">
-        <v>河南芯盾网安科技发展有限公司</v>
+        <v>新开普电子</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-翠苑</v>
+        <v>郑州</v>
       </c>
       <c r="E66" t="str">
         <v>3-5年</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>8-11k·12薪</v>
+        <v>9-13k·13薪</v>
       </c>
       <c r="C67" t="str">
-        <v>河南腾远信息技术有限公司</v>
+        <v>河南芯盾网安科技发展有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-翠苑</v>
       </c>
       <c r="E67" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F67" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G67" t="str">
         <v>一个月前</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Android</v>
+        <v>android</v>
       </c>
       <c r="B68" t="str">
-        <v>5-9k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C68" t="str">
-        <v>中裕广恒</v>
+        <v>河南腾远信息技术有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E68" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F68" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G68" t="str">
         <v>一个月前</v>
@@ -1946,13 +1946,13 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android app开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B69" t="str">
-        <v>8-15k·12薪</v>
+        <v>5-9k·12薪</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>中裕广恒</v>
       </c>
       <c r="D69" t="str">
         <v>郑州-北林路</v>
@@ -1961,7 +1961,7 @@
         <v>3-5年</v>
       </c>
       <c r="F69" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G69" t="str">
         <v>一个月前</v>
@@ -1969,19 +1969,19 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android</v>
+        <v>android app开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>9-12k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C70" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E70" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F70" t="str">
         <v>大专及以上</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android开发</v>
+        <v>android</v>
       </c>
       <c r="B71" t="str">
-        <v>5-8k·12薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C71" t="str">
-        <v>东方蓝深</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E71" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F71" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G71" t="str">
         <v>一个月前</v>
@@ -2015,19 +2015,19 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Android开发</v>
+        <v>android开发</v>
       </c>
       <c r="B72" t="str">
-        <v>8-12k·14薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C72" t="str">
-        <v>正商地产</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E72" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F72" t="str">
         <v>统招本科</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Android开发（IOS开发）</v>
+        <v>Android开发</v>
       </c>
       <c r="B73" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-12k·14薪</v>
       </c>
       <c r="C73" t="str">
         <v>正商地产</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E73" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F73" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G73" t="str">
         <v>一个月前</v>
@@ -2061,19 +2061,19 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发（IOS开发）</v>
       </c>
       <c r="B74" t="str">
-        <v>8-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C74" t="str">
-        <v>伏安国电(河南)科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E74" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F74" t="str">
         <v>本科及以上</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Android开发工程师(J10013)</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>10-12k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C75" t="str">
-        <v>北京未来脑教育科技有限公司</v>
+        <v>伏安国电(河南)科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E75" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F75" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G75" t="str">
         <v>一个月前</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师(J10013)</v>
       </c>
       <c r="B76" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C76" t="str">
-        <v>河南中原鼎盛云科技服务有限公司</v>
+        <v>北京未来脑教育科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-城东路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E76" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F76" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G76" t="str">
         <v>一个月前</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Android开发工程师岗</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C77" t="str">
         <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E77" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F77" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G77" t="str">
         <v>一个月前</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Android开发</v>
+        <v>Android开发工程师岗</v>
       </c>
       <c r="B78" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C78" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南中原鼎盛云科技服务有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E78" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F78" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G78" t="str">
         <v>一个月前</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Android开发工程师（设施—郑州）</v>
+        <v>Android开发</v>
       </c>
       <c r="B79" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C79" t="str">
-        <v>超图软件</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E79" t="str">
         <v>1-3年</v>
       </c>
       <c r="F79" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G79" t="str">
         <v>一个月前</v>
@@ -2199,19 +2199,19 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Android</v>
+        <v>Android开发工程师（设施—郑州）</v>
       </c>
       <c r="B80" t="str">
-        <v>15-20k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C80" t="str">
-        <v>浩鲸智能</v>
+        <v>超图软件</v>
       </c>
       <c r="D80" t="str">
         <v>郑州-燕庄</v>
       </c>
       <c r="E80" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F80" t="str">
         <v>本科及以上</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>高薪诚聘高级Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B81" t="str">
-        <v>7-14k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C81" t="str">
-        <v>北京云海航创网络科技有限公司郑州分公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E81" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F81" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G81" t="str">
         <v>一个月前</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Android</v>
+        <v>高薪诚聘高级Android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-14k·12薪</v>
       </c>
       <c r="C82" t="str">
         <v>北京云海航创网络科技有限公司郑州分公司</v>
@@ -2257,7 +2257,7 @@
         <v>郑州-二七区</v>
       </c>
       <c r="E82" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F82" t="str">
         <v>大专及以上</v>
@@ -2268,19 +2268,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>手机开发工程师（Android）</v>
+        <v>Android</v>
       </c>
       <c r="B83" t="str">
-        <v>6k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C83" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>北京云海航创网络科技有限公司郑州分公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E83" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F83" t="str">
         <v>大专及以上</v>
@@ -2291,16 +2291,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android开发工程师</v>
+        <v>手机开发工程师（Android）</v>
       </c>
       <c r="B84" t="str">
-        <v>8-16k·12薪</v>
+        <v>6k·12薪</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州因诺网络科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E84" t="str">
         <v>1-3年</v>
@@ -2314,16 +2314,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>6-12k·12薪</v>
+        <v>8-16k·12薪</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州李唐电子科技有限公司</v>
+        <v>郑州因诺网络科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E85" t="str">
         <v>1-3年</v>
@@ -2337,22 +2337,22 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C86" t="str">
-        <v>河南阿佳妮实业有限公司</v>
+        <v>郑州李唐电子科技有限公司</v>
       </c>
       <c r="D86" t="str">
         <v>郑州</v>
       </c>
       <c r="E86" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F86" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G86" t="str">
         <v>一个月前</v>
@@ -2363,16 +2363,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>5-10k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C87" t="str">
-        <v>厦门捷昕智能技术有限公司</v>
+        <v>河南阿佳妮实业有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E87" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F87" t="str">
         <v>本科及以上</v>
@@ -2383,19 +2383,19 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Android工程师（郑州）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>10-15k·12薪</v>
+        <v>5-10k·13薪</v>
       </c>
       <c r="C88" t="str">
-        <v>汉克时代</v>
+        <v>厦门捷昕智能技术有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-中山公园</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E88" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F88" t="str">
         <v>本科及以上</v>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>移动端组（Android开发工程师）高级</v>
+        <v>Android工程师（郑州）</v>
       </c>
       <c r="B89" t="str">
-        <v>14-18k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C89" t="str">
-        <v>崤云信息</v>
+        <v>汉克时代</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州</v>
+        <v>郑州-中山公园</v>
       </c>
       <c r="E89" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F89" t="str">
         <v>本科及以上</v>
@@ -2429,13 +2429,13 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Android高级开发工程师</v>
+        <v>移动端组（Android开发工程师）高级</v>
       </c>
       <c r="B90" t="str">
-        <v>10-15k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C90" t="str">
-        <v>郑州英苑企业管理咨询有限公司</v>
+        <v>崤云信息</v>
       </c>
       <c r="D90" t="str">
         <v>郑州</v>
@@ -2444,7 +2444,7 @@
         <v>3-5年</v>
       </c>
       <c r="F90" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G90" t="str">
         <v>一个月前</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Android开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>20-40k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C91" t="str">
-        <v>京东</v>
+        <v>郑州英苑企业管理咨询有限公司</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
       </c>
       <c r="E91" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F91" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G91" t="str">
         <v>一个月前</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Android开发工程师-郑州（双休）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>4-8k·12薪</v>
+        <v>20-40k·12薪</v>
       </c>
       <c r="C92" t="str">
-        <v>比特耐特</v>
+        <v>京东</v>
       </c>
       <c r="D92" t="str">
         <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F92" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G92" t="str">
         <v>一个月前</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Android开发工程师</v>
+        <v>Android开发工程师-郑州（双休）</v>
       </c>
       <c r="B93" t="str">
         <v>4-8k·12薪</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>6-9k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C94" t="str">
-        <v>河南即修网络科技有限公司</v>
+        <v>比特耐特</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州</v>
       </c>
       <c r="E94" t="str">
         <v>1-3年</v>
       </c>
       <c r="F94" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G94" t="str">
         <v>一个月前</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android开发</v>
+        <v>Android</v>
       </c>
       <c r="B95" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州维创盈通软件科技有限公司</v>
+        <v>河南即修网络科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E95" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F95" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G95" t="str">
         <v>一个月前</v>
@@ -2567,19 +2567,19 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android逆向工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B96" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C96" t="str">
-        <v>河南喜付网络科技有限公司</v>
+        <v>郑州维创盈通软件科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-长江路</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E96" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F96" t="str">
         <v>大专及以上</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>高级android开发工程师</v>
+        <v>android逆向工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>14-18k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C97" t="str">
-        <v>崤云安全</v>
+        <v>河南喜付网络科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州</v>
+        <v>郑州-长江路</v>
       </c>
       <c r="E97" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F97" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G97" t="str">
         <v>一个月前</v>
@@ -2613,19 +2613,19 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Android工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>8-12k·12薪</v>
+        <v>14-18k·12薪</v>
       </c>
       <c r="C98" t="str">
-        <v>苏州乐精灵信息科技有限公司</v>
+        <v>崤云安全</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F98" t="str">
         <v>本科及以上</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>android工程师</v>
+        <v>Android工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>8-12k·13薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C99" t="str">
-        <v>河南雨学教育科技有限公司</v>
+        <v>苏州乐精灵信息科技有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E99" t="str">
         <v>1-3年</v>
       </c>
       <c r="F99" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G99" t="str">
         <v>一个月前</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Android</v>
+        <v>android工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C100" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>河南雨学教育科技有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E100" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F100" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G100" t="str">
         <v>一个月前</v>
@@ -2685,19 +2685,19 @@
         <v>Android</v>
       </c>
       <c r="B101" t="str">
-        <v>8-11k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C101" t="str">
-        <v>郑州家天下物联科技有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-二里岗</v>
+        <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F101" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G101" t="str">
         <v>一个月前</v>
@@ -2705,16 +2705,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Android开发</v>
+        <v>Android</v>
       </c>
       <c r="B102" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-11k·12薪</v>
       </c>
       <c r="C102" t="str">
-        <v>华英农业</v>
+        <v>郑州家天下物联科技有限公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-二里岗</v>
       </c>
       <c r="E102" t="str">
         <v>1-3年</v>
@@ -2728,16 +2728,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Android</v>
+        <v>Android开发</v>
       </c>
       <c r="B103" t="str">
-        <v>6-8k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C103" t="str">
-        <v>上海递递网络科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E103" t="str">
         <v>1-3年</v>
@@ -2754,19 +2754,19 @@
         <v>Android</v>
       </c>
       <c r="B104" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C104" t="str">
-        <v>河南大张旗鼓文化传播有限公司</v>
+        <v>上海递递网络科技有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E104" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F104" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G104" t="str">
         <v>一个月前</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B105" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C105" t="str">
-        <v>河南蔚蓝宠物用品有限公司</v>
+        <v>河南大张旗鼓文化传播有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E105" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F105" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G105" t="str">
         <v>一个月前</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
         <v>10-15k·12薪</v>
       </c>
       <c r="C106" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>河南蔚蓝宠物用品有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E106" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F106" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G106" t="str">
         <v>一个月前</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Android高级开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C107" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F107" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G107" t="str">
         <v>一个月前</v>
@@ -2846,13 +2846,13 @@
         <v>Android高级开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C108" t="str">
         <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E108" t="str">
         <v>1-3年</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Android APP 开发工程师</v>
+        <v>Android高级开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C109" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E109" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F109" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G109" t="str">
         <v>一个月前</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>android开发</v>
+        <v>Android APP 开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C110" t="str">
-        <v>河南狼团企业管理咨询有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E110" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F110" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G110" t="str">
         <v>一个月前</v>
@@ -2915,13 +2915,13 @@
         <v>android开发</v>
       </c>
       <c r="B111" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C111" t="str">
-        <v>网道咨询</v>
+        <v>河南狼团企业管理咨询有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E111" t="str">
         <v>1-3年</v>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B112" t="str">
-        <v>8-10k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C112" t="str">
-        <v>上海音达科技实业有限公司</v>
+        <v>网道咨询</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
@@ -2950,7 +2950,7 @@
         <v>1-3年</v>
       </c>
       <c r="F112" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G112" t="str">
         <v>一个月前</v>
@@ -2958,22 +2958,22 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>6-13k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C113" t="str">
-        <v>北京云海航创网络科技有限公司</v>
+        <v>上海音达科技实业有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F113" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G113" t="str">
         <v>一个月前</v>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Android开发工程师</v>
+        <v>Android安卓开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-13k·12薪</v>
       </c>
       <c r="C114" t="str">
-        <v>河南浩之岩信息科技有限公司</v>
+        <v>北京云海航创网络科技有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E114" t="str">
         <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G114" t="str">
         <v>一个月前</v>
@@ -3004,19 +3004,19 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>4-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C115" t="str">
-        <v>华英农业</v>
+        <v>河南浩之岩信息科技有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E115" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F115" t="str">
         <v>大专及以上</v>
@@ -3030,10 +3030,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>6-10k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C116" t="str">
-        <v>河南梦格网网络科技有限公司</v>
+        <v>华英农业</v>
       </c>
       <c r="D116" t="str">
         <v>郑州</v>
@@ -3042,7 +3042,7 @@
         <v>1-3年</v>
       </c>
       <c r="F116" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G116" t="str">
         <v>一个月前</v>
@@ -3053,19 +3053,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>7-15k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C117" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>河南梦格网网络科技有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E117" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F117" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G117" t="str">
         <v>一个月前</v>
@@ -3076,19 +3076,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>8-12k·12薪</v>
+        <v>7-15k·12薪</v>
       </c>
       <c r="C118" t="str">
-        <v>赞同科技股份有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E118" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F118" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G118" t="str">
         <v>一个月前</v>
@@ -3096,16 +3096,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>4-9k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C119" t="str">
-        <v>芯盾(北京)信息技术有限公司</v>
+        <v>赞同科技股份有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E119" t="str">
         <v>1-3年</v>
@@ -3119,16 +3119,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>android讲师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>8-12k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C120" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>芯盾(北京)信息技术有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E120" t="str">
         <v>1-3年</v>
@@ -3142,13 +3142,13 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>android开发工程师</v>
+        <v>android讲师</v>
       </c>
       <c r="B121" t="str">
-        <v>6-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C121" t="str">
-        <v>河南年青人电子商务有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
@@ -3165,19 +3165,19 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>8-12k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C122" t="str">
-        <v>河南一步用车科技有限公司</v>
+        <v>河南年青人电子商务有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州</v>
       </c>
       <c r="E122" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F122" t="str">
         <v>本科及以上</v>
@@ -3188,13 +3188,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>（郑州）Android工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B123" t="str">
         <v>8-12k·12薪</v>
       </c>
       <c r="C123" t="str">
-        <v>修齐治平</v>
+        <v>河南一步用车科技有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
@@ -3203,7 +3203,7 @@
         <v>3-5年</v>
       </c>
       <c r="F123" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G123" t="str">
         <v>一个月前</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>android开发工程师</v>
+        <v>（郑州）Android工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C124" t="str">
-        <v>云球猫科技有限公司</v>
+        <v>修齐治平</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州</v>
       </c>
       <c r="E124" t="str">
         <v>3-5年</v>
       </c>
       <c r="F124" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G124" t="str">
         <v>一个月前</v>
@@ -3234,22 +3234,22 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>8-13k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C125" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>云球猫科技有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G125" t="str">
         <v>一个月前</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓开发</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>12-20k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C126" t="str">
-        <v>浩鲸智能</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E126" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F126" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G126" t="str">
         <v>一个月前</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B127" t="str">
-        <v>6-7k·12薪</v>
+        <v>12-20k·12薪</v>
       </c>
       <c r="C127" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E127" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F127" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G127" t="str">
         <v>一个月前</v>
@@ -3306,19 +3306,19 @@
         <v>安卓工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-7k·12薪</v>
       </c>
       <c r="C128" t="str">
-        <v>浩鲸智能</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F128" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G128" t="str">
         <v>一个月前</v>
@@ -3329,19 +3329,19 @@
         <v>安卓工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>10-12k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C129" t="str">
-        <v>北京聚融优合技术有限公司</v>
+        <v>浩鲸智能</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E129" t="str">
         <v>3-5年</v>
       </c>
       <c r="F129" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G129" t="str">
         <v>一个月前</v>
@@ -3349,13 +3349,13 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>安卓讲师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>6-12k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C130" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>北京聚融优合技术有限公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
@@ -3372,19 +3372,19 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓讲师</v>
       </c>
       <c r="B131" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C131" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D131" t="str">
         <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F131" t="str">
         <v>大专及以上</v>
@@ -3398,16 +3398,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>8-12k·12薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C132" t="str">
-        <v>郑州八角信息技术有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D132" t="str">
         <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F132" t="str">
         <v>大专及以上</v>
@@ -3421,16 +3421,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>7-8k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C133" t="str">
-        <v>河南旭正集团有限公司</v>
+        <v>郑州八角信息技术有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-凤凰台</v>
+        <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F133" t="str">
         <v>大专及以上</v>
@@ -3444,19 +3444,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>10-13k·12薪</v>
+        <v>7-8k·12薪</v>
       </c>
       <c r="C134" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>河南旭正集团有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州</v>
+        <v>郑州-凤凰台</v>
       </c>
       <c r="E134" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G134" t="str">
         <v>一个月前</v>
@@ -3467,10 +3467,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>10-15k·14薪</v>
+        <v>10-13k·12薪</v>
       </c>
       <c r="C135" t="str">
-        <v>蓝信科技</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D135" t="str">
         <v>郑州</v>
@@ -3479,7 +3479,7 @@
         <v>5-10年</v>
       </c>
       <c r="F135" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G135" t="str">
         <v>一个月前</v>
@@ -3490,19 +3490,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-15k·14薪</v>
       </c>
       <c r="C136" t="str">
-        <v>迈特望</v>
+        <v>蓝信科技</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E136" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F136" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G136" t="str">
         <v>一个月前</v>
@@ -3510,22 +3510,22 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>安卓逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>8-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C137" t="str">
-        <v>刀锋互娱</v>
+        <v>迈特望</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E137" t="str">
         <v>3-5年</v>
       </c>
       <c r="F137" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G137" t="str">
         <v>一个月前</v>
@@ -3533,16 +3533,16 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安卓前端开发师</v>
+        <v>安卓逆向工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>7-10k·12薪</v>
+        <v>8-20k·12薪</v>
       </c>
       <c r="C138" t="str">
-        <v>郑州梦竹软件科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E138" t="str">
         <v>3-5年</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端开发师</v>
       </c>
       <c r="B139" t="str">
-        <v>6-11k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C139" t="str">
-        <v>郑州林迪软件科技有限公司</v>
+        <v>郑州梦竹软件科技有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E139" t="str">
         <v>3-5年</v>
       </c>
       <c r="F139" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G139" t="str">
         <v>一个月前</v>
@@ -3582,19 +3582,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>7-10k·12薪</v>
+        <v>6-11k·12薪</v>
       </c>
       <c r="C140" t="str">
-        <v>河南半半网络科技有限公司</v>
+        <v>郑州林迪软件科技有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E140" t="str">
         <v>3-5年</v>
       </c>
       <c r="F140" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G140" t="str">
         <v>一个月前</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>地面站安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C141" t="str">
-        <v>郑州三和通用航空有限公司</v>
+        <v>河南半半网络科技有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-上街区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E141" t="str">
         <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G141" t="str">
         <v>一个月前</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>安卓开发工程师</v>
+        <v>地面站安卓软件工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>5-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C142" t="str">
-        <v>河南盈北网络科技有限公司</v>
+        <v>郑州三和通用航空有限公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-上街区</v>
       </c>
       <c r="E142" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F142" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G142" t="str">
         <v>一个月前</v>
@@ -3651,16 +3651,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>6-12k·14薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C143" t="str">
-        <v>河南八六三软件股份有限公司</v>
+        <v>河南盈北网络科技有限公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E143" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F143" t="str">
         <v>大专及以上</v>
@@ -3674,19 +3674,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>7-10k·13薪</v>
+        <v>6-12k·14薪</v>
       </c>
       <c r="C144" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南八六三软件股份有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E144" t="str">
         <v>3-5年</v>
       </c>
       <c r="F144" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G144" t="str">
         <v>一个月前</v>
@@ -3703,7 +3703,7 @@
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E145" t="str">
         <v>3-5年</v>
@@ -3720,16 +3720,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>6-8k·12薪</v>
+        <v>7-10k·13薪</v>
       </c>
       <c r="C146" t="str">
-        <v>伍福九太极(北京)文化发展有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E146" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F146" t="str">
         <v>学历不限</v>
@@ -3743,19 +3743,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>3-8k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C147" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>伍福九太极(北京)文化发展有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E147" t="str">
         <v>经验不限</v>
       </c>
       <c r="F147" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G147" t="str">
         <v>一个月前</v>
@@ -3766,16 +3766,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>5-7k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C148" t="str">
-        <v>上海去森教育科技有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E148" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F148" t="str">
         <v>本科及以上</v>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Andriod高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>8-15k·12薪</v>
+        <v>5-7k·12薪</v>
       </c>
       <c r="C149" t="str">
-        <v>河南鼎汉软件科技有限公司</v>
+        <v>上海去森教育科技有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E149" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F149" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G149" t="str">
         <v>一个月前</v>
@@ -3809,22 +3809,22 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>Andriod高级开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>20-30k·14薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C150" t="str">
-        <v>河南建达软件有限公司郑州分公司</v>
+        <v>河南鼎汉软件科技有限公司</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E150" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F150" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G150" t="str">
         <v>一个月前</v>
@@ -3832,22 +3832,22 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>安卓app开发工程师</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>3-8k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C151" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>河南建达软件有限公司郑州分公司</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E151" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F151" t="str">
-        <v>学历不限</v>
+        <v>统招本科</v>
       </c>
       <c r="G151" t="str">
         <v>一个月前</v>
@@ -3855,22 +3855,22 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓app开发工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>6-10k·12薪</v>
+        <v>3-8k·12薪</v>
       </c>
       <c r="C152" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E152" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F152" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G152" t="str">
         <v>一个月前</v>
@@ -3878,48 +3878,48 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>web前端开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B153" t="str">
-        <v>8-10k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C153" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州-管城区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E153" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F153" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G153" t="str">
-        <v>16小时前</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>前端开发工程师</v>
+        <v>测试工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>6-10k·13薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C154" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>北京修齐治平科技有限公司郑州二七区分公司</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E154" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F154" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G154" t="str">
-        <v>16小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="155">
@@ -3927,13 +3927,13 @@
         <v>测试工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>10-15k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C155" t="str">
-        <v>北京修齐治平科技有限公司郑州二七区分公司</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E155" t="str">
         <v>3-5年</v>
@@ -3942,136 +3942,136 @@
         <v>统招本科</v>
       </c>
       <c r="G155" t="str">
-        <v>22小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>嵌入式开发工程师</v>
+        <v>车联网/智能网联软件工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>8-12k·13薪</v>
+        <v>20-30k·13薪</v>
       </c>
       <c r="C156" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>某汽车制造企业</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E156" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F156" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G156" t="str">
-        <v>16小时前</v>
+        <v>昨天</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>客户端开发工程师（2021届）</v>
+        <v>移动端高级开发工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>10-20k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C157" t="str">
-        <v>速游</v>
+        <v>河南省煤田地质局物探测量队</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-五山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E157" t="str">
-        <v>一年以下</v>
+        <v>1-3年</v>
       </c>
       <c r="F157" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G157" t="str">
-        <v>13小时前</v>
+        <v>2021-03-05</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>维护工程师</v>
+        <v>资深浏览器内核研发工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>4-6k·12薪</v>
+        <v>15-20k·13薪</v>
       </c>
       <c r="C158" t="str">
-        <v>成都智元汇信息技术股份有限公司</v>
+        <v>麒麟合盛网络技术股份有限公司</v>
       </c>
       <c r="D158" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E158" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F158" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G158" t="str">
-        <v>17小时前</v>
+        <v>2021-03-05</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>主策划</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>15-25k·14薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C159" t="str">
-        <v>某知名游戏公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州</v>
+        <v>郑州-管城区</v>
       </c>
       <c r="E159" t="str">
         <v>5-10年</v>
       </c>
       <c r="F159" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G159" t="str">
-        <v>22小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>80-100k·12薪</v>
+        <v>6-10k·13薪</v>
       </c>
       <c r="C160" t="str">
-        <v>全国连锁猎头集团</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E160" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F160" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G160" t="str">
-        <v>23小时前</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>前端开发工程师</v>
+        <v>google广告优化师</v>
       </c>
       <c r="B161" t="str">
-        <v>6-10k·12薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C161" t="str">
-        <v>北京微训科技有限公司</v>
+        <v>河南国超电子商务有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E161" t="str">
         <v>1-3年</v>
@@ -4080,87 +4080,87 @@
         <v>本科及以上</v>
       </c>
       <c r="G161" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>资深浏览器内核研发工程师</v>
+        <v>嵌入式开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>15-20k·13薪</v>
+        <v>8-12k·13薪</v>
       </c>
       <c r="C162" t="str">
-        <v>麒麟合盛网络技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E162" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F162" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G162" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>java开发工程师</v>
+        <v>客户端开发工程师（2021届）</v>
       </c>
       <c r="B163" t="str">
-        <v>7-10k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C163" t="str">
-        <v>上海锐聘信息技术有限公司</v>
+        <v>速游</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-五山</v>
       </c>
       <c r="E163" t="str">
-        <v>3-5年</v>
+        <v>一年以下</v>
       </c>
       <c r="F163" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G163" t="str">
-        <v>昨天</v>
+        <v>前天</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>架构师</v>
+        <v>维护工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>20-25k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C164" t="str">
-        <v>东方蓝深</v>
+        <v>成都智元汇信息技术股份有限公司</v>
       </c>
       <c r="D164" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E164" t="str">
-        <v>10年以上</v>
+        <v>3-5年</v>
       </c>
       <c r="F164" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G164" t="str">
-        <v>昨天</v>
+        <v>2021-03-04</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>移动开发负责人</v>
+        <v>主策划</v>
       </c>
       <c r="B165" t="str">
-        <v>15-25k·15薪</v>
+        <v>15-25k·14薪</v>
       </c>
       <c r="C165" t="str">
-        <v>某知名互联网公司</v>
+        <v>某知名游戏公司</v>
       </c>
       <c r="D165" t="str">
         <v>郑州</v>
@@ -4169,21 +4169,21 @@
         <v>5-10年</v>
       </c>
       <c r="F165" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G165" t="str">
-        <v>前天</v>
+        <v>2021-03-04</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>APP运行维护</v>
+        <v>河南科技公司高级渗透工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>20-30k·12薪</v>
+        <v>80-100k·12薪</v>
       </c>
       <c r="C166" t="str">
-        <v>河南博众供应链管理有限公司</v>
+        <v>全国连锁猎头集团</v>
       </c>
       <c r="D166" t="str">
         <v>郑州</v>
@@ -4195,113 +4195,113 @@
         <v>本科及以上</v>
       </c>
       <c r="G166" t="str">
-        <v>前天</v>
+        <v>2021-03-04</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>ui设计师</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>4-6k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C167" t="str">
-        <v>河南博众供应链管理有限公司</v>
+        <v>北京微训科技有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E167" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F167" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G167" t="str">
-        <v>前天</v>
+        <v>2021-03-03</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>系统架构师</v>
+        <v>java开发工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>15-25k·12薪</v>
+        <v>7-10k·12薪</v>
       </c>
       <c r="C168" t="str">
-        <v>油田咨询</v>
+        <v>上海锐聘信息技术有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E168" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F168" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G168" t="str">
-        <v>前天</v>
+        <v>2021-03-03</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>系统测试工程师</v>
+        <v>架构师</v>
       </c>
       <c r="B169" t="str">
-        <v>5-12k·12薪</v>
+        <v>20-25k·12薪</v>
       </c>
       <c r="C169" t="str">
-        <v>油田咨询</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D169" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E169" t="str">
-        <v>经验不限</v>
+        <v>10年以上</v>
       </c>
       <c r="F169" t="str">
-        <v>硕士及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G169" t="str">
-        <v>前天</v>
+        <v>2021-03-03</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>技术经理</v>
+        <v>移动开发负责人</v>
       </c>
       <c r="B170" t="str">
-        <v>18-23k·14薪</v>
+        <v>15-25k·15薪</v>
       </c>
       <c r="C170" t="str">
-        <v>某大型游戏陪玩公司</v>
+        <v>某知名互联网公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E170" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F170" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G170" t="str">
-        <v>2021-03-01</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>软件测试</v>
+        <v>APP运行维护</v>
       </c>
       <c r="B171" t="str">
-        <v>7-12k·12薪</v>
+        <v>20-30k·12薪</v>
       </c>
       <c r="C171" t="str">
-        <v>郑州市金琥科技有限公司</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E171" t="str">
         <v>3-5年</v>
@@ -4310,90 +4310,90 @@
         <v>本科及以上</v>
       </c>
       <c r="G171" t="str">
-        <v>2021-03-01</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>google广告优化师</v>
+        <v>ui设计师</v>
       </c>
       <c r="B172" t="str">
-        <v>8-12k·13薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C172" t="str">
-        <v>河南国超电子商务有限公司</v>
+        <v>河南博众供应链管理有限公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E172" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F172" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G172" t="str">
-        <v>2021-03-01</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>高级软件工程师</v>
+        <v>系统架构师</v>
       </c>
       <c r="B173" t="str">
-        <v>6-11k·13薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C173" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E173" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F173" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G173" t="str">
-        <v>2021-03-01</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>软件工程师</v>
+        <v>系统测试工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>5-11k·13薪</v>
+        <v>5-12k·12薪</v>
       </c>
       <c r="C174" t="str">
-        <v>河南胜之源智能科技有限公司</v>
+        <v>油田咨询</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E174" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F174" t="str">
-        <v>大专及以上</v>
+        <v>硕士及以上</v>
       </c>
       <c r="G174" t="str">
-        <v>2021-03-01</v>
+        <v>2021-03-02</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>APP运营主管/经理</v>
+        <v>技术经理</v>
       </c>
       <c r="B175" t="str">
-        <v>10-18k·12薪</v>
+        <v>18-23k·14薪</v>
       </c>
       <c r="C175" t="str">
-        <v>郑州浩创房地产开发有限公司</v>
+        <v>某大型游戏陪玩公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E175" t="str">
         <v>3-5年</v>
@@ -4407,39 +4407,39 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>测试工程师</v>
+        <v>软件测试</v>
       </c>
       <c r="B176" t="str">
-        <v>6-12k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C176" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>郑州市金琥科技有限公司</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E176" t="str">
         <v>3-5年</v>
       </c>
       <c r="F176" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G176" t="str">
-        <v>2021-02-27</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>web前端开发工程师（期货）</v>
+        <v>高级软件工程师</v>
       </c>
       <c r="B177" t="str">
-        <v>5-10k·12薪</v>
+        <v>6-11k·13薪</v>
       </c>
       <c r="C177" t="str">
-        <v>中原期货</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D177" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E177" t="str">
         <v>3-5年</v>
@@ -4448,41 +4448,41 @@
         <v>本科及以上</v>
       </c>
       <c r="G177" t="str">
-        <v>2021-02-27</v>
+        <v>刚刚</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>产品经理</v>
+        <v>软件工程师</v>
       </c>
       <c r="B178" t="str">
-        <v>15-30k·12薪</v>
+        <v>5-11k·13薪</v>
       </c>
       <c r="C178" t="str">
-        <v>猎豹移动</v>
+        <v>河南胜之源智能科技有限公司</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E178" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F178" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G178" t="str">
-        <v>2021-02-26</v>
+        <v>刚刚</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>移动端开发工程师</v>
+        <v>APP运营主管/经理</v>
       </c>
       <c r="B179" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C179" t="str">
-        <v>中原银行</v>
+        <v>郑州浩创房地产开发有限公司</v>
       </c>
       <c r="D179" t="str">
         <v>郑州</v>
@@ -4491,182 +4491,182 @@
         <v>3-5年</v>
       </c>
       <c r="F179" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G179" t="str">
-        <v>2021-02-26</v>
+        <v>2021-03-01</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>APP前端开发工程师</v>
+        <v>web前端开发工程师（期货）</v>
       </c>
       <c r="B180" t="str">
-        <v>6-10k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C180" t="str">
-        <v>河南昭麒信息技术有限公司</v>
+        <v>中原期货</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E180" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F180" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G180" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-27</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>公众号运营</v>
+        <v>APP前端开发工程师</v>
       </c>
       <c r="B181" t="str">
-        <v>5-8k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C181" t="str">
-        <v>河南小微动力科技有限公司</v>
+        <v>河南昭麒信息技术有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E181" t="str">
         <v>1-3年</v>
       </c>
       <c r="F181" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G181" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>移动端产品副总监</v>
+        <v>产品经理</v>
       </c>
       <c r="B182" t="str">
-        <v>25-35k·12薪</v>
+        <v>15-30k·12薪</v>
       </c>
       <c r="C182" t="str">
-        <v>一站式游戏社交服务平台</v>
+        <v>猎豹移动</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E182" t="str">
         <v>3-5年</v>
       </c>
       <c r="F182" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G182" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>移动开发测试经理</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B183" t="str">
         <v>15-25k·12薪</v>
       </c>
       <c r="C183" t="str">
-        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
+        <v>中原银行</v>
       </c>
       <c r="D183" t="str">
         <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F183" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G183" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-26</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>移动开发技术经理</v>
+        <v>公众号运营</v>
       </c>
       <c r="B184" t="str">
-        <v>15-25k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C184" t="str">
-        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
+        <v>河南小微动力科技有限公司</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E184" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F184" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G184" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>App运营推广专员</v>
+        <v>移动端产品副总监</v>
       </c>
       <c r="B185" t="str">
-        <v>4-6k·12薪</v>
+        <v>25-35k·12薪</v>
       </c>
       <c r="C185" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E185" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F185" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G185" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-25</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>技术经理（移动端负责人）</v>
+        <v>移动开发测试经理</v>
       </c>
       <c r="B186" t="str">
-        <v>15-25k·14薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C186" t="str">
-        <v>一站式游戏社交服务平台</v>
+        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E186" t="str">
         <v>5-10年</v>
       </c>
       <c r="F186" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G186" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>移动端技术经理</v>
+        <v>移动开发技术经理</v>
       </c>
       <c r="B187" t="str">
-        <v>20-30k·14薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C187" t="str">
-        <v>某一线互联网公司</v>
+        <v>月GMV过亿的电竞游戏一站式综合服务平台</v>
       </c>
       <c r="D187" t="str">
         <v>郑州</v>
@@ -4675,10 +4675,10 @@
         <v>5-10年</v>
       </c>
       <c r="F187" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G187" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="188">
@@ -4706,91 +4706,91 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>移动端负责人</v>
+        <v>App运营推广专员</v>
       </c>
       <c r="B189" t="str">
-        <v>15-25k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C189" t="str">
-        <v>刀锋互娱</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D189" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E189" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F189" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G189" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-24</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>技术经理（移动端负责人）</v>
       </c>
       <c r="B190" t="str">
-        <v>10-12k·12薪</v>
+        <v>15-25k·14薪</v>
       </c>
       <c r="C190" t="str">
-        <v>恩普特</v>
+        <v>一站式游戏社交服务平台</v>
       </c>
       <c r="D190" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E190" t="str">
         <v>5-10年</v>
       </c>
       <c r="F190" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G190" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>前端开发工程师</v>
+        <v>移动端技术经理</v>
       </c>
       <c r="B191" t="str">
-        <v>8-12k·12薪</v>
+        <v>20-30k·14薪</v>
       </c>
       <c r="C191" t="str">
-        <v>郑州汉鑫电子科技有限公司</v>
+        <v>某一线互联网公司</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-城东路</v>
+        <v>郑州</v>
       </c>
       <c r="E191" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F191" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G191" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>ios</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B192" t="str">
-        <v>6-9k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C192" t="str">
-        <v>河南中康荣华网络科技有限公司</v>
+        <v>恩普特</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E192" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F192" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G192" t="str">
         <v>2021-02-22</v>
@@ -4798,16 +4798,16 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>高级软件工程师（.net工程师）</v>
+        <v>移动端负责人</v>
       </c>
       <c r="B193" t="str">
-        <v>8-15k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C193" t="str">
-        <v>正星科技股份有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E193" t="str">
         <v>5-10年</v>
@@ -4816,27 +4816,27 @@
         <v>本科及以上</v>
       </c>
       <c r="G193" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>高级产品经理</v>
+        <v>前端开发工程师</v>
       </c>
       <c r="B194" t="str">
-        <v>15-25k·12薪</v>
+        <v>8-12k·12薪</v>
       </c>
       <c r="C194" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州汉鑫电子科技有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州</v>
+        <v>郑州-城东路</v>
       </c>
       <c r="E194" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F194" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G194" t="str">
         <v>2021-02-22</v>
@@ -4844,22 +4844,22 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>移动端资深产品经理</v>
+        <v>ios</v>
       </c>
       <c r="B195" t="str">
-        <v>15-20k·12薪</v>
+        <v>6-9k·12薪</v>
       </c>
       <c r="C195" t="str">
-        <v>刀锋互娱</v>
+        <v>河南中康荣华网络科技有限公司</v>
       </c>
       <c r="D195" t="str">
         <v>郑州</v>
       </c>
       <c r="E195" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F195" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G195" t="str">
         <v>2021-02-22</v>
@@ -4867,22 +4867,22 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>产品经理</v>
+        <v>高级软件工程师（.net工程师）</v>
       </c>
       <c r="B196" t="str">
-        <v>7-15k·13薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C196" t="str">
-        <v>完美数联</v>
+        <v>正星科技股份有限公司</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E196" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F196" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G196" t="str">
         <v>2021-02-22</v>
@@ -4890,85 +4890,85 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>科技公司-移动端开发经理</v>
+        <v>高级产品经理</v>
       </c>
       <c r="B197" t="str">
-        <v>7-12k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C197" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D197" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E197" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F197" t="str">
         <v>本科及以上</v>
       </c>
       <c r="G197" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>APP推广</v>
+        <v>移动端资深产品经理</v>
       </c>
       <c r="B198" t="str">
-        <v>5-10k·12薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C198" t="str">
-        <v>UU跑腿</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D198" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州</v>
       </c>
       <c r="E198" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F198" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G198" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>产品经理-运力端方向</v>
+        <v>产品经理</v>
       </c>
       <c r="B199" t="str">
-        <v>10-15k·13薪</v>
+        <v>7-15k·13薪</v>
       </c>
       <c r="C199" t="str">
-        <v>天瑞集团</v>
+        <v>完美数联</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E199" t="str">
         <v>3-5年</v>
       </c>
       <c r="F199" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G199" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-22</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Java开发工程师</v>
+        <v>科技公司-移动端开发经理</v>
       </c>
       <c r="B200" t="str">
-        <v>8-15k·12薪</v>
+        <v>7-12k·12薪</v>
       </c>
       <c r="C200" t="str">
-        <v>河南卫华重型机械股份有限公司</v>
+        <v>东方今典集团有限公司</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E200" t="str">
         <v>3-5年</v>
@@ -4977,96 +4977,96 @@
         <v>本科及以上</v>
       </c>
       <c r="G200" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>高级嵌入式软件工程师</v>
+        <v>APP推广</v>
       </c>
       <c r="B201" t="str">
-        <v>13-25k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C201" t="str">
-        <v>郑州信盈达电子有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州-杜岭</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E201" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F201" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G201" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>高级产品经理-运力端方向</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B202" t="str">
-        <v>10-15k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C202" t="str">
-        <v>天瑞集团</v>
+        <v>河南卫华重型机械股份有限公司</v>
       </c>
       <c r="D202" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E202" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F202" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G202" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>产品经理</v>
+        <v>高级嵌入式软件工程师</v>
       </c>
       <c r="B203" t="str">
-        <v>8-13k·12薪</v>
+        <v>13-25k·13薪</v>
       </c>
       <c r="C203" t="str">
-        <v>UU跑腿</v>
+        <v>郑州信盈达电子有限公司</v>
       </c>
       <c r="D203" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-杜岭</v>
       </c>
       <c r="E203" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F203" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G203" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-19</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>高级测试工程师-郑州</v>
+        <v>高级产品经理-运力端方向</v>
       </c>
       <c r="B204" t="str">
-        <v>10-20k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C204" t="str">
-        <v>北京小鱼易连科技有限公司</v>
+        <v>天瑞集团</v>
       </c>
       <c r="D204" t="str">
-        <v>郑州-来广营</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E204" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F204" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G204" t="str">
         <v>2021-02-18</v>
@@ -5074,65 +5074,65 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>河南科技公司高级渗透工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B205" t="str">
-        <v>50-80k·16薪</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C205" t="str">
-        <v>全国连锁猎头公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D205" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E205" t="str">
         <v>1-3年</v>
       </c>
       <c r="F205" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G205" t="str">
-        <v>2021-02-16</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>移动前端开发工程师</v>
+        <v>高级测试工程师-郑州</v>
       </c>
       <c r="B206" t="str">
-        <v>9-12k·12薪</v>
+        <v>10-20k·12薪</v>
       </c>
       <c r="C206" t="str">
-        <v>河南诚禾智能科技有限公司</v>
+        <v>北京小鱼易连科技有限公司</v>
       </c>
       <c r="D206" t="str">
-        <v>郑州-宋寨</v>
+        <v>郑州-来广营</v>
       </c>
       <c r="E206" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F206" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G206" t="str">
-        <v>一个月前</v>
+        <v>2021-02-18</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>前端工程师</v>
+        <v>移动前端开发工程师</v>
       </c>
       <c r="B207" t="str">
-        <v>8-13k·13薪</v>
+        <v>9-12k·12薪</v>
       </c>
       <c r="C207" t="str">
-        <v>郑州祥和盛电子技术有限公司</v>
+        <v>河南诚禾智能科技有限公司</v>
       </c>
       <c r="D207" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-宋寨</v>
       </c>
       <c r="E207" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F207" t="str">
         <v>大专及以上</v>
@@ -5143,25 +5143,25 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>前端工程师</v>
       </c>
       <c r="B208" t="str">
-        <v>5-10k·12薪</v>
+        <v>8-13k·13薪</v>
       </c>
       <c r="C208" t="str">
-        <v>超图软件</v>
+        <v>郑州祥和盛电子技术有限公司</v>
       </c>
       <c r="D208" t="str">
-        <v>郑州-燕庄</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E208" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F208" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G208" t="str">
-        <v>2021-02-09</v>
+        <v>一个月前</v>
       </c>
     </row>
     <row r="209">
@@ -5258,22 +5258,22 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>移动端高级开发工程师</v>
+        <v>ASO优化师</v>
       </c>
       <c r="B213" t="str">
-        <v>8-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C213" t="str">
-        <v>河南省煤田地质局物探测量队</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D213" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-北林路</v>
       </c>
       <c r="E213" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F213" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G213" t="str">
         <v>一个月前</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>ASO优化师</v>
+        <v>app运营主管</v>
       </c>
       <c r="B214" t="str">
-        <v>15-25k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C214" t="str">
         <v>郑州爱梦教育科技有限公司</v>
@@ -5296,7 +5296,7 @@
         <v>3-5年</v>
       </c>
       <c r="F214" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G214" t="str">
         <v>一个月前</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>app运营主管</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B215" t="str">
-        <v>10-15k·12薪</v>
+        <v>10-17k·12薪</v>
       </c>
       <c r="C215" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南裕展精密科技有限公司</v>
       </c>
       <c r="D215" t="str">
-        <v>郑州-北林路</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E215" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F215" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G215" t="str">
         <v>一个月前</v>
@@ -5327,22 +5327,22 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>移动开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B216" t="str">
-        <v>10-17k·12薪</v>
+        <v>5-8k·12薪</v>
       </c>
       <c r="C216" t="str">
-        <v>河南裕展精密科技有限公司</v>
+        <v>郑州卓安</v>
       </c>
       <c r="D216" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E216" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F216" t="str">
-        <v>统招本科</v>
+        <v>大专及以上</v>
       </c>
       <c r="G216" t="str">
         <v>一个月前</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>软件工程师</v>
+        <v>java开发</v>
       </c>
       <c r="B217" t="str">
         <v>5-8k·12薪</v>
@@ -5373,25 +5373,25 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>java开发</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B218" t="str">
-        <v>5-8k·12薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C218" t="str">
-        <v>郑州卓安</v>
+        <v>超图软件</v>
       </c>
       <c r="D218" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-燕庄</v>
       </c>
       <c r="E218" t="str">
         <v>1-3年</v>
       </c>
       <c r="F218" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G218" t="str">
-        <v>一个月前</v>
+        <v>2021-02-09</v>
       </c>
     </row>
     <row r="219">
@@ -6316,22 +6316,22 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>实训讲师（物联网）</v>
       </c>
       <c r="B259" t="str">
-        <v>面议</v>
+        <v>8-13k·12薪</v>
       </c>
       <c r="C259" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>北京千锋互联科技</v>
       </c>
       <c r="D259" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-京广路</v>
       </c>
       <c r="E259" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F259" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G259" t="str">
         <v>一个月前</v>
@@ -6339,19 +6339,19 @@
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>实训讲师（物联网）</v>
+        <v>前端工程师</v>
       </c>
       <c r="B260" t="str">
-        <v>8-13k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C260" t="str">
-        <v>北京千锋互联科技</v>
+        <v>元丰科技</v>
       </c>
       <c r="D260" t="str">
-        <v>郑州-京广路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E260" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F260" t="str">
         <v>大专及以上</v>
@@ -6362,16 +6362,16 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>前端工程师</v>
+        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B261" t="str">
-        <v>6-8k·12薪</v>
+        <v>15-25k·13薪</v>
       </c>
       <c r="C261" t="str">
-        <v>元丰科技</v>
+        <v>朗新科技</v>
       </c>
       <c r="D261" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E261" t="str">
         <v>3-5年</v>
@@ -6385,10 +6385,10 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>高级前端开发工程师 （base地：无锡，提供住宿）</v>
+        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
       </c>
       <c r="B262" t="str">
-        <v>15-25k·13薪</v>
+        <v>11-20k·13薪</v>
       </c>
       <c r="C262" t="str">
         <v>朗新科技</v>
@@ -6408,22 +6408,22 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>高级测试开发工程师 （base地：无锡，提供住宿）</v>
+        <v>售前技术支持</v>
       </c>
       <c r="B263" t="str">
-        <v>11-20k·13薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C263" t="str">
-        <v>朗新科技</v>
+        <v>环信</v>
       </c>
       <c r="D263" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E263" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F263" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G263" t="str">
         <v>一个月前</v>
@@ -6431,22 +6431,22 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>售前技术支持</v>
+        <v>java开发工程师助理</v>
       </c>
       <c r="B264" t="str">
-        <v>8-10k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C264" t="str">
-        <v>环信</v>
+        <v>河南长城信息技术有限公司</v>
       </c>
       <c r="D264" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E264" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F264" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G264" t="str">
         <v>一个月前</v>
@@ -6454,22 +6454,22 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>java开发工程师助理</v>
+        <v>UI设计师</v>
       </c>
       <c r="B265" t="str">
-        <v>4-6k·12薪</v>
+        <v>4-6k·13薪</v>
       </c>
       <c r="C265" t="str">
-        <v>河南长城信息技术有限公司</v>
+        <v>驻马店市揽胜网络科技有限公司</v>
       </c>
       <c r="D265" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E265" t="str">
         <v>经验不限</v>
       </c>
       <c r="F265" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G265" t="str">
         <v>一个月前</v>
@@ -6477,22 +6477,22 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>UI设计师</v>
+        <v>PC客户端产品经理</v>
       </c>
       <c r="B266" t="str">
-        <v>4-6k·13薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C266" t="str">
-        <v>驻马店市揽胜网络科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D266" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E266" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F266" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G266" t="str">
         <v>一个月前</v>
@@ -6500,22 +6500,22 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>PC客户端产品经理</v>
+        <v>IOS</v>
       </c>
       <c r="B267" t="str">
-        <v>6-10k·12薪</v>
+        <v>15-25k·12薪</v>
       </c>
       <c r="C267" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>贵州宋代官窖酒业销售有限公司</v>
       </c>
       <c r="D267" t="str">
         <v>郑州</v>
       </c>
       <c r="E267" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F267" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G267" t="str">
         <v>一个月前</v>
@@ -6523,10 +6523,10 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>IOS</v>
+        <v>WEB前端开发工程师</v>
       </c>
       <c r="B268" t="str">
-        <v>15-25k·12薪</v>
+        <v>18-25k·12薪</v>
       </c>
       <c r="C268" t="str">
         <v>贵州宋代官窖酒业销售有限公司</v>
@@ -6546,19 +6546,19 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>WEB前端开发工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B269" t="str">
-        <v>18-25k·12薪</v>
+        <v>7-9k·12薪</v>
       </c>
       <c r="C269" t="str">
-        <v>贵州宋代官窖酒业销售有限公司</v>
+        <v>国际交友</v>
       </c>
       <c r="D269" t="str">
         <v>郑州</v>
       </c>
       <c r="E269" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F269" t="str">
         <v>大专及以上</v>
@@ -6578,7 +6578,7 @@
         <v>国际交友</v>
       </c>
       <c r="D270" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E270" t="str">
         <v>3-5年</v>
@@ -6592,16 +6592,16 @@
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>高级软件测试工程师</v>
+        <v>JAVA开发工程师</v>
       </c>
       <c r="B271" t="str">
-        <v>7-9k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C271" t="str">
-        <v>国际交友</v>
+        <v>地理信息系统</v>
       </c>
       <c r="D271" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E271" t="str">
         <v>3-5年</v>
@@ -6615,22 +6615,22 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>JAVA开发工程师</v>
+        <v>摄像头调试工程师</v>
       </c>
       <c r="B272" t="str">
-        <v>6-8k·12薪</v>
+        <v>4-9k·12薪</v>
       </c>
       <c r="C272" t="str">
-        <v>地理信息系统</v>
+        <v>河南释码云识别技术研究院有限公司</v>
       </c>
       <c r="D272" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E272" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F272" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G272" t="str">
         <v>一个月前</v>
@@ -6638,10 +6638,10 @@
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>摄像头调试工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B273" t="str">
-        <v>4-9k·12薪</v>
+        <v>6-12k·12薪</v>
       </c>
       <c r="C273" t="str">
         <v>河南释码云识别技术研究院有限公司</v>
@@ -6650,10 +6650,10 @@
         <v>郑州-郑东新区</v>
       </c>
       <c r="E273" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F273" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G273" t="str">
         <v>一个月前</v>
@@ -6661,22 +6661,22 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>嵌入式软件工程师</v>
+        <v>高薪聘请UI设计师</v>
       </c>
       <c r="B274" t="str">
-        <v>6-12k·12薪</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C274" t="str">
-        <v>河南释码云识别技术研究院有限公司</v>
+        <v>郑州主事丫环信息科技有限公司</v>
       </c>
       <c r="D274" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-新郑</v>
       </c>
       <c r="E274" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F274" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G274" t="str">
         <v>一个月前</v>
@@ -6684,22 +6684,22 @@
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>高薪聘请UI设计师</v>
+        <v>cocos开发工程师</v>
       </c>
       <c r="B275" t="str">
-        <v>6-10k·12薪</v>
+        <v>9-16k·12薪</v>
       </c>
       <c r="C275" t="str">
-        <v>郑州主事丫环信息科技有限公司</v>
+        <v>河南阳夏网络科技有限公司</v>
       </c>
       <c r="D275" t="str">
-        <v>郑州-新郑</v>
+        <v>郑州</v>
       </c>
       <c r="E275" t="str">
         <v>1-3年</v>
       </c>
       <c r="F275" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G275" t="str">
         <v>一个月前</v>
@@ -6707,22 +6707,22 @@
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>cocos开发工程师</v>
+        <v>学术经理</v>
       </c>
       <c r="B276" t="str">
-        <v>9-16k·12薪</v>
+        <v>8-15k·12薪</v>
       </c>
       <c r="C276" t="str">
-        <v>河南阳夏网络科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D276" t="str">
         <v>郑州</v>
       </c>
       <c r="E276" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F276" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G276" t="str">
         <v>一个月前</v>
@@ -6730,22 +6730,22 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>学术经理</v>
+        <v>IT项目经理</v>
       </c>
       <c r="B277" t="str">
-        <v>8-15k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C277" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南八旗信息科技有限公司</v>
       </c>
       <c r="D277" t="str">
         <v>郑州</v>
       </c>
       <c r="E277" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F277" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G277" t="str">
         <v>一个月前</v>
@@ -6753,22 +6753,22 @@
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>IT项目经理</v>
+        <v>前端高级讲师</v>
       </c>
       <c r="B278" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-18k·12薪</v>
       </c>
       <c r="C278" t="str">
-        <v>河南八旗信息科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D278" t="str">
         <v>郑州</v>
       </c>
       <c r="E278" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F278" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G278" t="str">
         <v>一个月前</v>
@@ -6776,22 +6776,22 @@
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>前端高级讲师</v>
+        <v>.NET开发工程师</v>
       </c>
       <c r="B279" t="str">
-        <v>10-18k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C279" t="str">
-        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
+        <v>河南银光信息技术有限公司</v>
       </c>
       <c r="D279" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E279" t="str">
         <v>1-3年</v>
       </c>
       <c r="F279" t="str">
-        <v>本科及以上</v>
+        <v>中专/中技及以上</v>
       </c>
       <c r="G279" t="str">
         <v>一个月前</v>
@@ -6799,22 +6799,22 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>.NET开发工程师</v>
+        <v>网页UI设计师</v>
       </c>
       <c r="B280" t="str">
-        <v>4-6k·12薪</v>
+        <v>4-8k·12薪</v>
       </c>
       <c r="C280" t="str">
-        <v>河南银光信息技术有限公司</v>
+        <v>羲和网络</v>
       </c>
       <c r="D280" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E280" t="str">
         <v>1-3年</v>
       </c>
       <c r="F280" t="str">
-        <v>中专/中技及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G280" t="str">
         <v>一个月前</v>
@@ -6822,19 +6822,19 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>网页UI设计师</v>
+        <v>Web前端工程师</v>
       </c>
       <c r="B281" t="str">
-        <v>4-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C281" t="str">
-        <v>羲和网络</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D281" t="str">
         <v>郑州</v>
       </c>
       <c r="E281" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F281" t="str">
         <v>大专及以上</v>
@@ -6845,22 +6845,22 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>Web前端工程师</v>
+        <v>检查员</v>
       </c>
       <c r="B282" t="str">
-        <v>10-15k·12薪</v>
+        <v>3-5k·12薪</v>
       </c>
       <c r="C282" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>北京民生智库科技信息咨询有限公司</v>
       </c>
       <c r="D282" t="str">
-        <v>郑州</v>
+        <v>郑州-建设路</v>
       </c>
       <c r="E282" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F282" t="str">
-        <v>大专及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G282" t="str">
         <v>一个月前</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>检查员</v>
+        <v>督导</v>
       </c>
       <c r="B283" t="str">
         <v>3-5k·12薪</v>
@@ -6891,22 +6891,22 @@
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>督导</v>
+        <v>游戏项目主程</v>
       </c>
       <c r="B284" t="str">
-        <v>3-5k·12薪</v>
+        <v>10-12k·12薪</v>
       </c>
       <c r="C284" t="str">
-        <v>北京民生智库科技信息咨询有限公司</v>
+        <v>郑州秒秒信息科技有限公司</v>
       </c>
       <c r="D284" t="str">
-        <v>郑州-建设路</v>
+        <v>郑州</v>
       </c>
       <c r="E284" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F284" t="str">
-        <v>学历不限</v>
+        <v>大专及以上</v>
       </c>
       <c r="G284" t="str">
         <v>一个月前</v>
@@ -6914,22 +6914,22 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>游戏项目主程</v>
+        <v>即时通讯研发工程师</v>
       </c>
       <c r="B285" t="str">
-        <v>10-12k·12薪</v>
+        <v>面议</v>
       </c>
       <c r="C285" t="str">
-        <v>郑州秒秒信息科技有限公司</v>
+        <v>中移在线服务有限公司</v>
       </c>
       <c r="D285" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E285" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F285" t="str">
-        <v>大专及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G285" t="str">
         <v>一个月前</v>
@@ -6937,22 +6937,22 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>即时通讯研发工程师</v>
+        <v>产品经理（英语项目）</v>
       </c>
       <c r="B286" t="str">
-        <v>面议</v>
+        <v>6-10k·12薪</v>
       </c>
       <c r="C286" t="str">
-        <v>中移在线服务有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D286" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E286" t="str">
         <v>3-5年</v>
       </c>
       <c r="F286" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G286" t="str">
         <v>一个月前</v>
@@ -6960,10 +6960,10 @@
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>产品经理（英语项目）</v>
+        <v>产品经理（咿啦看书项目）</v>
       </c>
       <c r="B287" t="str">
-        <v>6-10k·12薪</v>
+        <v>6-8k·12薪</v>
       </c>
       <c r="C287" t="str">
         <v>郑州点读电子科技有限公司</v>
@@ -6983,19 +6983,19 @@
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>产品经理（咿啦看书项目）</v>
+        <v>高级APP工程师</v>
       </c>
       <c r="B288" t="str">
-        <v>6-8k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C288" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>鲜易控股</v>
       </c>
       <c r="D288" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E288" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F288" t="str">
         <v>本科及以上</v>
@@ -7006,22 +7006,22 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>高级APP工程师</v>
+        <v>UI设计师</v>
       </c>
       <c r="B289" t="str">
-        <v>10-15k·12薪</v>
+        <v>4-6k·12薪</v>
       </c>
       <c r="C289" t="str">
-        <v>鲜易控股</v>
+        <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D289" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E289" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F289" t="str">
-        <v>本科及以上</v>
+        <v>大专及以上</v>
       </c>
       <c r="G289" t="str">
         <v>一个月前</v>
@@ -7038,7 +7038,7 @@
         <v>河南汉达网络科技有限公司</v>
       </c>
       <c r="D290" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E290" t="str">
         <v>1-3年</v>
@@ -7052,19 +7052,19 @@
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>UI设计师</v>
+        <v>中级软件测试工程师</v>
       </c>
       <c r="B291" t="str">
-        <v>4-6k·12薪</v>
+        <v>10-14k·12薪</v>
       </c>
       <c r="C291" t="str">
-        <v>河南汉达网络科技有限公司</v>
+        <v>上海陆鹰实业有限公司河南分公司</v>
       </c>
       <c r="D291" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E291" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F291" t="str">
         <v>大专及以上</v>
@@ -7075,16 +7075,16 @@
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>中级软件测试工程师</v>
+        <v>UI设计工程师</v>
       </c>
       <c r="B292" t="str">
-        <v>10-14k·12薪</v>
+        <v>9-10k·12薪</v>
       </c>
       <c r="C292" t="str">
-        <v>上海陆鹰实业有限公司河南分公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D292" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E292" t="str">
         <v>3-5年</v>
@@ -7098,22 +7098,22 @@
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>UI设计工程师</v>
+        <v>产品经理</v>
       </c>
       <c r="B293" t="str">
-        <v>9-10k·12薪</v>
+        <v>8-10k·12薪</v>
       </c>
       <c r="C293" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D293" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E293" t="str">
         <v>3-5年</v>
       </c>
       <c r="F293" t="str">
-        <v>大专及以上</v>
+        <v>本科及以上</v>
       </c>
       <c r="G293" t="str">
         <v>一个月前</v>
@@ -7121,22 +7121,22 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>产品经理</v>
+        <v>Mobile App</v>
       </c>
       <c r="B294" t="str">
-        <v>8-10k·12薪</v>
+        <v>10-15k·12薪</v>
       </c>
       <c r="C294" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>上海云邻通信技术有限公司</v>
       </c>
       <c r="D294" t="str">
         <v>郑州</v>
       </c>
       <c r="E294" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F294" t="str">
-        <v>本科及以上</v>
+        <v>学历不限</v>
       </c>
       <c r="G294" t="str">
         <v>一个月前</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>Mobile App</v>
+        <v>UI/UX developer</v>
       </c>
       <c r="B295" t="str">
         <v>10-15k·12薪</v>
@@ -7156,10 +7156,10 @@
         <v>郑州</v>
       </c>
       <c r="E295" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F295" t="str">
-        <v>学历不限</v>
+        <v>本科及以上</v>
       </c>
       <c r="G295" t="str">
         <v>一个月前</v>
@@ -7167,13 +7167,13 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>UI/UX developer</v>
+        <v>java软件工程师</v>
       </c>
       <c r="B296" t="str">
-        <v>10-15k·12薪</v>
+        <v>7-13k·13薪</v>
       </c>
       <c r="C296" t="str">
-        <v>上海云邻通信技术有限公司</v>
+        <v>思维自动化</v>
       </c>
       <c r="D296" t="str">
         <v>郑州</v>
@@ -7182,7 +7182,7 @@
         <v>3-5年</v>
       </c>
       <c r="F296" t="str">
-        <v>本科及以上</v>
+        <v>统招本科</v>
       </c>
       <c r="G296" t="str">
         <v>一个月前</v>
@@ -7190,53 +7190,30 @@
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>java软件工程师</v>
+        <v>研发工程师</v>
       </c>
       <c r="B297" t="str">
-        <v>7-13k·13薪</v>
+        <v>5-10k·12薪</v>
       </c>
       <c r="C297" t="str">
-        <v>思维自动化</v>
+        <v>森源集团</v>
       </c>
       <c r="D297" t="str">
         <v>郑州</v>
       </c>
       <c r="E297" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F297" t="str">
-        <v>统招本科</v>
+        <v>本科及以上</v>
       </c>
       <c r="G297" t="str">
-        <v>一个月前</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="str">
-        <v>研发工程师</v>
-      </c>
-      <c r="B298" t="str">
-        <v>5-10k·12薪</v>
-      </c>
-      <c r="C298" t="str">
-        <v>森源集团</v>
-      </c>
-      <c r="D298" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E298" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F298" t="str">
-        <v>本科及以上</v>
-      </c>
-      <c r="G298" t="str">
         <v>一个月前</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G298"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G297"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
+++ b/app/src/main/assets/【郑州招聘信息_郑州招聘_郑州招聘网】-郑州猎聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,22 +408,22 @@
         <v>高级android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>6-12k·13薪</v>
+        <v>15-20k·12薪</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E2" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F2" t="str">
         <v>大专及以上</v>
       </c>
       <c r="G2" t="str">
-        <v>28分钟前</v>
+        <v>5小时前</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-紫荆山</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E3" t="str">
         <v>经验不限</v>
@@ -446,93 +446,93 @@
         <v>大专及以上</v>
       </c>
       <c r="G3" t="str">
-        <v>28分钟前</v>
+        <v>1小时前</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8-10k·13薪</v>
+        <v>6-12k·13薪</v>
       </c>
       <c r="C4" t="str">
         <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-紫荆山</v>
       </c>
       <c r="E4" t="str">
-        